--- a/BackTest/2020-01-21 BackTest MIX.xlsx
+++ b/BackTest/2020-01-21 BackTest MIX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M209"/>
+  <dimension ref="A1:M210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,28 +433,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.08</v>
+        <v>3.099</v>
       </c>
       <c r="C2" t="n">
-        <v>3.075</v>
+        <v>3.099</v>
       </c>
       <c r="D2" t="n">
-        <v>3.08</v>
+        <v>3.099</v>
       </c>
       <c r="E2" t="n">
-        <v>3.075</v>
+        <v>3.099</v>
       </c>
       <c r="F2" t="n">
-        <v>86290</v>
+        <v>2000</v>
       </c>
       <c r="G2" t="n">
-        <v>3.051666666666664</v>
+        <v>3.051283333333331</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.09</v>
+        <v>3.08</v>
       </c>
       <c r="C3" t="n">
-        <v>3.09</v>
+        <v>3.075</v>
       </c>
       <c r="D3" t="n">
-        <v>3.09</v>
+        <v>3.08</v>
       </c>
       <c r="E3" t="n">
-        <v>3.09</v>
+        <v>3.075</v>
       </c>
       <c r="F3" t="n">
-        <v>500</v>
+        <v>86290</v>
       </c>
       <c r="G3" t="n">
-        <v>3.052216666666665</v>
+        <v>3.051666666666664</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.08</v>
+        <v>3.09</v>
       </c>
       <c r="C4" t="n">
-        <v>3.079</v>
+        <v>3.09</v>
       </c>
       <c r="D4" t="n">
-        <v>3.08</v>
+        <v>3.09</v>
       </c>
       <c r="E4" t="n">
-        <v>3.04</v>
+        <v>3.09</v>
       </c>
       <c r="F4" t="n">
-        <v>123822.0622</v>
+        <v>500</v>
       </c>
       <c r="G4" t="n">
-        <v>3.052499999999998</v>
+        <v>3.052216666666665</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.068</v>
+        <v>3.08</v>
       </c>
       <c r="C5" t="n">
-        <v>3.068</v>
+        <v>3.079</v>
       </c>
       <c r="D5" t="n">
-        <v>3.068</v>
+        <v>3.08</v>
       </c>
       <c r="E5" t="n">
-        <v>3.068</v>
+        <v>3.04</v>
       </c>
       <c r="F5" t="n">
-        <v>18983.063</v>
+        <v>123822.0622</v>
       </c>
       <c r="G5" t="n">
-        <v>3.052766666666665</v>
+        <v>3.052499999999998</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.069</v>
+        <v>3.068</v>
       </c>
       <c r="C6" t="n">
-        <v>3.069</v>
+        <v>3.068</v>
       </c>
       <c r="D6" t="n">
-        <v>3.069</v>
+        <v>3.068</v>
       </c>
       <c r="E6" t="n">
-        <v>3.069</v>
+        <v>3.068</v>
       </c>
       <c r="F6" t="n">
-        <v>21686.937</v>
+        <v>18983.063</v>
       </c>
       <c r="G6" t="n">
-        <v>3.053049999999998</v>
+        <v>3.052766666666665</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.051</v>
+        <v>3.069</v>
       </c>
       <c r="C7" t="n">
-        <v>3.051</v>
+        <v>3.069</v>
       </c>
       <c r="D7" t="n">
-        <v>3.051</v>
+        <v>3.069</v>
       </c>
       <c r="E7" t="n">
-        <v>3.051</v>
+        <v>3.069</v>
       </c>
       <c r="F7" t="n">
-        <v>40530</v>
+        <v>21686.937</v>
       </c>
       <c r="G7" t="n">
-        <v>3.053166666666664</v>
+        <v>3.053049999999998</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>3.051</v>
       </c>
       <c r="F8" t="n">
-        <v>14276.7838</v>
+        <v>40530</v>
       </c>
       <c r="G8" t="n">
-        <v>3.053299999999997</v>
+        <v>3.053166666666664</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>3.051</v>
       </c>
       <c r="F9" t="n">
-        <v>1929.1222</v>
+        <v>14276.7838</v>
       </c>
       <c r="G9" t="n">
-        <v>3.053449999999997</v>
+        <v>3.053299999999997</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>3.051</v>
       </c>
       <c r="F10" t="n">
-        <v>39175.9656</v>
+        <v>1929.1222</v>
       </c>
       <c r="G10" t="n">
-        <v>3.05388333333333</v>
+        <v>3.053449999999997</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>3.051</v>
       </c>
       <c r="F11" t="n">
-        <v>26590.9006</v>
+        <v>39175.9656</v>
       </c>
       <c r="G11" t="n">
-        <v>3.054449999999997</v>
+        <v>3.05388333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>3.051</v>
       </c>
       <c r="C12" t="n">
-        <v>3.06</v>
+        <v>3.051</v>
       </c>
       <c r="D12" t="n">
-        <v>3.06</v>
+        <v>3.051</v>
       </c>
       <c r="E12" t="n">
         <v>3.051</v>
       </c>
       <c r="F12" t="n">
-        <v>42345.3063</v>
+        <v>26590.9006</v>
       </c>
       <c r="G12" t="n">
-        <v>3.054716666666663</v>
+        <v>3.054449999999997</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>3.051</v>
       </c>
       <c r="C13" t="n">
-        <v>3.051</v>
+        <v>3.06</v>
       </c>
       <c r="D13" t="n">
-        <v>3.051</v>
+        <v>3.06</v>
       </c>
       <c r="E13" t="n">
         <v>3.051</v>
       </c>
       <c r="F13" t="n">
-        <v>30828.8159</v>
+        <v>42345.3063</v>
       </c>
       <c r="G13" t="n">
-        <v>3.054833333333329</v>
+        <v>3.054716666666663</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>3.051</v>
       </c>
       <c r="F14" t="n">
-        <v>18344.834</v>
+        <v>30828.8159</v>
       </c>
       <c r="G14" t="n">
-        <v>3.054816666666663</v>
+        <v>3.054833333333329</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>3.051</v>
       </c>
       <c r="F15" t="n">
-        <v>5205.4068</v>
+        <v>18344.834</v>
       </c>
       <c r="G15" t="n">
-        <v>3.054583333333329</v>
+        <v>3.054816666666663</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.08</v>
+        <v>3.051</v>
       </c>
       <c r="C16" t="n">
-        <v>3.08</v>
+        <v>3.051</v>
       </c>
       <c r="D16" t="n">
-        <v>3.08</v>
+        <v>3.051</v>
       </c>
       <c r="E16" t="n">
-        <v>3.08</v>
+        <v>3.051</v>
       </c>
       <c r="F16" t="n">
-        <v>163</v>
+        <v>5205.4068</v>
       </c>
       <c r="G16" t="n">
-        <v>3.054833333333329</v>
+        <v>3.054583333333329</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.058</v>
+        <v>3.08</v>
       </c>
       <c r="C17" t="n">
-        <v>3.058</v>
+        <v>3.08</v>
       </c>
       <c r="D17" t="n">
-        <v>3.058</v>
+        <v>3.08</v>
       </c>
       <c r="E17" t="n">
-        <v>3.058</v>
+        <v>3.08</v>
       </c>
       <c r="F17" t="n">
-        <v>5343.2514</v>
+        <v>163</v>
       </c>
       <c r="G17" t="n">
-        <v>3.055049999999996</v>
+        <v>3.054833333333329</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>3.058</v>
       </c>
       <c r="F18" t="n">
-        <v>94657.50900000001</v>
+        <v>5343.2514</v>
       </c>
       <c r="G18" t="n">
-        <v>3.05493333333333</v>
+        <v>3.055049999999996</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.057</v>
+        <v>3.058</v>
       </c>
       <c r="C19" t="n">
-        <v>3.057</v>
+        <v>3.058</v>
       </c>
       <c r="D19" t="n">
-        <v>3.057</v>
+        <v>3.058</v>
       </c>
       <c r="E19" t="n">
-        <v>3.057</v>
+        <v>3.058</v>
       </c>
       <c r="F19" t="n">
-        <v>48141.4911</v>
+        <v>94657.50900000001</v>
       </c>
       <c r="G19" t="n">
-        <v>3.054799999999996</v>
+        <v>3.05493333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.08</v>
+        <v>3.057</v>
       </c>
       <c r="C20" t="n">
-        <v>3.09</v>
+        <v>3.057</v>
       </c>
       <c r="D20" t="n">
-        <v>3.09</v>
+        <v>3.057</v>
       </c>
       <c r="E20" t="n">
-        <v>3.08</v>
+        <v>3.057</v>
       </c>
       <c r="F20" t="n">
-        <v>48543.6894</v>
+        <v>48141.4911</v>
       </c>
       <c r="G20" t="n">
-        <v>3.055149999999996</v>
+        <v>3.054799999999996</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="C21" t="n">
         <v>3.09</v>
-      </c>
-      <c r="C21" t="n">
-        <v>3.057</v>
       </c>
       <c r="D21" t="n">
         <v>3.09</v>
       </c>
       <c r="E21" t="n">
-        <v>3.057</v>
+        <v>3.08</v>
       </c>
       <c r="F21" t="n">
-        <v>574139.2609</v>
+        <v>48543.6894</v>
       </c>
       <c r="G21" t="n">
-        <v>3.05493333333333</v>
+        <v>3.055149999999996</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>3.09</v>
       </c>
       <c r="C22" t="n">
-        <v>3.09</v>
+        <v>3.057</v>
       </c>
       <c r="D22" t="n">
         <v>3.09</v>
       </c>
       <c r="E22" t="n">
-        <v>3.09</v>
+        <v>3.057</v>
       </c>
       <c r="F22" t="n">
-        <v>200</v>
+        <v>574139.2609</v>
       </c>
       <c r="G22" t="n">
-        <v>3.055199999999996</v>
+        <v>3.05493333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.103</v>
+        <v>3.09</v>
       </c>
       <c r="C23" t="n">
-        <v>3.103</v>
+        <v>3.09</v>
       </c>
       <c r="D23" t="n">
-        <v>3.103</v>
+        <v>3.09</v>
       </c>
       <c r="E23" t="n">
-        <v>3.103</v>
+        <v>3.09</v>
       </c>
       <c r="F23" t="n">
         <v>200</v>
       </c>
       <c r="G23" t="n">
-        <v>3.055649999999996</v>
+        <v>3.055199999999996</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.061</v>
+        <v>3.103</v>
       </c>
       <c r="C24" t="n">
-        <v>3.061</v>
+        <v>3.103</v>
       </c>
       <c r="D24" t="n">
-        <v>3.061</v>
+        <v>3.103</v>
       </c>
       <c r="E24" t="n">
-        <v>3.061</v>
+        <v>3.103</v>
       </c>
       <c r="F24" t="n">
-        <v>65000</v>
+        <v>200</v>
       </c>
       <c r="G24" t="n">
-        <v>3.055399999999997</v>
+        <v>3.055649999999996</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.079</v>
+        <v>3.061</v>
       </c>
       <c r="C25" t="n">
-        <v>3.079</v>
+        <v>3.061</v>
       </c>
       <c r="D25" t="n">
-        <v>3.079</v>
+        <v>3.061</v>
       </c>
       <c r="E25" t="n">
-        <v>3.079</v>
+        <v>3.061</v>
       </c>
       <c r="F25" t="n">
-        <v>40433.9621</v>
+        <v>65000</v>
       </c>
       <c r="G25" t="n">
-        <v>3.05543333333333</v>
+        <v>3.055399999999997</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.061</v>
+        <v>3.079</v>
       </c>
       <c r="C26" t="n">
-        <v>3.061</v>
+        <v>3.079</v>
       </c>
       <c r="D26" t="n">
-        <v>3.061</v>
+        <v>3.079</v>
       </c>
       <c r="E26" t="n">
-        <v>3.061</v>
+        <v>3.079</v>
       </c>
       <c r="F26" t="n">
-        <v>33304.6532</v>
+        <v>40433.9621</v>
       </c>
       <c r="G26" t="n">
-        <v>3.055516666666663</v>
+        <v>3.05543333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.08</v>
+        <v>3.061</v>
       </c>
       <c r="C27" t="n">
-        <v>3.051</v>
+        <v>3.061</v>
       </c>
       <c r="D27" t="n">
-        <v>3.08</v>
+        <v>3.061</v>
       </c>
       <c r="E27" t="n">
-        <v>3.051</v>
+        <v>3.061</v>
       </c>
       <c r="F27" t="n">
-        <v>339942.3026</v>
+        <v>33304.6532</v>
       </c>
       <c r="G27" t="n">
-        <v>3.055449999999996</v>
+        <v>3.055516666666663</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.076</v>
+        <v>3.08</v>
       </c>
       <c r="C28" t="n">
-        <v>3.076</v>
+        <v>3.051</v>
       </c>
       <c r="D28" t="n">
-        <v>3.076</v>
+        <v>3.08</v>
       </c>
       <c r="E28" t="n">
-        <v>3.076</v>
+        <v>3.051</v>
       </c>
       <c r="F28" t="n">
-        <v>500</v>
+        <v>339942.3026</v>
       </c>
       <c r="G28" t="n">
-        <v>3.055916666666663</v>
+        <v>3.055449999999996</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>3.076</v>
       </c>
       <c r="F29" t="n">
-        <v>2328.2851</v>
+        <v>500</v>
       </c>
       <c r="G29" t="n">
-        <v>3.05643333333333</v>
+        <v>3.055916666666663</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.06</v>
+        <v>3.076</v>
       </c>
       <c r="C30" t="n">
-        <v>3.051</v>
+        <v>3.076</v>
       </c>
       <c r="D30" t="n">
-        <v>3.06</v>
+        <v>3.076</v>
       </c>
       <c r="E30" t="n">
-        <v>3.051</v>
+        <v>3.076</v>
       </c>
       <c r="F30" t="n">
-        <v>113247.4342</v>
+        <v>2328.2851</v>
       </c>
       <c r="G30" t="n">
-        <v>3.056499999999996</v>
+        <v>3.05643333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.052</v>
+        <v>3.06</v>
       </c>
       <c r="C31" t="n">
-        <v>3.05</v>
+        <v>3.051</v>
       </c>
       <c r="D31" t="n">
-        <v>3.052</v>
+        <v>3.06</v>
       </c>
       <c r="E31" t="n">
-        <v>3.05</v>
+        <v>3.051</v>
       </c>
       <c r="F31" t="n">
-        <v>816599.1243</v>
+        <v>113247.4342</v>
       </c>
       <c r="G31" t="n">
-        <v>3.056816666666663</v>
+        <v>3.056499999999996</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.05</v>
+        <v>3.052</v>
       </c>
       <c r="C32" t="n">
         <v>3.05</v>
       </c>
       <c r="D32" t="n">
-        <v>3.05</v>
+        <v>3.052</v>
       </c>
       <c r="E32" t="n">
         <v>3.05</v>
       </c>
       <c r="F32" t="n">
-        <v>74439.6327</v>
+        <v>816599.1243</v>
       </c>
       <c r="G32" t="n">
-        <v>3.05713333333333</v>
+        <v>3.056816666666663</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>3.05</v>
       </c>
       <c r="C33" t="n">
-        <v>3.048</v>
+        <v>3.05</v>
       </c>
       <c r="D33" t="n">
         <v>3.05</v>
       </c>
       <c r="E33" t="n">
-        <v>3.048</v>
+        <v>3.05</v>
       </c>
       <c r="F33" t="n">
-        <v>900000.856</v>
+        <v>74439.6327</v>
       </c>
       <c r="G33" t="n">
-        <v>3.057149999999996</v>
+        <v>3.05713333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.076</v>
+        <v>3.05</v>
       </c>
       <c r="C34" t="n">
-        <v>3.076</v>
+        <v>3.048</v>
       </c>
       <c r="D34" t="n">
-        <v>3.076</v>
+        <v>3.05</v>
       </c>
       <c r="E34" t="n">
-        <v>3.076</v>
+        <v>3.048</v>
       </c>
       <c r="F34" t="n">
-        <v>577.4413</v>
+        <v>900000.856</v>
       </c>
       <c r="G34" t="n">
-        <v>3.058316666666663</v>
+        <v>3.057149999999996</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.063</v>
+        <v>3.076</v>
       </c>
       <c r="C35" t="n">
-        <v>3.063</v>
+        <v>3.076</v>
       </c>
       <c r="D35" t="n">
-        <v>3.063</v>
+        <v>3.076</v>
       </c>
       <c r="E35" t="n">
-        <v>3.063</v>
+        <v>3.076</v>
       </c>
       <c r="F35" t="n">
-        <v>25001.856</v>
+        <v>577.4413</v>
       </c>
       <c r="G35" t="n">
-        <v>3.059266666666663</v>
+        <v>3.058316666666663</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>3.063</v>
       </c>
       <c r="F36" t="n">
-        <v>2096.9101</v>
+        <v>25001.856</v>
       </c>
       <c r="G36" t="n">
-        <v>3.060216666666662</v>
+        <v>3.059266666666663</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>3.063</v>
       </c>
       <c r="F37" t="n">
-        <v>3327.3362</v>
+        <v>2096.9101</v>
       </c>
       <c r="G37" t="n">
-        <v>3.060599999999996</v>
+        <v>3.060216666666662</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.058</v>
+        <v>3.063</v>
       </c>
       <c r="C38" t="n">
-        <v>3.057</v>
+        <v>3.063</v>
       </c>
       <c r="D38" t="n">
-        <v>3.058</v>
+        <v>3.063</v>
       </c>
       <c r="E38" t="n">
-        <v>3.057</v>
+        <v>3.063</v>
       </c>
       <c r="F38" t="n">
-        <v>98000</v>
+        <v>3327.3362</v>
       </c>
       <c r="G38" t="n">
-        <v>3.061016666666662</v>
+        <v>3.060599999999996</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.057</v>
+        <v>3.058</v>
       </c>
       <c r="C39" t="n">
         <v>3.057</v>
       </c>
       <c r="D39" t="n">
-        <v>3.057</v>
+        <v>3.058</v>
       </c>
       <c r="E39" t="n">
         <v>3.057</v>
       </c>
       <c r="F39" t="n">
-        <v>163908.6624</v>
+        <v>98000</v>
       </c>
       <c r="G39" t="n">
-        <v>3.061433333333328</v>
+        <v>3.061016666666662</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.053</v>
+        <v>3.057</v>
       </c>
       <c r="C40" t="n">
-        <v>3.053</v>
+        <v>3.057</v>
       </c>
       <c r="D40" t="n">
-        <v>3.053</v>
+        <v>3.057</v>
       </c>
       <c r="E40" t="n">
-        <v>3.053</v>
+        <v>3.057</v>
       </c>
       <c r="F40" t="n">
-        <v>6640.2239</v>
+        <v>163908.6624</v>
       </c>
       <c r="G40" t="n">
-        <v>3.061783333333328</v>
+        <v>3.061433333333328</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1801,19 +1801,19 @@
         <v>3.053</v>
       </c>
       <c r="C41" t="n">
-        <v>3.049</v>
+        <v>3.053</v>
       </c>
       <c r="D41" t="n">
         <v>3.053</v>
       </c>
       <c r="E41" t="n">
-        <v>3.049</v>
+        <v>3.053</v>
       </c>
       <c r="F41" t="n">
-        <v>25798.8434</v>
+        <v>6640.2239</v>
       </c>
       <c r="G41" t="n">
-        <v>3.062083333333328</v>
+        <v>3.061783333333328</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>3.053</v>
+      </c>
+      <c r="C42" t="n">
         <v>3.049</v>
       </c>
-      <c r="C42" t="n">
-        <v>3.048</v>
-      </c>
       <c r="D42" t="n">
+        <v>3.053</v>
+      </c>
+      <c r="E42" t="n">
         <v>3.049</v>
       </c>
-      <c r="E42" t="n">
-        <v>3.048</v>
-      </c>
       <c r="F42" t="n">
-        <v>204003.5565</v>
+        <v>25798.8434</v>
       </c>
       <c r="G42" t="n">
-        <v>3.062399999999995</v>
+        <v>3.062083333333328</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.048</v>
+        <v>3.049</v>
       </c>
       <c r="C43" t="n">
         <v>3.048</v>
       </c>
       <c r="D43" t="n">
-        <v>3.048</v>
+        <v>3.049</v>
       </c>
       <c r="E43" t="n">
         <v>3.048</v>
       </c>
       <c r="F43" t="n">
-        <v>9207.227999999999</v>
+        <v>204003.5565</v>
       </c>
       <c r="G43" t="n">
-        <v>3.062749999999995</v>
+        <v>3.062399999999995</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.047</v>
+        <v>3.048</v>
       </c>
       <c r="C44" t="n">
-        <v>3.045</v>
+        <v>3.048</v>
       </c>
       <c r="D44" t="n">
-        <v>3.047</v>
+        <v>3.048</v>
       </c>
       <c r="E44" t="n">
-        <v>3.045</v>
+        <v>3.048</v>
       </c>
       <c r="F44" t="n">
-        <v>31860.196</v>
+        <v>9207.227999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>3.062383333333328</v>
+        <v>3.062749999999995</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3.043</v>
+        <v>3.047</v>
       </c>
       <c r="C45" t="n">
-        <v>3.04</v>
+        <v>3.045</v>
       </c>
       <c r="D45" t="n">
-        <v>3.043</v>
+        <v>3.047</v>
       </c>
       <c r="E45" t="n">
-        <v>3.04</v>
+        <v>3.045</v>
       </c>
       <c r="F45" t="n">
-        <v>43193.7778</v>
+        <v>31860.196</v>
       </c>
       <c r="G45" t="n">
-        <v>3.062099999999995</v>
+        <v>3.062383333333328</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3.03</v>
+        <v>3.043</v>
       </c>
       <c r="C46" t="n">
-        <v>3.028</v>
+        <v>3.04</v>
       </c>
       <c r="D46" t="n">
-        <v>3.03</v>
+        <v>3.043</v>
       </c>
       <c r="E46" t="n">
-        <v>3.028</v>
+        <v>3.04</v>
       </c>
       <c r="F46" t="n">
-        <v>13009.11</v>
+        <v>43193.7778</v>
       </c>
       <c r="G46" t="n">
-        <v>3.061616666666661</v>
+        <v>3.062099999999995</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.027</v>
+        <v>3.03</v>
       </c>
       <c r="C47" t="n">
-        <v>3.024</v>
+        <v>3.028</v>
       </c>
       <c r="D47" t="n">
-        <v>3.027</v>
+        <v>3.03</v>
       </c>
       <c r="E47" t="n">
-        <v>3.024</v>
+        <v>3.028</v>
       </c>
       <c r="F47" t="n">
-        <v>12876.5904</v>
+        <v>13009.11</v>
       </c>
       <c r="G47" t="n">
-        <v>3.061066666666662</v>
+        <v>3.061616666666661</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.03</v>
+        <v>3.027</v>
       </c>
       <c r="C48" t="n">
-        <v>3.03</v>
+        <v>3.024</v>
       </c>
       <c r="D48" t="n">
-        <v>3.03</v>
+        <v>3.027</v>
       </c>
       <c r="E48" t="n">
-        <v>3.03</v>
+        <v>3.024</v>
       </c>
       <c r="F48" t="n">
-        <v>500</v>
+        <v>12876.5904</v>
       </c>
       <c r="G48" t="n">
-        <v>3.060616666666662</v>
+        <v>3.061066666666662</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.024</v>
+        <v>3.03</v>
       </c>
       <c r="C49" t="n">
-        <v>3.024</v>
+        <v>3.03</v>
       </c>
       <c r="D49" t="n">
-        <v>3.024</v>
+        <v>3.03</v>
       </c>
       <c r="E49" t="n">
-        <v>3.024</v>
+        <v>3.03</v>
       </c>
       <c r="F49" t="n">
-        <v>252.0383</v>
+        <v>500</v>
       </c>
       <c r="G49" t="n">
-        <v>3.060749999999996</v>
+        <v>3.060616666666662</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.023</v>
+        <v>3.024</v>
       </c>
       <c r="C50" t="n">
-        <v>3.015</v>
+        <v>3.024</v>
       </c>
       <c r="D50" t="n">
-        <v>3.023</v>
+        <v>3.024</v>
       </c>
       <c r="E50" t="n">
-        <v>3.015</v>
+        <v>3.024</v>
       </c>
       <c r="F50" t="n">
-        <v>129136.5216</v>
+        <v>252.0383</v>
       </c>
       <c r="G50" t="n">
-        <v>3.060733333333329</v>
+        <v>3.060749999999996</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>3.023</v>
+      </c>
+      <c r="C51" t="n">
         <v>3.015</v>
       </c>
-      <c r="C51" t="n">
-        <v>3.013</v>
-      </c>
       <c r="D51" t="n">
+        <v>3.023</v>
+      </c>
+      <c r="E51" t="n">
         <v>3.015</v>
       </c>
-      <c r="E51" t="n">
-        <v>3.013</v>
-      </c>
       <c r="F51" t="n">
-        <v>282153.7262</v>
+        <v>129136.5216</v>
       </c>
       <c r="G51" t="n">
-        <v>3.060583333333329</v>
+        <v>3.060733333333329</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3.023</v>
+        <v>3.015</v>
       </c>
       <c r="C52" t="n">
-        <v>3.023</v>
+        <v>3.013</v>
       </c>
       <c r="D52" t="n">
-        <v>3.023</v>
+        <v>3.015</v>
       </c>
       <c r="E52" t="n">
-        <v>3.023</v>
+        <v>3.013</v>
       </c>
       <c r="F52" t="n">
-        <v>998.7799</v>
+        <v>282153.7262</v>
       </c>
       <c r="G52" t="n">
-        <v>3.060016666666662</v>
+        <v>3.060583333333329</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>3.023</v>
       </c>
       <c r="F53" t="n">
-        <v>11988.7201</v>
+        <v>998.7799</v>
       </c>
       <c r="G53" t="n">
-        <v>3.059283333333329</v>
+        <v>3.060016666666662</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.021</v>
+        <v>3.023</v>
       </c>
       <c r="C54" t="n">
-        <v>3.021</v>
+        <v>3.023</v>
       </c>
       <c r="D54" t="n">
-        <v>3.021</v>
+        <v>3.023</v>
       </c>
       <c r="E54" t="n">
-        <v>3.021</v>
+        <v>3.023</v>
       </c>
       <c r="F54" t="n">
-        <v>12980</v>
+        <v>11988.7201</v>
       </c>
       <c r="G54" t="n">
-        <v>3.059166666666662</v>
+        <v>3.059283333333329</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>3.021</v>
       </c>
       <c r="F55" t="n">
-        <v>4415.23</v>
+        <v>12980</v>
       </c>
       <c r="G55" t="n">
-        <v>3.058416666666662</v>
+        <v>3.059166666666662</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>3.021</v>
       </c>
       <c r="C56" t="n">
-        <v>3.025</v>
+        <v>3.021</v>
       </c>
       <c r="D56" t="n">
-        <v>3.025</v>
+        <v>3.021</v>
       </c>
       <c r="E56" t="n">
         <v>3.021</v>
       </c>
       <c r="F56" t="n">
-        <v>60240.8</v>
+        <v>4415.23</v>
       </c>
       <c r="G56" t="n">
-        <v>3.056883333333329</v>
+        <v>3.058416666666662</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3.025</v>
+        <v>3.021</v>
       </c>
       <c r="C57" t="n">
         <v>3.025</v>
@@ -2367,13 +2367,13 @@
         <v>3.025</v>
       </c>
       <c r="E57" t="n">
-        <v>3.025</v>
+        <v>3.021</v>
       </c>
       <c r="F57" t="n">
-        <v>6680.3837</v>
+        <v>60240.8</v>
       </c>
       <c r="G57" t="n">
-        <v>3.055349999999996</v>
+        <v>3.056883333333329</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3.027</v>
+        <v>3.025</v>
       </c>
       <c r="C58" t="n">
-        <v>3.029</v>
+        <v>3.025</v>
       </c>
       <c r="D58" t="n">
-        <v>3.029</v>
+        <v>3.025</v>
       </c>
       <c r="E58" t="n">
-        <v>3.027</v>
+        <v>3.025</v>
       </c>
       <c r="F58" t="n">
-        <v>34983.748</v>
+        <v>6680.3837</v>
       </c>
       <c r="G58" t="n">
-        <v>3.054333333333329</v>
+        <v>3.055349999999996</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3.035</v>
+        <v>3.027</v>
       </c>
       <c r="C59" t="n">
         <v>3.029</v>
       </c>
       <c r="D59" t="n">
-        <v>3.04</v>
+        <v>3.029</v>
       </c>
       <c r="E59" t="n">
-        <v>3.029</v>
+        <v>3.027</v>
       </c>
       <c r="F59" t="n">
-        <v>66495.0854</v>
+        <v>34983.748</v>
       </c>
       <c r="G59" t="n">
-        <v>3.053316666666662</v>
+        <v>3.054333333333329</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,35 +2463,31 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3.029</v>
+        <v>3.035</v>
       </c>
       <c r="C60" t="n">
         <v>3.029</v>
       </c>
       <c r="D60" t="n">
-        <v>3.029</v>
+        <v>3.04</v>
       </c>
       <c r="E60" t="n">
         <v>3.029</v>
       </c>
       <c r="F60" t="n">
-        <v>4597.8932</v>
+        <v>66495.0854</v>
       </c>
       <c r="G60" t="n">
-        <v>3.052749999999996</v>
+        <v>3.053316666666662</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="K60" t="n">
-        <v>3.029</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
@@ -2502,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3.04</v>
+        <v>3.029</v>
       </c>
       <c r="C61" t="n">
         <v>3.029</v>
       </c>
       <c r="D61" t="n">
-        <v>3.04</v>
+        <v>3.029</v>
       </c>
       <c r="E61" t="n">
         <v>3.029</v>
       </c>
       <c r="F61" t="n">
-        <v>489868.56</v>
+        <v>4597.8932</v>
       </c>
       <c r="G61" t="n">
-        <v>3.051583333333329</v>
+        <v>3.052749999999996</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2526,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2543,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="C62" t="n">
         <v>3.029</v>
       </c>
-      <c r="C62" t="n">
-        <v>3.027</v>
-      </c>
       <c r="D62" t="n">
-        <v>3.039</v>
+        <v>3.04</v>
       </c>
       <c r="E62" t="n">
-        <v>3.027</v>
+        <v>3.029</v>
       </c>
       <c r="F62" t="n">
-        <v>115331.1761</v>
+        <v>489868.56</v>
       </c>
       <c r="G62" t="n">
-        <v>3.050783333333329</v>
+        <v>3.051583333333329</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2567,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2584,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3.02</v>
+        <v>3.029</v>
       </c>
       <c r="C63" t="n">
-        <v>3.03</v>
+        <v>3.027</v>
       </c>
       <c r="D63" t="n">
-        <v>3.03</v>
+        <v>3.039</v>
       </c>
       <c r="E63" t="n">
-        <v>3.015</v>
+        <v>3.027</v>
       </c>
       <c r="F63" t="n">
-        <v>768969.0487</v>
+        <v>115331.1761</v>
       </c>
       <c r="G63" t="n">
-        <v>3.049783333333329</v>
+        <v>3.050783333333329</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2608,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2625,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="C64" t="n">
-        <v>3.048</v>
+        <v>3.03</v>
       </c>
       <c r="D64" t="n">
-        <v>3.048</v>
+        <v>3.03</v>
       </c>
       <c r="E64" t="n">
-        <v>3.039</v>
+        <v>3.015</v>
       </c>
       <c r="F64" t="n">
-        <v>302609.1043</v>
+        <v>768969.0487</v>
       </c>
       <c r="G64" t="n">
-        <v>3.049266666666662</v>
+        <v>3.049783333333329</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2649,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2666,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.061</v>
+        <v>3.039</v>
       </c>
       <c r="C65" t="n">
-        <v>3.061</v>
+        <v>3.048</v>
       </c>
       <c r="D65" t="n">
-        <v>3.061</v>
+        <v>3.048</v>
       </c>
       <c r="E65" t="n">
-        <v>3.061</v>
+        <v>3.039</v>
       </c>
       <c r="F65" t="n">
-        <v>10000</v>
+        <v>302609.1043</v>
       </c>
       <c r="G65" t="n">
-        <v>3.049149999999996</v>
+        <v>3.049266666666662</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2690,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2707,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3.074</v>
+        <v>3.061</v>
       </c>
       <c r="C66" t="n">
-        <v>3.074</v>
+        <v>3.061</v>
       </c>
       <c r="D66" t="n">
-        <v>3.075</v>
+        <v>3.061</v>
       </c>
       <c r="E66" t="n">
-        <v>3.074</v>
+        <v>3.061</v>
       </c>
       <c r="F66" t="n">
-        <v>85549.12</v>
+        <v>10000</v>
       </c>
       <c r="G66" t="n">
-        <v>3.049233333333329</v>
+        <v>3.049149999999996</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2731,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2748,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3.061</v>
+        <v>3.074</v>
       </c>
       <c r="C67" t="n">
-        <v>3.061</v>
+        <v>3.074</v>
       </c>
       <c r="D67" t="n">
-        <v>3.061</v>
+        <v>3.075</v>
       </c>
       <c r="E67" t="n">
-        <v>3.061</v>
+        <v>3.074</v>
       </c>
       <c r="F67" t="n">
-        <v>500</v>
+        <v>85549.12</v>
       </c>
       <c r="G67" t="n">
-        <v>3.049399999999996</v>
+        <v>3.049233333333329</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2772,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2792,19 +2746,19 @@
         <v>3.061</v>
       </c>
       <c r="C68" t="n">
-        <v>3.05</v>
+        <v>3.061</v>
       </c>
       <c r="D68" t="n">
         <v>3.061</v>
       </c>
       <c r="E68" t="n">
-        <v>3.05</v>
+        <v>3.061</v>
       </c>
       <c r="F68" t="n">
-        <v>8198.3676</v>
+        <v>500</v>
       </c>
       <c r="G68" t="n">
-        <v>3.04938333333333</v>
+        <v>3.049399999999996</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2813,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2830,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3.062</v>
+        <v>3.061</v>
       </c>
       <c r="C69" t="n">
-        <v>3.062</v>
+        <v>3.05</v>
       </c>
       <c r="D69" t="n">
-        <v>3.062</v>
+        <v>3.061</v>
       </c>
       <c r="E69" t="n">
-        <v>3.062</v>
+        <v>3.05</v>
       </c>
       <c r="F69" t="n">
-        <v>1473.0832</v>
+        <v>8198.3676</v>
       </c>
       <c r="G69" t="n">
-        <v>3.049566666666664</v>
+        <v>3.04938333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2854,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2871,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3.05</v>
+        <v>3.062</v>
       </c>
       <c r="C70" t="n">
-        <v>3.05</v>
+        <v>3.062</v>
       </c>
       <c r="D70" t="n">
-        <v>3.05</v>
+        <v>3.062</v>
       </c>
       <c r="E70" t="n">
-        <v>3.05</v>
+        <v>3.062</v>
       </c>
       <c r="F70" t="n">
-        <v>197487.1924</v>
+        <v>1473.0832</v>
       </c>
       <c r="G70" t="n">
-        <v>3.049549999999997</v>
+        <v>3.049566666666664</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2895,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2924,10 +2860,10 @@
         <v>3.05</v>
       </c>
       <c r="F71" t="n">
-        <v>24131.9017</v>
+        <v>197487.1924</v>
       </c>
       <c r="G71" t="n">
-        <v>3.049533333333331</v>
+        <v>3.049549999999997</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2936,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2953,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3.048</v>
+        <v>3.05</v>
       </c>
       <c r="C72" t="n">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="D72" t="n">
-        <v>3.048</v>
+        <v>3.05</v>
       </c>
       <c r="E72" t="n">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="F72" t="n">
-        <v>189442.2886</v>
+        <v>24131.9017</v>
       </c>
       <c r="G72" t="n">
-        <v>3.049199999999998</v>
+        <v>3.049533333333331</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2977,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2994,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
+        <v>3.048</v>
+      </c>
+      <c r="C73" t="n">
         <v>3.04</v>
       </c>
-      <c r="C73" t="n">
-        <v>3.037</v>
-      </c>
       <c r="D73" t="n">
+        <v>3.048</v>
+      </c>
+      <c r="E73" t="n">
         <v>3.04</v>
       </c>
-      <c r="E73" t="n">
-        <v>3.037</v>
-      </c>
       <c r="F73" t="n">
-        <v>22621.9017</v>
+        <v>189442.2886</v>
       </c>
       <c r="G73" t="n">
-        <v>3.048966666666665</v>
+        <v>3.049199999999998</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3018,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3035,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3.037</v>
+        <v>3.04</v>
       </c>
       <c r="C74" t="n">
         <v>3.037</v>
       </c>
       <c r="D74" t="n">
-        <v>3.037</v>
+        <v>3.04</v>
       </c>
       <c r="E74" t="n">
         <v>3.037</v>
       </c>
       <c r="F74" t="n">
-        <v>5128.1253</v>
+        <v>22621.9017</v>
       </c>
       <c r="G74" t="n">
-        <v>3.048733333333332</v>
+        <v>3.048966666666665</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3059,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3088,10 +3000,10 @@
         <v>3.037</v>
       </c>
       <c r="F75" t="n">
-        <v>204078.2318</v>
+        <v>5128.1253</v>
       </c>
       <c r="G75" t="n">
-        <v>3.048499999999998</v>
+        <v>3.048733333333332</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3100,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3129,10 +3035,10 @@
         <v>3.037</v>
       </c>
       <c r="F76" t="n">
-        <v>295921.7682</v>
+        <v>204078.2318</v>
       </c>
       <c r="G76" t="n">
-        <v>3.047783333333332</v>
+        <v>3.048499999999998</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3141,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3158,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3.04</v>
+        <v>3.037</v>
       </c>
       <c r="C77" t="n">
-        <v>3.04</v>
+        <v>3.037</v>
       </c>
       <c r="D77" t="n">
-        <v>3.04</v>
+        <v>3.037</v>
       </c>
       <c r="E77" t="n">
-        <v>3.04</v>
+        <v>3.037</v>
       </c>
       <c r="F77" t="n">
-        <v>113412.6519</v>
+        <v>295921.7682</v>
       </c>
       <c r="G77" t="n">
-        <v>3.047483333333332</v>
+        <v>3.047783333333332</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3182,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3199,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="C78" t="n">
         <v>3.04</v>
       </c>
       <c r="D78" t="n">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="E78" t="n">
         <v>3.04</v>
       </c>
       <c r="F78" t="n">
-        <v>89014.3738</v>
+        <v>113412.6519</v>
       </c>
       <c r="G78" t="n">
-        <v>3.047183333333332</v>
+        <v>3.047483333333332</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3223,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3243,19 +3131,19 @@
         <v>3.05</v>
       </c>
       <c r="C79" t="n">
-        <v>3.062</v>
+        <v>3.04</v>
       </c>
       <c r="D79" t="n">
-        <v>3.062</v>
+        <v>3.05</v>
       </c>
       <c r="E79" t="n">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="F79" t="n">
-        <v>7320.93</v>
+        <v>89014.3738</v>
       </c>
       <c r="G79" t="n">
-        <v>3.047266666666665</v>
+        <v>3.047183333333332</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3264,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3281,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="C80" t="n">
-        <v>3.03</v>
+        <v>3.062</v>
       </c>
       <c r="D80" t="n">
-        <v>3.04</v>
+        <v>3.062</v>
       </c>
       <c r="E80" t="n">
-        <v>3.03</v>
+        <v>3.05</v>
       </c>
       <c r="F80" t="n">
-        <v>75000</v>
+        <v>7320.93</v>
       </c>
       <c r="G80" t="n">
-        <v>3.046266666666666</v>
+        <v>3.047266666666665</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3305,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3322,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3.054</v>
+        <v>3.04</v>
       </c>
       <c r="C81" t="n">
-        <v>3.054</v>
+        <v>3.03</v>
       </c>
       <c r="D81" t="n">
-        <v>3.054</v>
+        <v>3.04</v>
       </c>
       <c r="E81" t="n">
-        <v>3.054</v>
+        <v>3.03</v>
       </c>
       <c r="F81" t="n">
-        <v>500</v>
+        <v>75000</v>
       </c>
       <c r="G81" t="n">
-        <v>3.046216666666666</v>
+        <v>3.046266666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3346,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3375,10 +3245,10 @@
         <v>3.054</v>
       </c>
       <c r="F82" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="G82" t="n">
-        <v>3.045616666666666</v>
+        <v>3.046216666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3387,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3404,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>3.04</v>
+        <v>3.054</v>
       </c>
       <c r="C83" t="n">
-        <v>3.03</v>
+        <v>3.054</v>
       </c>
       <c r="D83" t="n">
-        <v>3.04</v>
+        <v>3.054</v>
       </c>
       <c r="E83" t="n">
-        <v>3.03</v>
+        <v>3.054</v>
       </c>
       <c r="F83" t="n">
-        <v>1101720.7912</v>
+        <v>900</v>
       </c>
       <c r="G83" t="n">
-        <v>3.044399999999999</v>
+        <v>3.045616666666666</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3428,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3445,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="C84" t="n">
         <v>3.03</v>
       </c>
-      <c r="C84" t="n">
-        <v>3.05</v>
-      </c>
       <c r="D84" t="n">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="E84" t="n">
         <v>3.03</v>
       </c>
       <c r="F84" t="n">
-        <v>564031.2867000001</v>
+        <v>1101720.7912</v>
       </c>
       <c r="G84" t="n">
-        <v>3.044216666666665</v>
+        <v>3.044399999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3469,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3486,7 +3338,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="C85" t="n">
         <v>3.05</v>
@@ -3495,13 +3347,13 @@
         <v>3.05</v>
       </c>
       <c r="E85" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0033</v>
+        <v>564031.2867000001</v>
       </c>
       <c r="G85" t="n">
-        <v>3.043733333333333</v>
+        <v>3.044216666666665</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3510,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3527,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3.072</v>
+        <v>3.05</v>
       </c>
       <c r="C86" t="n">
-        <v>3.072</v>
+        <v>3.05</v>
       </c>
       <c r="D86" t="n">
-        <v>3.072</v>
+        <v>3.05</v>
       </c>
       <c r="E86" t="n">
-        <v>3.072</v>
+        <v>3.05</v>
       </c>
       <c r="F86" t="n">
-        <v>73407.6721</v>
+        <v>0.0033</v>
       </c>
       <c r="G86" t="n">
-        <v>3.043916666666666</v>
+        <v>3.043733333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3551,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3568,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3.073</v>
+        <v>3.072</v>
       </c>
       <c r="C87" t="n">
-        <v>3.073</v>
+        <v>3.072</v>
       </c>
       <c r="D87" t="n">
-        <v>3.073</v>
+        <v>3.072</v>
       </c>
       <c r="E87" t="n">
-        <v>3.073</v>
+        <v>3.072</v>
       </c>
       <c r="F87" t="n">
-        <v>20002.965</v>
+        <v>73407.6721</v>
       </c>
       <c r="G87" t="n">
-        <v>3.044283333333333</v>
+        <v>3.043916666666666</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3592,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3609,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>3.084</v>
+        <v>3.073</v>
       </c>
       <c r="C88" t="n">
-        <v>3.089</v>
+        <v>3.073</v>
       </c>
       <c r="D88" t="n">
-        <v>3.089</v>
+        <v>3.073</v>
       </c>
       <c r="E88" t="n">
-        <v>3.084</v>
+        <v>3.073</v>
       </c>
       <c r="F88" t="n">
-        <v>65165.1577</v>
+        <v>20002.965</v>
       </c>
       <c r="G88" t="n">
-        <v>3.044499999999999</v>
+        <v>3.044283333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3633,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3650,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>3.098</v>
+        <v>3.084</v>
       </c>
       <c r="C89" t="n">
-        <v>3.108</v>
+        <v>3.089</v>
       </c>
       <c r="D89" t="n">
-        <v>3.108</v>
+        <v>3.089</v>
       </c>
       <c r="E89" t="n">
-        <v>3.098</v>
+        <v>3.084</v>
       </c>
       <c r="F89" t="n">
-        <v>24023.2247</v>
+        <v>65165.1577</v>
       </c>
       <c r="G89" t="n">
-        <v>3.045033333333333</v>
+        <v>3.044499999999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3674,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3691,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
+        <v>3.098</v>
+      </c>
+      <c r="C90" t="n">
         <v>3.108</v>
       </c>
-      <c r="C90" t="n">
-        <v>3.114</v>
-      </c>
       <c r="D90" t="n">
-        <v>3.114</v>
+        <v>3.108</v>
       </c>
       <c r="E90" t="n">
-        <v>3.108</v>
+        <v>3.098</v>
       </c>
       <c r="F90" t="n">
-        <v>15546.7177</v>
+        <v>24023.2247</v>
       </c>
       <c r="G90" t="n">
-        <v>3.046083333333333</v>
+        <v>3.045033333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3715,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3732,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3.114</v>
+        <v>3.108</v>
       </c>
       <c r="C91" t="n">
         <v>3.114</v>
       </c>
       <c r="D91" t="n">
-        <v>3.115</v>
+        <v>3.114</v>
       </c>
       <c r="E91" t="n">
-        <v>3.114</v>
+        <v>3.108</v>
       </c>
       <c r="F91" t="n">
-        <v>86445.15949999999</v>
+        <v>15546.7177</v>
       </c>
       <c r="G91" t="n">
-        <v>3.04715</v>
+        <v>3.046083333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3756,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3776,19 +3586,19 @@
         <v>3.114</v>
       </c>
       <c r="C92" t="n">
-        <v>3.12</v>
+        <v>3.114</v>
       </c>
       <c r="D92" t="n">
-        <v>3.12</v>
+        <v>3.115</v>
       </c>
       <c r="E92" t="n">
         <v>3.114</v>
       </c>
       <c r="F92" t="n">
-        <v>61084.23</v>
+        <v>86445.15949999999</v>
       </c>
       <c r="G92" t="n">
-        <v>3.048316666666666</v>
+        <v>3.04715</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3797,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3814,40 +3618,34 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>3.115</v>
+        <v>3.114</v>
       </c>
       <c r="C93" t="n">
-        <v>3.115</v>
+        <v>3.12</v>
       </c>
       <c r="D93" t="n">
-        <v>3.125</v>
+        <v>3.12</v>
       </c>
       <c r="E93" t="n">
-        <v>3.115</v>
+        <v>3.114</v>
       </c>
       <c r="F93" t="n">
-        <v>35822</v>
+        <v>61084.23</v>
       </c>
       <c r="G93" t="n">
-        <v>3.049433333333333</v>
+        <v>3.048316666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>1.02339220864972</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3855,28 +3653,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>3.118</v>
+        <v>3.115</v>
       </c>
       <c r="C94" t="n">
-        <v>3.105</v>
+        <v>3.115</v>
       </c>
       <c r="D94" t="n">
-        <v>3.118</v>
+        <v>3.125</v>
       </c>
       <c r="E94" t="n">
-        <v>3.105</v>
+        <v>3.115</v>
       </c>
       <c r="F94" t="n">
-        <v>10755.3613</v>
+        <v>35822</v>
       </c>
       <c r="G94" t="n">
-        <v>3.049916666666666</v>
+        <v>3.049433333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3890,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>3.118</v>
+      </c>
+      <c r="C95" t="n">
         <v>3.105</v>
       </c>
-      <c r="C95" t="n">
-        <v>3.101</v>
-      </c>
       <c r="D95" t="n">
+        <v>3.118</v>
+      </c>
+      <c r="E95" t="n">
         <v>3.105</v>
       </c>
-      <c r="E95" t="n">
-        <v>3.101</v>
-      </c>
       <c r="F95" t="n">
-        <v>164934.9571</v>
+        <v>10755.3613</v>
       </c>
       <c r="G95" t="n">
-        <v>3.05055</v>
+        <v>3.049916666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3925,10 +3723,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>3.105</v>
+      </c>
+      <c r="C96" t="n">
         <v>3.101</v>
-      </c>
-      <c r="C96" t="n">
-        <v>3.105</v>
       </c>
       <c r="D96" t="n">
         <v>3.105</v>
@@ -3937,10 +3735,10 @@
         <v>3.101</v>
       </c>
       <c r="F96" t="n">
-        <v>3110.8697</v>
+        <v>164934.9571</v>
       </c>
       <c r="G96" t="n">
-        <v>3.05125</v>
+        <v>3.05055</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3963,19 +3761,19 @@
         <v>3.101</v>
       </c>
       <c r="C97" t="n">
-        <v>3.101</v>
+        <v>3.105</v>
       </c>
       <c r="D97" t="n">
-        <v>3.101</v>
+        <v>3.105</v>
       </c>
       <c r="E97" t="n">
         <v>3.101</v>
       </c>
       <c r="F97" t="n">
-        <v>4098.9233</v>
+        <v>3110.8697</v>
       </c>
       <c r="G97" t="n">
-        <v>3.051883333333334</v>
+        <v>3.05125</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3995,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>3.098</v>
+        <v>3.101</v>
       </c>
       <c r="C98" t="n">
-        <v>3.064</v>
+        <v>3.101</v>
       </c>
       <c r="D98" t="n">
-        <v>3.098</v>
+        <v>3.101</v>
       </c>
       <c r="E98" t="n">
-        <v>3.064</v>
+        <v>3.101</v>
       </c>
       <c r="F98" t="n">
-        <v>152823.6417</v>
+        <v>4098.9233</v>
       </c>
       <c r="G98" t="n">
-        <v>3.052</v>
+        <v>3.051883333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4030,19 +3828,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3.057</v>
+        <v>3.098</v>
       </c>
       <c r="C99" t="n">
-        <v>3.057</v>
+        <v>3.064</v>
       </c>
       <c r="D99" t="n">
-        <v>3.057</v>
+        <v>3.098</v>
       </c>
       <c r="E99" t="n">
-        <v>3.057</v>
+        <v>3.064</v>
       </c>
       <c r="F99" t="n">
-        <v>9008.559999999999</v>
+        <v>152823.6417</v>
       </c>
       <c r="G99" t="n">
         <v>3.052</v>
@@ -4065,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>3.05</v>
+        <v>3.057</v>
       </c>
       <c r="C100" t="n">
-        <v>3.039</v>
+        <v>3.057</v>
       </c>
       <c r="D100" t="n">
-        <v>3.05</v>
+        <v>3.057</v>
       </c>
       <c r="E100" t="n">
-        <v>3.039</v>
+        <v>3.057</v>
       </c>
       <c r="F100" t="n">
-        <v>115735.4494</v>
+        <v>9008.559999999999</v>
       </c>
       <c r="G100" t="n">
-        <v>3.051766666666667</v>
+        <v>3.052</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4100,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>3.056</v>
+        <v>3.05</v>
       </c>
       <c r="C101" t="n">
-        <v>3.056</v>
+        <v>3.039</v>
       </c>
       <c r="D101" t="n">
-        <v>3.056</v>
+        <v>3.05</v>
       </c>
       <c r="E101" t="n">
-        <v>3.056</v>
+        <v>3.039</v>
       </c>
       <c r="F101" t="n">
-        <v>10001.856</v>
+        <v>115735.4494</v>
       </c>
       <c r="G101" t="n">
-        <v>3.051883333333334</v>
+        <v>3.051766666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4147,10 +3945,10 @@
         <v>3.056</v>
       </c>
       <c r="F102" t="n">
-        <v>15700</v>
+        <v>10001.856</v>
       </c>
       <c r="G102" t="n">
-        <v>3.052016666666667</v>
+        <v>3.051883333333334</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4170,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>3.049</v>
+        <v>3.056</v>
       </c>
       <c r="C103" t="n">
-        <v>3.039</v>
+        <v>3.056</v>
       </c>
       <c r="D103" t="n">
-        <v>3.049</v>
+        <v>3.056</v>
       </c>
       <c r="E103" t="n">
-        <v>3.039</v>
+        <v>3.056</v>
       </c>
       <c r="F103" t="n">
-        <v>340083.8873</v>
+        <v>15700</v>
       </c>
       <c r="G103" t="n">
-        <v>3.051866666666667</v>
+        <v>3.052016666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4205,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>3.039</v>
+        <v>3.049</v>
       </c>
       <c r="C104" t="n">
         <v>3.039</v>
       </c>
       <c r="D104" t="n">
-        <v>3.039</v>
+        <v>3.049</v>
       </c>
       <c r="E104" t="n">
         <v>3.039</v>
       </c>
       <c r="F104" t="n">
-        <v>104844.386</v>
+        <v>340083.8873</v>
       </c>
       <c r="G104" t="n">
-        <v>3.051766666666667</v>
+        <v>3.051866666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4240,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>3.056</v>
+        <v>3.039</v>
       </c>
       <c r="C105" t="n">
-        <v>3.056</v>
+        <v>3.039</v>
       </c>
       <c r="D105" t="n">
-        <v>3.056</v>
+        <v>3.039</v>
       </c>
       <c r="E105" t="n">
-        <v>3.056</v>
+        <v>3.039</v>
       </c>
       <c r="F105" t="n">
-        <v>1203.23</v>
+        <v>104844.386</v>
       </c>
       <c r="G105" t="n">
-        <v>3.052033333333334</v>
+        <v>3.051766666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4275,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>3.051</v>
+        <v>3.056</v>
       </c>
       <c r="C106" t="n">
-        <v>3.045</v>
+        <v>3.056</v>
       </c>
       <c r="D106" t="n">
-        <v>3.051</v>
+        <v>3.056</v>
       </c>
       <c r="E106" t="n">
-        <v>3.045</v>
+        <v>3.056</v>
       </c>
       <c r="F106" t="n">
-        <v>9282.798000000001</v>
+        <v>1203.23</v>
       </c>
       <c r="G106" t="n">
-        <v>3.052316666666667</v>
+        <v>3.052033333333334</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4310,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>3.039</v>
+        <v>3.051</v>
       </c>
       <c r="C107" t="n">
-        <v>3.039</v>
+        <v>3.045</v>
       </c>
       <c r="D107" t="n">
-        <v>3.039</v>
+        <v>3.051</v>
       </c>
       <c r="E107" t="n">
-        <v>3.039</v>
+        <v>3.045</v>
       </c>
       <c r="F107" t="n">
-        <v>10157.47</v>
+        <v>9282.798000000001</v>
       </c>
       <c r="G107" t="n">
-        <v>3.052566666666666</v>
+        <v>3.052316666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4357,10 +4155,10 @@
         <v>3.039</v>
       </c>
       <c r="F108" t="n">
-        <v>19842.53</v>
+        <v>10157.47</v>
       </c>
       <c r="G108" t="n">
-        <v>3.052716666666667</v>
+        <v>3.052566666666666</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4380,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>3.055</v>
+        <v>3.039</v>
       </c>
       <c r="C109" t="n">
-        <v>3.055</v>
+        <v>3.039</v>
       </c>
       <c r="D109" t="n">
-        <v>3.055</v>
+        <v>3.039</v>
       </c>
       <c r="E109" t="n">
-        <v>3.055</v>
+        <v>3.039</v>
       </c>
       <c r="F109" t="n">
-        <v>500</v>
+        <v>19842.53</v>
       </c>
       <c r="G109" t="n">
-        <v>3.053233333333333</v>
+        <v>3.052716666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4415,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>3.054</v>
+        <v>3.055</v>
       </c>
       <c r="C110" t="n">
-        <v>3.054</v>
+        <v>3.055</v>
       </c>
       <c r="D110" t="n">
-        <v>3.054</v>
+        <v>3.055</v>
       </c>
       <c r="E110" t="n">
-        <v>3.054</v>
+        <v>3.055</v>
       </c>
       <c r="F110" t="n">
-        <v>16791</v>
+        <v>500</v>
       </c>
       <c r="G110" t="n">
-        <v>3.053883333333333</v>
+        <v>3.053233333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4450,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>3.048</v>
+        <v>3.054</v>
       </c>
       <c r="C111" t="n">
-        <v>3.032</v>
+        <v>3.054</v>
       </c>
       <c r="D111" t="n">
-        <v>3.048</v>
+        <v>3.054</v>
       </c>
       <c r="E111" t="n">
-        <v>3.032</v>
+        <v>3.054</v>
       </c>
       <c r="F111" t="n">
-        <v>19320.8543</v>
+        <v>16791</v>
       </c>
       <c r="G111" t="n">
-        <v>3.0542</v>
+        <v>3.053883333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4485,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>3.03</v>
+        <v>3.048</v>
       </c>
       <c r="C112" t="n">
-        <v>3.028</v>
+        <v>3.032</v>
       </c>
       <c r="D112" t="n">
-        <v>3.03</v>
+        <v>3.048</v>
       </c>
       <c r="E112" t="n">
-        <v>3.028</v>
+        <v>3.032</v>
       </c>
       <c r="F112" t="n">
-        <v>488139.9261</v>
+        <v>19320.8543</v>
       </c>
       <c r="G112" t="n">
-        <v>3.054283333333333</v>
+        <v>3.0542</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4520,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>3.026</v>
+        <v>3.03</v>
       </c>
       <c r="C113" t="n">
         <v>3.028</v>
       </c>
       <c r="D113" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E113" t="n">
         <v>3.028</v>
       </c>
-      <c r="E113" t="n">
-        <v>3.026</v>
-      </c>
       <c r="F113" t="n">
-        <v>194067.4354</v>
+        <v>488139.9261</v>
       </c>
       <c r="G113" t="n">
-        <v>3.054366666666667</v>
+        <v>3.054283333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4555,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
+        <v>3.026</v>
+      </c>
+      <c r="C114" t="n">
         <v>3.028</v>
       </c>
-      <c r="C114" t="n">
-        <v>3.05</v>
-      </c>
       <c r="D114" t="n">
-        <v>3.05</v>
+        <v>3.028</v>
       </c>
       <c r="E114" t="n">
-        <v>3.028</v>
+        <v>3.026</v>
       </c>
       <c r="F114" t="n">
-        <v>14416.8005</v>
+        <v>194067.4354</v>
       </c>
       <c r="G114" t="n">
-        <v>3.054850000000001</v>
+        <v>3.054366666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4590,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>3.037</v>
+        <v>3.028</v>
       </c>
       <c r="C115" t="n">
-        <v>3.028</v>
+        <v>3.05</v>
       </c>
       <c r="D115" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="E115" t="n">
         <v>3.028</v>
       </c>
       <c r="F115" t="n">
-        <v>313782.5995</v>
+        <v>14416.8005</v>
       </c>
       <c r="G115" t="n">
-        <v>3.054966666666667</v>
+        <v>3.054850000000001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4625,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>3.028</v>
+        <v>3.037</v>
       </c>
       <c r="C116" t="n">
         <v>3.028</v>
       </c>
       <c r="D116" t="n">
-        <v>3.028</v>
+        <v>3.037</v>
       </c>
       <c r="E116" t="n">
         <v>3.028</v>
       </c>
       <c r="F116" t="n">
-        <v>174062.4581</v>
+        <v>313782.5995</v>
       </c>
       <c r="G116" t="n">
-        <v>3.055016666666667</v>
+        <v>3.054966666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4660,31 +4458,35 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>3.05</v>
+        <v>3.028</v>
       </c>
       <c r="C117" t="n">
-        <v>3.05</v>
+        <v>3.028</v>
       </c>
       <c r="D117" t="n">
-        <v>3.05</v>
+        <v>3.028</v>
       </c>
       <c r="E117" t="n">
-        <v>3.05</v>
+        <v>3.028</v>
       </c>
       <c r="F117" t="n">
-        <v>500</v>
+        <v>174062.4581</v>
       </c>
       <c r="G117" t="n">
-        <v>3.055433333333334</v>
+        <v>3.055016666666667</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K117" t="n">
+        <v>3.028</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
@@ -4707,20 +4509,28 @@
         <v>3.05</v>
       </c>
       <c r="F118" t="n">
-        <v>29745.6</v>
+        <v>500</v>
       </c>
       <c r="G118" t="n">
-        <v>3.055783333333334</v>
+        <v>3.055433333333334</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K118" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4730,22 +4540,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>3.043</v>
+        <v>3.05</v>
       </c>
       <c r="C119" t="n">
-        <v>3.025</v>
+        <v>3.05</v>
       </c>
       <c r="D119" t="n">
-        <v>3.043</v>
+        <v>3.05</v>
       </c>
       <c r="E119" t="n">
-        <v>3.025</v>
+        <v>3.05</v>
       </c>
       <c r="F119" t="n">
-        <v>397463.0578</v>
+        <v>29745.6</v>
       </c>
       <c r="G119" t="n">
-        <v>3.055716666666668</v>
+        <v>3.055783333333334</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4754,8 +4564,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4765,22 +4581,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>3.043</v>
+      </c>
+      <c r="C120" t="n">
         <v>3.025</v>
       </c>
-      <c r="C120" t="n">
-        <v>3.045</v>
-      </c>
       <c r="D120" t="n">
-        <v>3.045</v>
+        <v>3.043</v>
       </c>
       <c r="E120" t="n">
         <v>3.025</v>
       </c>
       <c r="F120" t="n">
-        <v>123010.3484</v>
+        <v>397463.0578</v>
       </c>
       <c r="G120" t="n">
-        <v>3.055983333333334</v>
+        <v>3.055716666666668</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4800,7 +4616,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>3.045</v>
+        <v>3.025</v>
       </c>
       <c r="C121" t="n">
         <v>3.045</v>
@@ -4809,13 +4625,13 @@
         <v>3.045</v>
       </c>
       <c r="E121" t="n">
-        <v>3.045</v>
+        <v>3.025</v>
       </c>
       <c r="F121" t="n">
-        <v>24619.4193</v>
+        <v>123010.3484</v>
       </c>
       <c r="G121" t="n">
-        <v>3.05625</v>
+        <v>3.055983333333334</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4838,19 +4654,19 @@
         <v>3.045</v>
       </c>
       <c r="C122" t="n">
-        <v>3.05</v>
+        <v>3.045</v>
       </c>
       <c r="D122" t="n">
-        <v>3.05</v>
+        <v>3.045</v>
       </c>
       <c r="E122" t="n">
-        <v>3.028</v>
+        <v>3.045</v>
       </c>
       <c r="F122" t="n">
-        <v>40589.576</v>
+        <v>24619.4193</v>
       </c>
       <c r="G122" t="n">
-        <v>3.056633333333334</v>
+        <v>3.05625</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4870,22 +4686,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>3.03</v>
+        <v>3.045</v>
       </c>
       <c r="C123" t="n">
-        <v>3.017</v>
+        <v>3.05</v>
       </c>
       <c r="D123" t="n">
-        <v>3.03</v>
+        <v>3.05</v>
       </c>
       <c r="E123" t="n">
-        <v>3.012</v>
+        <v>3.028</v>
       </c>
       <c r="F123" t="n">
-        <v>2198335.9303</v>
+        <v>40589.576</v>
       </c>
       <c r="G123" t="n">
-        <v>3.056416666666668</v>
+        <v>3.056633333333334</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4905,22 +4721,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="C124" t="n">
-        <v>3.04</v>
+        <v>3.017</v>
       </c>
       <c r="D124" t="n">
-        <v>3.04</v>
+        <v>3.03</v>
       </c>
       <c r="E124" t="n">
-        <v>3.011</v>
+        <v>3.012</v>
       </c>
       <c r="F124" t="n">
-        <v>305281.8291</v>
+        <v>2198335.9303</v>
       </c>
       <c r="G124" t="n">
-        <v>3.056283333333334</v>
+        <v>3.056416666666668</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4940,7 +4756,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>3.04</v>
+        <v>3.02</v>
       </c>
       <c r="C125" t="n">
         <v>3.04</v>
@@ -4949,13 +4765,13 @@
         <v>3.04</v>
       </c>
       <c r="E125" t="n">
-        <v>3.04</v>
+        <v>3.011</v>
       </c>
       <c r="F125" t="n">
-        <v>15900</v>
+        <v>305281.8291</v>
       </c>
       <c r="G125" t="n">
-        <v>3.055933333333334</v>
+        <v>3.056283333333334</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4975,22 +4791,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="C126" t="n">
-        <v>3.056</v>
+        <v>3.04</v>
       </c>
       <c r="D126" t="n">
-        <v>3.056</v>
+        <v>3.04</v>
       </c>
       <c r="E126" t="n">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="F126" t="n">
-        <v>438037.4363</v>
+        <v>15900</v>
       </c>
       <c r="G126" t="n">
-        <v>3.055633333333334</v>
+        <v>3.055933333333334</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5010,22 +4826,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3.083</v>
+        <v>3.05</v>
       </c>
       <c r="C127" t="n">
-        <v>3.083</v>
+        <v>3.056</v>
       </c>
       <c r="D127" t="n">
-        <v>3.083</v>
+        <v>3.056</v>
       </c>
       <c r="E127" t="n">
-        <v>3.083</v>
+        <v>3.05</v>
       </c>
       <c r="F127" t="n">
-        <v>35560.734</v>
+        <v>438037.4363</v>
       </c>
       <c r="G127" t="n">
-        <v>3.056</v>
+        <v>3.055633333333334</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5045,22 +4861,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3.091</v>
+        <v>3.083</v>
       </c>
       <c r="C128" t="n">
-        <v>3.091</v>
+        <v>3.083</v>
       </c>
       <c r="D128" t="n">
-        <v>3.091</v>
+        <v>3.083</v>
       </c>
       <c r="E128" t="n">
-        <v>3.091</v>
+        <v>3.083</v>
       </c>
       <c r="F128" t="n">
-        <v>30164.88</v>
+        <v>35560.734</v>
       </c>
       <c r="G128" t="n">
-        <v>3.056683333333333</v>
+        <v>3.056</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5083,19 +4899,19 @@
         <v>3.091</v>
       </c>
       <c r="C129" t="n">
-        <v>3.101</v>
+        <v>3.091</v>
       </c>
       <c r="D129" t="n">
-        <v>3.101</v>
+        <v>3.091</v>
       </c>
       <c r="E129" t="n">
         <v>3.091</v>
       </c>
       <c r="F129" t="n">
-        <v>23517.9718</v>
+        <v>30164.88</v>
       </c>
       <c r="G129" t="n">
-        <v>3.057333333333333</v>
+        <v>3.056683333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5115,19 +4931,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
+        <v>3.091</v>
+      </c>
+      <c r="C130" t="n">
         <v>3.101</v>
-      </c>
-      <c r="C130" t="n">
-        <v>3.05</v>
       </c>
       <c r="D130" t="n">
         <v>3.101</v>
       </c>
       <c r="E130" t="n">
-        <v>3.05</v>
+        <v>3.091</v>
       </c>
       <c r="F130" t="n">
-        <v>98489.5855</v>
+        <v>23517.9718</v>
       </c>
       <c r="G130" t="n">
         <v>3.057333333333333</v>
@@ -5150,19 +4966,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3.05</v>
+        <v>3.101</v>
       </c>
       <c r="C131" t="n">
         <v>3.05</v>
       </c>
       <c r="D131" t="n">
-        <v>3.05</v>
+        <v>3.101</v>
       </c>
       <c r="E131" t="n">
         <v>3.05</v>
       </c>
       <c r="F131" t="n">
-        <v>47740.3017</v>
+        <v>98489.5855</v>
       </c>
       <c r="G131" t="n">
         <v>3.057333333333333</v>
@@ -5171,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5185,22 +5001,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>3.052</v>
+        <v>3.05</v>
       </c>
       <c r="C132" t="n">
         <v>3.05</v>
       </c>
       <c r="D132" t="n">
-        <v>3.052</v>
+        <v>3.05</v>
       </c>
       <c r="E132" t="n">
         <v>3.05</v>
       </c>
       <c r="F132" t="n">
-        <v>126289.7863</v>
+        <v>47740.3017</v>
       </c>
       <c r="G132" t="n">
-        <v>3.0575</v>
+        <v>3.057333333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5220,22 +5036,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>3.05</v>
+        <v>3.052</v>
       </c>
       <c r="C133" t="n">
         <v>3.05</v>
       </c>
       <c r="D133" t="n">
-        <v>3.05</v>
+        <v>3.052</v>
       </c>
       <c r="E133" t="n">
         <v>3.05</v>
       </c>
       <c r="F133" t="n">
-        <v>20109.4241</v>
+        <v>126289.7863</v>
       </c>
       <c r="G133" t="n">
-        <v>3.057716666666667</v>
+        <v>3.0575</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5255,22 +5071,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>3.053</v>
+        <v>3.05</v>
       </c>
       <c r="C134" t="n">
-        <v>3.053</v>
+        <v>3.05</v>
       </c>
       <c r="D134" t="n">
-        <v>3.053</v>
+        <v>3.05</v>
       </c>
       <c r="E134" t="n">
-        <v>3.053</v>
+        <v>3.05</v>
       </c>
       <c r="F134" t="n">
-        <v>8046.01</v>
+        <v>20109.4241</v>
       </c>
       <c r="G134" t="n">
-        <v>3.057983333333333</v>
+        <v>3.057716666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5293,19 +5109,19 @@
         <v>3.053</v>
       </c>
       <c r="C135" t="n">
-        <v>3.024</v>
+        <v>3.053</v>
       </c>
       <c r="D135" t="n">
         <v>3.053</v>
       </c>
       <c r="E135" t="n">
-        <v>3.024</v>
+        <v>3.053</v>
       </c>
       <c r="F135" t="n">
-        <v>94215.216</v>
+        <v>8046.01</v>
       </c>
       <c r="G135" t="n">
-        <v>3.057766666666667</v>
+        <v>3.057983333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5325,22 +5141,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3.024</v>
+        <v>3.053</v>
       </c>
       <c r="C136" t="n">
         <v>3.024</v>
       </c>
       <c r="D136" t="n">
-        <v>3.024</v>
+        <v>3.053</v>
       </c>
       <c r="E136" t="n">
         <v>3.024</v>
       </c>
       <c r="F136" t="n">
-        <v>88080.1311</v>
+        <v>94215.216</v>
       </c>
       <c r="G136" t="n">
-        <v>3.05755</v>
+        <v>3.057766666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5360,22 +5176,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3.069</v>
+        <v>3.024</v>
       </c>
       <c r="C137" t="n">
-        <v>3.069</v>
+        <v>3.024</v>
       </c>
       <c r="D137" t="n">
-        <v>3.069</v>
+        <v>3.024</v>
       </c>
       <c r="E137" t="n">
-        <v>3.069</v>
+        <v>3.024</v>
       </c>
       <c r="F137" t="n">
-        <v>200</v>
+        <v>88080.1311</v>
       </c>
       <c r="G137" t="n">
-        <v>3.058033333333333</v>
+        <v>3.05755</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5398,19 +5214,19 @@
         <v>3.069</v>
       </c>
       <c r="C138" t="n">
-        <v>3.08</v>
+        <v>3.069</v>
       </c>
       <c r="D138" t="n">
-        <v>3.08</v>
+        <v>3.069</v>
       </c>
       <c r="E138" t="n">
-        <v>3.058</v>
+        <v>3.069</v>
       </c>
       <c r="F138" t="n">
-        <v>510</v>
+        <v>200</v>
       </c>
       <c r="G138" t="n">
-        <v>3.0587</v>
+        <v>3.058033333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5430,22 +5246,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>3.047</v>
+        <v>3.069</v>
       </c>
       <c r="C139" t="n">
-        <v>3.046</v>
+        <v>3.08</v>
       </c>
       <c r="D139" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E139" t="n">
         <v>3.058</v>
       </c>
-      <c r="E139" t="n">
-        <v>3.046</v>
-      </c>
       <c r="F139" t="n">
-        <v>175214.4</v>
+        <v>510</v>
       </c>
       <c r="G139" t="n">
-        <v>3.058433333333333</v>
+        <v>3.0587</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5465,22 +5281,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3.046</v>
+        <v>3.047</v>
       </c>
       <c r="C140" t="n">
         <v>3.046</v>
       </c>
       <c r="D140" t="n">
-        <v>3.046</v>
+        <v>3.058</v>
       </c>
       <c r="E140" t="n">
         <v>3.046</v>
       </c>
       <c r="F140" t="n">
-        <v>0.005</v>
+        <v>175214.4</v>
       </c>
       <c r="G140" t="n">
-        <v>3.0587</v>
+        <v>3.058433333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5500,22 +5316,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>3.058</v>
+        <v>3.046</v>
       </c>
       <c r="C141" t="n">
-        <v>3.058</v>
+        <v>3.046</v>
       </c>
       <c r="D141" t="n">
-        <v>3.058</v>
+        <v>3.046</v>
       </c>
       <c r="E141" t="n">
-        <v>3.058</v>
+        <v>3.046</v>
       </c>
       <c r="F141" t="n">
-        <v>175412.3185</v>
+        <v>0.005</v>
       </c>
       <c r="G141" t="n">
-        <v>3.058766666666666</v>
+        <v>3.0587</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5538,19 +5354,19 @@
         <v>3.058</v>
       </c>
       <c r="C142" t="n">
-        <v>3.05</v>
+        <v>3.058</v>
       </c>
       <c r="D142" t="n">
         <v>3.058</v>
       </c>
       <c r="E142" t="n">
-        <v>3.05</v>
+        <v>3.058</v>
       </c>
       <c r="F142" t="n">
-        <v>58653.8593</v>
+        <v>175412.3185</v>
       </c>
       <c r="G142" t="n">
-        <v>3.0587</v>
+        <v>3.058766666666666</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5570,22 +5386,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>3.05</v>
+        <v>3.058</v>
       </c>
       <c r="C143" t="n">
         <v>3.05</v>
       </c>
       <c r="D143" t="n">
-        <v>3.05</v>
+        <v>3.058</v>
       </c>
       <c r="E143" t="n">
         <v>3.05</v>
       </c>
       <c r="F143" t="n">
-        <v>141746.7196</v>
+        <v>58653.8593</v>
       </c>
       <c r="G143" t="n">
-        <v>3.059033333333333</v>
+        <v>3.0587</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5605,22 +5421,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>3.069</v>
+        <v>3.05</v>
       </c>
       <c r="C144" t="n">
-        <v>3.069</v>
+        <v>3.05</v>
       </c>
       <c r="D144" t="n">
-        <v>3.069</v>
+        <v>3.05</v>
       </c>
       <c r="E144" t="n">
-        <v>3.069</v>
+        <v>3.05</v>
       </c>
       <c r="F144" t="n">
-        <v>200</v>
+        <v>141746.7196</v>
       </c>
       <c r="G144" t="n">
-        <v>3.05935</v>
+        <v>3.059033333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5640,22 +5456,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3.044</v>
+        <v>3.069</v>
       </c>
       <c r="C145" t="n">
-        <v>3.032</v>
+        <v>3.069</v>
       </c>
       <c r="D145" t="n">
-        <v>3.044</v>
+        <v>3.069</v>
       </c>
       <c r="E145" t="n">
-        <v>3.032</v>
+        <v>3.069</v>
       </c>
       <c r="F145" t="n">
-        <v>258000.802</v>
+        <v>200</v>
       </c>
       <c r="G145" t="n">
-        <v>3.05905</v>
+        <v>3.05935</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5675,22 +5491,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>3.069</v>
+        <v>3.044</v>
       </c>
       <c r="C146" t="n">
-        <v>3.069</v>
+        <v>3.032</v>
       </c>
       <c r="D146" t="n">
-        <v>3.069</v>
+        <v>3.044</v>
       </c>
       <c r="E146" t="n">
-        <v>3.069</v>
+        <v>3.032</v>
       </c>
       <c r="F146" t="n">
-        <v>500</v>
+        <v>258000.802</v>
       </c>
       <c r="G146" t="n">
-        <v>3.058999999999999</v>
+        <v>3.05905</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5713,19 +5529,19 @@
         <v>3.069</v>
       </c>
       <c r="C147" t="n">
-        <v>3.079</v>
+        <v>3.069</v>
       </c>
       <c r="D147" t="n">
-        <v>3.079</v>
+        <v>3.069</v>
       </c>
       <c r="E147" t="n">
         <v>3.069</v>
       </c>
       <c r="F147" t="n">
-        <v>602947.9693999999</v>
+        <v>500</v>
       </c>
       <c r="G147" t="n">
-        <v>3.059099999999999</v>
+        <v>3.058999999999999</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5748,19 +5564,19 @@
         <v>3.069</v>
       </c>
       <c r="C148" t="n">
-        <v>3.069</v>
+        <v>3.079</v>
       </c>
       <c r="D148" t="n">
-        <v>3.069</v>
+        <v>3.079</v>
       </c>
       <c r="E148" t="n">
         <v>3.069</v>
       </c>
       <c r="F148" t="n">
-        <v>1617.2202</v>
+        <v>602947.9693999999</v>
       </c>
       <c r="G148" t="n">
-        <v>3.058766666666666</v>
+        <v>3.059099999999999</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5780,22 +5596,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>3.061</v>
+        <v>3.069</v>
       </c>
       <c r="C149" t="n">
-        <v>3.061</v>
+        <v>3.069</v>
       </c>
       <c r="D149" t="n">
-        <v>3.061</v>
+        <v>3.069</v>
       </c>
       <c r="E149" t="n">
-        <v>3.061</v>
+        <v>3.069</v>
       </c>
       <c r="F149" t="n">
-        <v>59400</v>
+        <v>1617.2202</v>
       </c>
       <c r="G149" t="n">
-        <v>3.057983333333333</v>
+        <v>3.058766666666666</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5815,22 +5631,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>3.051</v>
+        <v>3.061</v>
       </c>
       <c r="C150" t="n">
-        <v>3.04</v>
+        <v>3.061</v>
       </c>
       <c r="D150" t="n">
-        <v>3.051</v>
+        <v>3.061</v>
       </c>
       <c r="E150" t="n">
-        <v>3.04</v>
+        <v>3.061</v>
       </c>
       <c r="F150" t="n">
-        <v>178000</v>
+        <v>59400</v>
       </c>
       <c r="G150" t="n">
-        <v>3.056749999999999</v>
+        <v>3.057983333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5850,22 +5666,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>3.075</v>
+        <v>3.051</v>
       </c>
       <c r="C151" t="n">
-        <v>3.075</v>
+        <v>3.04</v>
       </c>
       <c r="D151" t="n">
-        <v>3.075</v>
+        <v>3.051</v>
       </c>
       <c r="E151" t="n">
-        <v>3.075</v>
+        <v>3.04</v>
       </c>
       <c r="F151" t="n">
-        <v>410</v>
+        <v>178000</v>
       </c>
       <c r="G151" t="n">
-        <v>3.056099999999999</v>
+        <v>3.056749999999999</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5885,22 +5701,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>3.042</v>
+        <v>3.075</v>
       </c>
       <c r="C152" t="n">
-        <v>3.04</v>
+        <v>3.075</v>
       </c>
       <c r="D152" t="n">
-        <v>3.042</v>
+        <v>3.075</v>
       </c>
       <c r="E152" t="n">
-        <v>3.04</v>
+        <v>3.075</v>
       </c>
       <c r="F152" t="n">
-        <v>427380.5385</v>
+        <v>410</v>
       </c>
       <c r="G152" t="n">
-        <v>3.054766666666665</v>
+        <v>3.056099999999999</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5920,22 +5736,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3.039</v>
+        <v>3.042</v>
       </c>
       <c r="C153" t="n">
-        <v>3.015</v>
+        <v>3.04</v>
       </c>
       <c r="D153" t="n">
-        <v>3.039</v>
+        <v>3.042</v>
       </c>
       <c r="E153" t="n">
-        <v>3.015</v>
+        <v>3.04</v>
       </c>
       <c r="F153" t="n">
-        <v>177184.6511</v>
+        <v>427380.5385</v>
       </c>
       <c r="G153" t="n">
-        <v>3.053099999999998</v>
+        <v>3.054766666666665</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5955,22 +5771,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>3.05</v>
+        <v>3.039</v>
       </c>
       <c r="C154" t="n">
-        <v>3.05</v>
+        <v>3.015</v>
       </c>
       <c r="D154" t="n">
-        <v>3.05</v>
+        <v>3.039</v>
       </c>
       <c r="E154" t="n">
-        <v>3.05</v>
+        <v>3.015</v>
       </c>
       <c r="F154" t="n">
-        <v>7239.1847</v>
+        <v>177184.6511</v>
       </c>
       <c r="G154" t="n">
-        <v>3.052183333333332</v>
+        <v>3.053099999999998</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5990,22 +5806,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>3.055</v>
+        <v>3.05</v>
       </c>
       <c r="C155" t="n">
-        <v>3.055</v>
+        <v>3.05</v>
       </c>
       <c r="D155" t="n">
-        <v>3.055</v>
+        <v>3.05</v>
       </c>
       <c r="E155" t="n">
-        <v>3.055</v>
+        <v>3.05</v>
       </c>
       <c r="F155" t="n">
-        <v>25927.0808</v>
+        <v>7239.1847</v>
       </c>
       <c r="G155" t="n">
-        <v>3.051416666666666</v>
+        <v>3.052183333333332</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6025,22 +5841,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>3.05</v>
+        <v>3.055</v>
       </c>
       <c r="C156" t="n">
-        <v>3.05</v>
+        <v>3.055</v>
       </c>
       <c r="D156" t="n">
-        <v>3.05</v>
+        <v>3.055</v>
       </c>
       <c r="E156" t="n">
-        <v>3.05</v>
+        <v>3.055</v>
       </c>
       <c r="F156" t="n">
-        <v>4842.6713</v>
+        <v>25927.0808</v>
       </c>
       <c r="G156" t="n">
-        <v>3.050499999999999</v>
+        <v>3.051416666666666</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6072,10 +5888,10 @@
         <v>3.05</v>
       </c>
       <c r="F157" t="n">
-        <v>5063.7485</v>
+        <v>4842.6713</v>
       </c>
       <c r="G157" t="n">
-        <v>3.049649999999999</v>
+        <v>3.050499999999999</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6095,22 +5911,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>3.055</v>
+        <v>3.05</v>
       </c>
       <c r="C158" t="n">
-        <v>3.075</v>
+        <v>3.05</v>
       </c>
       <c r="D158" t="n">
-        <v>3.075</v>
+        <v>3.05</v>
       </c>
       <c r="E158" t="n">
-        <v>3.055</v>
+        <v>3.05</v>
       </c>
       <c r="F158" t="n">
-        <v>78877.6967</v>
+        <v>5063.7485</v>
       </c>
       <c r="G158" t="n">
-        <v>3.049833333333333</v>
+        <v>3.049649999999999</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6130,7 +5946,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>3.075</v>
+        <v>3.055</v>
       </c>
       <c r="C159" t="n">
         <v>3.075</v>
@@ -6139,13 +5955,13 @@
         <v>3.075</v>
       </c>
       <c r="E159" t="n">
-        <v>3.075</v>
+        <v>3.055</v>
       </c>
       <c r="F159" t="n">
-        <v>5304.1062</v>
+        <v>78877.6967</v>
       </c>
       <c r="G159" t="n">
-        <v>3.050133333333333</v>
+        <v>3.049833333333333</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6165,22 +5981,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>3.077</v>
+        <v>3.075</v>
       </c>
       <c r="C160" t="n">
-        <v>3.077</v>
+        <v>3.075</v>
       </c>
       <c r="D160" t="n">
-        <v>3.077</v>
+        <v>3.075</v>
       </c>
       <c r="E160" t="n">
-        <v>3.077</v>
+        <v>3.075</v>
       </c>
       <c r="F160" t="n">
-        <v>5418.483</v>
+        <v>5304.1062</v>
       </c>
       <c r="G160" t="n">
-        <v>3.050766666666666</v>
+        <v>3.050133333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6212,10 +6028,10 @@
         <v>3.077</v>
       </c>
       <c r="F161" t="n">
-        <v>5586.373</v>
+        <v>5418.483</v>
       </c>
       <c r="G161" t="n">
-        <v>3.051116666666666</v>
+        <v>3.050766666666666</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6235,22 +6051,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>3.075</v>
+        <v>3.077</v>
       </c>
       <c r="C162" t="n">
-        <v>3.075</v>
+        <v>3.077</v>
       </c>
       <c r="D162" t="n">
-        <v>3.075</v>
+        <v>3.077</v>
       </c>
       <c r="E162" t="n">
-        <v>3.075</v>
+        <v>3.077</v>
       </c>
       <c r="F162" t="n">
-        <v>8940.543900000001</v>
+        <v>5586.373</v>
       </c>
       <c r="G162" t="n">
-        <v>3.051433333333332</v>
+        <v>3.051116666666666</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6270,22 +6086,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>3.077</v>
+        <v>3.075</v>
       </c>
       <c r="C163" t="n">
-        <v>3.089</v>
+        <v>3.075</v>
       </c>
       <c r="D163" t="n">
-        <v>3.089</v>
+        <v>3.075</v>
       </c>
       <c r="E163" t="n">
-        <v>3.077</v>
+        <v>3.075</v>
       </c>
       <c r="F163" t="n">
-        <v>34223.3138</v>
+        <v>8940.543900000001</v>
       </c>
       <c r="G163" t="n">
-        <v>3.052266666666666</v>
+        <v>3.051433333333332</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6305,7 +6121,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>3.089</v>
+        <v>3.077</v>
       </c>
       <c r="C164" t="n">
         <v>3.089</v>
@@ -6314,13 +6130,13 @@
         <v>3.089</v>
       </c>
       <c r="E164" t="n">
-        <v>3.089</v>
+        <v>3.077</v>
       </c>
       <c r="F164" t="n">
-        <v>177.1889</v>
+        <v>34223.3138</v>
       </c>
       <c r="G164" t="n">
-        <v>3.053099999999999</v>
+        <v>3.052266666666666</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6340,22 +6156,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>3.092</v>
+        <v>3.089</v>
       </c>
       <c r="C165" t="n">
-        <v>3.09</v>
+        <v>3.089</v>
       </c>
       <c r="D165" t="n">
-        <v>3.1</v>
+        <v>3.089</v>
       </c>
       <c r="E165" t="n">
         <v>3.089</v>
       </c>
       <c r="F165" t="n">
-        <v>38919.9588</v>
+        <v>177.1889</v>
       </c>
       <c r="G165" t="n">
-        <v>3.053666666666666</v>
+        <v>3.053099999999999</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6375,22 +6191,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>3.089</v>
+        <v>3.092</v>
       </c>
       <c r="C166" t="n">
-        <v>3.089</v>
+        <v>3.09</v>
       </c>
       <c r="D166" t="n">
-        <v>3.089</v>
+        <v>3.1</v>
       </c>
       <c r="E166" t="n">
         <v>3.089</v>
       </c>
       <c r="F166" t="n">
-        <v>4486.841</v>
+        <v>38919.9588</v>
       </c>
       <c r="G166" t="n">
-        <v>3.054399999999999</v>
+        <v>3.053666666666666</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6410,22 +6226,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>3.085</v>
+        <v>3.089</v>
       </c>
       <c r="C167" t="n">
-        <v>3.085</v>
+        <v>3.089</v>
       </c>
       <c r="D167" t="n">
-        <v>3.085</v>
+        <v>3.089</v>
       </c>
       <c r="E167" t="n">
-        <v>3.077</v>
+        <v>3.089</v>
       </c>
       <c r="F167" t="n">
-        <v>356155.9092</v>
+        <v>4486.841</v>
       </c>
       <c r="G167" t="n">
-        <v>3.055166666666666</v>
+        <v>3.054399999999999</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6448,7 +6264,7 @@
         <v>3.085</v>
       </c>
       <c r="C168" t="n">
-        <v>3.077</v>
+        <v>3.085</v>
       </c>
       <c r="D168" t="n">
         <v>3.085</v>
@@ -6457,10 +6273,10 @@
         <v>3.077</v>
       </c>
       <c r="F168" t="n">
-        <v>77439.0068</v>
+        <v>356155.9092</v>
       </c>
       <c r="G168" t="n">
-        <v>3.0558</v>
+        <v>3.055166666666666</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6480,22 +6296,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>3.077</v>
+        <v>3.085</v>
       </c>
       <c r="C169" t="n">
         <v>3.077</v>
       </c>
       <c r="D169" t="n">
-        <v>3.077</v>
+        <v>3.085</v>
       </c>
       <c r="E169" t="n">
         <v>3.077</v>
       </c>
       <c r="F169" t="n">
-        <v>115.6197</v>
+        <v>77439.0068</v>
       </c>
       <c r="G169" t="n">
-        <v>3.056166666666666</v>
+        <v>3.0558</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6515,22 +6331,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>3.075</v>
+        <v>3.077</v>
       </c>
       <c r="C170" t="n">
-        <v>3.075</v>
+        <v>3.077</v>
       </c>
       <c r="D170" t="n">
-        <v>3.075</v>
+        <v>3.077</v>
       </c>
       <c r="E170" t="n">
-        <v>3.075</v>
+        <v>3.077</v>
       </c>
       <c r="F170" t="n">
-        <v>5764.7659</v>
+        <v>115.6197</v>
       </c>
       <c r="G170" t="n">
-        <v>3.056516666666666</v>
+        <v>3.056166666666666</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6550,22 +6366,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>3.064</v>
+        <v>3.075</v>
       </c>
       <c r="C171" t="n">
-        <v>3.064</v>
+        <v>3.075</v>
       </c>
       <c r="D171" t="n">
-        <v>3.064</v>
+        <v>3.075</v>
       </c>
       <c r="E171" t="n">
-        <v>3.064</v>
+        <v>3.075</v>
       </c>
       <c r="F171" t="n">
-        <v>5001.85</v>
+        <v>5764.7659</v>
       </c>
       <c r="G171" t="n">
-        <v>3.057049999999999</v>
+        <v>3.056516666666666</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6585,22 +6401,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>3.069</v>
+        <v>3.064</v>
       </c>
       <c r="C172" t="n">
-        <v>3.069</v>
+        <v>3.064</v>
       </c>
       <c r="D172" t="n">
-        <v>3.069</v>
+        <v>3.064</v>
       </c>
       <c r="E172" t="n">
-        <v>3.069</v>
+        <v>3.064</v>
       </c>
       <c r="F172" t="n">
-        <v>4451.82</v>
+        <v>5001.85</v>
       </c>
       <c r="G172" t="n">
-        <v>3.057733333333332</v>
+        <v>3.057049999999999</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6620,22 +6436,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>3.073</v>
+        <v>3.069</v>
       </c>
       <c r="C173" t="n">
-        <v>3.077</v>
+        <v>3.069</v>
       </c>
       <c r="D173" t="n">
-        <v>3.077</v>
+        <v>3.069</v>
       </c>
       <c r="E173" t="n">
-        <v>3.073</v>
+        <v>3.069</v>
       </c>
       <c r="F173" t="n">
-        <v>17721.0595</v>
+        <v>4451.82</v>
       </c>
       <c r="G173" t="n">
-        <v>3.058549999999999</v>
+        <v>3.057733333333332</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6655,22 +6471,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
+        <v>3.073</v>
+      </c>
+      <c r="C174" t="n">
         <v>3.077</v>
       </c>
-      <c r="C174" t="n">
-        <v>3.08</v>
-      </c>
       <c r="D174" t="n">
-        <v>3.08</v>
+        <v>3.077</v>
       </c>
       <c r="E174" t="n">
-        <v>3.077</v>
+        <v>3.073</v>
       </c>
       <c r="F174" t="n">
-        <v>20293.494</v>
+        <v>17721.0595</v>
       </c>
       <c r="G174" t="n">
-        <v>3.059049999999999</v>
+        <v>3.058549999999999</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6690,22 +6506,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
+        <v>3.077</v>
+      </c>
+      <c r="C175" t="n">
         <v>3.08</v>
       </c>
-      <c r="C175" t="n">
-        <v>3.085</v>
-      </c>
       <c r="D175" t="n">
-        <v>3.085</v>
+        <v>3.08</v>
       </c>
       <c r="E175" t="n">
-        <v>3.08</v>
+        <v>3.077</v>
       </c>
       <c r="F175" t="n">
-        <v>23007.4615</v>
+        <v>20293.494</v>
       </c>
       <c r="G175" t="n">
-        <v>3.06</v>
+        <v>3.059049999999999</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6725,22 +6541,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="C176" t="n">
         <v>3.085</v>
       </c>
-      <c r="C176" t="n">
-        <v>3.089</v>
-      </c>
       <c r="D176" t="n">
-        <v>3.089</v>
+        <v>3.085</v>
       </c>
       <c r="E176" t="n">
-        <v>3.085</v>
+        <v>3.08</v>
       </c>
       <c r="F176" t="n">
-        <v>18004.56</v>
+        <v>23007.4615</v>
       </c>
       <c r="G176" t="n">
-        <v>3.061016666666666</v>
+        <v>3.06</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6760,22 +6576,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>3.083</v>
+        <v>3.085</v>
       </c>
       <c r="C177" t="n">
-        <v>3.083</v>
+        <v>3.089</v>
       </c>
       <c r="D177" t="n">
-        <v>3.083</v>
+        <v>3.089</v>
       </c>
       <c r="E177" t="n">
-        <v>3.083</v>
+        <v>3.085</v>
       </c>
       <c r="F177" t="n">
-        <v>7004.56</v>
+        <v>18004.56</v>
       </c>
       <c r="G177" t="n">
-        <v>3.061566666666666</v>
+        <v>3.061016666666666</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6795,22 +6611,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>3.081</v>
+        <v>3.083</v>
       </c>
       <c r="C178" t="n">
-        <v>3.081</v>
+        <v>3.083</v>
       </c>
       <c r="D178" t="n">
-        <v>3.081</v>
+        <v>3.083</v>
       </c>
       <c r="E178" t="n">
-        <v>3.081</v>
+        <v>3.083</v>
       </c>
       <c r="F178" t="n">
-        <v>5005.85</v>
+        <v>7004.56</v>
       </c>
       <c r="G178" t="n">
-        <v>3.062083333333332</v>
+        <v>3.061566666666666</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6830,22 +6646,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>3.086</v>
+        <v>3.081</v>
       </c>
       <c r="C179" t="n">
-        <v>3.086</v>
+        <v>3.081</v>
       </c>
       <c r="D179" t="n">
-        <v>3.086</v>
+        <v>3.081</v>
       </c>
       <c r="E179" t="n">
-        <v>3.086</v>
+        <v>3.081</v>
       </c>
       <c r="F179" t="n">
         <v>5005.85</v>
       </c>
       <c r="G179" t="n">
-        <v>3.063099999999999</v>
+        <v>3.062083333333332</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6865,22 +6681,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>3.081</v>
+        <v>3.086</v>
       </c>
       <c r="C180" t="n">
-        <v>3.073</v>
+        <v>3.086</v>
       </c>
       <c r="D180" t="n">
-        <v>3.081</v>
+        <v>3.086</v>
       </c>
       <c r="E180" t="n">
-        <v>3.073</v>
+        <v>3.086</v>
       </c>
       <c r="F180" t="n">
-        <v>39094.826</v>
+        <v>5005.85</v>
       </c>
       <c r="G180" t="n">
-        <v>3.063566666666666</v>
+        <v>3.063099999999999</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6900,22 +6716,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>3.069</v>
+        <v>3.081</v>
       </c>
       <c r="C181" t="n">
-        <v>3.06</v>
+        <v>3.073</v>
       </c>
       <c r="D181" t="n">
-        <v>3.069</v>
+        <v>3.081</v>
       </c>
       <c r="E181" t="n">
-        <v>3.06</v>
+        <v>3.073</v>
       </c>
       <c r="F181" t="n">
-        <v>38572.716</v>
+        <v>39094.826</v>
       </c>
       <c r="G181" t="n">
-        <v>3.063816666666666</v>
+        <v>3.063566666666666</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6935,22 +6751,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>3.06</v>
+        <v>3.069</v>
       </c>
       <c r="C182" t="n">
         <v>3.06</v>
       </c>
       <c r="D182" t="n">
-        <v>3.06</v>
+        <v>3.069</v>
       </c>
       <c r="E182" t="n">
         <v>3.06</v>
       </c>
       <c r="F182" t="n">
-        <v>95454.4253</v>
+        <v>38572.716</v>
       </c>
       <c r="G182" t="n">
-        <v>3.063983333333333</v>
+        <v>3.063816666666666</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6970,22 +6786,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>3.073</v>
+        <v>3.06</v>
       </c>
       <c r="C183" t="n">
-        <v>3.073</v>
+        <v>3.06</v>
       </c>
       <c r="D183" t="n">
-        <v>3.073</v>
+        <v>3.06</v>
       </c>
       <c r="E183" t="n">
-        <v>3.073</v>
+        <v>3.06</v>
       </c>
       <c r="F183" t="n">
-        <v>101986.3753</v>
+        <v>95454.4253</v>
       </c>
       <c r="G183" t="n">
-        <v>3.064916666666667</v>
+        <v>3.063983333333333</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7005,22 +6821,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>3.079</v>
+        <v>3.073</v>
       </c>
       <c r="C184" t="n">
-        <v>3.075</v>
+        <v>3.073</v>
       </c>
       <c r="D184" t="n">
-        <v>3.08</v>
+        <v>3.073</v>
       </c>
       <c r="E184" t="n">
-        <v>3.075</v>
+        <v>3.073</v>
       </c>
       <c r="F184" t="n">
-        <v>134056.5668</v>
+        <v>101986.3753</v>
       </c>
       <c r="G184" t="n">
-        <v>3.0655</v>
+        <v>3.064916666666667</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7040,22 +6856,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>3.07</v>
+        <v>3.079</v>
       </c>
       <c r="C185" t="n">
-        <v>3.067</v>
+        <v>3.075</v>
       </c>
       <c r="D185" t="n">
-        <v>3.07</v>
+        <v>3.08</v>
       </c>
       <c r="E185" t="n">
-        <v>3.067</v>
+        <v>3.075</v>
       </c>
       <c r="F185" t="n">
-        <v>26684.58</v>
+        <v>134056.5668</v>
       </c>
       <c r="G185" t="n">
-        <v>3.06595</v>
+        <v>3.0655</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7075,22 +6891,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>3.067</v>
+        <v>3.07</v>
       </c>
       <c r="C186" t="n">
         <v>3.067</v>
       </c>
       <c r="D186" t="n">
-        <v>3.067</v>
+        <v>3.07</v>
       </c>
       <c r="E186" t="n">
         <v>3.067</v>
       </c>
       <c r="F186" t="n">
-        <v>97060.3759</v>
+        <v>26684.58</v>
       </c>
       <c r="G186" t="n">
-        <v>3.066133333333333</v>
+        <v>3.06595</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7110,22 +6926,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>3.079</v>
+        <v>3.067</v>
       </c>
       <c r="C187" t="n">
-        <v>3.079</v>
+        <v>3.067</v>
       </c>
       <c r="D187" t="n">
-        <v>3.079</v>
+        <v>3.067</v>
       </c>
       <c r="E187" t="n">
-        <v>3.079</v>
+        <v>3.067</v>
       </c>
       <c r="F187" t="n">
-        <v>35001.56</v>
+        <v>97060.3759</v>
       </c>
       <c r="G187" t="n">
-        <v>3.066066666666666</v>
+        <v>3.066133333333333</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7145,22 +6961,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>3.075</v>
+        <v>3.079</v>
       </c>
       <c r="C188" t="n">
-        <v>3.022</v>
+        <v>3.079</v>
       </c>
       <c r="D188" t="n">
-        <v>3.075</v>
+        <v>3.079</v>
       </c>
       <c r="E188" t="n">
-        <v>3.022</v>
+        <v>3.079</v>
       </c>
       <c r="F188" t="n">
-        <v>464490.7872</v>
+        <v>35001.56</v>
       </c>
       <c r="G188" t="n">
-        <v>3.064916666666667</v>
+        <v>3.066066666666666</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7180,22 +6996,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>3.057</v>
+        <v>3.075</v>
       </c>
       <c r="C189" t="n">
-        <v>3.067</v>
+        <v>3.022</v>
       </c>
       <c r="D189" t="n">
-        <v>3.067</v>
+        <v>3.075</v>
       </c>
       <c r="E189" t="n">
-        <v>3.057</v>
+        <v>3.022</v>
       </c>
       <c r="F189" t="n">
-        <v>27504</v>
+        <v>464490.7872</v>
       </c>
       <c r="G189" t="n">
-        <v>3.06435</v>
+        <v>3.064916666666667</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7215,22 +7031,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>3.056</v>
+        <v>3.057</v>
       </c>
       <c r="C190" t="n">
-        <v>3.056</v>
+        <v>3.067</v>
       </c>
       <c r="D190" t="n">
-        <v>3.056</v>
+        <v>3.067</v>
       </c>
       <c r="E190" t="n">
-        <v>3.056</v>
+        <v>3.057</v>
       </c>
       <c r="F190" t="n">
-        <v>9009.559999999999</v>
+        <v>27504</v>
       </c>
       <c r="G190" t="n">
-        <v>3.06445</v>
+        <v>3.06435</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7250,22 +7066,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>3.049</v>
+        <v>3.056</v>
       </c>
       <c r="C191" t="n">
-        <v>3.049</v>
+        <v>3.056</v>
       </c>
       <c r="D191" t="n">
-        <v>3.049</v>
+        <v>3.056</v>
       </c>
       <c r="E191" t="n">
-        <v>3.049</v>
+        <v>3.056</v>
       </c>
       <c r="F191" t="n">
-        <v>65602.9892</v>
+        <v>9009.559999999999</v>
       </c>
       <c r="G191" t="n">
-        <v>3.064433333333333</v>
+        <v>3.06445</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7285,22 +7101,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>3.076</v>
+        <v>3.049</v>
       </c>
       <c r="C192" t="n">
-        <v>3.069</v>
+        <v>3.049</v>
       </c>
       <c r="D192" t="n">
-        <v>3.076</v>
+        <v>3.049</v>
       </c>
       <c r="E192" t="n">
-        <v>3.069</v>
+        <v>3.049</v>
       </c>
       <c r="F192" t="n">
-        <v>20323.7</v>
+        <v>65602.9892</v>
       </c>
       <c r="G192" t="n">
-        <v>3.064749999999999</v>
+        <v>3.064433333333333</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7320,22 +7136,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>3.071</v>
+        <v>3.076</v>
       </c>
       <c r="C193" t="n">
-        <v>3.071</v>
+        <v>3.069</v>
       </c>
       <c r="D193" t="n">
-        <v>3.071</v>
+        <v>3.076</v>
       </c>
       <c r="E193" t="n">
-        <v>3.071</v>
+        <v>3.069</v>
       </c>
       <c r="F193" t="n">
-        <v>6006.56</v>
+        <v>20323.7</v>
       </c>
       <c r="G193" t="n">
-        <v>3.065099999999999</v>
+        <v>3.064749999999999</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7355,22 +7171,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>3.063</v>
+        <v>3.071</v>
       </c>
       <c r="C194" t="n">
-        <v>3.062</v>
+        <v>3.071</v>
       </c>
       <c r="D194" t="n">
-        <v>3.063</v>
+        <v>3.071</v>
       </c>
       <c r="E194" t="n">
-        <v>3.062</v>
+        <v>3.071</v>
       </c>
       <c r="F194" t="n">
-        <v>92694.2558</v>
+        <v>6006.56</v>
       </c>
       <c r="G194" t="n">
-        <v>3.065249999999999</v>
+        <v>3.065099999999999</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7390,22 +7206,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>3.058</v>
+        <v>3.063</v>
       </c>
       <c r="C195" t="n">
-        <v>3.058</v>
+        <v>3.062</v>
       </c>
       <c r="D195" t="n">
-        <v>3.058</v>
+        <v>3.063</v>
       </c>
       <c r="E195" t="n">
-        <v>3.058</v>
+        <v>3.062</v>
       </c>
       <c r="F195" t="n">
-        <v>121101.2592</v>
+        <v>92694.2558</v>
       </c>
       <c r="G195" t="n">
-        <v>3.065816666666666</v>
+        <v>3.065249999999999</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7425,22 +7241,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>3.057</v>
+        <v>3.058</v>
       </c>
       <c r="C196" t="n">
-        <v>3.057</v>
+        <v>3.058</v>
       </c>
       <c r="D196" t="n">
-        <v>3.057</v>
+        <v>3.058</v>
       </c>
       <c r="E196" t="n">
-        <v>3.057</v>
+        <v>3.058</v>
       </c>
       <c r="F196" t="n">
-        <v>2580.8187</v>
+        <v>121101.2592</v>
       </c>
       <c r="G196" t="n">
-        <v>3.066366666666666</v>
+        <v>3.065816666666666</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7460,22 +7276,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>3.07</v>
+        <v>3.057</v>
       </c>
       <c r="C197" t="n">
-        <v>3.07</v>
+        <v>3.057</v>
       </c>
       <c r="D197" t="n">
-        <v>3.07</v>
+        <v>3.057</v>
       </c>
       <c r="E197" t="n">
-        <v>3.07</v>
+        <v>3.057</v>
       </c>
       <c r="F197" t="n">
-        <v>163</v>
+        <v>2580.8187</v>
       </c>
       <c r="G197" t="n">
-        <v>3.066383333333333</v>
+        <v>3.066366666666666</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7495,22 +7311,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>3.057</v>
+        <v>3.07</v>
       </c>
       <c r="C198" t="n">
-        <v>3.057</v>
+        <v>3.07</v>
       </c>
       <c r="D198" t="n">
-        <v>3.057</v>
+        <v>3.07</v>
       </c>
       <c r="E198" t="n">
-        <v>3.057</v>
+        <v>3.07</v>
       </c>
       <c r="F198" t="n">
-        <v>2000</v>
+        <v>163</v>
       </c>
       <c r="G198" t="n">
-        <v>3.065999999999999</v>
+        <v>3.066383333333333</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7533,19 +7349,19 @@
         <v>3.057</v>
       </c>
       <c r="C199" t="n">
-        <v>3.051</v>
+        <v>3.057</v>
       </c>
       <c r="D199" t="n">
         <v>3.057</v>
       </c>
       <c r="E199" t="n">
-        <v>3.051</v>
+        <v>3.057</v>
       </c>
       <c r="F199" t="n">
-        <v>23202.5973</v>
+        <v>2000</v>
       </c>
       <c r="G199" t="n">
-        <v>3.066083333333332</v>
+        <v>3.065999999999999</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7565,22 +7381,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>3.049</v>
+        <v>3.057</v>
       </c>
       <c r="C200" t="n">
-        <v>3.044</v>
+        <v>3.051</v>
       </c>
       <c r="D200" t="n">
-        <v>3.049</v>
+        <v>3.057</v>
       </c>
       <c r="E200" t="n">
-        <v>3.044</v>
+        <v>3.051</v>
       </c>
       <c r="F200" t="n">
-        <v>130727.8281</v>
+        <v>23202.5973</v>
       </c>
       <c r="G200" t="n">
-        <v>3.066049999999999</v>
+        <v>3.066083333333332</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7600,22 +7416,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>3.042</v>
+        <v>3.049</v>
       </c>
       <c r="C201" t="n">
-        <v>3.042</v>
+        <v>3.044</v>
       </c>
       <c r="D201" t="n">
-        <v>3.042</v>
+        <v>3.049</v>
       </c>
       <c r="E201" t="n">
-        <v>3.042</v>
+        <v>3.044</v>
       </c>
       <c r="F201" t="n">
-        <v>9805.980299999999</v>
+        <v>130727.8281</v>
       </c>
       <c r="G201" t="n">
-        <v>3.065783333333333</v>
+        <v>3.066049999999999</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7635,22 +7451,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>3.04</v>
+        <v>3.042</v>
       </c>
       <c r="C202" t="n">
-        <v>3.022</v>
+        <v>3.042</v>
       </c>
       <c r="D202" t="n">
-        <v>3.04</v>
+        <v>3.042</v>
       </c>
       <c r="E202" t="n">
-        <v>3.022</v>
+        <v>3.042</v>
       </c>
       <c r="F202" t="n">
-        <v>903465.3605</v>
+        <v>9805.980299999999</v>
       </c>
       <c r="G202" t="n">
-        <v>3.065316666666666</v>
+        <v>3.065783333333333</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7670,22 +7486,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>3.022</v>
+        <v>3.04</v>
       </c>
       <c r="C203" t="n">
         <v>3.022</v>
       </c>
       <c r="D203" t="n">
-        <v>3.022</v>
+        <v>3.04</v>
       </c>
       <c r="E203" t="n">
         <v>3.022</v>
       </c>
       <c r="F203" t="n">
-        <v>9815.837100000001</v>
+        <v>903465.3605</v>
       </c>
       <c r="G203" t="n">
-        <v>3.064849999999999</v>
+        <v>3.065316666666666</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7705,22 +7521,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>3.021</v>
+        <v>3.022</v>
       </c>
       <c r="C204" t="n">
-        <v>3.02</v>
+        <v>3.022</v>
       </c>
       <c r="D204" t="n">
-        <v>3.021</v>
+        <v>3.022</v>
       </c>
       <c r="E204" t="n">
-        <v>3.013</v>
+        <v>3.022</v>
       </c>
       <c r="F204" t="n">
-        <v>648059.4692000001</v>
+        <v>9815.837100000001</v>
       </c>
       <c r="G204" t="n">
-        <v>3.064033333333332</v>
+        <v>3.064849999999999</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7740,22 +7556,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>3.02</v>
+        <v>3.021</v>
       </c>
       <c r="C205" t="n">
         <v>3.02</v>
       </c>
       <c r="D205" t="n">
-        <v>3.02</v>
+        <v>3.021</v>
       </c>
       <c r="E205" t="n">
-        <v>3.02</v>
+        <v>3.013</v>
       </c>
       <c r="F205" t="n">
-        <v>1014.9485</v>
+        <v>648059.4692000001</v>
       </c>
       <c r="G205" t="n">
-        <v>3.063833333333332</v>
+        <v>3.064033333333332</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7778,19 +7594,19 @@
         <v>3.02</v>
       </c>
       <c r="C206" t="n">
-        <v>3.013</v>
+        <v>3.02</v>
       </c>
       <c r="D206" t="n">
         <v>3.02</v>
       </c>
       <c r="E206" t="n">
-        <v>3.013</v>
+        <v>3.02</v>
       </c>
       <c r="F206" t="n">
-        <v>332813.6322</v>
+        <v>1014.9485</v>
       </c>
       <c r="G206" t="n">
-        <v>3.062899999999999</v>
+        <v>3.063833333333332</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7822,10 +7638,10 @@
         <v>3.013</v>
       </c>
       <c r="F207" t="n">
-        <v>33170.772</v>
+        <v>332813.6322</v>
       </c>
       <c r="G207" t="n">
-        <v>3.061799999999999</v>
+        <v>3.062899999999999</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7845,22 +7661,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>3.021</v>
+        <v>3.02</v>
       </c>
       <c r="C208" t="n">
-        <v>3.006</v>
+        <v>3.013</v>
       </c>
       <c r="D208" t="n">
-        <v>3.021</v>
+        <v>3.02</v>
       </c>
       <c r="E208" t="n">
-        <v>3.006</v>
+        <v>3.013</v>
       </c>
       <c r="F208" t="n">
-        <v>2214112.127</v>
+        <v>33170.772</v>
       </c>
       <c r="G208" t="n">
-        <v>3.060749999999999</v>
+        <v>3.061799999999999</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7880,22 +7696,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>3.01</v>
+        <v>3.021</v>
       </c>
       <c r="C209" t="n">
         <v>3.006</v>
       </c>
       <c r="D209" t="n">
-        <v>3.01</v>
+        <v>3.021</v>
       </c>
       <c r="E209" t="n">
         <v>3.006</v>
       </c>
       <c r="F209" t="n">
-        <v>386126.466</v>
+        <v>2214112.127</v>
       </c>
       <c r="G209" t="n">
-        <v>3.059833333333332</v>
+        <v>3.060749999999999</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7910,6 +7726,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="C210" t="n">
+        <v>3.006</v>
+      </c>
+      <c r="D210" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="E210" t="n">
+        <v>3.006</v>
+      </c>
+      <c r="F210" t="n">
+        <v>386126.466</v>
+      </c>
+      <c r="G210" t="n">
+        <v>3.059833333333332</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-21 BackTest MIX.xlsx
+++ b/BackTest/2020-01-21 BackTest MIX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M249"/>
+  <dimension ref="A1:N207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.032</v>
+        <v>3.051</v>
       </c>
       <c r="C2" t="n">
-        <v>3.031</v>
+        <v>3.051</v>
       </c>
       <c r="D2" t="n">
-        <v>3.032</v>
+        <v>3.051</v>
       </c>
       <c r="E2" t="n">
-        <v>3.031</v>
+        <v>3.051</v>
       </c>
       <c r="F2" t="n">
-        <v>52644.7433</v>
+        <v>18344.834</v>
       </c>
       <c r="G2" t="n">
-        <v>-7722018.952394805</v>
+        <v>-8989906.829855125</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.047</v>
+        <v>3.051</v>
       </c>
       <c r="C3" t="n">
-        <v>3.047</v>
+        <v>3.051</v>
       </c>
       <c r="D3" t="n">
-        <v>3.047</v>
+        <v>3.051</v>
       </c>
       <c r="E3" t="n">
-        <v>3.047</v>
+        <v>3.051</v>
       </c>
       <c r="F3" t="n">
-        <v>24387.36266983919</v>
+        <v>5205.4068</v>
       </c>
       <c r="G3" t="n">
-        <v>-7697631.589724965</v>
+        <v>-8989906.829855125</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.047</v>
+        <v>3.08</v>
       </c>
       <c r="C4" t="n">
-        <v>3.006</v>
+        <v>3.08</v>
       </c>
       <c r="D4" t="n">
-        <v>3.047</v>
+        <v>3.08</v>
       </c>
       <c r="E4" t="n">
-        <v>3.006</v>
+        <v>3.08</v>
       </c>
       <c r="F4" t="n">
-        <v>789260.5994301608</v>
+        <v>163</v>
       </c>
       <c r="G4" t="n">
-        <v>-8486892.189155126</v>
+        <v>-8989743.829855125</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.02</v>
+        <v>3.058</v>
       </c>
       <c r="C5" t="n">
-        <v>3.006</v>
+        <v>3.058</v>
       </c>
       <c r="D5" t="n">
-        <v>3.02</v>
+        <v>3.058</v>
       </c>
       <c r="E5" t="n">
-        <v>3.006</v>
+        <v>3.058</v>
       </c>
       <c r="F5" t="n">
-        <v>279548.4957</v>
+        <v>5343.2514</v>
       </c>
       <c r="G5" t="n">
-        <v>-8486892.189155126</v>
+        <v>-8995087.081255125</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.006</v>
+        <v>3.058</v>
       </c>
       <c r="C6" t="n">
-        <v>3.006</v>
+        <v>3.058</v>
       </c>
       <c r="D6" t="n">
-        <v>3.006</v>
+        <v>3.058</v>
       </c>
       <c r="E6" t="n">
-        <v>3.006</v>
+        <v>3.058</v>
       </c>
       <c r="F6" t="n">
-        <v>5778.3817</v>
+        <v>94657.50900000001</v>
       </c>
       <c r="G6" t="n">
-        <v>-8486892.189155126</v>
+        <v>-8995087.081255125</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.04</v>
+        <v>3.057</v>
       </c>
       <c r="C7" t="n">
-        <v>3.04</v>
+        <v>3.057</v>
       </c>
       <c r="D7" t="n">
-        <v>3.04</v>
+        <v>3.057</v>
       </c>
       <c r="E7" t="n">
-        <v>3.04</v>
+        <v>3.057</v>
       </c>
       <c r="F7" t="n">
-        <v>52645.393</v>
+        <v>48141.4911</v>
       </c>
       <c r="G7" t="n">
-        <v>-8434246.796155127</v>
+        <v>-9043228.572355125</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.037</v>
+        <v>3.08</v>
       </c>
       <c r="C8" t="n">
-        <v>3.032</v>
+        <v>3.09</v>
       </c>
       <c r="D8" t="n">
-        <v>3.037</v>
+        <v>3.09</v>
       </c>
       <c r="E8" t="n">
-        <v>3.032</v>
+        <v>3.08</v>
       </c>
       <c r="F8" t="n">
-        <v>38881.9264</v>
+        <v>48543.6894</v>
       </c>
       <c r="G8" t="n">
-        <v>-8473128.722555127</v>
+        <v>-8994684.882955125</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.032</v>
+        <v>3.09</v>
       </c>
       <c r="C9" t="n">
-        <v>3.032</v>
+        <v>3.057</v>
       </c>
       <c r="D9" t="n">
-        <v>3.032</v>
+        <v>3.09</v>
       </c>
       <c r="E9" t="n">
-        <v>3.032</v>
+        <v>3.057</v>
       </c>
       <c r="F9" t="n">
-        <v>27293.7283</v>
+        <v>574139.2609</v>
       </c>
       <c r="G9" t="n">
-        <v>-8473128.722555127</v>
+        <v>-9568824.143855125</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.032</v>
+        <v>3.09</v>
       </c>
       <c r="C10" t="n">
-        <v>3.032</v>
+        <v>3.09</v>
       </c>
       <c r="D10" t="n">
-        <v>3.032</v>
+        <v>3.09</v>
       </c>
       <c r="E10" t="n">
-        <v>3.032</v>
+        <v>3.09</v>
       </c>
       <c r="F10" t="n">
-        <v>179570.967</v>
+        <v>200</v>
       </c>
       <c r="G10" t="n">
-        <v>-8473128.722555127</v>
+        <v>-9568624.143855125</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.031</v>
+        <v>3.103</v>
       </c>
       <c r="C11" t="n">
-        <v>3.031</v>
+        <v>3.103</v>
       </c>
       <c r="D11" t="n">
-        <v>3.031</v>
+        <v>3.103</v>
       </c>
       <c r="E11" t="n">
-        <v>3.031</v>
+        <v>3.103</v>
       </c>
       <c r="F11" t="n">
-        <v>10607.8026</v>
+        <v>200</v>
       </c>
       <c r="G11" t="n">
-        <v>-8483736.525155127</v>
+        <v>-9568424.143855125</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.03</v>
+        <v>3.061</v>
       </c>
       <c r="C12" t="n">
-        <v>3.029</v>
+        <v>3.061</v>
       </c>
       <c r="D12" t="n">
-        <v>3.03</v>
+        <v>3.061</v>
       </c>
       <c r="E12" t="n">
-        <v>3.029</v>
+        <v>3.061</v>
       </c>
       <c r="F12" t="n">
-        <v>30755.2195</v>
+        <v>65000</v>
       </c>
       <c r="G12" t="n">
-        <v>-8514491.744655127</v>
+        <v>-9633424.143855125</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.03</v>
+        <v>3.079</v>
       </c>
       <c r="C13" t="n">
-        <v>3.027</v>
+        <v>3.079</v>
       </c>
       <c r="D13" t="n">
-        <v>3.03</v>
+        <v>3.079</v>
       </c>
       <c r="E13" t="n">
-        <v>3.027</v>
+        <v>3.079</v>
       </c>
       <c r="F13" t="n">
-        <v>45964.8766</v>
+        <v>40433.9621</v>
       </c>
       <c r="G13" t="n">
-        <v>-8560456.621255126</v>
+        <v>-9592990.181755126</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.047</v>
+        <v>3.061</v>
       </c>
       <c r="C14" t="n">
-        <v>3.067</v>
+        <v>3.061</v>
       </c>
       <c r="D14" t="n">
-        <v>3.067</v>
+        <v>3.061</v>
       </c>
       <c r="E14" t="n">
-        <v>3.047</v>
+        <v>3.061</v>
       </c>
       <c r="F14" t="n">
-        <v>300000</v>
+        <v>33304.6532</v>
       </c>
       <c r="G14" t="n">
-        <v>-8260456.621255126</v>
+        <v>-9626294.834955126</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.057</v>
+        <v>3.08</v>
       </c>
       <c r="C15" t="n">
-        <v>3.057</v>
+        <v>3.051</v>
       </c>
       <c r="D15" t="n">
-        <v>3.057</v>
+        <v>3.08</v>
       </c>
       <c r="E15" t="n">
-        <v>3.057</v>
+        <v>3.051</v>
       </c>
       <c r="F15" t="n">
-        <v>3000</v>
+        <v>339942.3026</v>
       </c>
       <c r="G15" t="n">
-        <v>-8263456.621255126</v>
+        <v>-9966237.137555126</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.057</v>
+        <v>3.076</v>
       </c>
       <c r="C16" t="n">
-        <v>3.057</v>
+        <v>3.076</v>
       </c>
       <c r="D16" t="n">
-        <v>3.057</v>
+        <v>3.076</v>
       </c>
       <c r="E16" t="n">
-        <v>3.057</v>
+        <v>3.076</v>
       </c>
       <c r="F16" t="n">
-        <v>341294.9559</v>
+        <v>500</v>
       </c>
       <c r="G16" t="n">
-        <v>-8263456.621255126</v>
+        <v>-9965737.137555126</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.057</v>
+        <v>3.076</v>
       </c>
       <c r="C17" t="n">
-        <v>3.057</v>
+        <v>3.076</v>
       </c>
       <c r="D17" t="n">
-        <v>3.057</v>
+        <v>3.076</v>
       </c>
       <c r="E17" t="n">
-        <v>3.057</v>
+        <v>3.076</v>
       </c>
       <c r="F17" t="n">
-        <v>10330</v>
+        <v>2328.2851</v>
       </c>
       <c r="G17" t="n">
-        <v>-8263456.621255126</v>
+        <v>-9965737.137555126</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.057</v>
+        <v>3.06</v>
       </c>
       <c r="C18" t="n">
-        <v>3.057</v>
+        <v>3.051</v>
       </c>
       <c r="D18" t="n">
-        <v>3.057</v>
+        <v>3.06</v>
       </c>
       <c r="E18" t="n">
-        <v>3.057</v>
+        <v>3.051</v>
       </c>
       <c r="F18" t="n">
-        <v>2253.9072</v>
+        <v>113247.4342</v>
       </c>
       <c r="G18" t="n">
-        <v>-8263456.621255126</v>
+        <v>-10078984.57175513</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.036</v>
+        <v>3.052</v>
       </c>
       <c r="C19" t="n">
-        <v>3.016</v>
+        <v>3.05</v>
       </c>
       <c r="D19" t="n">
-        <v>3.036</v>
+        <v>3.052</v>
       </c>
       <c r="E19" t="n">
-        <v>3.016</v>
+        <v>3.05</v>
       </c>
       <c r="F19" t="n">
-        <v>1312953.0776</v>
+        <v>816599.1243</v>
       </c>
       <c r="G19" t="n">
-        <v>-9576409.698855126</v>
+        <v>-10895583.69605513</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.016</v>
+        <v>3.05</v>
       </c>
       <c r="C20" t="n">
-        <v>3.016</v>
+        <v>3.05</v>
       </c>
       <c r="D20" t="n">
-        <v>3.016</v>
+        <v>3.05</v>
       </c>
       <c r="E20" t="n">
-        <v>3.016</v>
+        <v>3.05</v>
       </c>
       <c r="F20" t="n">
-        <v>193625.0704</v>
+        <v>74439.6327</v>
       </c>
       <c r="G20" t="n">
-        <v>-9576409.698855126</v>
+        <v>-10895583.69605513</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.022</v>
+        <v>3.05</v>
       </c>
       <c r="C21" t="n">
-        <v>3.022</v>
+        <v>3.048</v>
       </c>
       <c r="D21" t="n">
-        <v>3.022</v>
+        <v>3.05</v>
       </c>
       <c r="E21" t="n">
-        <v>3.022</v>
+        <v>3.048</v>
       </c>
       <c r="F21" t="n">
-        <v>1000</v>
+        <v>900000.856</v>
       </c>
       <c r="G21" t="n">
-        <v>-9575409.698855126</v>
+        <v>-11795584.55205513</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.057</v>
+        <v>3.076</v>
       </c>
       <c r="C22" t="n">
-        <v>3.057</v>
+        <v>3.076</v>
       </c>
       <c r="D22" t="n">
-        <v>3.057</v>
+        <v>3.076</v>
       </c>
       <c r="E22" t="n">
-        <v>3.057</v>
+        <v>3.076</v>
       </c>
       <c r="F22" t="n">
-        <v>491.6462</v>
+        <v>577.4413</v>
       </c>
       <c r="G22" t="n">
-        <v>-9574918.052655127</v>
+        <v>-11795007.11075513</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.057</v>
+        <v>3.063</v>
       </c>
       <c r="C23" t="n">
-        <v>3.067</v>
+        <v>3.063</v>
       </c>
       <c r="D23" t="n">
-        <v>3.067</v>
+        <v>3.063</v>
       </c>
       <c r="E23" t="n">
-        <v>3.057</v>
+        <v>3.063</v>
       </c>
       <c r="F23" t="n">
-        <v>8078.7222</v>
+        <v>25001.856</v>
       </c>
       <c r="G23" t="n">
-        <v>-9566839.330455126</v>
+        <v>-11820008.96675513</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.028</v>
+        <v>3.063</v>
       </c>
       <c r="C24" t="n">
-        <v>3.028</v>
+        <v>3.063</v>
       </c>
       <c r="D24" t="n">
-        <v>3.028</v>
+        <v>3.063</v>
       </c>
       <c r="E24" t="n">
-        <v>3.028</v>
+        <v>3.063</v>
       </c>
       <c r="F24" t="n">
-        <v>43520.0638</v>
+        <v>2096.9101</v>
       </c>
       <c r="G24" t="n">
-        <v>-9610359.394255126</v>
+        <v>-11820008.96675513</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.066</v>
+        <v>3.063</v>
       </c>
       <c r="C25" t="n">
-        <v>3.066</v>
+        <v>3.063</v>
       </c>
       <c r="D25" t="n">
-        <v>3.066</v>
+        <v>3.063</v>
       </c>
       <c r="E25" t="n">
-        <v>3.066</v>
+        <v>3.063</v>
       </c>
       <c r="F25" t="n">
-        <v>500</v>
+        <v>3327.3362</v>
       </c>
       <c r="G25" t="n">
-        <v>-9609859.394255126</v>
+        <v>-11820008.96675513</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.066</v>
+        <v>3.058</v>
       </c>
       <c r="C26" t="n">
-        <v>3.117</v>
+        <v>3.057</v>
       </c>
       <c r="D26" t="n">
-        <v>3.117</v>
+        <v>3.058</v>
       </c>
       <c r="E26" t="n">
-        <v>3.066</v>
+        <v>3.057</v>
       </c>
       <c r="F26" t="n">
-        <v>900000</v>
+        <v>98000</v>
       </c>
       <c r="G26" t="n">
-        <v>-8709859.394255126</v>
+        <v>-11918008.96675513</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.117</v>
+        <v>3.057</v>
       </c>
       <c r="C27" t="n">
-        <v>3.117</v>
+        <v>3.057</v>
       </c>
       <c r="D27" t="n">
-        <v>3.117</v>
+        <v>3.057</v>
       </c>
       <c r="E27" t="n">
-        <v>3.117</v>
+        <v>3.057</v>
       </c>
       <c r="F27" t="n">
-        <v>357565.0564</v>
+        <v>163908.6624</v>
       </c>
       <c r="G27" t="n">
-        <v>-8709859.394255126</v>
+        <v>-11918008.96675513</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.09</v>
+        <v>3.053</v>
       </c>
       <c r="C28" t="n">
-        <v>3.09</v>
+        <v>3.053</v>
       </c>
       <c r="D28" t="n">
-        <v>3.09</v>
+        <v>3.053</v>
       </c>
       <c r="E28" t="n">
-        <v>3.09</v>
+        <v>3.053</v>
       </c>
       <c r="F28" t="n">
-        <v>5875.7378</v>
+        <v>6640.2239</v>
       </c>
       <c r="G28" t="n">
-        <v>-8715735.132055126</v>
+        <v>-11924649.19065513</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.09</v>
+        <v>3.053</v>
       </c>
       <c r="C29" t="n">
-        <v>3.09</v>
+        <v>3.049</v>
       </c>
       <c r="D29" t="n">
-        <v>3.09</v>
+        <v>3.053</v>
       </c>
       <c r="E29" t="n">
-        <v>3.09</v>
+        <v>3.049</v>
       </c>
       <c r="F29" t="n">
-        <v>17130</v>
+        <v>25798.8434</v>
       </c>
       <c r="G29" t="n">
-        <v>-8715735.132055126</v>
+        <v>-11950448.03405513</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.08</v>
+        <v>3.049</v>
       </c>
       <c r="C30" t="n">
-        <v>3.063</v>
+        <v>3.048</v>
       </c>
       <c r="D30" t="n">
-        <v>3.08</v>
+        <v>3.049</v>
       </c>
       <c r="E30" t="n">
-        <v>3.063</v>
+        <v>3.048</v>
       </c>
       <c r="F30" t="n">
-        <v>40250</v>
+        <v>204003.5565</v>
       </c>
       <c r="G30" t="n">
-        <v>-8755985.132055126</v>
+        <v>-12154451.59055513</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.099</v>
+        <v>3.048</v>
       </c>
       <c r="C31" t="n">
-        <v>3.099</v>
+        <v>3.048</v>
       </c>
       <c r="D31" t="n">
-        <v>3.099</v>
+        <v>3.048</v>
       </c>
       <c r="E31" t="n">
-        <v>3.099</v>
+        <v>3.048</v>
       </c>
       <c r="F31" t="n">
-        <v>2000</v>
+        <v>9207.227999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>-8753985.132055126</v>
+        <v>-12154451.59055513</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.08</v>
+        <v>3.047</v>
       </c>
       <c r="C32" t="n">
-        <v>3.075</v>
+        <v>3.045</v>
       </c>
       <c r="D32" t="n">
-        <v>3.08</v>
+        <v>3.047</v>
       </c>
       <c r="E32" t="n">
-        <v>3.075</v>
+        <v>3.045</v>
       </c>
       <c r="F32" t="n">
-        <v>86290</v>
+        <v>31860.196</v>
       </c>
       <c r="G32" t="n">
-        <v>-8840275.132055126</v>
+        <v>-12186311.78655513</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.09</v>
+        <v>3.043</v>
       </c>
       <c r="C33" t="n">
-        <v>3.09</v>
+        <v>3.04</v>
       </c>
       <c r="D33" t="n">
-        <v>3.09</v>
+        <v>3.043</v>
       </c>
       <c r="E33" t="n">
-        <v>3.09</v>
+        <v>3.04</v>
       </c>
       <c r="F33" t="n">
-        <v>500</v>
+        <v>43193.7778</v>
       </c>
       <c r="G33" t="n">
-        <v>-8839775.132055126</v>
+        <v>-12229505.56435513</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.08</v>
+        <v>3.03</v>
       </c>
       <c r="C34" t="n">
-        <v>3.079</v>
+        <v>3.028</v>
       </c>
       <c r="D34" t="n">
-        <v>3.08</v>
+        <v>3.03</v>
       </c>
       <c r="E34" t="n">
-        <v>3.04</v>
+        <v>3.028</v>
       </c>
       <c r="F34" t="n">
-        <v>123822.0622</v>
+        <v>13009.11</v>
       </c>
       <c r="G34" t="n">
-        <v>-8963597.194255127</v>
+        <v>-12242514.67435513</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.068</v>
+        <v>3.027</v>
       </c>
       <c r="C35" t="n">
-        <v>3.068</v>
+        <v>3.024</v>
       </c>
       <c r="D35" t="n">
-        <v>3.068</v>
+        <v>3.027</v>
       </c>
       <c r="E35" t="n">
-        <v>3.068</v>
+        <v>3.024</v>
       </c>
       <c r="F35" t="n">
-        <v>18983.063</v>
+        <v>12876.5904</v>
       </c>
       <c r="G35" t="n">
-        <v>-8982580.257255126</v>
+        <v>-12255391.26475513</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.069</v>
+        <v>3.03</v>
       </c>
       <c r="C36" t="n">
-        <v>3.069</v>
+        <v>3.03</v>
       </c>
       <c r="D36" t="n">
-        <v>3.069</v>
+        <v>3.03</v>
       </c>
       <c r="E36" t="n">
-        <v>3.069</v>
+        <v>3.03</v>
       </c>
       <c r="F36" t="n">
-        <v>21686.937</v>
+        <v>500</v>
       </c>
       <c r="G36" t="n">
-        <v>-8960893.320255125</v>
+        <v>-12254891.26475513</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.051</v>
+        <v>3.024</v>
       </c>
       <c r="C37" t="n">
-        <v>3.051</v>
+        <v>3.024</v>
       </c>
       <c r="D37" t="n">
-        <v>3.051</v>
+        <v>3.024</v>
       </c>
       <c r="E37" t="n">
-        <v>3.051</v>
+        <v>3.024</v>
       </c>
       <c r="F37" t="n">
-        <v>40530</v>
+        <v>252.0383</v>
       </c>
       <c r="G37" t="n">
-        <v>-9001423.320255125</v>
+        <v>-12255143.30305513</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.051</v>
+        <v>3.023</v>
       </c>
       <c r="C38" t="n">
-        <v>3.051</v>
+        <v>3.015</v>
       </c>
       <c r="D38" t="n">
-        <v>3.051</v>
+        <v>3.023</v>
       </c>
       <c r="E38" t="n">
-        <v>3.051</v>
+        <v>3.015</v>
       </c>
       <c r="F38" t="n">
-        <v>14276.7838</v>
+        <v>129136.5216</v>
       </c>
       <c r="G38" t="n">
-        <v>-9001423.320255125</v>
+        <v>-12384279.82465513</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.051</v>
+        <v>3.015</v>
       </c>
       <c r="C39" t="n">
-        <v>3.051</v>
+        <v>3.013</v>
       </c>
       <c r="D39" t="n">
-        <v>3.051</v>
+        <v>3.015</v>
       </c>
       <c r="E39" t="n">
-        <v>3.051</v>
+        <v>3.013</v>
       </c>
       <c r="F39" t="n">
-        <v>1929.1222</v>
+        <v>282153.7262</v>
       </c>
       <c r="G39" t="n">
-        <v>-9001423.320255125</v>
+        <v>-12666433.55085513</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.051</v>
+        <v>3.023</v>
       </c>
       <c r="C40" t="n">
-        <v>3.051</v>
+        <v>3.023</v>
       </c>
       <c r="D40" t="n">
-        <v>3.051</v>
+        <v>3.023</v>
       </c>
       <c r="E40" t="n">
-        <v>3.051</v>
+        <v>3.023</v>
       </c>
       <c r="F40" t="n">
-        <v>39175.9656</v>
+        <v>998.7799</v>
       </c>
       <c r="G40" t="n">
-        <v>-9001423.320255125</v>
+        <v>-12665434.77095513</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.051</v>
+        <v>3.023</v>
       </c>
       <c r="C41" t="n">
-        <v>3.051</v>
+        <v>3.023</v>
       </c>
       <c r="D41" t="n">
-        <v>3.051</v>
+        <v>3.023</v>
       </c>
       <c r="E41" t="n">
-        <v>3.051</v>
+        <v>3.023</v>
       </c>
       <c r="F41" t="n">
-        <v>26590.9006</v>
+        <v>11988.7201</v>
       </c>
       <c r="G41" t="n">
-        <v>-9001423.320255125</v>
+        <v>-12665434.77095513</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.051</v>
+        <v>3.021</v>
       </c>
       <c r="C42" t="n">
-        <v>3.06</v>
+        <v>3.021</v>
       </c>
       <c r="D42" t="n">
-        <v>3.06</v>
+        <v>3.021</v>
       </c>
       <c r="E42" t="n">
-        <v>3.051</v>
+        <v>3.021</v>
       </c>
       <c r="F42" t="n">
-        <v>42345.3063</v>
+        <v>12980</v>
       </c>
       <c r="G42" t="n">
-        <v>-8959078.013955126</v>
+        <v>-12678414.77095513</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.051</v>
+        <v>3.021</v>
       </c>
       <c r="C43" t="n">
-        <v>3.051</v>
+        <v>3.021</v>
       </c>
       <c r="D43" t="n">
-        <v>3.051</v>
+        <v>3.021</v>
       </c>
       <c r="E43" t="n">
-        <v>3.051</v>
+        <v>3.021</v>
       </c>
       <c r="F43" t="n">
-        <v>30828.8159</v>
+        <v>4415.23</v>
       </c>
       <c r="G43" t="n">
-        <v>-8989906.829855125</v>
+        <v>-12678414.77095513</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.051</v>
+        <v>3.021</v>
       </c>
       <c r="C44" t="n">
-        <v>3.051</v>
+        <v>3.025</v>
       </c>
       <c r="D44" t="n">
-        <v>3.051</v>
+        <v>3.025</v>
       </c>
       <c r="E44" t="n">
-        <v>3.051</v>
+        <v>3.021</v>
       </c>
       <c r="F44" t="n">
-        <v>18344.834</v>
+        <v>60240.8</v>
       </c>
       <c r="G44" t="n">
-        <v>-8989906.829855125</v>
+        <v>-12618173.97095513</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3.051</v>
+        <v>3.025</v>
       </c>
       <c r="C45" t="n">
-        <v>3.051</v>
+        <v>3.025</v>
       </c>
       <c r="D45" t="n">
-        <v>3.051</v>
+        <v>3.025</v>
       </c>
       <c r="E45" t="n">
-        <v>3.051</v>
+        <v>3.025</v>
       </c>
       <c r="F45" t="n">
-        <v>5205.4068</v>
+        <v>6680.3837</v>
       </c>
       <c r="G45" t="n">
-        <v>-8989906.829855125</v>
+        <v>-12618173.97095513</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3.08</v>
+        <v>3.027</v>
       </c>
       <c r="C46" t="n">
-        <v>3.08</v>
+        <v>3.029</v>
       </c>
       <c r="D46" t="n">
-        <v>3.08</v>
+        <v>3.029</v>
       </c>
       <c r="E46" t="n">
-        <v>3.08</v>
+        <v>3.027</v>
       </c>
       <c r="F46" t="n">
-        <v>163</v>
+        <v>34983.748</v>
       </c>
       <c r="G46" t="n">
-        <v>-8989743.829855125</v>
+        <v>-12583190.22295513</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.058</v>
+        <v>3.035</v>
       </c>
       <c r="C47" t="n">
-        <v>3.058</v>
+        <v>3.029</v>
       </c>
       <c r="D47" t="n">
-        <v>3.058</v>
+        <v>3.04</v>
       </c>
       <c r="E47" t="n">
-        <v>3.058</v>
+        <v>3.029</v>
       </c>
       <c r="F47" t="n">
-        <v>5343.2514</v>
+        <v>66495.0854</v>
       </c>
       <c r="G47" t="n">
-        <v>-8995087.081255125</v>
+        <v>-12583190.22295513</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.058</v>
+        <v>3.029</v>
       </c>
       <c r="C48" t="n">
-        <v>3.058</v>
+        <v>3.029</v>
       </c>
       <c r="D48" t="n">
-        <v>3.058</v>
+        <v>3.029</v>
       </c>
       <c r="E48" t="n">
-        <v>3.058</v>
+        <v>3.029</v>
       </c>
       <c r="F48" t="n">
-        <v>94657.50900000001</v>
+        <v>4597.8932</v>
       </c>
       <c r="G48" t="n">
-        <v>-8995087.081255125</v>
+        <v>-12583190.22295513</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.057</v>
+        <v>3.04</v>
       </c>
       <c r="C49" t="n">
-        <v>3.057</v>
+        <v>3.029</v>
       </c>
       <c r="D49" t="n">
-        <v>3.057</v>
+        <v>3.04</v>
       </c>
       <c r="E49" t="n">
-        <v>3.057</v>
+        <v>3.029</v>
       </c>
       <c r="F49" t="n">
-        <v>48141.4911</v>
+        <v>489868.56</v>
       </c>
       <c r="G49" t="n">
-        <v>-9043228.572355125</v>
+        <v>-12583190.22295513</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.08</v>
+        <v>3.029</v>
       </c>
       <c r="C50" t="n">
-        <v>3.09</v>
+        <v>3.027</v>
       </c>
       <c r="D50" t="n">
-        <v>3.09</v>
+        <v>3.039</v>
       </c>
       <c r="E50" t="n">
-        <v>3.08</v>
+        <v>3.027</v>
       </c>
       <c r="F50" t="n">
-        <v>48543.6894</v>
+        <v>115331.1761</v>
       </c>
       <c r="G50" t="n">
-        <v>-8994684.882955125</v>
+        <v>-12698521.39905513</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3.09</v>
+        <v>3.02</v>
       </c>
       <c r="C51" t="n">
-        <v>3.057</v>
+        <v>3.03</v>
       </c>
       <c r="D51" t="n">
-        <v>3.09</v>
+        <v>3.03</v>
       </c>
       <c r="E51" t="n">
-        <v>3.057</v>
+        <v>3.015</v>
       </c>
       <c r="F51" t="n">
-        <v>574139.2609</v>
+        <v>768969.0487</v>
       </c>
       <c r="G51" t="n">
-        <v>-9568824.143855125</v>
+        <v>-11929552.35035513</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3.09</v>
+        <v>3.039</v>
       </c>
       <c r="C52" t="n">
-        <v>3.09</v>
+        <v>3.048</v>
       </c>
       <c r="D52" t="n">
-        <v>3.09</v>
+        <v>3.048</v>
       </c>
       <c r="E52" t="n">
-        <v>3.09</v>
+        <v>3.039</v>
       </c>
       <c r="F52" t="n">
-        <v>200</v>
+        <v>302609.1043</v>
       </c>
       <c r="G52" t="n">
-        <v>-9568624.143855125</v>
+        <v>-11626943.24605513</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.103</v>
+        <v>3.061</v>
       </c>
       <c r="C53" t="n">
-        <v>3.103</v>
+        <v>3.061</v>
       </c>
       <c r="D53" t="n">
-        <v>3.103</v>
+        <v>3.061</v>
       </c>
       <c r="E53" t="n">
-        <v>3.103</v>
+        <v>3.061</v>
       </c>
       <c r="F53" t="n">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="G53" t="n">
-        <v>-9568424.143855125</v>
+        <v>-11616943.24605513</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.061</v>
+        <v>3.074</v>
       </c>
       <c r="C54" t="n">
-        <v>3.061</v>
+        <v>3.074</v>
       </c>
       <c r="D54" t="n">
-        <v>3.061</v>
+        <v>3.075</v>
       </c>
       <c r="E54" t="n">
-        <v>3.061</v>
+        <v>3.074</v>
       </c>
       <c r="F54" t="n">
-        <v>65000</v>
+        <v>85549.12</v>
       </c>
       <c r="G54" t="n">
-        <v>-9633424.143855125</v>
+        <v>-11531394.12605513</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3.079</v>
+        <v>3.061</v>
       </c>
       <c r="C55" t="n">
-        <v>3.079</v>
+        <v>3.061</v>
       </c>
       <c r="D55" t="n">
-        <v>3.079</v>
+        <v>3.061</v>
       </c>
       <c r="E55" t="n">
-        <v>3.079</v>
+        <v>3.061</v>
       </c>
       <c r="F55" t="n">
-        <v>40433.9621</v>
+        <v>500</v>
       </c>
       <c r="G55" t="n">
-        <v>-9592990.181755126</v>
+        <v>-11531894.12605513</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2326,19 +2385,19 @@
         <v>3.061</v>
       </c>
       <c r="C56" t="n">
-        <v>3.061</v>
+        <v>3.05</v>
       </c>
       <c r="D56" t="n">
         <v>3.061</v>
       </c>
       <c r="E56" t="n">
-        <v>3.061</v>
+        <v>3.05</v>
       </c>
       <c r="F56" t="n">
-        <v>33304.6532</v>
+        <v>8198.3676</v>
       </c>
       <c r="G56" t="n">
-        <v>-9626294.834955126</v>
+        <v>-11540092.49365513</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3.08</v>
+        <v>3.062</v>
       </c>
       <c r="C57" t="n">
-        <v>3.051</v>
+        <v>3.062</v>
       </c>
       <c r="D57" t="n">
-        <v>3.08</v>
+        <v>3.062</v>
       </c>
       <c r="E57" t="n">
-        <v>3.051</v>
+        <v>3.062</v>
       </c>
       <c r="F57" t="n">
-        <v>339942.3026</v>
+        <v>1473.0832</v>
       </c>
       <c r="G57" t="n">
-        <v>-9966237.137555126</v>
+        <v>-11538619.41045513</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3.076</v>
+        <v>3.05</v>
       </c>
       <c r="C58" t="n">
-        <v>3.076</v>
+        <v>3.05</v>
       </c>
       <c r="D58" t="n">
-        <v>3.076</v>
+        <v>3.05</v>
       </c>
       <c r="E58" t="n">
-        <v>3.076</v>
+        <v>3.05</v>
       </c>
       <c r="F58" t="n">
-        <v>500</v>
+        <v>197487.1924</v>
       </c>
       <c r="G58" t="n">
-        <v>-9965737.137555126</v>
+        <v>-11736106.60285513</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3.076</v>
+        <v>3.05</v>
       </c>
       <c r="C59" t="n">
-        <v>3.076</v>
+        <v>3.05</v>
       </c>
       <c r="D59" t="n">
-        <v>3.076</v>
+        <v>3.05</v>
       </c>
       <c r="E59" t="n">
-        <v>3.076</v>
+        <v>3.05</v>
       </c>
       <c r="F59" t="n">
-        <v>2328.2851</v>
+        <v>24131.9017</v>
       </c>
       <c r="G59" t="n">
-        <v>-9965737.137555126</v>
+        <v>-11736106.60285513</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3.06</v>
+        <v>3.048</v>
       </c>
       <c r="C60" t="n">
-        <v>3.051</v>
+        <v>3.04</v>
       </c>
       <c r="D60" t="n">
-        <v>3.06</v>
+        <v>3.048</v>
       </c>
       <c r="E60" t="n">
-        <v>3.051</v>
+        <v>3.04</v>
       </c>
       <c r="F60" t="n">
-        <v>113247.4342</v>
+        <v>189442.2886</v>
       </c>
       <c r="G60" t="n">
-        <v>-10078984.57175513</v>
+        <v>-11925548.89145513</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3.052</v>
+        <v>3.04</v>
       </c>
       <c r="C61" t="n">
-        <v>3.05</v>
+        <v>3.037</v>
       </c>
       <c r="D61" t="n">
-        <v>3.052</v>
+        <v>3.04</v>
       </c>
       <c r="E61" t="n">
-        <v>3.05</v>
+        <v>3.037</v>
       </c>
       <c r="F61" t="n">
-        <v>816599.1243</v>
+        <v>22621.9017</v>
       </c>
       <c r="G61" t="n">
-        <v>-10895583.69605513</v>
+        <v>-11948170.79315513</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3.05</v>
+        <v>3.037</v>
       </c>
       <c r="C62" t="n">
-        <v>3.05</v>
+        <v>3.037</v>
       </c>
       <c r="D62" t="n">
-        <v>3.05</v>
+        <v>3.037</v>
       </c>
       <c r="E62" t="n">
-        <v>3.05</v>
+        <v>3.037</v>
       </c>
       <c r="F62" t="n">
-        <v>74439.6327</v>
+        <v>5128.1253</v>
       </c>
       <c r="G62" t="n">
-        <v>-10895583.69605513</v>
+        <v>-11948170.79315513</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3.05</v>
+        <v>3.037</v>
       </c>
       <c r="C63" t="n">
-        <v>3.048</v>
+        <v>3.037</v>
       </c>
       <c r="D63" t="n">
-        <v>3.05</v>
+        <v>3.037</v>
       </c>
       <c r="E63" t="n">
-        <v>3.048</v>
+        <v>3.037</v>
       </c>
       <c r="F63" t="n">
-        <v>900000.856</v>
+        <v>204078.2318</v>
       </c>
       <c r="G63" t="n">
-        <v>-11795584.55205513</v>
+        <v>-11948170.79315513</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3.076</v>
+        <v>3.037</v>
       </c>
       <c r="C64" t="n">
-        <v>3.076</v>
+        <v>3.037</v>
       </c>
       <c r="D64" t="n">
-        <v>3.076</v>
+        <v>3.037</v>
       </c>
       <c r="E64" t="n">
-        <v>3.076</v>
+        <v>3.037</v>
       </c>
       <c r="F64" t="n">
-        <v>577.4413</v>
+        <v>295921.7682</v>
       </c>
       <c r="G64" t="n">
-        <v>-11795007.11075513</v>
+        <v>-11948170.79315513</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.063</v>
+        <v>3.04</v>
       </c>
       <c r="C65" t="n">
-        <v>3.063</v>
+        <v>3.04</v>
       </c>
       <c r="D65" t="n">
-        <v>3.063</v>
+        <v>3.04</v>
       </c>
       <c r="E65" t="n">
-        <v>3.063</v>
+        <v>3.04</v>
       </c>
       <c r="F65" t="n">
-        <v>25001.856</v>
+        <v>113412.6519</v>
       </c>
       <c r="G65" t="n">
-        <v>-11820008.96675513</v>
+        <v>-11834758.14125513</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3.063</v>
+        <v>3.05</v>
       </c>
       <c r="C66" t="n">
-        <v>3.063</v>
+        <v>3.04</v>
       </c>
       <c r="D66" t="n">
-        <v>3.063</v>
+        <v>3.05</v>
       </c>
       <c r="E66" t="n">
-        <v>3.063</v>
+        <v>3.04</v>
       </c>
       <c r="F66" t="n">
-        <v>2096.9101</v>
+        <v>89014.3738</v>
       </c>
       <c r="G66" t="n">
-        <v>-11820008.96675513</v>
+        <v>-11834758.14125513</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3.063</v>
+        <v>3.05</v>
       </c>
       <c r="C67" t="n">
-        <v>3.063</v>
+        <v>3.062</v>
       </c>
       <c r="D67" t="n">
-        <v>3.063</v>
+        <v>3.062</v>
       </c>
       <c r="E67" t="n">
-        <v>3.063</v>
+        <v>3.05</v>
       </c>
       <c r="F67" t="n">
-        <v>3327.3362</v>
+        <v>7320.93</v>
       </c>
       <c r="G67" t="n">
-        <v>-11820008.96675513</v>
+        <v>-11827437.21125513</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3.058</v>
+        <v>3.04</v>
       </c>
       <c r="C68" t="n">
-        <v>3.057</v>
+        <v>3.03</v>
       </c>
       <c r="D68" t="n">
-        <v>3.058</v>
+        <v>3.04</v>
       </c>
       <c r="E68" t="n">
-        <v>3.057</v>
+        <v>3.03</v>
       </c>
       <c r="F68" t="n">
-        <v>98000</v>
+        <v>75000</v>
       </c>
       <c r="G68" t="n">
-        <v>-11918008.96675513</v>
+        <v>-11902437.21125513</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3.057</v>
+        <v>3.054</v>
       </c>
       <c r="C69" t="n">
-        <v>3.057</v>
+        <v>3.054</v>
       </c>
       <c r="D69" t="n">
-        <v>3.057</v>
+        <v>3.054</v>
       </c>
       <c r="E69" t="n">
-        <v>3.057</v>
+        <v>3.054</v>
       </c>
       <c r="F69" t="n">
-        <v>163908.6624</v>
+        <v>500</v>
       </c>
       <c r="G69" t="n">
-        <v>-11918008.96675513</v>
+        <v>-11901937.21125513</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3.053</v>
+        <v>3.054</v>
       </c>
       <c r="C70" t="n">
-        <v>3.053</v>
+        <v>3.054</v>
       </c>
       <c r="D70" t="n">
-        <v>3.053</v>
+        <v>3.054</v>
       </c>
       <c r="E70" t="n">
-        <v>3.053</v>
+        <v>3.054</v>
       </c>
       <c r="F70" t="n">
-        <v>6640.2239</v>
+        <v>900</v>
       </c>
       <c r="G70" t="n">
-        <v>-11924649.19065513</v>
+        <v>-11901937.21125513</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3.053</v>
+        <v>3.04</v>
       </c>
       <c r="C71" t="n">
-        <v>3.049</v>
+        <v>3.03</v>
       </c>
       <c r="D71" t="n">
-        <v>3.053</v>
+        <v>3.04</v>
       </c>
       <c r="E71" t="n">
-        <v>3.049</v>
+        <v>3.03</v>
       </c>
       <c r="F71" t="n">
-        <v>25798.8434</v>
+        <v>1101720.7912</v>
       </c>
       <c r="G71" t="n">
-        <v>-11950448.03405513</v>
+        <v>-13003658.00245513</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3.049</v>
+        <v>3.03</v>
       </c>
       <c r="C72" t="n">
-        <v>3.048</v>
+        <v>3.05</v>
       </c>
       <c r="D72" t="n">
-        <v>3.049</v>
+        <v>3.05</v>
       </c>
       <c r="E72" t="n">
-        <v>3.048</v>
+        <v>3.03</v>
       </c>
       <c r="F72" t="n">
-        <v>204003.5565</v>
+        <v>564031.2867000001</v>
       </c>
       <c r="G72" t="n">
-        <v>-12154451.59055513</v>
+        <v>-12439626.71575513</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3.048</v>
+        <v>3.05</v>
       </c>
       <c r="C73" t="n">
-        <v>3.048</v>
+        <v>3.05</v>
       </c>
       <c r="D73" t="n">
-        <v>3.048</v>
+        <v>3.05</v>
       </c>
       <c r="E73" t="n">
-        <v>3.048</v>
+        <v>3.05</v>
       </c>
       <c r="F73" t="n">
-        <v>9207.227999999999</v>
+        <v>0.0033</v>
       </c>
       <c r="G73" t="n">
-        <v>-12154451.59055513</v>
+        <v>-12439626.71575513</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3.047</v>
+        <v>3.072</v>
       </c>
       <c r="C74" t="n">
-        <v>3.045</v>
+        <v>3.072</v>
       </c>
       <c r="D74" t="n">
-        <v>3.047</v>
+        <v>3.072</v>
       </c>
       <c r="E74" t="n">
-        <v>3.045</v>
+        <v>3.072</v>
       </c>
       <c r="F74" t="n">
-        <v>31860.196</v>
+        <v>73407.6721</v>
       </c>
       <c r="G74" t="n">
-        <v>-12186311.78655513</v>
+        <v>-12366219.04365513</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3.043</v>
+        <v>3.073</v>
       </c>
       <c r="C75" t="n">
-        <v>3.04</v>
+        <v>3.073</v>
       </c>
       <c r="D75" t="n">
-        <v>3.043</v>
+        <v>3.073</v>
       </c>
       <c r="E75" t="n">
-        <v>3.04</v>
+        <v>3.073</v>
       </c>
       <c r="F75" t="n">
-        <v>43193.7778</v>
+        <v>20002.965</v>
       </c>
       <c r="G75" t="n">
-        <v>-12229505.56435513</v>
+        <v>-12346216.07865513</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3.03</v>
+        <v>3.084</v>
       </c>
       <c r="C76" t="n">
-        <v>3.028</v>
+        <v>3.089</v>
       </c>
       <c r="D76" t="n">
-        <v>3.03</v>
+        <v>3.089</v>
       </c>
       <c r="E76" t="n">
-        <v>3.028</v>
+        <v>3.084</v>
       </c>
       <c r="F76" t="n">
-        <v>13009.11</v>
+        <v>65165.1577</v>
       </c>
       <c r="G76" t="n">
-        <v>-12242514.67435513</v>
+        <v>-12281050.92095513</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3.027</v>
+        <v>3.098</v>
       </c>
       <c r="C77" t="n">
-        <v>3.024</v>
+        <v>3.108</v>
       </c>
       <c r="D77" t="n">
-        <v>3.027</v>
+        <v>3.108</v>
       </c>
       <c r="E77" t="n">
-        <v>3.024</v>
+        <v>3.098</v>
       </c>
       <c r="F77" t="n">
-        <v>12876.5904</v>
+        <v>24023.2247</v>
       </c>
       <c r="G77" t="n">
-        <v>-12255391.26475513</v>
+        <v>-12257027.69625513</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3.03</v>
+        <v>3.108</v>
       </c>
       <c r="C78" t="n">
-        <v>3.03</v>
+        <v>3.114</v>
       </c>
       <c r="D78" t="n">
-        <v>3.03</v>
+        <v>3.114</v>
       </c>
       <c r="E78" t="n">
-        <v>3.03</v>
+        <v>3.108</v>
       </c>
       <c r="F78" t="n">
-        <v>500</v>
+        <v>15546.7177</v>
       </c>
       <c r="G78" t="n">
-        <v>-12254891.26475513</v>
+        <v>-12241480.97855513</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3.024</v>
+        <v>3.114</v>
       </c>
       <c r="C79" t="n">
-        <v>3.024</v>
+        <v>3.114</v>
       </c>
       <c r="D79" t="n">
-        <v>3.024</v>
+        <v>3.115</v>
       </c>
       <c r="E79" t="n">
-        <v>3.024</v>
+        <v>3.114</v>
       </c>
       <c r="F79" t="n">
-        <v>252.0383</v>
+        <v>86445.15949999999</v>
       </c>
       <c r="G79" t="n">
-        <v>-12255143.30305513</v>
+        <v>-12241480.97855513</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.023</v>
+        <v>3.114</v>
       </c>
       <c r="C80" t="n">
-        <v>3.015</v>
+        <v>3.12</v>
       </c>
       <c r="D80" t="n">
-        <v>3.023</v>
+        <v>3.12</v>
       </c>
       <c r="E80" t="n">
-        <v>3.015</v>
+        <v>3.114</v>
       </c>
       <c r="F80" t="n">
-        <v>129136.5216</v>
+        <v>61084.23</v>
       </c>
       <c r="G80" t="n">
-        <v>-12384279.82465513</v>
+        <v>-12180396.74855513</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,34 +3275,35 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3.015</v>
+        <v>3.115</v>
       </c>
       <c r="C81" t="n">
-        <v>3.013</v>
+        <v>3.115</v>
       </c>
       <c r="D81" t="n">
-        <v>3.015</v>
+        <v>3.125</v>
       </c>
       <c r="E81" t="n">
-        <v>3.013</v>
+        <v>3.115</v>
       </c>
       <c r="F81" t="n">
-        <v>282153.7262</v>
+        <v>35822</v>
       </c>
       <c r="G81" t="n">
-        <v>-12666433.55085513</v>
+        <v>-12216218.74855513</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3227,34 +3311,35 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3.023</v>
+        <v>3.118</v>
       </c>
       <c r="C82" t="n">
-        <v>3.023</v>
+        <v>3.105</v>
       </c>
       <c r="D82" t="n">
-        <v>3.023</v>
+        <v>3.118</v>
       </c>
       <c r="E82" t="n">
-        <v>3.023</v>
+        <v>3.105</v>
       </c>
       <c r="F82" t="n">
-        <v>998.7799</v>
+        <v>10755.3613</v>
       </c>
       <c r="G82" t="n">
-        <v>-12665434.77095513</v>
+        <v>-12226974.10985513</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3262,34 +3347,35 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>3.023</v>
+        <v>3.105</v>
       </c>
       <c r="C83" t="n">
-        <v>3.023</v>
+        <v>3.101</v>
       </c>
       <c r="D83" t="n">
-        <v>3.023</v>
+        <v>3.105</v>
       </c>
       <c r="E83" t="n">
-        <v>3.023</v>
+        <v>3.101</v>
       </c>
       <c r="F83" t="n">
-        <v>11988.7201</v>
+        <v>164934.9571</v>
       </c>
       <c r="G83" t="n">
-        <v>-12665434.77095513</v>
+        <v>-12391909.06695513</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3297,34 +3383,35 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>3.021</v>
+        <v>3.101</v>
       </c>
       <c r="C84" t="n">
-        <v>3.021</v>
+        <v>3.105</v>
       </c>
       <c r="D84" t="n">
-        <v>3.021</v>
+        <v>3.105</v>
       </c>
       <c r="E84" t="n">
-        <v>3.021</v>
+        <v>3.101</v>
       </c>
       <c r="F84" t="n">
-        <v>12980</v>
+        <v>3110.8697</v>
       </c>
       <c r="G84" t="n">
-        <v>-12678414.77095513</v>
+        <v>-12388798.19725513</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3332,34 +3419,35 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>3.021</v>
+        <v>3.101</v>
       </c>
       <c r="C85" t="n">
-        <v>3.021</v>
+        <v>3.101</v>
       </c>
       <c r="D85" t="n">
-        <v>3.021</v>
+        <v>3.101</v>
       </c>
       <c r="E85" t="n">
-        <v>3.021</v>
+        <v>3.101</v>
       </c>
       <c r="F85" t="n">
-        <v>4415.23</v>
+        <v>4098.9233</v>
       </c>
       <c r="G85" t="n">
-        <v>-12678414.77095513</v>
+        <v>-12392897.12055513</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3367,34 +3455,35 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3.021</v>
+        <v>3.098</v>
       </c>
       <c r="C86" t="n">
-        <v>3.025</v>
+        <v>3.064</v>
       </c>
       <c r="D86" t="n">
-        <v>3.025</v>
+        <v>3.098</v>
       </c>
       <c r="E86" t="n">
-        <v>3.021</v>
+        <v>3.064</v>
       </c>
       <c r="F86" t="n">
-        <v>60240.8</v>
+        <v>152823.6417</v>
       </c>
       <c r="G86" t="n">
-        <v>-12618173.97095513</v>
+        <v>-12545720.76225513</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3402,34 +3491,35 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3.025</v>
+        <v>3.057</v>
       </c>
       <c r="C87" t="n">
-        <v>3.025</v>
+        <v>3.057</v>
       </c>
       <c r="D87" t="n">
-        <v>3.025</v>
+        <v>3.057</v>
       </c>
       <c r="E87" t="n">
-        <v>3.025</v>
+        <v>3.057</v>
       </c>
       <c r="F87" t="n">
-        <v>6680.3837</v>
+        <v>9008.559999999999</v>
       </c>
       <c r="G87" t="n">
-        <v>-12618173.97095513</v>
+        <v>-12554729.32225513</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3437,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>3.027</v>
+        <v>3.05</v>
       </c>
       <c r="C88" t="n">
-        <v>3.029</v>
+        <v>3.039</v>
       </c>
       <c r="D88" t="n">
-        <v>3.029</v>
+        <v>3.05</v>
       </c>
       <c r="E88" t="n">
-        <v>3.027</v>
+        <v>3.039</v>
       </c>
       <c r="F88" t="n">
-        <v>34983.748</v>
+        <v>115735.4494</v>
       </c>
       <c r="G88" t="n">
-        <v>-12583190.22295513</v>
+        <v>-12670464.77165513</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>3.035</v>
+        <v>3.056</v>
       </c>
       <c r="C89" t="n">
-        <v>3.029</v>
+        <v>3.056</v>
       </c>
       <c r="D89" t="n">
-        <v>3.04</v>
+        <v>3.056</v>
       </c>
       <c r="E89" t="n">
-        <v>3.029</v>
+        <v>3.056</v>
       </c>
       <c r="F89" t="n">
-        <v>66495.0854</v>
+        <v>10001.856</v>
       </c>
       <c r="G89" t="n">
-        <v>-12583190.22295513</v>
+        <v>-12660462.91565513</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>3.029</v>
+        <v>3.056</v>
       </c>
       <c r="C90" t="n">
-        <v>3.029</v>
+        <v>3.056</v>
       </c>
       <c r="D90" t="n">
-        <v>3.029</v>
+        <v>3.056</v>
       </c>
       <c r="E90" t="n">
-        <v>3.029</v>
+        <v>3.056</v>
       </c>
       <c r="F90" t="n">
-        <v>4597.8932</v>
+        <v>15700</v>
       </c>
       <c r="G90" t="n">
-        <v>-12583190.22295513</v>
+        <v>-12660462.91565513</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3.04</v>
+        <v>3.049</v>
       </c>
       <c r="C91" t="n">
-        <v>3.029</v>
+        <v>3.039</v>
       </c>
       <c r="D91" t="n">
-        <v>3.04</v>
+        <v>3.049</v>
       </c>
       <c r="E91" t="n">
-        <v>3.029</v>
+        <v>3.039</v>
       </c>
       <c r="F91" t="n">
-        <v>489868.56</v>
+        <v>340083.8873</v>
       </c>
       <c r="G91" t="n">
-        <v>-12583190.22295513</v>
+        <v>-13000546.80295513</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3.029</v>
+        <v>3.039</v>
       </c>
       <c r="C92" t="n">
-        <v>3.027</v>
+        <v>3.039</v>
       </c>
       <c r="D92" t="n">
         <v>3.039</v>
       </c>
       <c r="E92" t="n">
-        <v>3.027</v>
+        <v>3.039</v>
       </c>
       <c r="F92" t="n">
-        <v>115331.1761</v>
+        <v>104844.386</v>
       </c>
       <c r="G92" t="n">
-        <v>-12698521.39905513</v>
+        <v>-13000546.80295513</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3707,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>3.02</v>
+        <v>3.056</v>
       </c>
       <c r="C93" t="n">
-        <v>3.03</v>
+        <v>3.056</v>
       </c>
       <c r="D93" t="n">
-        <v>3.03</v>
+        <v>3.056</v>
       </c>
       <c r="E93" t="n">
-        <v>3.015</v>
+        <v>3.056</v>
       </c>
       <c r="F93" t="n">
-        <v>768969.0487</v>
+        <v>1203.23</v>
       </c>
       <c r="G93" t="n">
-        <v>-11929552.35035513</v>
+        <v>-12999343.57295513</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +3743,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>3.039</v>
+        <v>3.051</v>
       </c>
       <c r="C94" t="n">
-        <v>3.048</v>
+        <v>3.045</v>
       </c>
       <c r="D94" t="n">
-        <v>3.048</v>
+        <v>3.051</v>
       </c>
       <c r="E94" t="n">
-        <v>3.039</v>
+        <v>3.045</v>
       </c>
       <c r="F94" t="n">
-        <v>302609.1043</v>
+        <v>9282.798000000001</v>
       </c>
       <c r="G94" t="n">
-        <v>-11626943.24605513</v>
+        <v>-13008626.37095513</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +3779,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>3.061</v>
+        <v>3.039</v>
       </c>
       <c r="C95" t="n">
-        <v>3.061</v>
+        <v>3.039</v>
       </c>
       <c r="D95" t="n">
-        <v>3.061</v>
+        <v>3.039</v>
       </c>
       <c r="E95" t="n">
-        <v>3.061</v>
+        <v>3.039</v>
       </c>
       <c r="F95" t="n">
-        <v>10000</v>
+        <v>10157.47</v>
       </c>
       <c r="G95" t="n">
-        <v>-11616943.24605513</v>
+        <v>-13018783.84095513</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +3815,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>3.074</v>
+        <v>3.039</v>
       </c>
       <c r="C96" t="n">
-        <v>3.074</v>
+        <v>3.039</v>
       </c>
       <c r="D96" t="n">
-        <v>3.075</v>
+        <v>3.039</v>
       </c>
       <c r="E96" t="n">
-        <v>3.074</v>
+        <v>3.039</v>
       </c>
       <c r="F96" t="n">
-        <v>85549.12</v>
+        <v>19842.53</v>
       </c>
       <c r="G96" t="n">
-        <v>-11531394.12605513</v>
+        <v>-13018783.84095513</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,28 +3851,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>3.061</v>
+        <v>3.055</v>
       </c>
       <c r="C97" t="n">
-        <v>3.061</v>
+        <v>3.055</v>
       </c>
       <c r="D97" t="n">
-        <v>3.061</v>
+        <v>3.055</v>
       </c>
       <c r="E97" t="n">
-        <v>3.061</v>
+        <v>3.055</v>
       </c>
       <c r="F97" t="n">
         <v>500</v>
       </c>
       <c r="G97" t="n">
-        <v>-11531894.12605513</v>
+        <v>-13018283.84095513</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +3887,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>3.061</v>
+        <v>3.054</v>
       </c>
       <c r="C98" t="n">
-        <v>3.05</v>
+        <v>3.054</v>
       </c>
       <c r="D98" t="n">
-        <v>3.061</v>
+        <v>3.054</v>
       </c>
       <c r="E98" t="n">
-        <v>3.05</v>
+        <v>3.054</v>
       </c>
       <c r="F98" t="n">
-        <v>8198.3676</v>
+        <v>16791</v>
       </c>
       <c r="G98" t="n">
-        <v>-11540092.49365513</v>
+        <v>-13035074.84095513</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,28 +3923,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3.062</v>
+        <v>3.048</v>
       </c>
       <c r="C99" t="n">
-        <v>3.062</v>
+        <v>3.032</v>
       </c>
       <c r="D99" t="n">
-        <v>3.062</v>
+        <v>3.048</v>
       </c>
       <c r="E99" t="n">
-        <v>3.062</v>
+        <v>3.032</v>
       </c>
       <c r="F99" t="n">
-        <v>1473.0832</v>
+        <v>19320.8543</v>
       </c>
       <c r="G99" t="n">
-        <v>-11538619.41045513</v>
+        <v>-13054395.69525513</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +3959,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="C100" t="n">
-        <v>3.05</v>
+        <v>3.028</v>
       </c>
       <c r="D100" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="E100" t="n">
-        <v>3.05</v>
+        <v>3.028</v>
       </c>
       <c r="F100" t="n">
-        <v>197487.1924</v>
+        <v>488139.9261</v>
       </c>
       <c r="G100" t="n">
-        <v>-11736106.60285513</v>
+        <v>-13542535.62135513</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +3995,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>3.05</v>
+        <v>3.026</v>
       </c>
       <c r="C101" t="n">
-        <v>3.05</v>
+        <v>3.028</v>
       </c>
       <c r="D101" t="n">
-        <v>3.05</v>
+        <v>3.028</v>
       </c>
       <c r="E101" t="n">
-        <v>3.05</v>
+        <v>3.026</v>
       </c>
       <c r="F101" t="n">
-        <v>24131.9017</v>
+        <v>194067.4354</v>
       </c>
       <c r="G101" t="n">
-        <v>-11736106.60285513</v>
+        <v>-13542535.62135513</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,28 +4031,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>3.048</v>
+        <v>3.028</v>
       </c>
       <c r="C102" t="n">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="D102" t="n">
-        <v>3.048</v>
+        <v>3.05</v>
       </c>
       <c r="E102" t="n">
-        <v>3.04</v>
+        <v>3.028</v>
       </c>
       <c r="F102" t="n">
-        <v>189442.2886</v>
+        <v>14416.8005</v>
       </c>
       <c r="G102" t="n">
-        <v>-11925548.89145513</v>
+        <v>-13528118.82085513</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4067,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>3.04</v>
+        <v>3.037</v>
       </c>
       <c r="C103" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="D103" t="n">
         <v>3.037</v>
       </c>
-      <c r="D103" t="n">
-        <v>3.04</v>
-      </c>
       <c r="E103" t="n">
-        <v>3.037</v>
+        <v>3.028</v>
       </c>
       <c r="F103" t="n">
-        <v>22621.9017</v>
+        <v>313782.5995</v>
       </c>
       <c r="G103" t="n">
-        <v>-11948170.79315513</v>
+        <v>-13841901.42035513</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4103,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>3.037</v>
+        <v>3.028</v>
       </c>
       <c r="C104" t="n">
-        <v>3.037</v>
+        <v>3.028</v>
       </c>
       <c r="D104" t="n">
-        <v>3.037</v>
+        <v>3.028</v>
       </c>
       <c r="E104" t="n">
-        <v>3.037</v>
+        <v>3.028</v>
       </c>
       <c r="F104" t="n">
-        <v>5128.1253</v>
+        <v>174062.4581</v>
       </c>
       <c r="G104" t="n">
-        <v>-11948170.79315513</v>
+        <v>-13841901.42035513</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4139,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="C105" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="D105" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="E105" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="F105" t="n">
-        <v>204078.2318</v>
+        <v>500</v>
       </c>
       <c r="G105" t="n">
-        <v>-11948170.79315513</v>
+        <v>-13841401.42035513</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4175,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="C106" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="D106" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="E106" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="F106" t="n">
-        <v>295921.7682</v>
+        <v>29745.6</v>
       </c>
       <c r="G106" t="n">
-        <v>-11948170.79315513</v>
+        <v>-13841401.42035513</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4211,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>3.04</v>
+        <v>3.043</v>
       </c>
       <c r="C107" t="n">
-        <v>3.04</v>
+        <v>3.025</v>
       </c>
       <c r="D107" t="n">
-        <v>3.04</v>
+        <v>3.043</v>
       </c>
       <c r="E107" t="n">
-        <v>3.04</v>
+        <v>3.025</v>
       </c>
       <c r="F107" t="n">
-        <v>113412.6519</v>
+        <v>397463.0578</v>
       </c>
       <c r="G107" t="n">
-        <v>-11834758.14125513</v>
+        <v>-14238864.47815513</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,28 +4247,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>3.05</v>
+        <v>3.025</v>
       </c>
       <c r="C108" t="n">
-        <v>3.04</v>
+        <v>3.045</v>
       </c>
       <c r="D108" t="n">
-        <v>3.05</v>
+        <v>3.045</v>
       </c>
       <c r="E108" t="n">
-        <v>3.04</v>
+        <v>3.025</v>
       </c>
       <c r="F108" t="n">
-        <v>89014.3738</v>
+        <v>123010.3484</v>
       </c>
       <c r="G108" t="n">
-        <v>-11834758.14125513</v>
+        <v>-14115854.12975513</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,28 +4283,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>3.05</v>
+        <v>3.045</v>
       </c>
       <c r="C109" t="n">
-        <v>3.062</v>
+        <v>3.045</v>
       </c>
       <c r="D109" t="n">
-        <v>3.062</v>
+        <v>3.045</v>
       </c>
       <c r="E109" t="n">
-        <v>3.05</v>
+        <v>3.045</v>
       </c>
       <c r="F109" t="n">
-        <v>7320.93</v>
+        <v>24619.4193</v>
       </c>
       <c r="G109" t="n">
-        <v>-11827437.21125513</v>
+        <v>-14115854.12975513</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,28 +4319,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>3.04</v>
+        <v>3.045</v>
       </c>
       <c r="C110" t="n">
-        <v>3.03</v>
+        <v>3.05</v>
       </c>
       <c r="D110" t="n">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="E110" t="n">
-        <v>3.03</v>
+        <v>3.028</v>
       </c>
       <c r="F110" t="n">
-        <v>75000</v>
+        <v>40589.576</v>
       </c>
       <c r="G110" t="n">
-        <v>-11902437.21125513</v>
+        <v>-14075264.55375513</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,28 +4355,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>3.054</v>
+        <v>3.03</v>
       </c>
       <c r="C111" t="n">
-        <v>3.054</v>
+        <v>3.017</v>
       </c>
       <c r="D111" t="n">
-        <v>3.054</v>
+        <v>3.03</v>
       </c>
       <c r="E111" t="n">
-        <v>3.054</v>
+        <v>3.012</v>
       </c>
       <c r="F111" t="n">
-        <v>500</v>
+        <v>2198335.9303</v>
       </c>
       <c r="G111" t="n">
-        <v>-11901937.21125513</v>
+        <v>-16273600.48405513</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,28 +4391,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>3.054</v>
+        <v>3.02</v>
       </c>
       <c r="C112" t="n">
-        <v>3.054</v>
+        <v>3.04</v>
       </c>
       <c r="D112" t="n">
-        <v>3.054</v>
+        <v>3.04</v>
       </c>
       <c r="E112" t="n">
-        <v>3.054</v>
+        <v>3.011</v>
       </c>
       <c r="F112" t="n">
-        <v>900</v>
+        <v>305281.8291</v>
       </c>
       <c r="G112" t="n">
-        <v>-11901937.21125513</v>
+        <v>-15968318.65495513</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,6 +4427,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4321,19 +4437,19 @@
         <v>3.04</v>
       </c>
       <c r="C113" t="n">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="D113" t="n">
         <v>3.04</v>
       </c>
       <c r="E113" t="n">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="F113" t="n">
-        <v>1101720.7912</v>
+        <v>15900</v>
       </c>
       <c r="G113" t="n">
-        <v>-13003658.00245513</v>
+        <v>-15968318.65495513</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,28 +4463,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>3.03</v>
+        <v>3.05</v>
       </c>
       <c r="C114" t="n">
+        <v>3.056</v>
+      </c>
+      <c r="D114" t="n">
+        <v>3.056</v>
+      </c>
+      <c r="E114" t="n">
         <v>3.05</v>
       </c>
-      <c r="D114" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="E114" t="n">
-        <v>3.03</v>
-      </c>
       <c r="F114" t="n">
-        <v>564031.2867000001</v>
+        <v>438037.4363</v>
       </c>
       <c r="G114" t="n">
-        <v>-12439626.71575513</v>
+        <v>-15530281.21865513</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,28 +4499,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>3.05</v>
+        <v>3.083</v>
       </c>
       <c r="C115" t="n">
-        <v>3.05</v>
+        <v>3.083</v>
       </c>
       <c r="D115" t="n">
-        <v>3.05</v>
+        <v>3.083</v>
       </c>
       <c r="E115" t="n">
-        <v>3.05</v>
+        <v>3.083</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0033</v>
+        <v>35560.734</v>
       </c>
       <c r="G115" t="n">
-        <v>-12439626.71575513</v>
+        <v>-15494720.48465513</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,28 +4535,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>3.072</v>
+        <v>3.091</v>
       </c>
       <c r="C116" t="n">
-        <v>3.072</v>
+        <v>3.091</v>
       </c>
       <c r="D116" t="n">
-        <v>3.072</v>
+        <v>3.091</v>
       </c>
       <c r="E116" t="n">
-        <v>3.072</v>
+        <v>3.091</v>
       </c>
       <c r="F116" t="n">
-        <v>73407.6721</v>
+        <v>30164.88</v>
       </c>
       <c r="G116" t="n">
-        <v>-12366219.04365513</v>
+        <v>-15464555.60465513</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,28 +4571,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>3.073</v>
+        <v>3.091</v>
       </c>
       <c r="C117" t="n">
-        <v>3.073</v>
+        <v>3.101</v>
       </c>
       <c r="D117" t="n">
-        <v>3.073</v>
+        <v>3.101</v>
       </c>
       <c r="E117" t="n">
-        <v>3.073</v>
+        <v>3.091</v>
       </c>
       <c r="F117" t="n">
-        <v>20002.965</v>
+        <v>23517.9718</v>
       </c>
       <c r="G117" t="n">
-        <v>-12346216.07865513</v>
+        <v>-15441037.63285513</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,28 +4607,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>3.084</v>
+        <v>3.101</v>
       </c>
       <c r="C118" t="n">
-        <v>3.089</v>
+        <v>3.05</v>
       </c>
       <c r="D118" t="n">
-        <v>3.089</v>
+        <v>3.101</v>
       </c>
       <c r="E118" t="n">
-        <v>3.084</v>
+        <v>3.05</v>
       </c>
       <c r="F118" t="n">
-        <v>65165.1577</v>
+        <v>98489.5855</v>
       </c>
       <c r="G118" t="n">
-        <v>-12281050.92095513</v>
+        <v>-15539527.21835513</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4522,28 +4643,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>3.098</v>
+        <v>3.05</v>
       </c>
       <c r="C119" t="n">
-        <v>3.108</v>
+        <v>3.05</v>
       </c>
       <c r="D119" t="n">
-        <v>3.108</v>
+        <v>3.05</v>
       </c>
       <c r="E119" t="n">
-        <v>3.098</v>
+        <v>3.05</v>
       </c>
       <c r="F119" t="n">
-        <v>24023.2247</v>
+        <v>47740.3017</v>
       </c>
       <c r="G119" t="n">
-        <v>-12257027.69625513</v>
+        <v>-15539527.21835513</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4557,28 +4679,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>3.108</v>
+        <v>3.052</v>
       </c>
       <c r="C120" t="n">
-        <v>3.114</v>
+        <v>3.05</v>
       </c>
       <c r="D120" t="n">
-        <v>3.114</v>
+        <v>3.052</v>
       </c>
       <c r="E120" t="n">
-        <v>3.108</v>
+        <v>3.05</v>
       </c>
       <c r="F120" t="n">
-        <v>15546.7177</v>
+        <v>126289.7863</v>
       </c>
       <c r="G120" t="n">
-        <v>-12241480.97855513</v>
+        <v>-15539527.21835513</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4592,34 +4715,35 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>3.114</v>
+        <v>3.05</v>
       </c>
       <c r="C121" t="n">
-        <v>3.114</v>
+        <v>3.05</v>
       </c>
       <c r="D121" t="n">
-        <v>3.115</v>
+        <v>3.05</v>
       </c>
       <c r="E121" t="n">
-        <v>3.114</v>
+        <v>3.05</v>
       </c>
       <c r="F121" t="n">
-        <v>86445.15949999999</v>
+        <v>20109.4241</v>
       </c>
       <c r="G121" t="n">
-        <v>-12241480.97855513</v>
+        <v>-15539527.21835513</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4627,34 +4751,35 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>3.114</v>
+        <v>3.053</v>
       </c>
       <c r="C122" t="n">
-        <v>3.12</v>
+        <v>3.053</v>
       </c>
       <c r="D122" t="n">
-        <v>3.12</v>
+        <v>3.053</v>
       </c>
       <c r="E122" t="n">
-        <v>3.114</v>
+        <v>3.053</v>
       </c>
       <c r="F122" t="n">
-        <v>61084.23</v>
+        <v>8046.01</v>
       </c>
       <c r="G122" t="n">
-        <v>-12180396.74855513</v>
+        <v>-15531481.20835513</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -4662,34 +4787,35 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>3.115</v>
+        <v>3.053</v>
       </c>
       <c r="C123" t="n">
-        <v>3.115</v>
+        <v>3.024</v>
       </c>
       <c r="D123" t="n">
-        <v>3.125</v>
+        <v>3.053</v>
       </c>
       <c r="E123" t="n">
-        <v>3.115</v>
+        <v>3.024</v>
       </c>
       <c r="F123" t="n">
-        <v>35822</v>
+        <v>94215.216</v>
       </c>
       <c r="G123" t="n">
-        <v>-12216218.74855513</v>
+        <v>-15625696.42435513</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -4697,34 +4823,35 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3.118</v>
+        <v>3.024</v>
       </c>
       <c r="C124" t="n">
-        <v>3.105</v>
+        <v>3.024</v>
       </c>
       <c r="D124" t="n">
-        <v>3.118</v>
+        <v>3.024</v>
       </c>
       <c r="E124" t="n">
-        <v>3.105</v>
+        <v>3.024</v>
       </c>
       <c r="F124" t="n">
-        <v>10755.3613</v>
+        <v>88080.1311</v>
       </c>
       <c r="G124" t="n">
-        <v>-12226974.10985513</v>
+        <v>-15625696.42435513</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -4732,34 +4859,35 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>3.105</v>
+        <v>3.069</v>
       </c>
       <c r="C125" t="n">
-        <v>3.101</v>
+        <v>3.069</v>
       </c>
       <c r="D125" t="n">
-        <v>3.105</v>
+        <v>3.069</v>
       </c>
       <c r="E125" t="n">
-        <v>3.101</v>
+        <v>3.069</v>
       </c>
       <c r="F125" t="n">
-        <v>164934.9571</v>
+        <v>200</v>
       </c>
       <c r="G125" t="n">
-        <v>-12391909.06695513</v>
+        <v>-15625496.42435513</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -4767,34 +4895,35 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3.101</v>
+        <v>3.069</v>
       </c>
       <c r="C126" t="n">
-        <v>3.105</v>
+        <v>3.08</v>
       </c>
       <c r="D126" t="n">
-        <v>3.105</v>
+        <v>3.08</v>
       </c>
       <c r="E126" t="n">
-        <v>3.101</v>
+        <v>3.058</v>
       </c>
       <c r="F126" t="n">
-        <v>3110.8697</v>
+        <v>510</v>
       </c>
       <c r="G126" t="n">
-        <v>-12388798.19725513</v>
+        <v>-15624986.42435513</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -4802,34 +4931,35 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3.101</v>
+        <v>3.047</v>
       </c>
       <c r="C127" t="n">
-        <v>3.101</v>
+        <v>3.046</v>
       </c>
       <c r="D127" t="n">
-        <v>3.101</v>
+        <v>3.058</v>
       </c>
       <c r="E127" t="n">
-        <v>3.101</v>
+        <v>3.046</v>
       </c>
       <c r="F127" t="n">
-        <v>4098.9233</v>
+        <v>175214.4</v>
       </c>
       <c r="G127" t="n">
-        <v>-12392897.12055513</v>
+        <v>-15800200.82435513</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -4837,34 +4967,35 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3.098</v>
+        <v>3.046</v>
       </c>
       <c r="C128" t="n">
-        <v>3.064</v>
+        <v>3.046</v>
       </c>
       <c r="D128" t="n">
-        <v>3.098</v>
+        <v>3.046</v>
       </c>
       <c r="E128" t="n">
-        <v>3.064</v>
+        <v>3.046</v>
       </c>
       <c r="F128" t="n">
-        <v>152823.6417</v>
+        <v>0.005</v>
       </c>
       <c r="G128" t="n">
-        <v>-12545720.76225513</v>
+        <v>-15800200.82435513</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -4872,28 +5003,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3.057</v>
+        <v>3.058</v>
       </c>
       <c r="C129" t="n">
-        <v>3.057</v>
+        <v>3.058</v>
       </c>
       <c r="D129" t="n">
-        <v>3.057</v>
+        <v>3.058</v>
       </c>
       <c r="E129" t="n">
-        <v>3.057</v>
+        <v>3.058</v>
       </c>
       <c r="F129" t="n">
-        <v>9008.559999999999</v>
+        <v>175412.3185</v>
       </c>
       <c r="G129" t="n">
-        <v>-12554729.32225513</v>
+        <v>-15624788.50585513</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4907,28 +5039,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
+        <v>3.058</v>
+      </c>
+      <c r="C130" t="n">
         <v>3.05</v>
       </c>
-      <c r="C130" t="n">
-        <v>3.039</v>
-      </c>
       <c r="D130" t="n">
+        <v>3.058</v>
+      </c>
+      <c r="E130" t="n">
         <v>3.05</v>
       </c>
-      <c r="E130" t="n">
-        <v>3.039</v>
-      </c>
       <c r="F130" t="n">
-        <v>115735.4494</v>
+        <v>58653.8593</v>
       </c>
       <c r="G130" t="n">
-        <v>-12670464.77165513</v>
+        <v>-15683442.36515513</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4942,28 +5075,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3.056</v>
+        <v>3.05</v>
       </c>
       <c r="C131" t="n">
-        <v>3.056</v>
+        <v>3.05</v>
       </c>
       <c r="D131" t="n">
-        <v>3.056</v>
+        <v>3.05</v>
       </c>
       <c r="E131" t="n">
-        <v>3.056</v>
+        <v>3.05</v>
       </c>
       <c r="F131" t="n">
-        <v>10001.856</v>
+        <v>141746.7196</v>
       </c>
       <c r="G131" t="n">
-        <v>-12660462.91565513</v>
+        <v>-15683442.36515513</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4977,28 +5111,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>3.056</v>
+        <v>3.069</v>
       </c>
       <c r="C132" t="n">
-        <v>3.056</v>
+        <v>3.069</v>
       </c>
       <c r="D132" t="n">
-        <v>3.056</v>
+        <v>3.069</v>
       </c>
       <c r="E132" t="n">
-        <v>3.056</v>
+        <v>3.069</v>
       </c>
       <c r="F132" t="n">
-        <v>15700</v>
+        <v>200</v>
       </c>
       <c r="G132" t="n">
-        <v>-12660462.91565513</v>
+        <v>-15683242.36515513</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5012,28 +5147,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>3.049</v>
+        <v>3.044</v>
       </c>
       <c r="C133" t="n">
-        <v>3.039</v>
+        <v>3.032</v>
       </c>
       <c r="D133" t="n">
-        <v>3.049</v>
+        <v>3.044</v>
       </c>
       <c r="E133" t="n">
-        <v>3.039</v>
+        <v>3.032</v>
       </c>
       <c r="F133" t="n">
-        <v>340083.8873</v>
+        <v>258000.802</v>
       </c>
       <c r="G133" t="n">
-        <v>-13000546.80295513</v>
+        <v>-15941243.16715513</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5047,28 +5183,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>3.039</v>
+        <v>3.069</v>
       </c>
       <c r="C134" t="n">
-        <v>3.039</v>
+        <v>3.069</v>
       </c>
       <c r="D134" t="n">
-        <v>3.039</v>
+        <v>3.069</v>
       </c>
       <c r="E134" t="n">
-        <v>3.039</v>
+        <v>3.069</v>
       </c>
       <c r="F134" t="n">
-        <v>104844.386</v>
+        <v>500</v>
       </c>
       <c r="G134" t="n">
-        <v>-13000546.80295513</v>
+        <v>-15940743.16715513</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5082,28 +5219,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3.056</v>
+        <v>3.069</v>
       </c>
       <c r="C135" t="n">
-        <v>3.056</v>
+        <v>3.079</v>
       </c>
       <c r="D135" t="n">
-        <v>3.056</v>
+        <v>3.079</v>
       </c>
       <c r="E135" t="n">
-        <v>3.056</v>
+        <v>3.069</v>
       </c>
       <c r="F135" t="n">
-        <v>1203.23</v>
+        <v>602947.9693999999</v>
       </c>
       <c r="G135" t="n">
-        <v>-12999343.57295513</v>
+        <v>-15337795.19775513</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5117,28 +5255,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3.051</v>
+        <v>3.069</v>
       </c>
       <c r="C136" t="n">
-        <v>3.045</v>
+        <v>3.069</v>
       </c>
       <c r="D136" t="n">
-        <v>3.051</v>
+        <v>3.069</v>
       </c>
       <c r="E136" t="n">
-        <v>3.045</v>
+        <v>3.069</v>
       </c>
       <c r="F136" t="n">
-        <v>9282.798000000001</v>
+        <v>1617.2202</v>
       </c>
       <c r="G136" t="n">
-        <v>-13008626.37095513</v>
+        <v>-15339412.41795513</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5152,28 +5291,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3.039</v>
+        <v>3.061</v>
       </c>
       <c r="C137" t="n">
-        <v>3.039</v>
+        <v>3.061</v>
       </c>
       <c r="D137" t="n">
-        <v>3.039</v>
+        <v>3.061</v>
       </c>
       <c r="E137" t="n">
-        <v>3.039</v>
+        <v>3.061</v>
       </c>
       <c r="F137" t="n">
-        <v>10157.47</v>
+        <v>59400</v>
       </c>
       <c r="G137" t="n">
-        <v>-13018783.84095513</v>
+        <v>-15398812.41795513</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5187,28 +5327,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3.039</v>
+        <v>3.051</v>
       </c>
       <c r="C138" t="n">
-        <v>3.039</v>
+        <v>3.04</v>
       </c>
       <c r="D138" t="n">
-        <v>3.039</v>
+        <v>3.051</v>
       </c>
       <c r="E138" t="n">
-        <v>3.039</v>
+        <v>3.04</v>
       </c>
       <c r="F138" t="n">
-        <v>19842.53</v>
+        <v>178000</v>
       </c>
       <c r="G138" t="n">
-        <v>-13018783.84095513</v>
+        <v>-15576812.41795513</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5222,28 +5363,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>3.055</v>
+        <v>3.075</v>
       </c>
       <c r="C139" t="n">
-        <v>3.055</v>
+        <v>3.075</v>
       </c>
       <c r="D139" t="n">
-        <v>3.055</v>
+        <v>3.075</v>
       </c>
       <c r="E139" t="n">
-        <v>3.055</v>
+        <v>3.075</v>
       </c>
       <c r="F139" t="n">
-        <v>500</v>
+        <v>410</v>
       </c>
       <c r="G139" t="n">
-        <v>-13018283.84095513</v>
+        <v>-15576402.41795513</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5257,28 +5399,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3.054</v>
+        <v>3.042</v>
       </c>
       <c r="C140" t="n">
-        <v>3.054</v>
+        <v>3.04</v>
       </c>
       <c r="D140" t="n">
-        <v>3.054</v>
+        <v>3.042</v>
       </c>
       <c r="E140" t="n">
-        <v>3.054</v>
+        <v>3.04</v>
       </c>
       <c r="F140" t="n">
-        <v>16791</v>
+        <v>427380.5385</v>
       </c>
       <c r="G140" t="n">
-        <v>-13035074.84095513</v>
+        <v>-16003782.95645513</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5292,28 +5435,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>3.048</v>
+        <v>3.039</v>
       </c>
       <c r="C141" t="n">
-        <v>3.032</v>
+        <v>3.015</v>
       </c>
       <c r="D141" t="n">
-        <v>3.048</v>
+        <v>3.039</v>
       </c>
       <c r="E141" t="n">
-        <v>3.032</v>
+        <v>3.015</v>
       </c>
       <c r="F141" t="n">
-        <v>19320.8543</v>
+        <v>177184.6511</v>
       </c>
       <c r="G141" t="n">
-        <v>-13054395.69525513</v>
+        <v>-16180967.60755513</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5327,28 +5471,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>3.03</v>
+        <v>3.05</v>
       </c>
       <c r="C142" t="n">
-        <v>3.028</v>
+        <v>3.05</v>
       </c>
       <c r="D142" t="n">
-        <v>3.03</v>
+        <v>3.05</v>
       </c>
       <c r="E142" t="n">
-        <v>3.028</v>
+        <v>3.05</v>
       </c>
       <c r="F142" t="n">
-        <v>488139.9261</v>
+        <v>7239.1847</v>
       </c>
       <c r="G142" t="n">
-        <v>-13542535.62135513</v>
+        <v>-16173728.42285513</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5362,28 +5507,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>3.026</v>
+        <v>3.055</v>
       </c>
       <c r="C143" t="n">
-        <v>3.028</v>
+        <v>3.055</v>
       </c>
       <c r="D143" t="n">
-        <v>3.028</v>
+        <v>3.055</v>
       </c>
       <c r="E143" t="n">
-        <v>3.026</v>
+        <v>3.055</v>
       </c>
       <c r="F143" t="n">
-        <v>194067.4354</v>
+        <v>25927.0808</v>
       </c>
       <c r="G143" t="n">
-        <v>-13542535.62135513</v>
+        <v>-16147801.34205513</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5397,13 +5543,14 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>3.028</v>
+        <v>3.05</v>
       </c>
       <c r="C144" t="n">
         <v>3.05</v>
@@ -5412,13 +5559,13 @@
         <v>3.05</v>
       </c>
       <c r="E144" t="n">
-        <v>3.028</v>
+        <v>3.05</v>
       </c>
       <c r="F144" t="n">
-        <v>14416.8005</v>
+        <v>4842.6713</v>
       </c>
       <c r="G144" t="n">
-        <v>-13528118.82085513</v>
+        <v>-16152644.01335513</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5432,28 +5579,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="C145" t="n">
-        <v>3.028</v>
+        <v>3.05</v>
       </c>
       <c r="D145" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="E145" t="n">
-        <v>3.028</v>
+        <v>3.05</v>
       </c>
       <c r="F145" t="n">
-        <v>313782.5995</v>
+        <v>5063.7485</v>
       </c>
       <c r="G145" t="n">
-        <v>-13841901.42035513</v>
+        <v>-16152644.01335513</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5467,28 +5615,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>3.028</v>
+        <v>3.055</v>
       </c>
       <c r="C146" t="n">
-        <v>3.028</v>
+        <v>3.075</v>
       </c>
       <c r="D146" t="n">
-        <v>3.028</v>
+        <v>3.075</v>
       </c>
       <c r="E146" t="n">
-        <v>3.028</v>
+        <v>3.055</v>
       </c>
       <c r="F146" t="n">
-        <v>174062.4581</v>
+        <v>78877.6967</v>
       </c>
       <c r="G146" t="n">
-        <v>-13841901.42035513</v>
+        <v>-16073766.31665513</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5502,28 +5651,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>3.05</v>
+        <v>3.075</v>
       </c>
       <c r="C147" t="n">
-        <v>3.05</v>
+        <v>3.075</v>
       </c>
       <c r="D147" t="n">
-        <v>3.05</v>
+        <v>3.075</v>
       </c>
       <c r="E147" t="n">
-        <v>3.05</v>
+        <v>3.075</v>
       </c>
       <c r="F147" t="n">
-        <v>500</v>
+        <v>5304.1062</v>
       </c>
       <c r="G147" t="n">
-        <v>-13841401.42035513</v>
+        <v>-16073766.31665513</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5537,28 +5687,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>3.05</v>
+        <v>3.077</v>
       </c>
       <c r="C148" t="n">
-        <v>3.05</v>
+        <v>3.077</v>
       </c>
       <c r="D148" t="n">
-        <v>3.05</v>
+        <v>3.077</v>
       </c>
       <c r="E148" t="n">
-        <v>3.05</v>
+        <v>3.077</v>
       </c>
       <c r="F148" t="n">
-        <v>29745.6</v>
+        <v>5418.483</v>
       </c>
       <c r="G148" t="n">
-        <v>-13841401.42035513</v>
+        <v>-16068347.83365513</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5572,28 +5723,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>3.043</v>
+        <v>3.077</v>
       </c>
       <c r="C149" t="n">
-        <v>3.025</v>
+        <v>3.077</v>
       </c>
       <c r="D149" t="n">
-        <v>3.043</v>
+        <v>3.077</v>
       </c>
       <c r="E149" t="n">
-        <v>3.025</v>
+        <v>3.077</v>
       </c>
       <c r="F149" t="n">
-        <v>397463.0578</v>
+        <v>5586.373</v>
       </c>
       <c r="G149" t="n">
-        <v>-14238864.47815513</v>
+        <v>-16068347.83365513</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5607,28 +5759,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>3.025</v>
+        <v>3.075</v>
       </c>
       <c r="C150" t="n">
-        <v>3.045</v>
+        <v>3.075</v>
       </c>
       <c r="D150" t="n">
-        <v>3.045</v>
+        <v>3.075</v>
       </c>
       <c r="E150" t="n">
-        <v>3.025</v>
+        <v>3.075</v>
       </c>
       <c r="F150" t="n">
-        <v>123010.3484</v>
+        <v>8940.543900000001</v>
       </c>
       <c r="G150" t="n">
-        <v>-14115854.12975513</v>
+        <v>-16077288.37755513</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5642,28 +5795,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>3.045</v>
+        <v>3.077</v>
       </c>
       <c r="C151" t="n">
-        <v>3.045</v>
+        <v>3.089</v>
       </c>
       <c r="D151" t="n">
-        <v>3.045</v>
+        <v>3.089</v>
       </c>
       <c r="E151" t="n">
-        <v>3.045</v>
+        <v>3.077</v>
       </c>
       <c r="F151" t="n">
-        <v>24619.4193</v>
+        <v>34223.3138</v>
       </c>
       <c r="G151" t="n">
-        <v>-14115854.12975513</v>
+        <v>-16043065.06375513</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5677,28 +5831,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>3.045</v>
+        <v>3.089</v>
       </c>
       <c r="C152" t="n">
-        <v>3.05</v>
+        <v>3.089</v>
       </c>
       <c r="D152" t="n">
-        <v>3.05</v>
+        <v>3.089</v>
       </c>
       <c r="E152" t="n">
-        <v>3.028</v>
+        <v>3.089</v>
       </c>
       <c r="F152" t="n">
-        <v>40589.576</v>
+        <v>177.1889</v>
       </c>
       <c r="G152" t="n">
-        <v>-14075264.55375513</v>
+        <v>-16043065.06375513</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5712,28 +5867,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3.03</v>
+        <v>3.092</v>
       </c>
       <c r="C153" t="n">
-        <v>3.017</v>
+        <v>3.09</v>
       </c>
       <c r="D153" t="n">
-        <v>3.03</v>
+        <v>3.1</v>
       </c>
       <c r="E153" t="n">
-        <v>3.012</v>
+        <v>3.089</v>
       </c>
       <c r="F153" t="n">
-        <v>2198335.9303</v>
+        <v>38919.9588</v>
       </c>
       <c r="G153" t="n">
-        <v>-16273600.48405513</v>
+        <v>-16004145.10495513</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5747,28 +5903,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>3.02</v>
+        <v>3.089</v>
       </c>
       <c r="C154" t="n">
-        <v>3.04</v>
+        <v>3.089</v>
       </c>
       <c r="D154" t="n">
-        <v>3.04</v>
+        <v>3.089</v>
       </c>
       <c r="E154" t="n">
-        <v>3.011</v>
+        <v>3.089</v>
       </c>
       <c r="F154" t="n">
-        <v>305281.8291</v>
+        <v>4486.841</v>
       </c>
       <c r="G154" t="n">
-        <v>-15968318.65495513</v>
+        <v>-16008631.94595513</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5782,28 +5939,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>3.04</v>
+        <v>3.085</v>
       </c>
       <c r="C155" t="n">
-        <v>3.04</v>
+        <v>3.085</v>
       </c>
       <c r="D155" t="n">
-        <v>3.04</v>
+        <v>3.085</v>
       </c>
       <c r="E155" t="n">
-        <v>3.04</v>
+        <v>3.077</v>
       </c>
       <c r="F155" t="n">
-        <v>15900</v>
+        <v>356155.9092</v>
       </c>
       <c r="G155" t="n">
-        <v>-15968318.65495513</v>
+        <v>-16364787.85515513</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5817,28 +5975,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>3.05</v>
+        <v>3.085</v>
       </c>
       <c r="C156" t="n">
-        <v>3.056</v>
+        <v>3.077</v>
       </c>
       <c r="D156" t="n">
-        <v>3.056</v>
+        <v>3.085</v>
       </c>
       <c r="E156" t="n">
-        <v>3.05</v>
+        <v>3.077</v>
       </c>
       <c r="F156" t="n">
-        <v>438037.4363</v>
+        <v>77439.0068</v>
       </c>
       <c r="G156" t="n">
-        <v>-15530281.21865513</v>
+        <v>-16442226.86195513</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5852,28 +6011,29 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3.083</v>
+        <v>3.077</v>
       </c>
       <c r="C157" t="n">
-        <v>3.083</v>
+        <v>3.077</v>
       </c>
       <c r="D157" t="n">
-        <v>3.083</v>
+        <v>3.077</v>
       </c>
       <c r="E157" t="n">
-        <v>3.083</v>
+        <v>3.077</v>
       </c>
       <c r="F157" t="n">
-        <v>35560.734</v>
+        <v>115.6197</v>
       </c>
       <c r="G157" t="n">
-        <v>-15494720.48465513</v>
+        <v>-16442226.86195513</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5887,28 +6047,29 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>3.091</v>
+        <v>3.075</v>
       </c>
       <c r="C158" t="n">
-        <v>3.091</v>
+        <v>3.075</v>
       </c>
       <c r="D158" t="n">
-        <v>3.091</v>
+        <v>3.075</v>
       </c>
       <c r="E158" t="n">
-        <v>3.091</v>
+        <v>3.075</v>
       </c>
       <c r="F158" t="n">
-        <v>30164.88</v>
+        <v>5764.7659</v>
       </c>
       <c r="G158" t="n">
-        <v>-15464555.60465513</v>
+        <v>-16447991.62785513</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5922,28 +6083,29 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>3.091</v>
+        <v>3.064</v>
       </c>
       <c r="C159" t="n">
-        <v>3.101</v>
+        <v>3.064</v>
       </c>
       <c r="D159" t="n">
-        <v>3.101</v>
+        <v>3.064</v>
       </c>
       <c r="E159" t="n">
-        <v>3.091</v>
+        <v>3.064</v>
       </c>
       <c r="F159" t="n">
-        <v>23517.9718</v>
+        <v>5001.85</v>
       </c>
       <c r="G159" t="n">
-        <v>-15441037.63285513</v>
+        <v>-16452993.47785513</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5957,28 +6119,29 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>3.101</v>
+        <v>3.069</v>
       </c>
       <c r="C160" t="n">
-        <v>3.05</v>
+        <v>3.069</v>
       </c>
       <c r="D160" t="n">
-        <v>3.101</v>
+        <v>3.069</v>
       </c>
       <c r="E160" t="n">
-        <v>3.05</v>
+        <v>3.069</v>
       </c>
       <c r="F160" t="n">
-        <v>98489.5855</v>
+        <v>4451.82</v>
       </c>
       <c r="G160" t="n">
-        <v>-15539527.21835513</v>
+        <v>-16448541.65785513</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5992,28 +6155,29 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>3.05</v>
+        <v>3.073</v>
       </c>
       <c r="C161" t="n">
-        <v>3.05</v>
+        <v>3.077</v>
       </c>
       <c r="D161" t="n">
-        <v>3.05</v>
+        <v>3.077</v>
       </c>
       <c r="E161" t="n">
-        <v>3.05</v>
+        <v>3.073</v>
       </c>
       <c r="F161" t="n">
-        <v>47740.3017</v>
+        <v>17721.0595</v>
       </c>
       <c r="G161" t="n">
-        <v>-15539527.21835513</v>
+        <v>-16430820.59835513</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6027,28 +6191,29 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>3.052</v>
+        <v>3.077</v>
       </c>
       <c r="C162" t="n">
-        <v>3.05</v>
+        <v>3.08</v>
       </c>
       <c r="D162" t="n">
-        <v>3.052</v>
+        <v>3.08</v>
       </c>
       <c r="E162" t="n">
-        <v>3.05</v>
+        <v>3.077</v>
       </c>
       <c r="F162" t="n">
-        <v>126289.7863</v>
+        <v>20293.494</v>
       </c>
       <c r="G162" t="n">
-        <v>-15539527.21835513</v>
+        <v>-16410527.10435513</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6062,28 +6227,29 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>3.05</v>
+        <v>3.08</v>
       </c>
       <c r="C163" t="n">
-        <v>3.05</v>
+        <v>3.085</v>
       </c>
       <c r="D163" t="n">
-        <v>3.05</v>
+        <v>3.085</v>
       </c>
       <c r="E163" t="n">
-        <v>3.05</v>
+        <v>3.08</v>
       </c>
       <c r="F163" t="n">
-        <v>20109.4241</v>
+        <v>23007.4615</v>
       </c>
       <c r="G163" t="n">
-        <v>-15539527.21835513</v>
+        <v>-16387519.64285513</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6097,28 +6263,29 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>3.053</v>
+        <v>3.085</v>
       </c>
       <c r="C164" t="n">
-        <v>3.053</v>
+        <v>3.089</v>
       </c>
       <c r="D164" t="n">
-        <v>3.053</v>
+        <v>3.089</v>
       </c>
       <c r="E164" t="n">
-        <v>3.053</v>
+        <v>3.085</v>
       </c>
       <c r="F164" t="n">
-        <v>8046.01</v>
+        <v>18004.56</v>
       </c>
       <c r="G164" t="n">
-        <v>-15531481.20835513</v>
+        <v>-16369515.08285513</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6132,28 +6299,29 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>3.053</v>
+        <v>3.083</v>
       </c>
       <c r="C165" t="n">
-        <v>3.024</v>
+        <v>3.083</v>
       </c>
       <c r="D165" t="n">
-        <v>3.053</v>
+        <v>3.083</v>
       </c>
       <c r="E165" t="n">
-        <v>3.024</v>
+        <v>3.083</v>
       </c>
       <c r="F165" t="n">
-        <v>94215.216</v>
+        <v>7004.56</v>
       </c>
       <c r="G165" t="n">
-        <v>-15625696.42435513</v>
+        <v>-16376519.64285513</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6167,28 +6335,29 @@
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>3.024</v>
+        <v>3.081</v>
       </c>
       <c r="C166" t="n">
-        <v>3.024</v>
+        <v>3.081</v>
       </c>
       <c r="D166" t="n">
-        <v>3.024</v>
+        <v>3.081</v>
       </c>
       <c r="E166" t="n">
-        <v>3.024</v>
+        <v>3.081</v>
       </c>
       <c r="F166" t="n">
-        <v>88080.1311</v>
+        <v>5005.85</v>
       </c>
       <c r="G166" t="n">
-        <v>-15625696.42435513</v>
+        <v>-16381525.49285513</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6202,28 +6371,29 @@
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>3.069</v>
+        <v>3.086</v>
       </c>
       <c r="C167" t="n">
-        <v>3.069</v>
+        <v>3.086</v>
       </c>
       <c r="D167" t="n">
-        <v>3.069</v>
+        <v>3.086</v>
       </c>
       <c r="E167" t="n">
-        <v>3.069</v>
+        <v>3.086</v>
       </c>
       <c r="F167" t="n">
-        <v>200</v>
+        <v>5005.85</v>
       </c>
       <c r="G167" t="n">
-        <v>-15625496.42435513</v>
+        <v>-16376519.64285513</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6237,28 +6407,29 @@
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>3.069</v>
+        <v>3.081</v>
       </c>
       <c r="C168" t="n">
-        <v>3.08</v>
+        <v>3.073</v>
       </c>
       <c r="D168" t="n">
-        <v>3.08</v>
+        <v>3.081</v>
       </c>
       <c r="E168" t="n">
-        <v>3.058</v>
+        <v>3.073</v>
       </c>
       <c r="F168" t="n">
-        <v>510</v>
+        <v>39094.826</v>
       </c>
       <c r="G168" t="n">
-        <v>-15624986.42435513</v>
+        <v>-16415614.46885513</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6272,28 +6443,29 @@
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>3.047</v>
+        <v>3.069</v>
       </c>
       <c r="C169" t="n">
-        <v>3.046</v>
+        <v>3.06</v>
       </c>
       <c r="D169" t="n">
-        <v>3.058</v>
+        <v>3.069</v>
       </c>
       <c r="E169" t="n">
-        <v>3.046</v>
+        <v>3.06</v>
       </c>
       <c r="F169" t="n">
-        <v>175214.4</v>
+        <v>38572.716</v>
       </c>
       <c r="G169" t="n">
-        <v>-15800200.82435513</v>
+        <v>-16454187.18485513</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6307,28 +6479,29 @@
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>3.046</v>
+        <v>3.06</v>
       </c>
       <c r="C170" t="n">
-        <v>3.046</v>
+        <v>3.06</v>
       </c>
       <c r="D170" t="n">
-        <v>3.046</v>
+        <v>3.06</v>
       </c>
       <c r="E170" t="n">
-        <v>3.046</v>
+        <v>3.06</v>
       </c>
       <c r="F170" t="n">
-        <v>0.005</v>
+        <v>95454.4253</v>
       </c>
       <c r="G170" t="n">
-        <v>-15800200.82435513</v>
+        <v>-16454187.18485513</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6342,28 +6515,29 @@
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>3.058</v>
+        <v>3.073</v>
       </c>
       <c r="C171" t="n">
-        <v>3.058</v>
+        <v>3.073</v>
       </c>
       <c r="D171" t="n">
-        <v>3.058</v>
+        <v>3.073</v>
       </c>
       <c r="E171" t="n">
-        <v>3.058</v>
+        <v>3.073</v>
       </c>
       <c r="F171" t="n">
-        <v>175412.3185</v>
+        <v>101986.3753</v>
       </c>
       <c r="G171" t="n">
-        <v>-15624788.50585513</v>
+        <v>-16352200.80955513</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6377,28 +6551,29 @@
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>3.058</v>
+        <v>3.079</v>
       </c>
       <c r="C172" t="n">
-        <v>3.05</v>
+        <v>3.075</v>
       </c>
       <c r="D172" t="n">
-        <v>3.058</v>
+        <v>3.08</v>
       </c>
       <c r="E172" t="n">
-        <v>3.05</v>
+        <v>3.075</v>
       </c>
       <c r="F172" t="n">
-        <v>58653.8593</v>
+        <v>134056.5668</v>
       </c>
       <c r="G172" t="n">
-        <v>-15683442.36515513</v>
+        <v>-16218144.24275513</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6412,28 +6587,29 @@
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="C173" t="n">
-        <v>3.05</v>
+        <v>3.067</v>
       </c>
       <c r="D173" t="n">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="E173" t="n">
-        <v>3.05</v>
+        <v>3.067</v>
       </c>
       <c r="F173" t="n">
-        <v>141746.7196</v>
+        <v>26684.58</v>
       </c>
       <c r="G173" t="n">
-        <v>-15683442.36515513</v>
+        <v>-16244828.82275513</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6447,28 +6623,29 @@
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>3.069</v>
+        <v>3.067</v>
       </c>
       <c r="C174" t="n">
-        <v>3.069</v>
+        <v>3.067</v>
       </c>
       <c r="D174" t="n">
-        <v>3.069</v>
+        <v>3.067</v>
       </c>
       <c r="E174" t="n">
-        <v>3.069</v>
+        <v>3.067</v>
       </c>
       <c r="F174" t="n">
-        <v>200</v>
+        <v>97060.3759</v>
       </c>
       <c r="G174" t="n">
-        <v>-15683242.36515513</v>
+        <v>-16244828.82275513</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6482,28 +6659,29 @@
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>3.044</v>
+        <v>3.079</v>
       </c>
       <c r="C175" t="n">
-        <v>3.032</v>
+        <v>3.079</v>
       </c>
       <c r="D175" t="n">
-        <v>3.044</v>
+        <v>3.079</v>
       </c>
       <c r="E175" t="n">
-        <v>3.032</v>
+        <v>3.079</v>
       </c>
       <c r="F175" t="n">
-        <v>258000.802</v>
+        <v>35001.56</v>
       </c>
       <c r="G175" t="n">
-        <v>-15941243.16715513</v>
+        <v>-16209827.26275513</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6517,28 +6695,29 @@
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>3.069</v>
+        <v>3.075</v>
       </c>
       <c r="C176" t="n">
-        <v>3.069</v>
+        <v>3.022</v>
       </c>
       <c r="D176" t="n">
-        <v>3.069</v>
+        <v>3.075</v>
       </c>
       <c r="E176" t="n">
-        <v>3.069</v>
+        <v>3.022</v>
       </c>
       <c r="F176" t="n">
-        <v>500</v>
+        <v>464490.7872</v>
       </c>
       <c r="G176" t="n">
-        <v>-15940743.16715513</v>
+        <v>-16674318.04995513</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6552,28 +6731,29 @@
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>3.069</v>
+        <v>3.057</v>
       </c>
       <c r="C177" t="n">
-        <v>3.079</v>
+        <v>3.067</v>
       </c>
       <c r="D177" t="n">
-        <v>3.079</v>
+        <v>3.067</v>
       </c>
       <c r="E177" t="n">
-        <v>3.069</v>
+        <v>3.057</v>
       </c>
       <c r="F177" t="n">
-        <v>602947.9693999999</v>
+        <v>27504</v>
       </c>
       <c r="G177" t="n">
-        <v>-15337795.19775513</v>
+        <v>-16646814.04995513</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6587,28 +6767,29 @@
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>3.069</v>
+        <v>3.056</v>
       </c>
       <c r="C178" t="n">
-        <v>3.069</v>
+        <v>3.056</v>
       </c>
       <c r="D178" t="n">
-        <v>3.069</v>
+        <v>3.056</v>
       </c>
       <c r="E178" t="n">
-        <v>3.069</v>
+        <v>3.056</v>
       </c>
       <c r="F178" t="n">
-        <v>1617.2202</v>
+        <v>9009.559999999999</v>
       </c>
       <c r="G178" t="n">
-        <v>-15339412.41795513</v>
+        <v>-16655823.60995513</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6622,28 +6803,29 @@
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>3.061</v>
+        <v>3.049</v>
       </c>
       <c r="C179" t="n">
-        <v>3.061</v>
+        <v>3.049</v>
       </c>
       <c r="D179" t="n">
-        <v>3.061</v>
+        <v>3.049</v>
       </c>
       <c r="E179" t="n">
-        <v>3.061</v>
+        <v>3.049</v>
       </c>
       <c r="F179" t="n">
-        <v>59400</v>
+        <v>65602.9892</v>
       </c>
       <c r="G179" t="n">
-        <v>-15398812.41795513</v>
+        <v>-16721426.59915513</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6657,28 +6839,29 @@
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>3.051</v>
+        <v>3.076</v>
       </c>
       <c r="C180" t="n">
-        <v>3.04</v>
+        <v>3.069</v>
       </c>
       <c r="D180" t="n">
-        <v>3.051</v>
+        <v>3.076</v>
       </c>
       <c r="E180" t="n">
-        <v>3.04</v>
+        <v>3.069</v>
       </c>
       <c r="F180" t="n">
-        <v>178000</v>
+        <v>20323.7</v>
       </c>
       <c r="G180" t="n">
-        <v>-15576812.41795513</v>
+        <v>-16701102.89915513</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6692,28 +6875,29 @@
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>3.075</v>
+        <v>3.071</v>
       </c>
       <c r="C181" t="n">
-        <v>3.075</v>
+        <v>3.071</v>
       </c>
       <c r="D181" t="n">
-        <v>3.075</v>
+        <v>3.071</v>
       </c>
       <c r="E181" t="n">
-        <v>3.075</v>
+        <v>3.071</v>
       </c>
       <c r="F181" t="n">
-        <v>410</v>
+        <v>6006.56</v>
       </c>
       <c r="G181" t="n">
-        <v>-15576402.41795513</v>
+        <v>-16695096.33915513</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6727,28 +6911,29 @@
       <c r="M181" t="n">
         <v>1</v>
       </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>3.042</v>
+        <v>3.063</v>
       </c>
       <c r="C182" t="n">
-        <v>3.04</v>
+        <v>3.062</v>
       </c>
       <c r="D182" t="n">
-        <v>3.042</v>
+        <v>3.063</v>
       </c>
       <c r="E182" t="n">
-        <v>3.04</v>
+        <v>3.062</v>
       </c>
       <c r="F182" t="n">
-        <v>427380.5385</v>
+        <v>92694.2558</v>
       </c>
       <c r="G182" t="n">
-        <v>-16003782.95645513</v>
+        <v>-16787790.59495513</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6762,28 +6947,29 @@
       <c r="M182" t="n">
         <v>1</v>
       </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>3.039</v>
+        <v>3.058</v>
       </c>
       <c r="C183" t="n">
-        <v>3.015</v>
+        <v>3.058</v>
       </c>
       <c r="D183" t="n">
-        <v>3.039</v>
+        <v>3.058</v>
       </c>
       <c r="E183" t="n">
-        <v>3.015</v>
+        <v>3.058</v>
       </c>
       <c r="F183" t="n">
-        <v>177184.6511</v>
+        <v>121101.2592</v>
       </c>
       <c r="G183" t="n">
-        <v>-16180967.60755513</v>
+        <v>-16908891.85415513</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6797,28 +6983,29 @@
       <c r="M183" t="n">
         <v>1</v>
       </c>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>3.05</v>
+        <v>3.057</v>
       </c>
       <c r="C184" t="n">
-        <v>3.05</v>
+        <v>3.057</v>
       </c>
       <c r="D184" t="n">
-        <v>3.05</v>
+        <v>3.057</v>
       </c>
       <c r="E184" t="n">
-        <v>3.05</v>
+        <v>3.057</v>
       </c>
       <c r="F184" t="n">
-        <v>7239.1847</v>
+        <v>2580.8187</v>
       </c>
       <c r="G184" t="n">
-        <v>-16173728.42285513</v>
+        <v>-16911472.67285513</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6832,28 +7019,29 @@
       <c r="M184" t="n">
         <v>1</v>
       </c>
+      <c r="N184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>3.055</v>
+        <v>3.07</v>
       </c>
       <c r="C185" t="n">
-        <v>3.055</v>
+        <v>3.07</v>
       </c>
       <c r="D185" t="n">
-        <v>3.055</v>
+        <v>3.07</v>
       </c>
       <c r="E185" t="n">
-        <v>3.055</v>
+        <v>3.07</v>
       </c>
       <c r="F185" t="n">
-        <v>25927.0808</v>
+        <v>163</v>
       </c>
       <c r="G185" t="n">
-        <v>-16147801.34205513</v>
+        <v>-16911309.67285513</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6867,28 +7055,29 @@
       <c r="M185" t="n">
         <v>1</v>
       </c>
+      <c r="N185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>3.05</v>
+        <v>3.057</v>
       </c>
       <c r="C186" t="n">
-        <v>3.05</v>
+        <v>3.057</v>
       </c>
       <c r="D186" t="n">
-        <v>3.05</v>
+        <v>3.057</v>
       </c>
       <c r="E186" t="n">
-        <v>3.05</v>
+        <v>3.057</v>
       </c>
       <c r="F186" t="n">
-        <v>4842.6713</v>
+        <v>2000</v>
       </c>
       <c r="G186" t="n">
-        <v>-16152644.01335513</v>
+        <v>-16913309.67285513</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6902,28 +7091,29 @@
       <c r="M186" t="n">
         <v>1</v>
       </c>
+      <c r="N186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>3.05</v>
+        <v>3.057</v>
       </c>
       <c r="C187" t="n">
-        <v>3.05</v>
+        <v>3.051</v>
       </c>
       <c r="D187" t="n">
-        <v>3.05</v>
+        <v>3.057</v>
       </c>
       <c r="E187" t="n">
-        <v>3.05</v>
+        <v>3.051</v>
       </c>
       <c r="F187" t="n">
-        <v>5063.7485</v>
+        <v>23202.5973</v>
       </c>
       <c r="G187" t="n">
-        <v>-16152644.01335513</v>
+        <v>-16936512.27015513</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6937,28 +7127,29 @@
       <c r="M187" t="n">
         <v>1</v>
       </c>
+      <c r="N187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>3.055</v>
+        <v>3.049</v>
       </c>
       <c r="C188" t="n">
-        <v>3.075</v>
+        <v>3.044</v>
       </c>
       <c r="D188" t="n">
-        <v>3.075</v>
+        <v>3.049</v>
       </c>
       <c r="E188" t="n">
-        <v>3.055</v>
+        <v>3.044</v>
       </c>
       <c r="F188" t="n">
-        <v>78877.6967</v>
+        <v>130727.8281</v>
       </c>
       <c r="G188" t="n">
-        <v>-16073766.31665513</v>
+        <v>-17067240.09825513</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6972,28 +7163,29 @@
       <c r="M188" t="n">
         <v>1</v>
       </c>
+      <c r="N188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>3.075</v>
+        <v>3.042</v>
       </c>
       <c r="C189" t="n">
-        <v>3.075</v>
+        <v>3.042</v>
       </c>
       <c r="D189" t="n">
-        <v>3.075</v>
+        <v>3.042</v>
       </c>
       <c r="E189" t="n">
-        <v>3.075</v>
+        <v>3.042</v>
       </c>
       <c r="F189" t="n">
-        <v>5304.1062</v>
+        <v>9805.980299999999</v>
       </c>
       <c r="G189" t="n">
-        <v>-16073766.31665513</v>
+        <v>-17077046.07855513</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7007,28 +7199,29 @@
       <c r="M189" t="n">
         <v>1</v>
       </c>
+      <c r="N189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>3.077</v>
+        <v>3.04</v>
       </c>
       <c r="C190" t="n">
-        <v>3.077</v>
+        <v>3.022</v>
       </c>
       <c r="D190" t="n">
-        <v>3.077</v>
+        <v>3.04</v>
       </c>
       <c r="E190" t="n">
-        <v>3.077</v>
+        <v>3.022</v>
       </c>
       <c r="F190" t="n">
-        <v>5418.483</v>
+        <v>903465.3605</v>
       </c>
       <c r="G190" t="n">
-        <v>-16068347.83365513</v>
+        <v>-17980511.43905513</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7042,28 +7235,29 @@
       <c r="M190" t="n">
         <v>1</v>
       </c>
+      <c r="N190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>3.077</v>
+        <v>3.022</v>
       </c>
       <c r="C191" t="n">
-        <v>3.077</v>
+        <v>3.022</v>
       </c>
       <c r="D191" t="n">
-        <v>3.077</v>
+        <v>3.022</v>
       </c>
       <c r="E191" t="n">
-        <v>3.077</v>
+        <v>3.022</v>
       </c>
       <c r="F191" t="n">
-        <v>5586.373</v>
+        <v>9815.837100000001</v>
       </c>
       <c r="G191" t="n">
-        <v>-16068347.83365513</v>
+        <v>-17980511.43905513</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7077,28 +7271,29 @@
       <c r="M191" t="n">
         <v>1</v>
       </c>
+      <c r="N191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>3.075</v>
+        <v>3.021</v>
       </c>
       <c r="C192" t="n">
-        <v>3.075</v>
+        <v>3.02</v>
       </c>
       <c r="D192" t="n">
-        <v>3.075</v>
+        <v>3.021</v>
       </c>
       <c r="E192" t="n">
-        <v>3.075</v>
+        <v>3.013</v>
       </c>
       <c r="F192" t="n">
-        <v>8940.543900000001</v>
+        <v>648059.4692000001</v>
       </c>
       <c r="G192" t="n">
-        <v>-16077288.37755513</v>
+        <v>-18628570.90825513</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7112,28 +7307,29 @@
       <c r="M192" t="n">
         <v>1</v>
       </c>
+      <c r="N192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>3.077</v>
+        <v>3.02</v>
       </c>
       <c r="C193" t="n">
-        <v>3.089</v>
+        <v>3.02</v>
       </c>
       <c r="D193" t="n">
-        <v>3.089</v>
+        <v>3.02</v>
       </c>
       <c r="E193" t="n">
-        <v>3.077</v>
+        <v>3.02</v>
       </c>
       <c r="F193" t="n">
-        <v>34223.3138</v>
+        <v>1014.9485</v>
       </c>
       <c r="G193" t="n">
-        <v>-16043065.06375513</v>
+        <v>-18628570.90825513</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7147,133 +7343,155 @@
       <c r="M193" t="n">
         <v>1</v>
       </c>
+      <c r="N193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>3.089</v>
+        <v>3.02</v>
       </c>
       <c r="C194" t="n">
-        <v>3.089</v>
+        <v>3.013</v>
       </c>
       <c r="D194" t="n">
-        <v>3.089</v>
+        <v>3.02</v>
       </c>
       <c r="E194" t="n">
-        <v>3.089</v>
+        <v>3.013</v>
       </c>
       <c r="F194" t="n">
-        <v>177.1889</v>
+        <v>332813.6322</v>
       </c>
       <c r="G194" t="n">
-        <v>-16043065.06375513</v>
+        <v>-18961384.54045513</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>3.02</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
+      <c r="N194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>3.092</v>
+        <v>3.02</v>
       </c>
       <c r="C195" t="n">
-        <v>3.09</v>
+        <v>3.013</v>
       </c>
       <c r="D195" t="n">
-        <v>3.1</v>
+        <v>3.02</v>
       </c>
       <c r="E195" t="n">
-        <v>3.089</v>
+        <v>3.013</v>
       </c>
       <c r="F195" t="n">
-        <v>38919.9588</v>
+        <v>33170.772</v>
       </c>
       <c r="G195" t="n">
-        <v>-16004145.10495513</v>
+        <v>-18961384.54045513</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>3.013</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
+      <c r="N195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>3.089</v>
+        <v>3.021</v>
       </c>
       <c r="C196" t="n">
-        <v>3.089</v>
+        <v>3.006</v>
       </c>
       <c r="D196" t="n">
-        <v>3.089</v>
+        <v>3.021</v>
       </c>
       <c r="E196" t="n">
-        <v>3.089</v>
+        <v>3.006</v>
       </c>
       <c r="F196" t="n">
-        <v>4486.841</v>
+        <v>2214112.127</v>
       </c>
       <c r="G196" t="n">
-        <v>-16008631.94595513</v>
+        <v>-21175496.66745513</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>3.013</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
+      <c r="N196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>3.085</v>
+        <v>3.01</v>
       </c>
       <c r="C197" t="n">
-        <v>3.085</v>
+        <v>3.006</v>
       </c>
       <c r="D197" t="n">
-        <v>3.085</v>
+        <v>3.01</v>
       </c>
       <c r="E197" t="n">
-        <v>3.077</v>
+        <v>3.006</v>
       </c>
       <c r="F197" t="n">
-        <v>356155.9092</v>
+        <v>386126.466</v>
       </c>
       <c r="G197" t="n">
-        <v>-16364787.85515513</v>
+        <v>-21175496.66745513</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7283,32 +7501,37 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
+      <c r="N197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>3.085</v>
+        <v>3.009</v>
       </c>
       <c r="C198" t="n">
-        <v>3.077</v>
+        <v>3.007</v>
       </c>
       <c r="D198" t="n">
-        <v>3.085</v>
+        <v>3.009</v>
       </c>
       <c r="E198" t="n">
-        <v>3.077</v>
+        <v>3.007</v>
       </c>
       <c r="F198" t="n">
-        <v>77439.0068</v>
+        <v>1397962.1464</v>
       </c>
       <c r="G198" t="n">
-        <v>-16442226.86195513</v>
+        <v>-19777534.52105513</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7318,32 +7541,37 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
+      <c r="N198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>3.077</v>
+        <v>3.008</v>
       </c>
       <c r="C199" t="n">
-        <v>3.077</v>
+        <v>3.007</v>
       </c>
       <c r="D199" t="n">
-        <v>3.077</v>
+        <v>3.008</v>
       </c>
       <c r="E199" t="n">
-        <v>3.077</v>
+        <v>3.007</v>
       </c>
       <c r="F199" t="n">
-        <v>115.6197</v>
+        <v>486952.2165</v>
       </c>
       <c r="G199" t="n">
-        <v>-16442226.86195513</v>
+        <v>-19777534.52105513</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7353,67 +7581,79 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
+      <c r="N199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>3.075</v>
+        <v>3.007</v>
       </c>
       <c r="C200" t="n">
-        <v>3.075</v>
+        <v>3.004</v>
       </c>
       <c r="D200" t="n">
-        <v>3.075</v>
+        <v>3.007</v>
       </c>
       <c r="E200" t="n">
-        <v>3.075</v>
+        <v>3.004</v>
       </c>
       <c r="F200" t="n">
-        <v>5764.7659</v>
+        <v>206946.4968</v>
       </c>
       <c r="G200" t="n">
-        <v>-16447991.62785513</v>
+        <v>-19984481.01785513</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>3.007</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
+      <c r="N200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>3.064</v>
+        <v>3.005</v>
       </c>
       <c r="C201" t="n">
-        <v>3.064</v>
+        <v>3.005</v>
       </c>
       <c r="D201" t="n">
-        <v>3.064</v>
+        <v>3.005</v>
       </c>
       <c r="E201" t="n">
-        <v>3.064</v>
+        <v>3.005</v>
       </c>
       <c r="F201" t="n">
-        <v>5001.85</v>
+        <v>139568.8768</v>
       </c>
       <c r="G201" t="n">
-        <v>-16452993.47785513</v>
+        <v>-19844912.14105513</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7423,67 +7663,79 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
+      <c r="N201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>3.069</v>
+        <v>3.03</v>
       </c>
       <c r="C202" t="n">
-        <v>3.069</v>
+        <v>3.04</v>
       </c>
       <c r="D202" t="n">
-        <v>3.069</v>
+        <v>3.04</v>
       </c>
       <c r="E202" t="n">
-        <v>3.069</v>
+        <v>3.03</v>
       </c>
       <c r="F202" t="n">
-        <v>4451.82</v>
+        <v>1529077.2961</v>
       </c>
       <c r="G202" t="n">
-        <v>-16448541.65785513</v>
+        <v>-18315834.84495513</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>3.005</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
+      <c r="N202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>3.073</v>
+        <v>3.041</v>
       </c>
       <c r="C203" t="n">
-        <v>3.077</v>
+        <v>3.041</v>
       </c>
       <c r="D203" t="n">
-        <v>3.077</v>
+        <v>3.041</v>
       </c>
       <c r="E203" t="n">
-        <v>3.073</v>
+        <v>3.041</v>
       </c>
       <c r="F203" t="n">
-        <v>17721.0595</v>
+        <v>522</v>
       </c>
       <c r="G203" t="n">
-        <v>-16430820.59835513</v>
+        <v>-18315312.84495513</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7493,32 +7745,37 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
+      <c r="N203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>3.077</v>
+        <v>3.041</v>
       </c>
       <c r="C204" t="n">
-        <v>3.08</v>
+        <v>3.041</v>
       </c>
       <c r="D204" t="n">
-        <v>3.08</v>
+        <v>3.041</v>
       </c>
       <c r="E204" t="n">
-        <v>3.077</v>
+        <v>3.041</v>
       </c>
       <c r="F204" t="n">
-        <v>20293.494</v>
+        <v>108246.1422</v>
       </c>
       <c r="G204" t="n">
-        <v>-16410527.10435513</v>
+        <v>-18315312.84495513</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7528,32 +7785,37 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
+      <c r="N204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>3.08</v>
+        <v>3.02</v>
       </c>
       <c r="C205" t="n">
-        <v>3.085</v>
+        <v>3.015</v>
       </c>
       <c r="D205" t="n">
-        <v>3.085</v>
+        <v>3.02</v>
       </c>
       <c r="E205" t="n">
-        <v>3.08</v>
+        <v>3.015</v>
       </c>
       <c r="F205" t="n">
-        <v>23007.4615</v>
+        <v>11253.9761</v>
       </c>
       <c r="G205" t="n">
-        <v>-16387519.64285513</v>
+        <v>-18326566.82105513</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7563,32 +7825,37 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
+      <c r="N205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>3.085</v>
+        <v>3.015</v>
       </c>
       <c r="C206" t="n">
-        <v>3.089</v>
+        <v>3.015</v>
       </c>
       <c r="D206" t="n">
-        <v>3.089</v>
+        <v>3.015</v>
       </c>
       <c r="E206" t="n">
-        <v>3.085</v>
+        <v>3.015</v>
       </c>
       <c r="F206" t="n">
-        <v>18004.56</v>
+        <v>11916.2005</v>
       </c>
       <c r="G206" t="n">
-        <v>-16369515.08285513</v>
+        <v>-18326566.82105513</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7598,32 +7865,37 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
+      <c r="N206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>3.083</v>
+        <v>3.041</v>
       </c>
       <c r="C207" t="n">
-        <v>3.083</v>
+        <v>3.041</v>
       </c>
       <c r="D207" t="n">
-        <v>3.083</v>
+        <v>3.041</v>
       </c>
       <c r="E207" t="n">
-        <v>3.083</v>
+        <v>3.041</v>
       </c>
       <c r="F207" t="n">
-        <v>7004.56</v>
+        <v>500</v>
       </c>
       <c r="G207" t="n">
-        <v>-16376519.64285513</v>
+        <v>-18326066.82105513</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7633,1542 +7905,15 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>3.081</v>
-      </c>
-      <c r="C208" t="n">
-        <v>3.081</v>
-      </c>
-      <c r="D208" t="n">
-        <v>3.081</v>
-      </c>
-      <c r="E208" t="n">
-        <v>3.081</v>
-      </c>
-      <c r="F208" t="n">
-        <v>5005.85</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-16381525.49285513</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>3.086</v>
-      </c>
-      <c r="C209" t="n">
-        <v>3.086</v>
-      </c>
-      <c r="D209" t="n">
-        <v>3.086</v>
-      </c>
-      <c r="E209" t="n">
-        <v>3.086</v>
-      </c>
-      <c r="F209" t="n">
-        <v>5005.85</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-16376519.64285513</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>3.081</v>
-      </c>
-      <c r="C210" t="n">
-        <v>3.073</v>
-      </c>
-      <c r="D210" t="n">
-        <v>3.081</v>
-      </c>
-      <c r="E210" t="n">
-        <v>3.073</v>
-      </c>
-      <c r="F210" t="n">
-        <v>39094.826</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-16415614.46885513</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>3.069</v>
-      </c>
-      <c r="C211" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="D211" t="n">
-        <v>3.069</v>
-      </c>
-      <c r="E211" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="F211" t="n">
-        <v>38572.716</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-16454187.18485513</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="C212" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="D212" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="E212" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="F212" t="n">
-        <v>95454.4253</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-16454187.18485513</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>3.073</v>
-      </c>
-      <c r="C213" t="n">
-        <v>3.073</v>
-      </c>
-      <c r="D213" t="n">
-        <v>3.073</v>
-      </c>
-      <c r="E213" t="n">
-        <v>3.073</v>
-      </c>
-      <c r="F213" t="n">
-        <v>101986.3753</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-16352200.80955513</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>3.079</v>
-      </c>
-      <c r="C214" t="n">
-        <v>3.075</v>
-      </c>
-      <c r="D214" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="E214" t="n">
-        <v>3.075</v>
-      </c>
-      <c r="F214" t="n">
-        <v>134056.5668</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-16218144.24275513</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="C215" t="n">
-        <v>3.067</v>
-      </c>
-      <c r="D215" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="E215" t="n">
-        <v>3.067</v>
-      </c>
-      <c r="F215" t="n">
-        <v>26684.58</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-16244828.82275513</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>3.067</v>
-      </c>
-      <c r="C216" t="n">
-        <v>3.067</v>
-      </c>
-      <c r="D216" t="n">
-        <v>3.067</v>
-      </c>
-      <c r="E216" t="n">
-        <v>3.067</v>
-      </c>
-      <c r="F216" t="n">
-        <v>97060.3759</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-16244828.82275513</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>3.079</v>
-      </c>
-      <c r="C217" t="n">
-        <v>3.079</v>
-      </c>
-      <c r="D217" t="n">
-        <v>3.079</v>
-      </c>
-      <c r="E217" t="n">
-        <v>3.079</v>
-      </c>
-      <c r="F217" t="n">
-        <v>35001.56</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-16209827.26275513</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>3.075</v>
-      </c>
-      <c r="C218" t="n">
-        <v>3.022</v>
-      </c>
-      <c r="D218" t="n">
-        <v>3.075</v>
-      </c>
-      <c r="E218" t="n">
-        <v>3.022</v>
-      </c>
-      <c r="F218" t="n">
-        <v>464490.7872</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-16674318.04995513</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>3.057</v>
-      </c>
-      <c r="C219" t="n">
-        <v>3.067</v>
-      </c>
-      <c r="D219" t="n">
-        <v>3.067</v>
-      </c>
-      <c r="E219" t="n">
-        <v>3.057</v>
-      </c>
-      <c r="F219" t="n">
-        <v>27504</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-16646814.04995513</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>3.056</v>
-      </c>
-      <c r="C220" t="n">
-        <v>3.056</v>
-      </c>
-      <c r="D220" t="n">
-        <v>3.056</v>
-      </c>
-      <c r="E220" t="n">
-        <v>3.056</v>
-      </c>
-      <c r="F220" t="n">
-        <v>9009.559999999999</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-16655823.60995513</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="C221" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="D221" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="E221" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="F221" t="n">
-        <v>65602.9892</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-16721426.59915513</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>3.076</v>
-      </c>
-      <c r="C222" t="n">
-        <v>3.069</v>
-      </c>
-      <c r="D222" t="n">
-        <v>3.076</v>
-      </c>
-      <c r="E222" t="n">
-        <v>3.069</v>
-      </c>
-      <c r="F222" t="n">
-        <v>20323.7</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-16701102.89915513</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>3.071</v>
-      </c>
-      <c r="C223" t="n">
-        <v>3.071</v>
-      </c>
-      <c r="D223" t="n">
-        <v>3.071</v>
-      </c>
-      <c r="E223" t="n">
-        <v>3.071</v>
-      </c>
-      <c r="F223" t="n">
-        <v>6006.56</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-16695096.33915513</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>3.063</v>
-      </c>
-      <c r="C224" t="n">
-        <v>3.062</v>
-      </c>
-      <c r="D224" t="n">
-        <v>3.063</v>
-      </c>
-      <c r="E224" t="n">
-        <v>3.062</v>
-      </c>
-      <c r="F224" t="n">
-        <v>92694.2558</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-16787790.59495513</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>3.058</v>
-      </c>
-      <c r="C225" t="n">
-        <v>3.058</v>
-      </c>
-      <c r="D225" t="n">
-        <v>3.058</v>
-      </c>
-      <c r="E225" t="n">
-        <v>3.058</v>
-      </c>
-      <c r="F225" t="n">
-        <v>121101.2592</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-16908891.85415513</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>3.057</v>
-      </c>
-      <c r="C226" t="n">
-        <v>3.057</v>
-      </c>
-      <c r="D226" t="n">
-        <v>3.057</v>
-      </c>
-      <c r="E226" t="n">
-        <v>3.057</v>
-      </c>
-      <c r="F226" t="n">
-        <v>2580.8187</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-16911472.67285513</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="C227" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="D227" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="E227" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F227" t="n">
-        <v>163</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-16911309.67285513</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>3.057</v>
-      </c>
-      <c r="C228" t="n">
-        <v>3.057</v>
-      </c>
-      <c r="D228" t="n">
-        <v>3.057</v>
-      </c>
-      <c r="E228" t="n">
-        <v>3.057</v>
-      </c>
-      <c r="F228" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-16913309.67285513</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>3.057</v>
-      </c>
-      <c r="C229" t="n">
-        <v>3.051</v>
-      </c>
-      <c r="D229" t="n">
-        <v>3.057</v>
-      </c>
-      <c r="E229" t="n">
-        <v>3.051</v>
-      </c>
-      <c r="F229" t="n">
-        <v>23202.5973</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-16936512.27015513</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="C230" t="n">
-        <v>3.044</v>
-      </c>
-      <c r="D230" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="E230" t="n">
-        <v>3.044</v>
-      </c>
-      <c r="F230" t="n">
-        <v>130727.8281</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-17067240.09825513</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>3.042</v>
-      </c>
-      <c r="C231" t="n">
-        <v>3.042</v>
-      </c>
-      <c r="D231" t="n">
-        <v>3.042</v>
-      </c>
-      <c r="E231" t="n">
-        <v>3.042</v>
-      </c>
-      <c r="F231" t="n">
-        <v>9805.980299999999</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-17077046.07855513</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="C232" t="n">
-        <v>3.022</v>
-      </c>
-      <c r="D232" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="E232" t="n">
-        <v>3.022</v>
-      </c>
-      <c r="F232" t="n">
-        <v>903465.3605</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-17980511.43905513</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>3.022</v>
-      </c>
-      <c r="C233" t="n">
-        <v>3.022</v>
-      </c>
-      <c r="D233" t="n">
-        <v>3.022</v>
-      </c>
-      <c r="E233" t="n">
-        <v>3.022</v>
-      </c>
-      <c r="F233" t="n">
-        <v>9815.837100000001</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-17980511.43905513</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>3.021</v>
-      </c>
-      <c r="C234" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="D234" t="n">
-        <v>3.021</v>
-      </c>
-      <c r="E234" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="F234" t="n">
-        <v>648059.4692000001</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-18628570.90825513</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="C235" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="D235" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="E235" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="F235" t="n">
-        <v>1014.9485</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-18628570.90825513</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="C236" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="D236" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="E236" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="F236" t="n">
-        <v>332813.6322</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-18961384.54045513</v>
-      </c>
-      <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="C237" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="D237" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="E237" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="F237" t="n">
-        <v>33170.772</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-18961384.54045513</v>
-      </c>
-      <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
+      <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>3.021</v>
-      </c>
-      <c r="C238" t="n">
-        <v>3.006</v>
-      </c>
-      <c r="D238" t="n">
-        <v>3.021</v>
-      </c>
-      <c r="E238" t="n">
-        <v>3.006</v>
-      </c>
-      <c r="F238" t="n">
-        <v>2214112.127</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-21175496.66745513</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="C239" t="n">
-        <v>3.006</v>
-      </c>
-      <c r="D239" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="E239" t="n">
-        <v>3.006</v>
-      </c>
-      <c r="F239" t="n">
-        <v>386126.466</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-21175496.66745513</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>3.009</v>
-      </c>
-      <c r="C240" t="n">
-        <v>3.007</v>
-      </c>
-      <c r="D240" t="n">
-        <v>3.009</v>
-      </c>
-      <c r="E240" t="n">
-        <v>3.007</v>
-      </c>
-      <c r="F240" t="n">
-        <v>1397962.1464</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-19777534.52105513</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>3.008</v>
-      </c>
-      <c r="C241" t="n">
-        <v>3.007</v>
-      </c>
-      <c r="D241" t="n">
-        <v>3.008</v>
-      </c>
-      <c r="E241" t="n">
-        <v>3.007</v>
-      </c>
-      <c r="F241" t="n">
-        <v>486952.2165</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-19777534.52105513</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>3.007</v>
-      </c>
-      <c r="C242" t="n">
-        <v>3.004</v>
-      </c>
-      <c r="D242" t="n">
-        <v>3.007</v>
-      </c>
-      <c r="E242" t="n">
-        <v>3.004</v>
-      </c>
-      <c r="F242" t="n">
-        <v>206946.4968</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-19984481.01785513</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>3.005</v>
-      </c>
-      <c r="C243" t="n">
-        <v>3.005</v>
-      </c>
-      <c r="D243" t="n">
-        <v>3.005</v>
-      </c>
-      <c r="E243" t="n">
-        <v>3.005</v>
-      </c>
-      <c r="F243" t="n">
-        <v>139568.8768</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-19844912.14105513</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="C244" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="D244" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="E244" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="F244" t="n">
-        <v>1529077.2961</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-18315834.84495513</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>3.041</v>
-      </c>
-      <c r="C245" t="n">
-        <v>3.041</v>
-      </c>
-      <c r="D245" t="n">
-        <v>3.041</v>
-      </c>
-      <c r="E245" t="n">
-        <v>3.041</v>
-      </c>
-      <c r="F245" t="n">
-        <v>522</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-18315312.84495513</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>3.041</v>
-      </c>
-      <c r="C246" t="n">
-        <v>3.041</v>
-      </c>
-      <c r="D246" t="n">
-        <v>3.041</v>
-      </c>
-      <c r="E246" t="n">
-        <v>3.041</v>
-      </c>
-      <c r="F246" t="n">
-        <v>108246.1422</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-18315312.84495513</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="C247" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="D247" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="E247" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="F247" t="n">
-        <v>11253.9761</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-18326566.82105513</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="C248" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="D248" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="E248" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="F248" t="n">
-        <v>11916.2005</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-18326566.82105513</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>3.041</v>
-      </c>
-      <c r="C249" t="n">
-        <v>3.041</v>
-      </c>
-      <c r="D249" t="n">
-        <v>3.041</v>
-      </c>
-      <c r="E249" t="n">
-        <v>3.041</v>
-      </c>
-      <c r="F249" t="n">
-        <v>500</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-18326066.82105513</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-21 BackTest MIX.xlsx
+++ b/BackTest/2020-01-21 BackTest MIX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N207"/>
+  <dimension ref="A1:N278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.051</v>
+        <v>3.057</v>
       </c>
       <c r="C2" t="n">
-        <v>3.051</v>
+        <v>3.057</v>
       </c>
       <c r="D2" t="n">
-        <v>3.051</v>
+        <v>3.057</v>
       </c>
       <c r="E2" t="n">
-        <v>3.051</v>
+        <v>3.057</v>
       </c>
       <c r="F2" t="n">
-        <v>18344.834</v>
+        <v>2243.3742</v>
       </c>
       <c r="G2" t="n">
-        <v>-8989906.829855125</v>
+        <v>-5841947.583924968</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.051</v>
+        <v>3.057</v>
       </c>
       <c r="C3" t="n">
-        <v>3.051</v>
+        <v>3.062</v>
       </c>
       <c r="D3" t="n">
-        <v>3.051</v>
+        <v>3.062</v>
       </c>
       <c r="E3" t="n">
-        <v>3.051</v>
+        <v>3.057</v>
       </c>
       <c r="F3" t="n">
-        <v>5205.4068</v>
+        <v>6000</v>
       </c>
       <c r="G3" t="n">
-        <v>-8989906.829855125</v>
+        <v>-5835947.583924968</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.08</v>
+        <v>3.053</v>
       </c>
       <c r="C4" t="n">
-        <v>3.08</v>
+        <v>3.052</v>
       </c>
       <c r="D4" t="n">
-        <v>3.08</v>
+        <v>3.053</v>
       </c>
       <c r="E4" t="n">
-        <v>3.08</v>
+        <v>3.052</v>
       </c>
       <c r="F4" t="n">
-        <v>163</v>
+        <v>99057.1532</v>
       </c>
       <c r="G4" t="n">
-        <v>-8989743.829855125</v>
+        <v>-5935004.737124967</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.058</v>
+        <v>3.052</v>
       </c>
       <c r="C5" t="n">
-        <v>3.058</v>
+        <v>3.052</v>
       </c>
       <c r="D5" t="n">
-        <v>3.058</v>
+        <v>3.052</v>
       </c>
       <c r="E5" t="n">
-        <v>3.058</v>
+        <v>3.052</v>
       </c>
       <c r="F5" t="n">
-        <v>5343.2514</v>
+        <v>10607.4985</v>
       </c>
       <c r="G5" t="n">
-        <v>-8995087.081255125</v>
+        <v>-5935004.737124967</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.058</v>
+        <v>3.044</v>
       </c>
       <c r="C6" t="n">
-        <v>3.058</v>
+        <v>3.044</v>
       </c>
       <c r="D6" t="n">
-        <v>3.058</v>
+        <v>3.044</v>
       </c>
       <c r="E6" t="n">
-        <v>3.058</v>
+        <v>3.044</v>
       </c>
       <c r="F6" t="n">
-        <v>94657.50900000001</v>
+        <v>3500</v>
       </c>
       <c r="G6" t="n">
-        <v>-8995087.081255125</v>
+        <v>-5938504.737124967</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.057</v>
+        <v>3.043</v>
       </c>
       <c r="C7" t="n">
-        <v>3.057</v>
+        <v>3.043</v>
       </c>
       <c r="D7" t="n">
-        <v>3.057</v>
+        <v>3.043</v>
       </c>
       <c r="E7" t="n">
-        <v>3.057</v>
+        <v>3.043</v>
       </c>
       <c r="F7" t="n">
-        <v>48141.4911</v>
+        <v>639.3423</v>
       </c>
       <c r="G7" t="n">
-        <v>-9043228.572355125</v>
+        <v>-5939144.079424967</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.08</v>
+        <v>3.042</v>
       </c>
       <c r="C8" t="n">
-        <v>3.09</v>
+        <v>3.042</v>
       </c>
       <c r="D8" t="n">
-        <v>3.09</v>
+        <v>3.042</v>
       </c>
       <c r="E8" t="n">
-        <v>3.08</v>
+        <v>3.042</v>
       </c>
       <c r="F8" t="n">
-        <v>48543.6894</v>
+        <v>4439.9692</v>
       </c>
       <c r="G8" t="n">
-        <v>-8994684.882955125</v>
+        <v>-5943584.048624967</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.09</v>
+        <v>3.041</v>
       </c>
       <c r="C9" t="n">
-        <v>3.057</v>
+        <v>3.025</v>
       </c>
       <c r="D9" t="n">
-        <v>3.09</v>
+        <v>3.041</v>
       </c>
       <c r="E9" t="n">
-        <v>3.057</v>
+        <v>3.025</v>
       </c>
       <c r="F9" t="n">
-        <v>574139.2609</v>
+        <v>1553618.0753</v>
       </c>
       <c r="G9" t="n">
-        <v>-9568824.143855125</v>
+        <v>-7497202.123924967</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.09</v>
+        <v>3.017</v>
       </c>
       <c r="C10" t="n">
-        <v>3.09</v>
+        <v>3.017</v>
       </c>
       <c r="D10" t="n">
-        <v>3.09</v>
+        <v>3.017</v>
       </c>
       <c r="E10" t="n">
-        <v>3.09</v>
+        <v>3.017</v>
       </c>
       <c r="F10" t="n">
-        <v>200</v>
+        <v>323983.6763</v>
       </c>
       <c r="G10" t="n">
-        <v>-9568624.143855125</v>
+        <v>-7821185.800224967</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.103</v>
+        <v>3.044</v>
       </c>
       <c r="C11" t="n">
-        <v>3.103</v>
+        <v>3.044</v>
       </c>
       <c r="D11" t="n">
-        <v>3.103</v>
+        <v>3.044</v>
       </c>
       <c r="E11" t="n">
-        <v>3.103</v>
+        <v>3.044</v>
       </c>
       <c r="F11" t="n">
-        <v>200</v>
+        <v>4109.8</v>
       </c>
       <c r="G11" t="n">
-        <v>-9568424.143855125</v>
+        <v>-7817076.000224967</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.061</v>
+        <v>3.044</v>
       </c>
       <c r="C12" t="n">
-        <v>3.061</v>
+        <v>3.044</v>
       </c>
       <c r="D12" t="n">
-        <v>3.061</v>
+        <v>3.044</v>
       </c>
       <c r="E12" t="n">
-        <v>3.061</v>
+        <v>3.044</v>
       </c>
       <c r="F12" t="n">
-        <v>65000</v>
+        <v>5058.0105</v>
       </c>
       <c r="G12" t="n">
-        <v>-9633424.143855125</v>
+        <v>-7817076.000224967</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.079</v>
+        <v>3.052</v>
       </c>
       <c r="C13" t="n">
-        <v>3.079</v>
+        <v>3.052</v>
       </c>
       <c r="D13" t="n">
-        <v>3.079</v>
+        <v>3.052</v>
       </c>
       <c r="E13" t="n">
-        <v>3.079</v>
+        <v>3.052</v>
       </c>
       <c r="F13" t="n">
-        <v>40433.9621</v>
+        <v>46600</v>
       </c>
       <c r="G13" t="n">
-        <v>-9592990.181755126</v>
+        <v>-7770476.000224967</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.061</v>
+        <v>3.052</v>
       </c>
       <c r="C14" t="n">
-        <v>3.061</v>
+        <v>3.065</v>
       </c>
       <c r="D14" t="n">
-        <v>3.061</v>
+        <v>3.065</v>
       </c>
       <c r="E14" t="n">
-        <v>3.061</v>
+        <v>3.052</v>
       </c>
       <c r="F14" t="n">
-        <v>33304.6532</v>
+        <v>31059.98</v>
       </c>
       <c r="G14" t="n">
-        <v>-9626294.834955126</v>
+        <v>-7739416.020224967</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.08</v>
+        <v>3.065</v>
       </c>
       <c r="C15" t="n">
-        <v>3.051</v>
+        <v>3.065</v>
       </c>
       <c r="D15" t="n">
-        <v>3.08</v>
+        <v>3.065</v>
       </c>
       <c r="E15" t="n">
-        <v>3.051</v>
+        <v>3.065</v>
       </c>
       <c r="F15" t="n">
-        <v>339942.3026</v>
+        <v>767.5896</v>
       </c>
       <c r="G15" t="n">
-        <v>-9966237.137555126</v>
+        <v>-7739416.020224967</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.076</v>
+        <v>3.045</v>
       </c>
       <c r="C16" t="n">
-        <v>3.076</v>
+        <v>3.045</v>
       </c>
       <c r="D16" t="n">
-        <v>3.076</v>
+        <v>3.045</v>
       </c>
       <c r="E16" t="n">
-        <v>3.076</v>
+        <v>3.045</v>
       </c>
       <c r="F16" t="n">
-        <v>500</v>
+        <v>310.67</v>
       </c>
       <c r="G16" t="n">
-        <v>-9965737.137555126</v>
+        <v>-7739726.690224967</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.076</v>
+        <v>3.05</v>
       </c>
       <c r="C17" t="n">
-        <v>3.076</v>
+        <v>3.065</v>
       </c>
       <c r="D17" t="n">
-        <v>3.076</v>
+        <v>3.065</v>
       </c>
       <c r="E17" t="n">
-        <v>3.076</v>
+        <v>3.05</v>
       </c>
       <c r="F17" t="n">
-        <v>2328.2851</v>
+        <v>9387.91</v>
       </c>
       <c r="G17" t="n">
-        <v>-9965737.137555126</v>
+        <v>-7730338.780224967</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.06</v>
+        <v>3.065</v>
       </c>
       <c r="C18" t="n">
-        <v>3.051</v>
+        <v>3.065</v>
       </c>
       <c r="D18" t="n">
-        <v>3.06</v>
+        <v>3.065</v>
       </c>
       <c r="E18" t="n">
-        <v>3.051</v>
+        <v>3.065</v>
       </c>
       <c r="F18" t="n">
-        <v>113247.4342</v>
+        <v>0.0048</v>
       </c>
       <c r="G18" t="n">
-        <v>-10078984.57175513</v>
+        <v>-7730338.780224967</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.052</v>
+        <v>3.069</v>
       </c>
       <c r="C19" t="n">
-        <v>3.05</v>
+        <v>3.069</v>
       </c>
       <c r="D19" t="n">
-        <v>3.052</v>
+        <v>3.069</v>
       </c>
       <c r="E19" t="n">
-        <v>3.05</v>
+        <v>3.069</v>
       </c>
       <c r="F19" t="n">
-        <v>816599.1243</v>
+        <v>9595.748299999999</v>
       </c>
       <c r="G19" t="n">
-        <v>-10895583.69605513</v>
+        <v>-7720743.031924967</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="C20" t="n">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="D20" t="n">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="E20" t="n">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="F20" t="n">
-        <v>74439.6327</v>
+        <v>10253.1777</v>
       </c>
       <c r="G20" t="n">
-        <v>-10895583.69605513</v>
+        <v>-7710489.854224967</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.05</v>
+        <v>3.074</v>
       </c>
       <c r="C21" t="n">
-        <v>3.048</v>
+        <v>3.074</v>
       </c>
       <c r="D21" t="n">
-        <v>3.05</v>
+        <v>3.074</v>
       </c>
       <c r="E21" t="n">
-        <v>3.048</v>
+        <v>3.074</v>
       </c>
       <c r="F21" t="n">
-        <v>900000.856</v>
+        <v>8996.773499999999</v>
       </c>
       <c r="G21" t="n">
-        <v>-11795584.55205513</v>
+        <v>-7701493.080724967</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1170,10 +1170,10 @@
         <v>3.076</v>
       </c>
       <c r="F22" t="n">
-        <v>577.4413</v>
+        <v>35094.4128</v>
       </c>
       <c r="G22" t="n">
-        <v>-11795007.11075513</v>
+        <v>-7666398.667924967</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.063</v>
+        <v>3.076</v>
       </c>
       <c r="C23" t="n">
-        <v>3.063</v>
+        <v>3.076</v>
       </c>
       <c r="D23" t="n">
-        <v>3.063</v>
+        <v>3.076</v>
       </c>
       <c r="E23" t="n">
-        <v>3.063</v>
+        <v>3.076</v>
       </c>
       <c r="F23" t="n">
-        <v>25001.856</v>
+        <v>31415.5</v>
       </c>
       <c r="G23" t="n">
-        <v>-11820008.96675513</v>
+        <v>-7666398.667924967</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.063</v>
+        <v>3.076</v>
       </c>
       <c r="C24" t="n">
-        <v>3.063</v>
+        <v>3.077</v>
       </c>
       <c r="D24" t="n">
-        <v>3.063</v>
+        <v>3.077</v>
       </c>
       <c r="E24" t="n">
-        <v>3.063</v>
+        <v>3.076</v>
       </c>
       <c r="F24" t="n">
-        <v>2096.9101</v>
+        <v>10000</v>
       </c>
       <c r="G24" t="n">
-        <v>-11820008.96675513</v>
+        <v>-7656398.667924967</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.063</v>
+        <v>3.067</v>
       </c>
       <c r="C25" t="n">
-        <v>3.063</v>
+        <v>3.056</v>
       </c>
       <c r="D25" t="n">
-        <v>3.063</v>
+        <v>3.067</v>
       </c>
       <c r="E25" t="n">
-        <v>3.063</v>
+        <v>3.056</v>
       </c>
       <c r="F25" t="n">
-        <v>3327.3362</v>
+        <v>54100</v>
       </c>
       <c r="G25" t="n">
-        <v>-11820008.96675513</v>
+        <v>-7710498.667924967</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.058</v>
+        <v>3.055</v>
       </c>
       <c r="C26" t="n">
-        <v>3.057</v>
+        <v>3.055</v>
       </c>
       <c r="D26" t="n">
-        <v>3.058</v>
+        <v>3.055</v>
       </c>
       <c r="E26" t="n">
-        <v>3.057</v>
+        <v>3.055</v>
       </c>
       <c r="F26" t="n">
-        <v>98000</v>
+        <v>18661.7535</v>
       </c>
       <c r="G26" t="n">
-        <v>-11918008.96675513</v>
+        <v>-7729160.421424966</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.057</v>
+        <v>3.048</v>
       </c>
       <c r="C27" t="n">
-        <v>3.057</v>
+        <v>3.048</v>
       </c>
       <c r="D27" t="n">
-        <v>3.057</v>
+        <v>3.048</v>
       </c>
       <c r="E27" t="n">
-        <v>3.057</v>
+        <v>3.048</v>
       </c>
       <c r="F27" t="n">
-        <v>163908.6624</v>
+        <v>3500</v>
       </c>
       <c r="G27" t="n">
-        <v>-11918008.96675513</v>
+        <v>-7732660.421424966</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.053</v>
+        <v>3.045</v>
       </c>
       <c r="C28" t="n">
-        <v>3.053</v>
+        <v>3.045</v>
       </c>
       <c r="D28" t="n">
-        <v>3.053</v>
+        <v>3.045</v>
       </c>
       <c r="E28" t="n">
-        <v>3.053</v>
+        <v>3.045</v>
       </c>
       <c r="F28" t="n">
-        <v>6640.2239</v>
+        <v>3039.33</v>
       </c>
       <c r="G28" t="n">
-        <v>-11924649.19065513</v>
+        <v>-7735699.751424966</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.053</v>
+        <v>3.045</v>
       </c>
       <c r="C29" t="n">
-        <v>3.049</v>
+        <v>3.047</v>
       </c>
       <c r="D29" t="n">
-        <v>3.053</v>
+        <v>3.047</v>
       </c>
       <c r="E29" t="n">
-        <v>3.049</v>
+        <v>3.045</v>
       </c>
       <c r="F29" t="n">
-        <v>25798.8434</v>
+        <v>32829.01633016081</v>
       </c>
       <c r="G29" t="n">
-        <v>-11950448.03405513</v>
+        <v>-7702870.735094805</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.049</v>
+        <v>3.044</v>
       </c>
       <c r="C30" t="n">
-        <v>3.048</v>
+        <v>3.031</v>
       </c>
       <c r="D30" t="n">
-        <v>3.049</v>
+        <v>3.044</v>
       </c>
       <c r="E30" t="n">
-        <v>3.048</v>
+        <v>3.031</v>
       </c>
       <c r="F30" t="n">
-        <v>204003.5565</v>
+        <v>19148.2173</v>
       </c>
       <c r="G30" t="n">
-        <v>-12154451.59055513</v>
+        <v>-7722018.952394805</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.048</v>
+        <v>3.032</v>
       </c>
       <c r="C31" t="n">
-        <v>3.048</v>
+        <v>3.031</v>
       </c>
       <c r="D31" t="n">
-        <v>3.048</v>
+        <v>3.032</v>
       </c>
       <c r="E31" t="n">
-        <v>3.048</v>
+        <v>3.031</v>
       </c>
       <c r="F31" t="n">
-        <v>9207.227999999999</v>
+        <v>52644.7433</v>
       </c>
       <c r="G31" t="n">
-        <v>-12154451.59055513</v>
+        <v>-7722018.952394805</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>3.047</v>
       </c>
       <c r="C32" t="n">
-        <v>3.045</v>
+        <v>3.047</v>
       </c>
       <c r="D32" t="n">
         <v>3.047</v>
       </c>
       <c r="E32" t="n">
-        <v>3.045</v>
+        <v>3.047</v>
       </c>
       <c r="F32" t="n">
-        <v>31860.196</v>
+        <v>24387.36266983919</v>
       </c>
       <c r="G32" t="n">
-        <v>-12186311.78655513</v>
+        <v>-7697631.589724965</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.043</v>
+        <v>3.047</v>
       </c>
       <c r="C33" t="n">
-        <v>3.04</v>
+        <v>3.006</v>
       </c>
       <c r="D33" t="n">
-        <v>3.043</v>
+        <v>3.047</v>
       </c>
       <c r="E33" t="n">
-        <v>3.04</v>
+        <v>3.006</v>
       </c>
       <c r="F33" t="n">
-        <v>43193.7778</v>
+        <v>789260.5994301608</v>
       </c>
       <c r="G33" t="n">
-        <v>-12229505.56435513</v>
+        <v>-8486892.189155126</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.03</v>
+        <v>3.02</v>
       </c>
       <c r="C34" t="n">
-        <v>3.028</v>
+        <v>3.006</v>
       </c>
       <c r="D34" t="n">
-        <v>3.03</v>
+        <v>3.02</v>
       </c>
       <c r="E34" t="n">
-        <v>3.028</v>
+        <v>3.006</v>
       </c>
       <c r="F34" t="n">
-        <v>13009.11</v>
+        <v>279548.4957</v>
       </c>
       <c r="G34" t="n">
-        <v>-12242514.67435513</v>
+        <v>-8486892.189155126</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.027</v>
+        <v>3.006</v>
       </c>
       <c r="C35" t="n">
-        <v>3.024</v>
+        <v>3.006</v>
       </c>
       <c r="D35" t="n">
-        <v>3.027</v>
+        <v>3.006</v>
       </c>
       <c r="E35" t="n">
-        <v>3.024</v>
+        <v>3.006</v>
       </c>
       <c r="F35" t="n">
-        <v>12876.5904</v>
+        <v>5778.3817</v>
       </c>
       <c r="G35" t="n">
-        <v>-12255391.26475513</v>
+        <v>-8486892.189155126</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="C36" t="n">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="D36" t="n">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="E36" t="n">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="F36" t="n">
-        <v>500</v>
+        <v>52645.393</v>
       </c>
       <c r="G36" t="n">
-        <v>-12254891.26475513</v>
+        <v>-8434246.796155127</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.024</v>
+        <v>3.037</v>
       </c>
       <c r="C37" t="n">
-        <v>3.024</v>
+        <v>3.032</v>
       </c>
       <c r="D37" t="n">
-        <v>3.024</v>
+        <v>3.037</v>
       </c>
       <c r="E37" t="n">
-        <v>3.024</v>
+        <v>3.032</v>
       </c>
       <c r="F37" t="n">
-        <v>252.0383</v>
+        <v>38881.9264</v>
       </c>
       <c r="G37" t="n">
-        <v>-12255143.30305513</v>
+        <v>-8473128.722555127</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.023</v>
+        <v>3.032</v>
       </c>
       <c r="C38" t="n">
-        <v>3.015</v>
+        <v>3.032</v>
       </c>
       <c r="D38" t="n">
-        <v>3.023</v>
+        <v>3.032</v>
       </c>
       <c r="E38" t="n">
-        <v>3.015</v>
+        <v>3.032</v>
       </c>
       <c r="F38" t="n">
-        <v>129136.5216</v>
+        <v>27293.7283</v>
       </c>
       <c r="G38" t="n">
-        <v>-12384279.82465513</v>
+        <v>-8473128.722555127</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.015</v>
+        <v>3.032</v>
       </c>
       <c r="C39" t="n">
-        <v>3.013</v>
+        <v>3.032</v>
       </c>
       <c r="D39" t="n">
-        <v>3.015</v>
+        <v>3.032</v>
       </c>
       <c r="E39" t="n">
-        <v>3.013</v>
+        <v>3.032</v>
       </c>
       <c r="F39" t="n">
-        <v>282153.7262</v>
+        <v>179570.967</v>
       </c>
       <c r="G39" t="n">
-        <v>-12666433.55085513</v>
+        <v>-8473128.722555127</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.023</v>
+        <v>3.031</v>
       </c>
       <c r="C40" t="n">
-        <v>3.023</v>
+        <v>3.031</v>
       </c>
       <c r="D40" t="n">
-        <v>3.023</v>
+        <v>3.031</v>
       </c>
       <c r="E40" t="n">
-        <v>3.023</v>
+        <v>3.031</v>
       </c>
       <c r="F40" t="n">
-        <v>998.7799</v>
+        <v>10607.8026</v>
       </c>
       <c r="G40" t="n">
-        <v>-12665434.77095513</v>
+        <v>-8483736.525155127</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.023</v>
+        <v>3.03</v>
       </c>
       <c r="C41" t="n">
-        <v>3.023</v>
+        <v>3.029</v>
       </c>
       <c r="D41" t="n">
-        <v>3.023</v>
+        <v>3.03</v>
       </c>
       <c r="E41" t="n">
-        <v>3.023</v>
+        <v>3.029</v>
       </c>
       <c r="F41" t="n">
-        <v>11988.7201</v>
+        <v>30755.2195</v>
       </c>
       <c r="G41" t="n">
-        <v>-12665434.77095513</v>
+        <v>-8514491.744655127</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.021</v>
+        <v>3.03</v>
       </c>
       <c r="C42" t="n">
-        <v>3.021</v>
+        <v>3.027</v>
       </c>
       <c r="D42" t="n">
-        <v>3.021</v>
+        <v>3.03</v>
       </c>
       <c r="E42" t="n">
-        <v>3.021</v>
+        <v>3.027</v>
       </c>
       <c r="F42" t="n">
-        <v>12980</v>
+        <v>45964.8766</v>
       </c>
       <c r="G42" t="n">
-        <v>-12678414.77095513</v>
+        <v>-8560456.621255126</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.021</v>
+        <v>3.047</v>
       </c>
       <c r="C43" t="n">
-        <v>3.021</v>
+        <v>3.067</v>
       </c>
       <c r="D43" t="n">
-        <v>3.021</v>
+        <v>3.067</v>
       </c>
       <c r="E43" t="n">
-        <v>3.021</v>
+        <v>3.047</v>
       </c>
       <c r="F43" t="n">
-        <v>4415.23</v>
+        <v>300000</v>
       </c>
       <c r="G43" t="n">
-        <v>-12678414.77095513</v>
+        <v>-8260456.621255126</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.021</v>
+        <v>3.057</v>
       </c>
       <c r="C44" t="n">
-        <v>3.025</v>
+        <v>3.057</v>
       </c>
       <c r="D44" t="n">
-        <v>3.025</v>
+        <v>3.057</v>
       </c>
       <c r="E44" t="n">
-        <v>3.021</v>
+        <v>3.057</v>
       </c>
       <c r="F44" t="n">
-        <v>60240.8</v>
+        <v>3000</v>
       </c>
       <c r="G44" t="n">
-        <v>-12618173.97095513</v>
+        <v>-8263456.621255126</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3.025</v>
+        <v>3.057</v>
       </c>
       <c r="C45" t="n">
-        <v>3.025</v>
+        <v>3.057</v>
       </c>
       <c r="D45" t="n">
-        <v>3.025</v>
+        <v>3.057</v>
       </c>
       <c r="E45" t="n">
-        <v>3.025</v>
+        <v>3.057</v>
       </c>
       <c r="F45" t="n">
-        <v>6680.3837</v>
+        <v>341294.9559</v>
       </c>
       <c r="G45" t="n">
-        <v>-12618173.97095513</v>
+        <v>-8263456.621255126</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3.027</v>
+        <v>3.057</v>
       </c>
       <c r="C46" t="n">
-        <v>3.029</v>
+        <v>3.057</v>
       </c>
       <c r="D46" t="n">
-        <v>3.029</v>
+        <v>3.057</v>
       </c>
       <c r="E46" t="n">
-        <v>3.027</v>
+        <v>3.057</v>
       </c>
       <c r="F46" t="n">
-        <v>34983.748</v>
+        <v>10330</v>
       </c>
       <c r="G46" t="n">
-        <v>-12583190.22295513</v>
+        <v>-8263456.621255126</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.035</v>
+        <v>3.057</v>
       </c>
       <c r="C47" t="n">
-        <v>3.029</v>
+        <v>3.057</v>
       </c>
       <c r="D47" t="n">
-        <v>3.04</v>
+        <v>3.057</v>
       </c>
       <c r="E47" t="n">
-        <v>3.029</v>
+        <v>3.057</v>
       </c>
       <c r="F47" t="n">
-        <v>66495.0854</v>
+        <v>2253.9072</v>
       </c>
       <c r="G47" t="n">
-        <v>-12583190.22295513</v>
+        <v>-8263456.621255126</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.029</v>
+        <v>3.036</v>
       </c>
       <c r="C48" t="n">
-        <v>3.029</v>
+        <v>3.016</v>
       </c>
       <c r="D48" t="n">
-        <v>3.029</v>
+        <v>3.036</v>
       </c>
       <c r="E48" t="n">
-        <v>3.029</v>
+        <v>3.016</v>
       </c>
       <c r="F48" t="n">
-        <v>4597.8932</v>
+        <v>1312953.0776</v>
       </c>
       <c r="G48" t="n">
-        <v>-12583190.22295513</v>
+        <v>-9576409.698855126</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.04</v>
+        <v>3.016</v>
       </c>
       <c r="C49" t="n">
-        <v>3.029</v>
+        <v>3.016</v>
       </c>
       <c r="D49" t="n">
-        <v>3.04</v>
+        <v>3.016</v>
       </c>
       <c r="E49" t="n">
-        <v>3.029</v>
+        <v>3.016</v>
       </c>
       <c r="F49" t="n">
-        <v>489868.56</v>
+        <v>193625.0704</v>
       </c>
       <c r="G49" t="n">
-        <v>-12583190.22295513</v>
+        <v>-9576409.698855126</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.029</v>
+        <v>3.022</v>
       </c>
       <c r="C50" t="n">
-        <v>3.027</v>
+        <v>3.022</v>
       </c>
       <c r="D50" t="n">
-        <v>3.039</v>
+        <v>3.022</v>
       </c>
       <c r="E50" t="n">
-        <v>3.027</v>
+        <v>3.022</v>
       </c>
       <c r="F50" t="n">
-        <v>115331.1761</v>
+        <v>1000</v>
       </c>
       <c r="G50" t="n">
-        <v>-12698521.39905513</v>
+        <v>-9575409.698855126</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3.02</v>
+        <v>3.057</v>
       </c>
       <c r="C51" t="n">
-        <v>3.03</v>
+        <v>3.057</v>
       </c>
       <c r="D51" t="n">
-        <v>3.03</v>
+        <v>3.057</v>
       </c>
       <c r="E51" t="n">
-        <v>3.015</v>
+        <v>3.057</v>
       </c>
       <c r="F51" t="n">
-        <v>768969.0487</v>
+        <v>491.6462</v>
       </c>
       <c r="G51" t="n">
-        <v>-11929552.35035513</v>
+        <v>-9574918.052655127</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3.039</v>
+        <v>3.057</v>
       </c>
       <c r="C52" t="n">
-        <v>3.048</v>
+        <v>3.067</v>
       </c>
       <c r="D52" t="n">
-        <v>3.048</v>
+        <v>3.067</v>
       </c>
       <c r="E52" t="n">
-        <v>3.039</v>
+        <v>3.057</v>
       </c>
       <c r="F52" t="n">
-        <v>302609.1043</v>
+        <v>8078.7222</v>
       </c>
       <c r="G52" t="n">
-        <v>-11626943.24605513</v>
+        <v>-9566839.330455126</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.061</v>
+        <v>3.028</v>
       </c>
       <c r="C53" t="n">
-        <v>3.061</v>
+        <v>3.028</v>
       </c>
       <c r="D53" t="n">
-        <v>3.061</v>
+        <v>3.028</v>
       </c>
       <c r="E53" t="n">
-        <v>3.061</v>
+        <v>3.028</v>
       </c>
       <c r="F53" t="n">
-        <v>10000</v>
+        <v>43520.0638</v>
       </c>
       <c r="G53" t="n">
-        <v>-11616943.24605513</v>
+        <v>-9610359.394255126</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.074</v>
+        <v>3.066</v>
       </c>
       <c r="C54" t="n">
-        <v>3.074</v>
+        <v>3.066</v>
       </c>
       <c r="D54" t="n">
-        <v>3.075</v>
+        <v>3.066</v>
       </c>
       <c r="E54" t="n">
-        <v>3.074</v>
+        <v>3.066</v>
       </c>
       <c r="F54" t="n">
-        <v>85549.12</v>
+        <v>500</v>
       </c>
       <c r="G54" t="n">
-        <v>-11531394.12605513</v>
+        <v>-9609859.394255126</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3.061</v>
+        <v>3.066</v>
       </c>
       <c r="C55" t="n">
-        <v>3.061</v>
+        <v>3.117</v>
       </c>
       <c r="D55" t="n">
-        <v>3.061</v>
+        <v>3.117</v>
       </c>
       <c r="E55" t="n">
-        <v>3.061</v>
+        <v>3.066</v>
       </c>
       <c r="F55" t="n">
-        <v>500</v>
+        <v>900000</v>
       </c>
       <c r="G55" t="n">
-        <v>-11531894.12605513</v>
+        <v>-8709859.394255126</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3.061</v>
+        <v>3.117</v>
       </c>
       <c r="C56" t="n">
-        <v>3.05</v>
+        <v>3.117</v>
       </c>
       <c r="D56" t="n">
-        <v>3.061</v>
+        <v>3.117</v>
       </c>
       <c r="E56" t="n">
-        <v>3.05</v>
+        <v>3.117</v>
       </c>
       <c r="F56" t="n">
-        <v>8198.3676</v>
+        <v>357565.0564</v>
       </c>
       <c r="G56" t="n">
-        <v>-11540092.49365513</v>
+        <v>-8709859.394255126</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3.062</v>
+        <v>3.09</v>
       </c>
       <c r="C57" t="n">
-        <v>3.062</v>
+        <v>3.09</v>
       </c>
       <c r="D57" t="n">
-        <v>3.062</v>
+        <v>3.09</v>
       </c>
       <c r="E57" t="n">
-        <v>3.062</v>
+        <v>3.09</v>
       </c>
       <c r="F57" t="n">
-        <v>1473.0832</v>
+        <v>5875.7378</v>
       </c>
       <c r="G57" t="n">
-        <v>-11538619.41045513</v>
+        <v>-8715735.132055126</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3.05</v>
+        <v>3.09</v>
       </c>
       <c r="C58" t="n">
-        <v>3.05</v>
+        <v>3.09</v>
       </c>
       <c r="D58" t="n">
-        <v>3.05</v>
+        <v>3.09</v>
       </c>
       <c r="E58" t="n">
-        <v>3.05</v>
+        <v>3.09</v>
       </c>
       <c r="F58" t="n">
-        <v>197487.1924</v>
+        <v>17130</v>
       </c>
       <c r="G58" t="n">
-        <v>-11736106.60285513</v>
+        <v>-8715735.132055126</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3.05</v>
+        <v>3.08</v>
       </c>
       <c r="C59" t="n">
-        <v>3.05</v>
+        <v>3.063</v>
       </c>
       <c r="D59" t="n">
-        <v>3.05</v>
+        <v>3.08</v>
       </c>
       <c r="E59" t="n">
-        <v>3.05</v>
+        <v>3.063</v>
       </c>
       <c r="F59" t="n">
-        <v>24131.9017</v>
+        <v>40250</v>
       </c>
       <c r="G59" t="n">
-        <v>-11736106.60285513</v>
+        <v>-8755985.132055126</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3.048</v>
+        <v>3.099</v>
       </c>
       <c r="C60" t="n">
-        <v>3.04</v>
+        <v>3.099</v>
       </c>
       <c r="D60" t="n">
-        <v>3.048</v>
+        <v>3.099</v>
       </c>
       <c r="E60" t="n">
-        <v>3.04</v>
+        <v>3.099</v>
       </c>
       <c r="F60" t="n">
-        <v>189442.2886</v>
+        <v>2000</v>
       </c>
       <c r="G60" t="n">
-        <v>-11925548.89145513</v>
+        <v>-8753985.132055126</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3.04</v>
+        <v>3.08</v>
       </c>
       <c r="C61" t="n">
-        <v>3.037</v>
+        <v>3.075</v>
       </c>
       <c r="D61" t="n">
-        <v>3.04</v>
+        <v>3.08</v>
       </c>
       <c r="E61" t="n">
-        <v>3.037</v>
+        <v>3.075</v>
       </c>
       <c r="F61" t="n">
-        <v>22621.9017</v>
+        <v>86290</v>
       </c>
       <c r="G61" t="n">
-        <v>-11948170.79315513</v>
+        <v>-8840275.132055126</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3.037</v>
+        <v>3.09</v>
       </c>
       <c r="C62" t="n">
-        <v>3.037</v>
+        <v>3.09</v>
       </c>
       <c r="D62" t="n">
-        <v>3.037</v>
+        <v>3.09</v>
       </c>
       <c r="E62" t="n">
-        <v>3.037</v>
+        <v>3.09</v>
       </c>
       <c r="F62" t="n">
-        <v>5128.1253</v>
+        <v>500</v>
       </c>
       <c r="G62" t="n">
-        <v>-11948170.79315513</v>
+        <v>-8839775.132055126</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3.037</v>
+        <v>3.08</v>
       </c>
       <c r="C63" t="n">
-        <v>3.037</v>
+        <v>3.079</v>
       </c>
       <c r="D63" t="n">
-        <v>3.037</v>
+        <v>3.08</v>
       </c>
       <c r="E63" t="n">
-        <v>3.037</v>
+        <v>3.04</v>
       </c>
       <c r="F63" t="n">
-        <v>204078.2318</v>
+        <v>123822.0622</v>
       </c>
       <c r="G63" t="n">
-        <v>-11948170.79315513</v>
+        <v>-8963597.194255127</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3.037</v>
+        <v>3.068</v>
       </c>
       <c r="C64" t="n">
-        <v>3.037</v>
+        <v>3.068</v>
       </c>
       <c r="D64" t="n">
-        <v>3.037</v>
+        <v>3.068</v>
       </c>
       <c r="E64" t="n">
-        <v>3.037</v>
+        <v>3.068</v>
       </c>
       <c r="F64" t="n">
-        <v>295921.7682</v>
+        <v>18983.063</v>
       </c>
       <c r="G64" t="n">
-        <v>-11948170.79315513</v>
+        <v>-8982580.257255126</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.04</v>
+        <v>3.069</v>
       </c>
       <c r="C65" t="n">
-        <v>3.04</v>
+        <v>3.069</v>
       </c>
       <c r="D65" t="n">
-        <v>3.04</v>
+        <v>3.069</v>
       </c>
       <c r="E65" t="n">
-        <v>3.04</v>
+        <v>3.069</v>
       </c>
       <c r="F65" t="n">
-        <v>113412.6519</v>
+        <v>21686.937</v>
       </c>
       <c r="G65" t="n">
-        <v>-11834758.14125513</v>
+        <v>-8960893.320255125</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3.05</v>
+        <v>3.051</v>
       </c>
       <c r="C66" t="n">
-        <v>3.04</v>
+        <v>3.051</v>
       </c>
       <c r="D66" t="n">
-        <v>3.05</v>
+        <v>3.051</v>
       </c>
       <c r="E66" t="n">
-        <v>3.04</v>
+        <v>3.051</v>
       </c>
       <c r="F66" t="n">
-        <v>89014.3738</v>
+        <v>40530</v>
       </c>
       <c r="G66" t="n">
-        <v>-11834758.14125513</v>
+        <v>-9001423.320255125</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3.05</v>
+        <v>3.051</v>
       </c>
       <c r="C67" t="n">
-        <v>3.062</v>
+        <v>3.051</v>
       </c>
       <c r="D67" t="n">
-        <v>3.062</v>
+        <v>3.051</v>
       </c>
       <c r="E67" t="n">
-        <v>3.05</v>
+        <v>3.051</v>
       </c>
       <c r="F67" t="n">
-        <v>7320.93</v>
+        <v>14276.7838</v>
       </c>
       <c r="G67" t="n">
-        <v>-11827437.21125513</v>
+        <v>-9001423.320255125</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3.04</v>
+        <v>3.051</v>
       </c>
       <c r="C68" t="n">
-        <v>3.03</v>
+        <v>3.051</v>
       </c>
       <c r="D68" t="n">
-        <v>3.04</v>
+        <v>3.051</v>
       </c>
       <c r="E68" t="n">
-        <v>3.03</v>
+        <v>3.051</v>
       </c>
       <c r="F68" t="n">
-        <v>75000</v>
+        <v>1929.1222</v>
       </c>
       <c r="G68" t="n">
-        <v>-11902437.21125513</v>
+        <v>-9001423.320255125</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3.054</v>
+        <v>3.051</v>
       </c>
       <c r="C69" t="n">
-        <v>3.054</v>
+        <v>3.051</v>
       </c>
       <c r="D69" t="n">
-        <v>3.054</v>
+        <v>3.051</v>
       </c>
       <c r="E69" t="n">
-        <v>3.054</v>
+        <v>3.051</v>
       </c>
       <c r="F69" t="n">
-        <v>500</v>
+        <v>39175.9656</v>
       </c>
       <c r="G69" t="n">
-        <v>-11901937.21125513</v>
+        <v>-9001423.320255125</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3.054</v>
+        <v>3.051</v>
       </c>
       <c r="C70" t="n">
-        <v>3.054</v>
+        <v>3.051</v>
       </c>
       <c r="D70" t="n">
-        <v>3.054</v>
+        <v>3.051</v>
       </c>
       <c r="E70" t="n">
-        <v>3.054</v>
+        <v>3.051</v>
       </c>
       <c r="F70" t="n">
-        <v>900</v>
+        <v>26590.9006</v>
       </c>
       <c r="G70" t="n">
-        <v>-11901937.21125513</v>
+        <v>-9001423.320255125</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3.04</v>
+        <v>3.051</v>
       </c>
       <c r="C71" t="n">
-        <v>3.03</v>
+        <v>3.06</v>
       </c>
       <c r="D71" t="n">
-        <v>3.04</v>
+        <v>3.06</v>
       </c>
       <c r="E71" t="n">
-        <v>3.03</v>
+        <v>3.051</v>
       </c>
       <c r="F71" t="n">
-        <v>1101720.7912</v>
+        <v>42345.3063</v>
       </c>
       <c r="G71" t="n">
-        <v>-13003658.00245513</v>
+        <v>-8959078.013955126</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3.03</v>
+        <v>3.051</v>
       </c>
       <c r="C72" t="n">
-        <v>3.05</v>
+        <v>3.051</v>
       </c>
       <c r="D72" t="n">
-        <v>3.05</v>
+        <v>3.051</v>
       </c>
       <c r="E72" t="n">
-        <v>3.03</v>
+        <v>3.051</v>
       </c>
       <c r="F72" t="n">
-        <v>564031.2867000001</v>
+        <v>30828.8159</v>
       </c>
       <c r="G72" t="n">
-        <v>-12439626.71575513</v>
+        <v>-8989906.829855125</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3.05</v>
+        <v>3.051</v>
       </c>
       <c r="C73" t="n">
-        <v>3.05</v>
+        <v>3.051</v>
       </c>
       <c r="D73" t="n">
-        <v>3.05</v>
+        <v>3.051</v>
       </c>
       <c r="E73" t="n">
-        <v>3.05</v>
+        <v>3.051</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0033</v>
+        <v>18344.834</v>
       </c>
       <c r="G73" t="n">
-        <v>-12439626.71575513</v>
+        <v>-8989906.829855125</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3.072</v>
+        <v>3.051</v>
       </c>
       <c r="C74" t="n">
-        <v>3.072</v>
+        <v>3.051</v>
       </c>
       <c r="D74" t="n">
-        <v>3.072</v>
+        <v>3.051</v>
       </c>
       <c r="E74" t="n">
-        <v>3.072</v>
+        <v>3.051</v>
       </c>
       <c r="F74" t="n">
-        <v>73407.6721</v>
+        <v>5205.4068</v>
       </c>
       <c r="G74" t="n">
-        <v>-12366219.04365513</v>
+        <v>-8989906.829855125</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3.073</v>
+        <v>3.08</v>
       </c>
       <c r="C75" t="n">
-        <v>3.073</v>
+        <v>3.08</v>
       </c>
       <c r="D75" t="n">
-        <v>3.073</v>
+        <v>3.08</v>
       </c>
       <c r="E75" t="n">
-        <v>3.073</v>
+        <v>3.08</v>
       </c>
       <c r="F75" t="n">
-        <v>20002.965</v>
+        <v>163</v>
       </c>
       <c r="G75" t="n">
-        <v>-12346216.07865513</v>
+        <v>-8989743.829855125</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3.084</v>
+        <v>3.058</v>
       </c>
       <c r="C76" t="n">
-        <v>3.089</v>
+        <v>3.058</v>
       </c>
       <c r="D76" t="n">
-        <v>3.089</v>
+        <v>3.058</v>
       </c>
       <c r="E76" t="n">
-        <v>3.084</v>
+        <v>3.058</v>
       </c>
       <c r="F76" t="n">
-        <v>65165.1577</v>
+        <v>5343.2514</v>
       </c>
       <c r="G76" t="n">
-        <v>-12281050.92095513</v>
+        <v>-8995087.081255125</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3.098</v>
+        <v>3.058</v>
       </c>
       <c r="C77" t="n">
-        <v>3.108</v>
+        <v>3.058</v>
       </c>
       <c r="D77" t="n">
-        <v>3.108</v>
+        <v>3.058</v>
       </c>
       <c r="E77" t="n">
-        <v>3.098</v>
+        <v>3.058</v>
       </c>
       <c r="F77" t="n">
-        <v>24023.2247</v>
+        <v>94657.50900000001</v>
       </c>
       <c r="G77" t="n">
-        <v>-12257027.69625513</v>
+        <v>-8995087.081255125</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3.108</v>
+        <v>3.057</v>
       </c>
       <c r="C78" t="n">
-        <v>3.114</v>
+        <v>3.057</v>
       </c>
       <c r="D78" t="n">
-        <v>3.114</v>
+        <v>3.057</v>
       </c>
       <c r="E78" t="n">
-        <v>3.108</v>
+        <v>3.057</v>
       </c>
       <c r="F78" t="n">
-        <v>15546.7177</v>
+        <v>48141.4911</v>
       </c>
       <c r="G78" t="n">
-        <v>-12241480.97855513</v>
+        <v>-9043228.572355125</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3.114</v>
+        <v>3.08</v>
       </c>
       <c r="C79" t="n">
-        <v>3.114</v>
+        <v>3.09</v>
       </c>
       <c r="D79" t="n">
-        <v>3.115</v>
+        <v>3.09</v>
       </c>
       <c r="E79" t="n">
-        <v>3.114</v>
+        <v>3.08</v>
       </c>
       <c r="F79" t="n">
-        <v>86445.15949999999</v>
+        <v>48543.6894</v>
       </c>
       <c r="G79" t="n">
-        <v>-12241480.97855513</v>
+        <v>-8994684.882955125</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.114</v>
+        <v>3.09</v>
       </c>
       <c r="C80" t="n">
-        <v>3.12</v>
+        <v>3.057</v>
       </c>
       <c r="D80" t="n">
-        <v>3.12</v>
+        <v>3.09</v>
       </c>
       <c r="E80" t="n">
-        <v>3.114</v>
+        <v>3.057</v>
       </c>
       <c r="F80" t="n">
-        <v>61084.23</v>
+        <v>574139.2609</v>
       </c>
       <c r="G80" t="n">
-        <v>-12180396.74855513</v>
+        <v>-9568824.143855125</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,28 +3282,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3.115</v>
+        <v>3.09</v>
       </c>
       <c r="C81" t="n">
-        <v>3.115</v>
+        <v>3.09</v>
       </c>
       <c r="D81" t="n">
-        <v>3.125</v>
+        <v>3.09</v>
       </c>
       <c r="E81" t="n">
-        <v>3.115</v>
+        <v>3.09</v>
       </c>
       <c r="F81" t="n">
-        <v>35822</v>
+        <v>200</v>
       </c>
       <c r="G81" t="n">
-        <v>-12216218.74855513</v>
+        <v>-9568624.143855125</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3318,28 +3318,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3.118</v>
+        <v>3.103</v>
       </c>
       <c r="C82" t="n">
-        <v>3.105</v>
+        <v>3.103</v>
       </c>
       <c r="D82" t="n">
-        <v>3.118</v>
+        <v>3.103</v>
       </c>
       <c r="E82" t="n">
-        <v>3.105</v>
+        <v>3.103</v>
       </c>
       <c r="F82" t="n">
-        <v>10755.3613</v>
+        <v>200</v>
       </c>
       <c r="G82" t="n">
-        <v>-12226974.10985513</v>
+        <v>-9568424.143855125</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3354,28 +3354,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>3.105</v>
+        <v>3.061</v>
       </c>
       <c r="C83" t="n">
-        <v>3.101</v>
+        <v>3.061</v>
       </c>
       <c r="D83" t="n">
-        <v>3.105</v>
+        <v>3.061</v>
       </c>
       <c r="E83" t="n">
-        <v>3.101</v>
+        <v>3.061</v>
       </c>
       <c r="F83" t="n">
-        <v>164934.9571</v>
+        <v>65000</v>
       </c>
       <c r="G83" t="n">
-        <v>-12391909.06695513</v>
+        <v>-9633424.143855125</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3390,28 +3390,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>3.101</v>
+        <v>3.079</v>
       </c>
       <c r="C84" t="n">
-        <v>3.105</v>
+        <v>3.079</v>
       </c>
       <c r="D84" t="n">
-        <v>3.105</v>
+        <v>3.079</v>
       </c>
       <c r="E84" t="n">
-        <v>3.101</v>
+        <v>3.079</v>
       </c>
       <c r="F84" t="n">
-        <v>3110.8697</v>
+        <v>40433.9621</v>
       </c>
       <c r="G84" t="n">
-        <v>-12388798.19725513</v>
+        <v>-9592990.181755126</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3426,28 +3426,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>3.101</v>
+        <v>3.061</v>
       </c>
       <c r="C85" t="n">
-        <v>3.101</v>
+        <v>3.061</v>
       </c>
       <c r="D85" t="n">
-        <v>3.101</v>
+        <v>3.061</v>
       </c>
       <c r="E85" t="n">
-        <v>3.101</v>
+        <v>3.061</v>
       </c>
       <c r="F85" t="n">
-        <v>4098.9233</v>
+        <v>33304.6532</v>
       </c>
       <c r="G85" t="n">
-        <v>-12392897.12055513</v>
+        <v>-9626294.834955126</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3462,28 +3462,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3.098</v>
+        <v>3.08</v>
       </c>
       <c r="C86" t="n">
-        <v>3.064</v>
+        <v>3.051</v>
       </c>
       <c r="D86" t="n">
-        <v>3.098</v>
+        <v>3.08</v>
       </c>
       <c r="E86" t="n">
-        <v>3.064</v>
+        <v>3.051</v>
       </c>
       <c r="F86" t="n">
-        <v>152823.6417</v>
+        <v>339942.3026</v>
       </c>
       <c r="G86" t="n">
-        <v>-12545720.76225513</v>
+        <v>-9966237.137555126</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3498,28 +3498,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3.057</v>
+        <v>3.076</v>
       </c>
       <c r="C87" t="n">
-        <v>3.057</v>
+        <v>3.076</v>
       </c>
       <c r="D87" t="n">
-        <v>3.057</v>
+        <v>3.076</v>
       </c>
       <c r="E87" t="n">
-        <v>3.057</v>
+        <v>3.076</v>
       </c>
       <c r="F87" t="n">
-        <v>9008.559999999999</v>
+        <v>500</v>
       </c>
       <c r="G87" t="n">
-        <v>-12554729.32225513</v>
+        <v>-9965737.137555126</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3534,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>3.05</v>
+        <v>3.076</v>
       </c>
       <c r="C88" t="n">
-        <v>3.039</v>
+        <v>3.076</v>
       </c>
       <c r="D88" t="n">
-        <v>3.05</v>
+        <v>3.076</v>
       </c>
       <c r="E88" t="n">
-        <v>3.039</v>
+        <v>3.076</v>
       </c>
       <c r="F88" t="n">
-        <v>115735.4494</v>
+        <v>2328.2851</v>
       </c>
       <c r="G88" t="n">
-        <v>-12670464.77165513</v>
+        <v>-9965737.137555126</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>3.056</v>
+        <v>3.06</v>
       </c>
       <c r="C89" t="n">
-        <v>3.056</v>
+        <v>3.051</v>
       </c>
       <c r="D89" t="n">
-        <v>3.056</v>
+        <v>3.06</v>
       </c>
       <c r="E89" t="n">
-        <v>3.056</v>
+        <v>3.051</v>
       </c>
       <c r="F89" t="n">
-        <v>10001.856</v>
+        <v>113247.4342</v>
       </c>
       <c r="G89" t="n">
-        <v>-12660462.91565513</v>
+        <v>-10078984.57175513</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>3.056</v>
+        <v>3.052</v>
       </c>
       <c r="C90" t="n">
-        <v>3.056</v>
+        <v>3.05</v>
       </c>
       <c r="D90" t="n">
-        <v>3.056</v>
+        <v>3.052</v>
       </c>
       <c r="E90" t="n">
-        <v>3.056</v>
+        <v>3.05</v>
       </c>
       <c r="F90" t="n">
-        <v>15700</v>
+        <v>816599.1243</v>
       </c>
       <c r="G90" t="n">
-        <v>-12660462.91565513</v>
+        <v>-10895583.69605513</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3.049</v>
+        <v>3.05</v>
       </c>
       <c r="C91" t="n">
-        <v>3.039</v>
+        <v>3.05</v>
       </c>
       <c r="D91" t="n">
-        <v>3.049</v>
+        <v>3.05</v>
       </c>
       <c r="E91" t="n">
-        <v>3.039</v>
+        <v>3.05</v>
       </c>
       <c r="F91" t="n">
-        <v>340083.8873</v>
+        <v>74439.6327</v>
       </c>
       <c r="G91" t="n">
-        <v>-13000546.80295513</v>
+        <v>-10895583.69605513</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3.039</v>
+        <v>3.05</v>
       </c>
       <c r="C92" t="n">
-        <v>3.039</v>
+        <v>3.048</v>
       </c>
       <c r="D92" t="n">
-        <v>3.039</v>
+        <v>3.05</v>
       </c>
       <c r="E92" t="n">
-        <v>3.039</v>
+        <v>3.048</v>
       </c>
       <c r="F92" t="n">
-        <v>104844.386</v>
+        <v>900000.856</v>
       </c>
       <c r="G92" t="n">
-        <v>-13000546.80295513</v>
+        <v>-11795584.55205513</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>3.056</v>
+        <v>3.076</v>
       </c>
       <c r="C93" t="n">
-        <v>3.056</v>
+        <v>3.076</v>
       </c>
       <c r="D93" t="n">
-        <v>3.056</v>
+        <v>3.076</v>
       </c>
       <c r="E93" t="n">
-        <v>3.056</v>
+        <v>3.076</v>
       </c>
       <c r="F93" t="n">
-        <v>1203.23</v>
+        <v>577.4413</v>
       </c>
       <c r="G93" t="n">
-        <v>-12999343.57295513</v>
+        <v>-11795007.11075513</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>3.051</v>
+        <v>3.063</v>
       </c>
       <c r="C94" t="n">
-        <v>3.045</v>
+        <v>3.063</v>
       </c>
       <c r="D94" t="n">
-        <v>3.051</v>
+        <v>3.063</v>
       </c>
       <c r="E94" t="n">
-        <v>3.045</v>
+        <v>3.063</v>
       </c>
       <c r="F94" t="n">
-        <v>9282.798000000001</v>
+        <v>25001.856</v>
       </c>
       <c r="G94" t="n">
-        <v>-13008626.37095513</v>
+        <v>-11820008.96675513</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>3.039</v>
+        <v>3.063</v>
       </c>
       <c r="C95" t="n">
-        <v>3.039</v>
+        <v>3.063</v>
       </c>
       <c r="D95" t="n">
-        <v>3.039</v>
+        <v>3.063</v>
       </c>
       <c r="E95" t="n">
-        <v>3.039</v>
+        <v>3.063</v>
       </c>
       <c r="F95" t="n">
-        <v>10157.47</v>
+        <v>2096.9101</v>
       </c>
       <c r="G95" t="n">
-        <v>-13018783.84095513</v>
+        <v>-11820008.96675513</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>3.039</v>
+        <v>3.063</v>
       </c>
       <c r="C96" t="n">
-        <v>3.039</v>
+        <v>3.063</v>
       </c>
       <c r="D96" t="n">
-        <v>3.039</v>
+        <v>3.063</v>
       </c>
       <c r="E96" t="n">
-        <v>3.039</v>
+        <v>3.063</v>
       </c>
       <c r="F96" t="n">
-        <v>19842.53</v>
+        <v>3327.3362</v>
       </c>
       <c r="G96" t="n">
-        <v>-13018783.84095513</v>
+        <v>-11820008.96675513</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>3.055</v>
+        <v>3.058</v>
       </c>
       <c r="C97" t="n">
-        <v>3.055</v>
+        <v>3.057</v>
       </c>
       <c r="D97" t="n">
-        <v>3.055</v>
+        <v>3.058</v>
       </c>
       <c r="E97" t="n">
-        <v>3.055</v>
+        <v>3.057</v>
       </c>
       <c r="F97" t="n">
-        <v>500</v>
+        <v>98000</v>
       </c>
       <c r="G97" t="n">
-        <v>-13018283.84095513</v>
+        <v>-11918008.96675513</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>3.054</v>
+        <v>3.057</v>
       </c>
       <c r="C98" t="n">
-        <v>3.054</v>
+        <v>3.057</v>
       </c>
       <c r="D98" t="n">
-        <v>3.054</v>
+        <v>3.057</v>
       </c>
       <c r="E98" t="n">
-        <v>3.054</v>
+        <v>3.057</v>
       </c>
       <c r="F98" t="n">
-        <v>16791</v>
+        <v>163908.6624</v>
       </c>
       <c r="G98" t="n">
-        <v>-13035074.84095513</v>
+        <v>-11918008.96675513</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3.048</v>
+        <v>3.053</v>
       </c>
       <c r="C99" t="n">
-        <v>3.032</v>
+        <v>3.053</v>
       </c>
       <c r="D99" t="n">
-        <v>3.048</v>
+        <v>3.053</v>
       </c>
       <c r="E99" t="n">
-        <v>3.032</v>
+        <v>3.053</v>
       </c>
       <c r="F99" t="n">
-        <v>19320.8543</v>
+        <v>6640.2239</v>
       </c>
       <c r="G99" t="n">
-        <v>-13054395.69525513</v>
+        <v>-11924649.19065513</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>3.03</v>
+        <v>3.053</v>
       </c>
       <c r="C100" t="n">
-        <v>3.028</v>
+        <v>3.049</v>
       </c>
       <c r="D100" t="n">
-        <v>3.03</v>
+        <v>3.053</v>
       </c>
       <c r="E100" t="n">
-        <v>3.028</v>
+        <v>3.049</v>
       </c>
       <c r="F100" t="n">
-        <v>488139.9261</v>
+        <v>25798.8434</v>
       </c>
       <c r="G100" t="n">
-        <v>-13542535.62135513</v>
+        <v>-11950448.03405513</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>3.026</v>
+        <v>3.049</v>
       </c>
       <c r="C101" t="n">
-        <v>3.028</v>
+        <v>3.048</v>
       </c>
       <c r="D101" t="n">
-        <v>3.028</v>
+        <v>3.049</v>
       </c>
       <c r="E101" t="n">
-        <v>3.026</v>
+        <v>3.048</v>
       </c>
       <c r="F101" t="n">
-        <v>194067.4354</v>
+        <v>204003.5565</v>
       </c>
       <c r="G101" t="n">
-        <v>-13542535.62135513</v>
+        <v>-12154451.59055513</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>3.028</v>
+        <v>3.048</v>
       </c>
       <c r="C102" t="n">
-        <v>3.05</v>
+        <v>3.048</v>
       </c>
       <c r="D102" t="n">
-        <v>3.05</v>
+        <v>3.048</v>
       </c>
       <c r="E102" t="n">
-        <v>3.028</v>
+        <v>3.048</v>
       </c>
       <c r="F102" t="n">
-        <v>14416.8005</v>
+        <v>9207.227999999999</v>
       </c>
       <c r="G102" t="n">
-        <v>-13528118.82085513</v>
+        <v>-12154451.59055513</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4074,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>3.037</v>
+        <v>3.047</v>
       </c>
       <c r="C103" t="n">
-        <v>3.028</v>
+        <v>3.045</v>
       </c>
       <c r="D103" t="n">
-        <v>3.037</v>
+        <v>3.047</v>
       </c>
       <c r="E103" t="n">
-        <v>3.028</v>
+        <v>3.045</v>
       </c>
       <c r="F103" t="n">
-        <v>313782.5995</v>
+        <v>31860.196</v>
       </c>
       <c r="G103" t="n">
-        <v>-13841901.42035513</v>
+        <v>-12186311.78655513</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4110,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>3.028</v>
+        <v>3.043</v>
       </c>
       <c r="C104" t="n">
-        <v>3.028</v>
+        <v>3.04</v>
       </c>
       <c r="D104" t="n">
-        <v>3.028</v>
+        <v>3.043</v>
       </c>
       <c r="E104" t="n">
-        <v>3.028</v>
+        <v>3.04</v>
       </c>
       <c r="F104" t="n">
-        <v>174062.4581</v>
+        <v>43193.7778</v>
       </c>
       <c r="G104" t="n">
-        <v>-13841901.42035513</v>
+        <v>-12229505.56435513</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4146,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="C105" t="n">
-        <v>3.05</v>
+        <v>3.028</v>
       </c>
       <c r="D105" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="E105" t="n">
-        <v>3.05</v>
+        <v>3.028</v>
       </c>
       <c r="F105" t="n">
-        <v>500</v>
+        <v>13009.11</v>
       </c>
       <c r="G105" t="n">
-        <v>-13841401.42035513</v>
+        <v>-12242514.67435513</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>3.05</v>
+        <v>3.027</v>
       </c>
       <c r="C106" t="n">
-        <v>3.05</v>
+        <v>3.024</v>
       </c>
       <c r="D106" t="n">
-        <v>3.05</v>
+        <v>3.027</v>
       </c>
       <c r="E106" t="n">
-        <v>3.05</v>
+        <v>3.024</v>
       </c>
       <c r="F106" t="n">
-        <v>29745.6</v>
+        <v>12876.5904</v>
       </c>
       <c r="G106" t="n">
-        <v>-13841401.42035513</v>
+        <v>-12255391.26475513</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>3.043</v>
+        <v>3.03</v>
       </c>
       <c r="C107" t="n">
-        <v>3.025</v>
+        <v>3.03</v>
       </c>
       <c r="D107" t="n">
-        <v>3.043</v>
+        <v>3.03</v>
       </c>
       <c r="E107" t="n">
-        <v>3.025</v>
+        <v>3.03</v>
       </c>
       <c r="F107" t="n">
-        <v>397463.0578</v>
+        <v>500</v>
       </c>
       <c r="G107" t="n">
-        <v>-14238864.47815513</v>
+        <v>-12254891.26475513</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4254,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>3.025</v>
+        <v>3.024</v>
       </c>
       <c r="C108" t="n">
-        <v>3.045</v>
+        <v>3.024</v>
       </c>
       <c r="D108" t="n">
-        <v>3.045</v>
+        <v>3.024</v>
       </c>
       <c r="E108" t="n">
-        <v>3.025</v>
+        <v>3.024</v>
       </c>
       <c r="F108" t="n">
-        <v>123010.3484</v>
+        <v>252.0383</v>
       </c>
       <c r="G108" t="n">
-        <v>-14115854.12975513</v>
+        <v>-12255143.30305513</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4290,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>3.045</v>
+        <v>3.023</v>
       </c>
       <c r="C109" t="n">
-        <v>3.045</v>
+        <v>3.015</v>
       </c>
       <c r="D109" t="n">
-        <v>3.045</v>
+        <v>3.023</v>
       </c>
       <c r="E109" t="n">
-        <v>3.045</v>
+        <v>3.015</v>
       </c>
       <c r="F109" t="n">
-        <v>24619.4193</v>
+        <v>129136.5216</v>
       </c>
       <c r="G109" t="n">
-        <v>-14115854.12975513</v>
+        <v>-12384279.82465513</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4326,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>3.045</v>
+        <v>3.015</v>
       </c>
       <c r="C110" t="n">
-        <v>3.05</v>
+        <v>3.013</v>
       </c>
       <c r="D110" t="n">
-        <v>3.05</v>
+        <v>3.015</v>
       </c>
       <c r="E110" t="n">
-        <v>3.028</v>
+        <v>3.013</v>
       </c>
       <c r="F110" t="n">
-        <v>40589.576</v>
+        <v>282153.7262</v>
       </c>
       <c r="G110" t="n">
-        <v>-14075264.55375513</v>
+        <v>-12666433.55085513</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4362,22 +4362,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>3.03</v>
+        <v>3.023</v>
       </c>
       <c r="C111" t="n">
-        <v>3.017</v>
+        <v>3.023</v>
       </c>
       <c r="D111" t="n">
-        <v>3.03</v>
+        <v>3.023</v>
       </c>
       <c r="E111" t="n">
-        <v>3.012</v>
+        <v>3.023</v>
       </c>
       <c r="F111" t="n">
-        <v>2198335.9303</v>
+        <v>998.7799</v>
       </c>
       <c r="G111" t="n">
-        <v>-16273600.48405513</v>
+        <v>-12665434.77095513</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4398,22 +4398,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>3.02</v>
+        <v>3.023</v>
       </c>
       <c r="C112" t="n">
-        <v>3.04</v>
+        <v>3.023</v>
       </c>
       <c r="D112" t="n">
-        <v>3.04</v>
+        <v>3.023</v>
       </c>
       <c r="E112" t="n">
-        <v>3.011</v>
+        <v>3.023</v>
       </c>
       <c r="F112" t="n">
-        <v>305281.8291</v>
+        <v>11988.7201</v>
       </c>
       <c r="G112" t="n">
-        <v>-15968318.65495513</v>
+        <v>-12665434.77095513</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4434,22 +4434,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>3.04</v>
+        <v>3.021</v>
       </c>
       <c r="C113" t="n">
-        <v>3.04</v>
+        <v>3.021</v>
       </c>
       <c r="D113" t="n">
-        <v>3.04</v>
+        <v>3.021</v>
       </c>
       <c r="E113" t="n">
-        <v>3.04</v>
+        <v>3.021</v>
       </c>
       <c r="F113" t="n">
-        <v>15900</v>
+        <v>12980</v>
       </c>
       <c r="G113" t="n">
-        <v>-15968318.65495513</v>
+        <v>-12678414.77095513</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4470,22 +4470,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>3.05</v>
+        <v>3.021</v>
       </c>
       <c r="C114" t="n">
-        <v>3.056</v>
+        <v>3.021</v>
       </c>
       <c r="D114" t="n">
-        <v>3.056</v>
+        <v>3.021</v>
       </c>
       <c r="E114" t="n">
-        <v>3.05</v>
+        <v>3.021</v>
       </c>
       <c r="F114" t="n">
-        <v>438037.4363</v>
+        <v>4415.23</v>
       </c>
       <c r="G114" t="n">
-        <v>-15530281.21865513</v>
+        <v>-12678414.77095513</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4506,22 +4506,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>3.083</v>
+        <v>3.021</v>
       </c>
       <c r="C115" t="n">
-        <v>3.083</v>
+        <v>3.025</v>
       </c>
       <c r="D115" t="n">
-        <v>3.083</v>
+        <v>3.025</v>
       </c>
       <c r="E115" t="n">
-        <v>3.083</v>
+        <v>3.021</v>
       </c>
       <c r="F115" t="n">
-        <v>35560.734</v>
+        <v>60240.8</v>
       </c>
       <c r="G115" t="n">
-        <v>-15494720.48465513</v>
+        <v>-12618173.97095513</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4542,22 +4542,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>3.091</v>
+        <v>3.025</v>
       </c>
       <c r="C116" t="n">
-        <v>3.091</v>
+        <v>3.025</v>
       </c>
       <c r="D116" t="n">
-        <v>3.091</v>
+        <v>3.025</v>
       </c>
       <c r="E116" t="n">
-        <v>3.091</v>
+        <v>3.025</v>
       </c>
       <c r="F116" t="n">
-        <v>30164.88</v>
+        <v>6680.3837</v>
       </c>
       <c r="G116" t="n">
-        <v>-15464555.60465513</v>
+        <v>-12618173.97095513</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4578,22 +4578,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>3.091</v>
+        <v>3.027</v>
       </c>
       <c r="C117" t="n">
-        <v>3.101</v>
+        <v>3.029</v>
       </c>
       <c r="D117" t="n">
-        <v>3.101</v>
+        <v>3.029</v>
       </c>
       <c r="E117" t="n">
-        <v>3.091</v>
+        <v>3.027</v>
       </c>
       <c r="F117" t="n">
-        <v>23517.9718</v>
+        <v>34983.748</v>
       </c>
       <c r="G117" t="n">
-        <v>-15441037.63285513</v>
+        <v>-12583190.22295513</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4614,22 +4614,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>3.101</v>
+        <v>3.035</v>
       </c>
       <c r="C118" t="n">
-        <v>3.05</v>
+        <v>3.029</v>
       </c>
       <c r="D118" t="n">
-        <v>3.101</v>
+        <v>3.04</v>
       </c>
       <c r="E118" t="n">
-        <v>3.05</v>
+        <v>3.029</v>
       </c>
       <c r="F118" t="n">
-        <v>98489.5855</v>
+        <v>66495.0854</v>
       </c>
       <c r="G118" t="n">
-        <v>-15539527.21835513</v>
+        <v>-12583190.22295513</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4650,22 +4650,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>3.05</v>
+        <v>3.029</v>
       </c>
       <c r="C119" t="n">
-        <v>3.05</v>
+        <v>3.029</v>
       </c>
       <c r="D119" t="n">
-        <v>3.05</v>
+        <v>3.029</v>
       </c>
       <c r="E119" t="n">
-        <v>3.05</v>
+        <v>3.029</v>
       </c>
       <c r="F119" t="n">
-        <v>47740.3017</v>
+        <v>4597.8932</v>
       </c>
       <c r="G119" t="n">
-        <v>-15539527.21835513</v>
+        <v>-12583190.22295513</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4686,22 +4686,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>3.052</v>
+        <v>3.04</v>
       </c>
       <c r="C120" t="n">
-        <v>3.05</v>
+        <v>3.029</v>
       </c>
       <c r="D120" t="n">
-        <v>3.052</v>
+        <v>3.04</v>
       </c>
       <c r="E120" t="n">
-        <v>3.05</v>
+        <v>3.029</v>
       </c>
       <c r="F120" t="n">
-        <v>126289.7863</v>
+        <v>489868.56</v>
       </c>
       <c r="G120" t="n">
-        <v>-15539527.21835513</v>
+        <v>-12583190.22295513</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4722,22 +4722,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>3.05</v>
+        <v>3.029</v>
       </c>
       <c r="C121" t="n">
-        <v>3.05</v>
+        <v>3.027</v>
       </c>
       <c r="D121" t="n">
-        <v>3.05</v>
+        <v>3.039</v>
       </c>
       <c r="E121" t="n">
-        <v>3.05</v>
+        <v>3.027</v>
       </c>
       <c r="F121" t="n">
-        <v>20109.4241</v>
+        <v>115331.1761</v>
       </c>
       <c r="G121" t="n">
-        <v>-15539527.21835513</v>
+        <v>-12698521.39905513</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4758,22 +4758,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>3.053</v>
+        <v>3.02</v>
       </c>
       <c r="C122" t="n">
-        <v>3.053</v>
+        <v>3.03</v>
       </c>
       <c r="D122" t="n">
-        <v>3.053</v>
+        <v>3.03</v>
       </c>
       <c r="E122" t="n">
-        <v>3.053</v>
+        <v>3.015</v>
       </c>
       <c r="F122" t="n">
-        <v>8046.01</v>
+        <v>768969.0487</v>
       </c>
       <c r="G122" t="n">
-        <v>-15531481.20835513</v>
+        <v>-11929552.35035513</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4794,22 +4794,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>3.053</v>
+        <v>3.039</v>
       </c>
       <c r="C123" t="n">
-        <v>3.024</v>
+        <v>3.048</v>
       </c>
       <c r="D123" t="n">
-        <v>3.053</v>
+        <v>3.048</v>
       </c>
       <c r="E123" t="n">
-        <v>3.024</v>
+        <v>3.039</v>
       </c>
       <c r="F123" t="n">
-        <v>94215.216</v>
+        <v>302609.1043</v>
       </c>
       <c r="G123" t="n">
-        <v>-15625696.42435513</v>
+        <v>-11626943.24605513</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4830,22 +4830,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3.024</v>
+        <v>3.061</v>
       </c>
       <c r="C124" t="n">
-        <v>3.024</v>
+        <v>3.061</v>
       </c>
       <c r="D124" t="n">
-        <v>3.024</v>
+        <v>3.061</v>
       </c>
       <c r="E124" t="n">
-        <v>3.024</v>
+        <v>3.061</v>
       </c>
       <c r="F124" t="n">
-        <v>88080.1311</v>
+        <v>10000</v>
       </c>
       <c r="G124" t="n">
-        <v>-15625696.42435513</v>
+        <v>-11616943.24605513</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4866,22 +4866,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>3.069</v>
+        <v>3.074</v>
       </c>
       <c r="C125" t="n">
-        <v>3.069</v>
+        <v>3.074</v>
       </c>
       <c r="D125" t="n">
-        <v>3.069</v>
+        <v>3.075</v>
       </c>
       <c r="E125" t="n">
-        <v>3.069</v>
+        <v>3.074</v>
       </c>
       <c r="F125" t="n">
-        <v>200</v>
+        <v>85549.12</v>
       </c>
       <c r="G125" t="n">
-        <v>-15625496.42435513</v>
+        <v>-11531394.12605513</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4902,22 +4902,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3.069</v>
+        <v>3.061</v>
       </c>
       <c r="C126" t="n">
-        <v>3.08</v>
+        <v>3.061</v>
       </c>
       <c r="D126" t="n">
-        <v>3.08</v>
+        <v>3.061</v>
       </c>
       <c r="E126" t="n">
-        <v>3.058</v>
+        <v>3.061</v>
       </c>
       <c r="F126" t="n">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="G126" t="n">
-        <v>-15624986.42435513</v>
+        <v>-11531894.12605513</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4938,22 +4938,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3.047</v>
+        <v>3.061</v>
       </c>
       <c r="C127" t="n">
-        <v>3.046</v>
+        <v>3.05</v>
       </c>
       <c r="D127" t="n">
-        <v>3.058</v>
+        <v>3.061</v>
       </c>
       <c r="E127" t="n">
-        <v>3.046</v>
+        <v>3.05</v>
       </c>
       <c r="F127" t="n">
-        <v>175214.4</v>
+        <v>8198.3676</v>
       </c>
       <c r="G127" t="n">
-        <v>-15800200.82435513</v>
+        <v>-11540092.49365513</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4974,22 +4974,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3.046</v>
+        <v>3.062</v>
       </c>
       <c r="C128" t="n">
-        <v>3.046</v>
+        <v>3.062</v>
       </c>
       <c r="D128" t="n">
-        <v>3.046</v>
+        <v>3.062</v>
       </c>
       <c r="E128" t="n">
-        <v>3.046</v>
+        <v>3.062</v>
       </c>
       <c r="F128" t="n">
-        <v>0.005</v>
+        <v>1473.0832</v>
       </c>
       <c r="G128" t="n">
-        <v>-15800200.82435513</v>
+        <v>-11538619.41045513</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5010,22 +5010,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3.058</v>
+        <v>3.05</v>
       </c>
       <c r="C129" t="n">
-        <v>3.058</v>
+        <v>3.05</v>
       </c>
       <c r="D129" t="n">
-        <v>3.058</v>
+        <v>3.05</v>
       </c>
       <c r="E129" t="n">
-        <v>3.058</v>
+        <v>3.05</v>
       </c>
       <c r="F129" t="n">
-        <v>175412.3185</v>
+        <v>197487.1924</v>
       </c>
       <c r="G129" t="n">
-        <v>-15624788.50585513</v>
+        <v>-11736106.60285513</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5046,22 +5046,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>3.058</v>
+        <v>3.05</v>
       </c>
       <c r="C130" t="n">
         <v>3.05</v>
       </c>
       <c r="D130" t="n">
-        <v>3.058</v>
+        <v>3.05</v>
       </c>
       <c r="E130" t="n">
         <v>3.05</v>
       </c>
       <c r="F130" t="n">
-        <v>58653.8593</v>
+        <v>24131.9017</v>
       </c>
       <c r="G130" t="n">
-        <v>-15683442.36515513</v>
+        <v>-11736106.60285513</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5082,22 +5082,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3.05</v>
+        <v>3.048</v>
       </c>
       <c r="C131" t="n">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="D131" t="n">
-        <v>3.05</v>
+        <v>3.048</v>
       </c>
       <c r="E131" t="n">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="F131" t="n">
-        <v>141746.7196</v>
+        <v>189442.2886</v>
       </c>
       <c r="G131" t="n">
-        <v>-15683442.36515513</v>
+        <v>-11925548.89145513</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5118,22 +5118,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>3.069</v>
+        <v>3.04</v>
       </c>
       <c r="C132" t="n">
-        <v>3.069</v>
+        <v>3.037</v>
       </c>
       <c r="D132" t="n">
-        <v>3.069</v>
+        <v>3.04</v>
       </c>
       <c r="E132" t="n">
-        <v>3.069</v>
+        <v>3.037</v>
       </c>
       <c r="F132" t="n">
-        <v>200</v>
+        <v>22621.9017</v>
       </c>
       <c r="G132" t="n">
-        <v>-15683242.36515513</v>
+        <v>-11948170.79315513</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5154,22 +5154,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>3.044</v>
+        <v>3.037</v>
       </c>
       <c r="C133" t="n">
-        <v>3.032</v>
+        <v>3.037</v>
       </c>
       <c r="D133" t="n">
-        <v>3.044</v>
+        <v>3.037</v>
       </c>
       <c r="E133" t="n">
-        <v>3.032</v>
+        <v>3.037</v>
       </c>
       <c r="F133" t="n">
-        <v>258000.802</v>
+        <v>5128.1253</v>
       </c>
       <c r="G133" t="n">
-        <v>-15941243.16715513</v>
+        <v>-11948170.79315513</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5190,22 +5190,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>3.069</v>
+        <v>3.037</v>
       </c>
       <c r="C134" t="n">
-        <v>3.069</v>
+        <v>3.037</v>
       </c>
       <c r="D134" t="n">
-        <v>3.069</v>
+        <v>3.037</v>
       </c>
       <c r="E134" t="n">
-        <v>3.069</v>
+        <v>3.037</v>
       </c>
       <c r="F134" t="n">
-        <v>500</v>
+        <v>204078.2318</v>
       </c>
       <c r="G134" t="n">
-        <v>-15940743.16715513</v>
+        <v>-11948170.79315513</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5226,22 +5226,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3.069</v>
+        <v>3.037</v>
       </c>
       <c r="C135" t="n">
-        <v>3.079</v>
+        <v>3.037</v>
       </c>
       <c r="D135" t="n">
-        <v>3.079</v>
+        <v>3.037</v>
       </c>
       <c r="E135" t="n">
-        <v>3.069</v>
+        <v>3.037</v>
       </c>
       <c r="F135" t="n">
-        <v>602947.9693999999</v>
+        <v>295921.7682</v>
       </c>
       <c r="G135" t="n">
-        <v>-15337795.19775513</v>
+        <v>-11948170.79315513</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5262,22 +5262,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3.069</v>
+        <v>3.04</v>
       </c>
       <c r="C136" t="n">
-        <v>3.069</v>
+        <v>3.04</v>
       </c>
       <c r="D136" t="n">
-        <v>3.069</v>
+        <v>3.04</v>
       </c>
       <c r="E136" t="n">
-        <v>3.069</v>
+        <v>3.04</v>
       </c>
       <c r="F136" t="n">
-        <v>1617.2202</v>
+        <v>113412.6519</v>
       </c>
       <c r="G136" t="n">
-        <v>-15339412.41795513</v>
+        <v>-11834758.14125513</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3.061</v>
+        <v>3.05</v>
       </c>
       <c r="C137" t="n">
-        <v>3.061</v>
+        <v>3.04</v>
       </c>
       <c r="D137" t="n">
-        <v>3.061</v>
+        <v>3.05</v>
       </c>
       <c r="E137" t="n">
-        <v>3.061</v>
+        <v>3.04</v>
       </c>
       <c r="F137" t="n">
-        <v>59400</v>
+        <v>89014.3738</v>
       </c>
       <c r="G137" t="n">
-        <v>-15398812.41795513</v>
+        <v>-11834758.14125513</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5334,22 +5334,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3.051</v>
+        <v>3.05</v>
       </c>
       <c r="C138" t="n">
-        <v>3.04</v>
+        <v>3.062</v>
       </c>
       <c r="D138" t="n">
-        <v>3.051</v>
+        <v>3.062</v>
       </c>
       <c r="E138" t="n">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="F138" t="n">
-        <v>178000</v>
+        <v>7320.93</v>
       </c>
       <c r="G138" t="n">
-        <v>-15576812.41795513</v>
+        <v>-11827437.21125513</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5370,22 +5370,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>3.075</v>
+        <v>3.04</v>
       </c>
       <c r="C139" t="n">
-        <v>3.075</v>
+        <v>3.03</v>
       </c>
       <c r="D139" t="n">
-        <v>3.075</v>
+        <v>3.04</v>
       </c>
       <c r="E139" t="n">
-        <v>3.075</v>
+        <v>3.03</v>
       </c>
       <c r="F139" t="n">
-        <v>410</v>
+        <v>75000</v>
       </c>
       <c r="G139" t="n">
-        <v>-15576402.41795513</v>
+        <v>-11902437.21125513</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5406,22 +5406,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3.042</v>
+        <v>3.054</v>
       </c>
       <c r="C140" t="n">
-        <v>3.04</v>
+        <v>3.054</v>
       </c>
       <c r="D140" t="n">
-        <v>3.042</v>
+        <v>3.054</v>
       </c>
       <c r="E140" t="n">
-        <v>3.04</v>
+        <v>3.054</v>
       </c>
       <c r="F140" t="n">
-        <v>427380.5385</v>
+        <v>500</v>
       </c>
       <c r="G140" t="n">
-        <v>-16003782.95645513</v>
+        <v>-11901937.21125513</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5442,22 +5442,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>3.039</v>
+        <v>3.054</v>
       </c>
       <c r="C141" t="n">
-        <v>3.015</v>
+        <v>3.054</v>
       </c>
       <c r="D141" t="n">
-        <v>3.039</v>
+        <v>3.054</v>
       </c>
       <c r="E141" t="n">
-        <v>3.015</v>
+        <v>3.054</v>
       </c>
       <c r="F141" t="n">
-        <v>177184.6511</v>
+        <v>900</v>
       </c>
       <c r="G141" t="n">
-        <v>-16180967.60755513</v>
+        <v>-11901937.21125513</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5478,22 +5478,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="C142" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="D142" t="n">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="E142" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="F142" t="n">
-        <v>7239.1847</v>
+        <v>1101720.7912</v>
       </c>
       <c r="G142" t="n">
-        <v>-16173728.42285513</v>
+        <v>-13003658.00245513</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5514,22 +5514,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>3.055</v>
+        <v>3.03</v>
       </c>
       <c r="C143" t="n">
-        <v>3.055</v>
+        <v>3.05</v>
       </c>
       <c r="D143" t="n">
-        <v>3.055</v>
+        <v>3.05</v>
       </c>
       <c r="E143" t="n">
-        <v>3.055</v>
+        <v>3.03</v>
       </c>
       <c r="F143" t="n">
-        <v>25927.0808</v>
+        <v>564031.2867000001</v>
       </c>
       <c r="G143" t="n">
-        <v>-16147801.34205513</v>
+        <v>-12439626.71575513</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5562,10 +5562,10 @@
         <v>3.05</v>
       </c>
       <c r="F144" t="n">
-        <v>4842.6713</v>
+        <v>0.0033</v>
       </c>
       <c r="G144" t="n">
-        <v>-16152644.01335513</v>
+        <v>-12439626.71575513</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5586,22 +5586,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3.05</v>
+        <v>3.072</v>
       </c>
       <c r="C145" t="n">
-        <v>3.05</v>
+        <v>3.072</v>
       </c>
       <c r="D145" t="n">
-        <v>3.05</v>
+        <v>3.072</v>
       </c>
       <c r="E145" t="n">
-        <v>3.05</v>
+        <v>3.072</v>
       </c>
       <c r="F145" t="n">
-        <v>5063.7485</v>
+        <v>73407.6721</v>
       </c>
       <c r="G145" t="n">
-        <v>-16152644.01335513</v>
+        <v>-12366219.04365513</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5622,22 +5622,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>3.055</v>
+        <v>3.073</v>
       </c>
       <c r="C146" t="n">
-        <v>3.075</v>
+        <v>3.073</v>
       </c>
       <c r="D146" t="n">
-        <v>3.075</v>
+        <v>3.073</v>
       </c>
       <c r="E146" t="n">
-        <v>3.055</v>
+        <v>3.073</v>
       </c>
       <c r="F146" t="n">
-        <v>78877.6967</v>
+        <v>20002.965</v>
       </c>
       <c r="G146" t="n">
-        <v>-16073766.31665513</v>
+        <v>-12346216.07865513</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5658,22 +5658,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>3.075</v>
+        <v>3.084</v>
       </c>
       <c r="C147" t="n">
-        <v>3.075</v>
+        <v>3.089</v>
       </c>
       <c r="D147" t="n">
-        <v>3.075</v>
+        <v>3.089</v>
       </c>
       <c r="E147" t="n">
-        <v>3.075</v>
+        <v>3.084</v>
       </c>
       <c r="F147" t="n">
-        <v>5304.1062</v>
+        <v>65165.1577</v>
       </c>
       <c r="G147" t="n">
-        <v>-16073766.31665513</v>
+        <v>-12281050.92095513</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5694,22 +5694,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>3.077</v>
+        <v>3.098</v>
       </c>
       <c r="C148" t="n">
-        <v>3.077</v>
+        <v>3.108</v>
       </c>
       <c r="D148" t="n">
-        <v>3.077</v>
+        <v>3.108</v>
       </c>
       <c r="E148" t="n">
-        <v>3.077</v>
+        <v>3.098</v>
       </c>
       <c r="F148" t="n">
-        <v>5418.483</v>
+        <v>24023.2247</v>
       </c>
       <c r="G148" t="n">
-        <v>-16068347.83365513</v>
+        <v>-12257027.69625513</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5730,22 +5730,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>3.077</v>
+        <v>3.108</v>
       </c>
       <c r="C149" t="n">
-        <v>3.077</v>
+        <v>3.114</v>
       </c>
       <c r="D149" t="n">
-        <v>3.077</v>
+        <v>3.114</v>
       </c>
       <c r="E149" t="n">
-        <v>3.077</v>
+        <v>3.108</v>
       </c>
       <c r="F149" t="n">
-        <v>5586.373</v>
+        <v>15546.7177</v>
       </c>
       <c r="G149" t="n">
-        <v>-16068347.83365513</v>
+        <v>-12241480.97855513</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5766,22 +5766,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>3.075</v>
+        <v>3.114</v>
       </c>
       <c r="C150" t="n">
-        <v>3.075</v>
+        <v>3.114</v>
       </c>
       <c r="D150" t="n">
-        <v>3.075</v>
+        <v>3.115</v>
       </c>
       <c r="E150" t="n">
-        <v>3.075</v>
+        <v>3.114</v>
       </c>
       <c r="F150" t="n">
-        <v>8940.543900000001</v>
+        <v>86445.15949999999</v>
       </c>
       <c r="G150" t="n">
-        <v>-16077288.37755513</v>
+        <v>-12241480.97855513</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5802,22 +5802,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>3.077</v>
+        <v>3.114</v>
       </c>
       <c r="C151" t="n">
-        <v>3.089</v>
+        <v>3.12</v>
       </c>
       <c r="D151" t="n">
-        <v>3.089</v>
+        <v>3.12</v>
       </c>
       <c r="E151" t="n">
-        <v>3.077</v>
+        <v>3.114</v>
       </c>
       <c r="F151" t="n">
-        <v>34223.3138</v>
+        <v>61084.23</v>
       </c>
       <c r="G151" t="n">
-        <v>-16043065.06375513</v>
+        <v>-12180396.74855513</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5838,28 +5838,28 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>3.089</v>
+        <v>3.115</v>
       </c>
       <c r="C152" t="n">
-        <v>3.089</v>
+        <v>3.115</v>
       </c>
       <c r="D152" t="n">
-        <v>3.089</v>
+        <v>3.125</v>
       </c>
       <c r="E152" t="n">
-        <v>3.089</v>
+        <v>3.115</v>
       </c>
       <c r="F152" t="n">
-        <v>177.1889</v>
+        <v>35822</v>
       </c>
       <c r="G152" t="n">
-        <v>-16043065.06375513</v>
+        <v>-12216218.74855513</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
@@ -5874,28 +5874,28 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3.092</v>
+        <v>3.118</v>
       </c>
       <c r="C153" t="n">
-        <v>3.09</v>
+        <v>3.105</v>
       </c>
       <c r="D153" t="n">
-        <v>3.1</v>
+        <v>3.118</v>
       </c>
       <c r="E153" t="n">
-        <v>3.089</v>
+        <v>3.105</v>
       </c>
       <c r="F153" t="n">
-        <v>38919.9588</v>
+        <v>10755.3613</v>
       </c>
       <c r="G153" t="n">
-        <v>-16004145.10495513</v>
+        <v>-12226974.10985513</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
@@ -5910,28 +5910,28 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>3.089</v>
+        <v>3.105</v>
       </c>
       <c r="C154" t="n">
-        <v>3.089</v>
+        <v>3.101</v>
       </c>
       <c r="D154" t="n">
-        <v>3.089</v>
+        <v>3.105</v>
       </c>
       <c r="E154" t="n">
-        <v>3.089</v>
+        <v>3.101</v>
       </c>
       <c r="F154" t="n">
-        <v>4486.841</v>
+        <v>164934.9571</v>
       </c>
       <c r="G154" t="n">
-        <v>-16008631.94595513</v>
+        <v>-12391909.06695513</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
@@ -5946,28 +5946,28 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>3.085</v>
+        <v>3.101</v>
       </c>
       <c r="C155" t="n">
-        <v>3.085</v>
+        <v>3.105</v>
       </c>
       <c r="D155" t="n">
-        <v>3.085</v>
+        <v>3.105</v>
       </c>
       <c r="E155" t="n">
-        <v>3.077</v>
+        <v>3.101</v>
       </c>
       <c r="F155" t="n">
-        <v>356155.9092</v>
+        <v>3110.8697</v>
       </c>
       <c r="G155" t="n">
-        <v>-16364787.85515513</v>
+        <v>-12388798.19725513</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
@@ -5982,28 +5982,28 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>3.085</v>
+        <v>3.101</v>
       </c>
       <c r="C156" t="n">
-        <v>3.077</v>
+        <v>3.101</v>
       </c>
       <c r="D156" t="n">
-        <v>3.085</v>
+        <v>3.101</v>
       </c>
       <c r="E156" t="n">
-        <v>3.077</v>
+        <v>3.101</v>
       </c>
       <c r="F156" t="n">
-        <v>77439.0068</v>
+        <v>4098.9233</v>
       </c>
       <c r="G156" t="n">
-        <v>-16442226.86195513</v>
+        <v>-12392897.12055513</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
@@ -6018,28 +6018,28 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3.077</v>
+        <v>3.098</v>
       </c>
       <c r="C157" t="n">
-        <v>3.077</v>
+        <v>3.064</v>
       </c>
       <c r="D157" t="n">
-        <v>3.077</v>
+        <v>3.098</v>
       </c>
       <c r="E157" t="n">
-        <v>3.077</v>
+        <v>3.064</v>
       </c>
       <c r="F157" t="n">
-        <v>115.6197</v>
+        <v>152823.6417</v>
       </c>
       <c r="G157" t="n">
-        <v>-16442226.86195513</v>
+        <v>-12545720.76225513</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
@@ -6054,22 +6054,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>3.075</v>
+        <v>3.057</v>
       </c>
       <c r="C158" t="n">
-        <v>3.075</v>
+        <v>3.057</v>
       </c>
       <c r="D158" t="n">
-        <v>3.075</v>
+        <v>3.057</v>
       </c>
       <c r="E158" t="n">
-        <v>3.075</v>
+        <v>3.057</v>
       </c>
       <c r="F158" t="n">
-        <v>5764.7659</v>
+        <v>9008.559999999999</v>
       </c>
       <c r="G158" t="n">
-        <v>-16447991.62785513</v>
+        <v>-12554729.32225513</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6090,22 +6090,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>3.064</v>
+        <v>3.05</v>
       </c>
       <c r="C159" t="n">
-        <v>3.064</v>
+        <v>3.039</v>
       </c>
       <c r="D159" t="n">
-        <v>3.064</v>
+        <v>3.05</v>
       </c>
       <c r="E159" t="n">
-        <v>3.064</v>
+        <v>3.039</v>
       </c>
       <c r="F159" t="n">
-        <v>5001.85</v>
+        <v>115735.4494</v>
       </c>
       <c r="G159" t="n">
-        <v>-16452993.47785513</v>
+        <v>-12670464.77165513</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6126,22 +6126,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>3.069</v>
+        <v>3.056</v>
       </c>
       <c r="C160" t="n">
-        <v>3.069</v>
+        <v>3.056</v>
       </c>
       <c r="D160" t="n">
-        <v>3.069</v>
+        <v>3.056</v>
       </c>
       <c r="E160" t="n">
-        <v>3.069</v>
+        <v>3.056</v>
       </c>
       <c r="F160" t="n">
-        <v>4451.82</v>
+        <v>10001.856</v>
       </c>
       <c r="G160" t="n">
-        <v>-16448541.65785513</v>
+        <v>-12660462.91565513</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6162,22 +6162,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>3.073</v>
+        <v>3.056</v>
       </c>
       <c r="C161" t="n">
-        <v>3.077</v>
+        <v>3.056</v>
       </c>
       <c r="D161" t="n">
-        <v>3.077</v>
+        <v>3.056</v>
       </c>
       <c r="E161" t="n">
-        <v>3.073</v>
+        <v>3.056</v>
       </c>
       <c r="F161" t="n">
-        <v>17721.0595</v>
+        <v>15700</v>
       </c>
       <c r="G161" t="n">
-        <v>-16430820.59835513</v>
+        <v>-12660462.91565513</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6198,22 +6198,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>3.077</v>
+        <v>3.049</v>
       </c>
       <c r="C162" t="n">
-        <v>3.08</v>
+        <v>3.039</v>
       </c>
       <c r="D162" t="n">
-        <v>3.08</v>
+        <v>3.049</v>
       </c>
       <c r="E162" t="n">
-        <v>3.077</v>
+        <v>3.039</v>
       </c>
       <c r="F162" t="n">
-        <v>20293.494</v>
+        <v>340083.8873</v>
       </c>
       <c r="G162" t="n">
-        <v>-16410527.10435513</v>
+        <v>-13000546.80295513</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6234,22 +6234,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>3.08</v>
+        <v>3.039</v>
       </c>
       <c r="C163" t="n">
-        <v>3.085</v>
+        <v>3.039</v>
       </c>
       <c r="D163" t="n">
-        <v>3.085</v>
+        <v>3.039</v>
       </c>
       <c r="E163" t="n">
-        <v>3.08</v>
+        <v>3.039</v>
       </c>
       <c r="F163" t="n">
-        <v>23007.4615</v>
+        <v>104844.386</v>
       </c>
       <c r="G163" t="n">
-        <v>-16387519.64285513</v>
+        <v>-13000546.80295513</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6270,22 +6270,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>3.085</v>
+        <v>3.056</v>
       </c>
       <c r="C164" t="n">
-        <v>3.089</v>
+        <v>3.056</v>
       </c>
       <c r="D164" t="n">
-        <v>3.089</v>
+        <v>3.056</v>
       </c>
       <c r="E164" t="n">
-        <v>3.085</v>
+        <v>3.056</v>
       </c>
       <c r="F164" t="n">
-        <v>18004.56</v>
+        <v>1203.23</v>
       </c>
       <c r="G164" t="n">
-        <v>-16369515.08285513</v>
+        <v>-12999343.57295513</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6306,22 +6306,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>3.083</v>
+        <v>3.051</v>
       </c>
       <c r="C165" t="n">
-        <v>3.083</v>
+        <v>3.045</v>
       </c>
       <c r="D165" t="n">
-        <v>3.083</v>
+        <v>3.051</v>
       </c>
       <c r="E165" t="n">
-        <v>3.083</v>
+        <v>3.045</v>
       </c>
       <c r="F165" t="n">
-        <v>7004.56</v>
+        <v>9282.798000000001</v>
       </c>
       <c r="G165" t="n">
-        <v>-16376519.64285513</v>
+        <v>-13008626.37095513</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6342,22 +6342,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>3.081</v>
+        <v>3.039</v>
       </c>
       <c r="C166" t="n">
-        <v>3.081</v>
+        <v>3.039</v>
       </c>
       <c r="D166" t="n">
-        <v>3.081</v>
+        <v>3.039</v>
       </c>
       <c r="E166" t="n">
-        <v>3.081</v>
+        <v>3.039</v>
       </c>
       <c r="F166" t="n">
-        <v>5005.85</v>
+        <v>10157.47</v>
       </c>
       <c r="G166" t="n">
-        <v>-16381525.49285513</v>
+        <v>-13018783.84095513</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6378,22 +6378,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>3.086</v>
+        <v>3.039</v>
       </c>
       <c r="C167" t="n">
-        <v>3.086</v>
+        <v>3.039</v>
       </c>
       <c r="D167" t="n">
-        <v>3.086</v>
+        <v>3.039</v>
       </c>
       <c r="E167" t="n">
-        <v>3.086</v>
+        <v>3.039</v>
       </c>
       <c r="F167" t="n">
-        <v>5005.85</v>
+        <v>19842.53</v>
       </c>
       <c r="G167" t="n">
-        <v>-16376519.64285513</v>
+        <v>-13018783.84095513</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6414,22 +6414,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>3.081</v>
+        <v>3.055</v>
       </c>
       <c r="C168" t="n">
-        <v>3.073</v>
+        <v>3.055</v>
       </c>
       <c r="D168" t="n">
-        <v>3.081</v>
+        <v>3.055</v>
       </c>
       <c r="E168" t="n">
-        <v>3.073</v>
+        <v>3.055</v>
       </c>
       <c r="F168" t="n">
-        <v>39094.826</v>
+        <v>500</v>
       </c>
       <c r="G168" t="n">
-        <v>-16415614.46885513</v>
+        <v>-13018283.84095513</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6450,22 +6450,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>3.069</v>
+        <v>3.054</v>
       </c>
       <c r="C169" t="n">
-        <v>3.06</v>
+        <v>3.054</v>
       </c>
       <c r="D169" t="n">
-        <v>3.069</v>
+        <v>3.054</v>
       </c>
       <c r="E169" t="n">
-        <v>3.06</v>
+        <v>3.054</v>
       </c>
       <c r="F169" t="n">
-        <v>38572.716</v>
+        <v>16791</v>
       </c>
       <c r="G169" t="n">
-        <v>-16454187.18485513</v>
+        <v>-13035074.84095513</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6486,22 +6486,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>3.06</v>
+        <v>3.048</v>
       </c>
       <c r="C170" t="n">
-        <v>3.06</v>
+        <v>3.032</v>
       </c>
       <c r="D170" t="n">
-        <v>3.06</v>
+        <v>3.048</v>
       </c>
       <c r="E170" t="n">
-        <v>3.06</v>
+        <v>3.032</v>
       </c>
       <c r="F170" t="n">
-        <v>95454.4253</v>
+        <v>19320.8543</v>
       </c>
       <c r="G170" t="n">
-        <v>-16454187.18485513</v>
+        <v>-13054395.69525513</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6522,22 +6522,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>3.073</v>
+        <v>3.03</v>
       </c>
       <c r="C171" t="n">
-        <v>3.073</v>
+        <v>3.028</v>
       </c>
       <c r="D171" t="n">
-        <v>3.073</v>
+        <v>3.03</v>
       </c>
       <c r="E171" t="n">
-        <v>3.073</v>
+        <v>3.028</v>
       </c>
       <c r="F171" t="n">
-        <v>101986.3753</v>
+        <v>488139.9261</v>
       </c>
       <c r="G171" t="n">
-        <v>-16352200.80955513</v>
+        <v>-13542535.62135513</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6558,22 +6558,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>3.079</v>
+        <v>3.026</v>
       </c>
       <c r="C172" t="n">
-        <v>3.075</v>
+        <v>3.028</v>
       </c>
       <c r="D172" t="n">
-        <v>3.08</v>
+        <v>3.028</v>
       </c>
       <c r="E172" t="n">
-        <v>3.075</v>
+        <v>3.026</v>
       </c>
       <c r="F172" t="n">
-        <v>134056.5668</v>
+        <v>194067.4354</v>
       </c>
       <c r="G172" t="n">
-        <v>-16218144.24275513</v>
+        <v>-13542535.62135513</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6594,22 +6594,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>3.07</v>
+        <v>3.028</v>
       </c>
       <c r="C173" t="n">
-        <v>3.067</v>
+        <v>3.05</v>
       </c>
       <c r="D173" t="n">
-        <v>3.07</v>
+        <v>3.05</v>
       </c>
       <c r="E173" t="n">
-        <v>3.067</v>
+        <v>3.028</v>
       </c>
       <c r="F173" t="n">
-        <v>26684.58</v>
+        <v>14416.8005</v>
       </c>
       <c r="G173" t="n">
-        <v>-16244828.82275513</v>
+        <v>-13528118.82085513</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6630,22 +6630,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>3.067</v>
+        <v>3.037</v>
       </c>
       <c r="C174" t="n">
-        <v>3.067</v>
+        <v>3.028</v>
       </c>
       <c r="D174" t="n">
-        <v>3.067</v>
+        <v>3.037</v>
       </c>
       <c r="E174" t="n">
-        <v>3.067</v>
+        <v>3.028</v>
       </c>
       <c r="F174" t="n">
-        <v>97060.3759</v>
+        <v>313782.5995</v>
       </c>
       <c r="G174" t="n">
-        <v>-16244828.82275513</v>
+        <v>-13841901.42035513</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6666,22 +6666,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>3.079</v>
+        <v>3.028</v>
       </c>
       <c r="C175" t="n">
-        <v>3.079</v>
+        <v>3.028</v>
       </c>
       <c r="D175" t="n">
-        <v>3.079</v>
+        <v>3.028</v>
       </c>
       <c r="E175" t="n">
-        <v>3.079</v>
+        <v>3.028</v>
       </c>
       <c r="F175" t="n">
-        <v>35001.56</v>
+        <v>174062.4581</v>
       </c>
       <c r="G175" t="n">
-        <v>-16209827.26275513</v>
+        <v>-13841901.42035513</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6702,22 +6702,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>3.075</v>
+        <v>3.05</v>
       </c>
       <c r="C176" t="n">
-        <v>3.022</v>
+        <v>3.05</v>
       </c>
       <c r="D176" t="n">
-        <v>3.075</v>
+        <v>3.05</v>
       </c>
       <c r="E176" t="n">
-        <v>3.022</v>
+        <v>3.05</v>
       </c>
       <c r="F176" t="n">
-        <v>464490.7872</v>
+        <v>500</v>
       </c>
       <c r="G176" t="n">
-        <v>-16674318.04995513</v>
+        <v>-13841401.42035513</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6738,22 +6738,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>3.057</v>
+        <v>3.05</v>
       </c>
       <c r="C177" t="n">
-        <v>3.067</v>
+        <v>3.05</v>
       </c>
       <c r="D177" t="n">
-        <v>3.067</v>
+        <v>3.05</v>
       </c>
       <c r="E177" t="n">
-        <v>3.057</v>
+        <v>3.05</v>
       </c>
       <c r="F177" t="n">
-        <v>27504</v>
+        <v>29745.6</v>
       </c>
       <c r="G177" t="n">
-        <v>-16646814.04995513</v>
+        <v>-13841401.42035513</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6774,22 +6774,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>3.056</v>
+        <v>3.043</v>
       </c>
       <c r="C178" t="n">
-        <v>3.056</v>
+        <v>3.025</v>
       </c>
       <c r="D178" t="n">
-        <v>3.056</v>
+        <v>3.043</v>
       </c>
       <c r="E178" t="n">
-        <v>3.056</v>
+        <v>3.025</v>
       </c>
       <c r="F178" t="n">
-        <v>9009.559999999999</v>
+        <v>397463.0578</v>
       </c>
       <c r="G178" t="n">
-        <v>-16655823.60995513</v>
+        <v>-14238864.47815513</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6810,22 +6810,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>3.049</v>
+        <v>3.025</v>
       </c>
       <c r="C179" t="n">
-        <v>3.049</v>
+        <v>3.045</v>
       </c>
       <c r="D179" t="n">
-        <v>3.049</v>
+        <v>3.045</v>
       </c>
       <c r="E179" t="n">
-        <v>3.049</v>
+        <v>3.025</v>
       </c>
       <c r="F179" t="n">
-        <v>65602.9892</v>
+        <v>123010.3484</v>
       </c>
       <c r="G179" t="n">
-        <v>-16721426.59915513</v>
+        <v>-14115854.12975513</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6846,22 +6846,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>3.076</v>
+        <v>3.045</v>
       </c>
       <c r="C180" t="n">
-        <v>3.069</v>
+        <v>3.045</v>
       </c>
       <c r="D180" t="n">
-        <v>3.076</v>
+        <v>3.045</v>
       </c>
       <c r="E180" t="n">
-        <v>3.069</v>
+        <v>3.045</v>
       </c>
       <c r="F180" t="n">
-        <v>20323.7</v>
+        <v>24619.4193</v>
       </c>
       <c r="G180" t="n">
-        <v>-16701102.89915513</v>
+        <v>-14115854.12975513</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6882,22 +6882,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>3.071</v>
+        <v>3.045</v>
       </c>
       <c r="C181" t="n">
-        <v>3.071</v>
+        <v>3.05</v>
       </c>
       <c r="D181" t="n">
-        <v>3.071</v>
+        <v>3.05</v>
       </c>
       <c r="E181" t="n">
-        <v>3.071</v>
+        <v>3.028</v>
       </c>
       <c r="F181" t="n">
-        <v>6006.56</v>
+        <v>40589.576</v>
       </c>
       <c r="G181" t="n">
-        <v>-16695096.33915513</v>
+        <v>-14075264.55375513</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6918,22 +6918,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>3.063</v>
+        <v>3.03</v>
       </c>
       <c r="C182" t="n">
-        <v>3.062</v>
+        <v>3.017</v>
       </c>
       <c r="D182" t="n">
-        <v>3.063</v>
+        <v>3.03</v>
       </c>
       <c r="E182" t="n">
-        <v>3.062</v>
+        <v>3.012</v>
       </c>
       <c r="F182" t="n">
-        <v>92694.2558</v>
+        <v>2198335.9303</v>
       </c>
       <c r="G182" t="n">
-        <v>-16787790.59495513</v>
+        <v>-16273600.48405513</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6954,22 +6954,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>3.058</v>
+        <v>3.02</v>
       </c>
       <c r="C183" t="n">
-        <v>3.058</v>
+        <v>3.04</v>
       </c>
       <c r="D183" t="n">
-        <v>3.058</v>
+        <v>3.04</v>
       </c>
       <c r="E183" t="n">
-        <v>3.058</v>
+        <v>3.011</v>
       </c>
       <c r="F183" t="n">
-        <v>121101.2592</v>
+        <v>305281.8291</v>
       </c>
       <c r="G183" t="n">
-        <v>-16908891.85415513</v>
+        <v>-15968318.65495513</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6990,22 +6990,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>3.057</v>
+        <v>3.04</v>
       </c>
       <c r="C184" t="n">
-        <v>3.057</v>
+        <v>3.04</v>
       </c>
       <c r="D184" t="n">
-        <v>3.057</v>
+        <v>3.04</v>
       </c>
       <c r="E184" t="n">
-        <v>3.057</v>
+        <v>3.04</v>
       </c>
       <c r="F184" t="n">
-        <v>2580.8187</v>
+        <v>15900</v>
       </c>
       <c r="G184" t="n">
-        <v>-16911472.67285513</v>
+        <v>-15968318.65495513</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7026,22 +7026,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>3.07</v>
+        <v>3.05</v>
       </c>
       <c r="C185" t="n">
-        <v>3.07</v>
+        <v>3.056</v>
       </c>
       <c r="D185" t="n">
-        <v>3.07</v>
+        <v>3.056</v>
       </c>
       <c r="E185" t="n">
-        <v>3.07</v>
+        <v>3.05</v>
       </c>
       <c r="F185" t="n">
-        <v>163</v>
+        <v>438037.4363</v>
       </c>
       <c r="G185" t="n">
-        <v>-16911309.67285513</v>
+        <v>-15530281.21865513</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7062,22 +7062,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>3.057</v>
+        <v>3.083</v>
       </c>
       <c r="C186" t="n">
-        <v>3.057</v>
+        <v>3.083</v>
       </c>
       <c r="D186" t="n">
-        <v>3.057</v>
+        <v>3.083</v>
       </c>
       <c r="E186" t="n">
-        <v>3.057</v>
+        <v>3.083</v>
       </c>
       <c r="F186" t="n">
-        <v>2000</v>
+        <v>35560.734</v>
       </c>
       <c r="G186" t="n">
-        <v>-16913309.67285513</v>
+        <v>-15494720.48465513</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7098,22 +7098,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>3.057</v>
+        <v>3.091</v>
       </c>
       <c r="C187" t="n">
-        <v>3.051</v>
+        <v>3.091</v>
       </c>
       <c r="D187" t="n">
-        <v>3.057</v>
+        <v>3.091</v>
       </c>
       <c r="E187" t="n">
-        <v>3.051</v>
+        <v>3.091</v>
       </c>
       <c r="F187" t="n">
-        <v>23202.5973</v>
+        <v>30164.88</v>
       </c>
       <c r="G187" t="n">
-        <v>-16936512.27015513</v>
+        <v>-15464555.60465513</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7134,22 +7134,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>3.049</v>
+        <v>3.091</v>
       </c>
       <c r="C188" t="n">
-        <v>3.044</v>
+        <v>3.101</v>
       </c>
       <c r="D188" t="n">
-        <v>3.049</v>
+        <v>3.101</v>
       </c>
       <c r="E188" t="n">
-        <v>3.044</v>
+        <v>3.091</v>
       </c>
       <c r="F188" t="n">
-        <v>130727.8281</v>
+        <v>23517.9718</v>
       </c>
       <c r="G188" t="n">
-        <v>-17067240.09825513</v>
+        <v>-15441037.63285513</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7170,22 +7170,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>3.042</v>
+        <v>3.101</v>
       </c>
       <c r="C189" t="n">
-        <v>3.042</v>
+        <v>3.05</v>
       </c>
       <c r="D189" t="n">
-        <v>3.042</v>
+        <v>3.101</v>
       </c>
       <c r="E189" t="n">
-        <v>3.042</v>
+        <v>3.05</v>
       </c>
       <c r="F189" t="n">
-        <v>9805.980299999999</v>
+        <v>98489.5855</v>
       </c>
       <c r="G189" t="n">
-        <v>-17077046.07855513</v>
+        <v>-15539527.21835513</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7206,22 +7206,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="C190" t="n">
-        <v>3.022</v>
+        <v>3.05</v>
       </c>
       <c r="D190" t="n">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="E190" t="n">
-        <v>3.022</v>
+        <v>3.05</v>
       </c>
       <c r="F190" t="n">
-        <v>903465.3605</v>
+        <v>47740.3017</v>
       </c>
       <c r="G190" t="n">
-        <v>-17980511.43905513</v>
+        <v>-15539527.21835513</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7242,22 +7242,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>3.022</v>
+        <v>3.052</v>
       </c>
       <c r="C191" t="n">
-        <v>3.022</v>
+        <v>3.05</v>
       </c>
       <c r="D191" t="n">
-        <v>3.022</v>
+        <v>3.052</v>
       </c>
       <c r="E191" t="n">
-        <v>3.022</v>
+        <v>3.05</v>
       </c>
       <c r="F191" t="n">
-        <v>9815.837100000001</v>
+        <v>126289.7863</v>
       </c>
       <c r="G191" t="n">
-        <v>-17980511.43905513</v>
+        <v>-15539527.21835513</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7278,22 +7278,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>3.021</v>
+        <v>3.05</v>
       </c>
       <c r="C192" t="n">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="D192" t="n">
-        <v>3.021</v>
+        <v>3.05</v>
       </c>
       <c r="E192" t="n">
-        <v>3.013</v>
+        <v>3.05</v>
       </c>
       <c r="F192" t="n">
-        <v>648059.4692000001</v>
+        <v>20109.4241</v>
       </c>
       <c r="G192" t="n">
-        <v>-18628570.90825513</v>
+        <v>-15539527.21835513</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7314,22 +7314,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>3.02</v>
+        <v>3.053</v>
       </c>
       <c r="C193" t="n">
-        <v>3.02</v>
+        <v>3.053</v>
       </c>
       <c r="D193" t="n">
-        <v>3.02</v>
+        <v>3.053</v>
       </c>
       <c r="E193" t="n">
-        <v>3.02</v>
+        <v>3.053</v>
       </c>
       <c r="F193" t="n">
-        <v>1014.9485</v>
+        <v>8046.01</v>
       </c>
       <c r="G193" t="n">
-        <v>-18628570.90825513</v>
+        <v>-15531481.20835513</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7350,570 +7350,3124 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
+        <v>3.053</v>
+      </c>
+      <c r="C194" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="D194" t="n">
+        <v>3.053</v>
+      </c>
+      <c r="E194" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="F194" t="n">
+        <v>94215.216</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-15625696.42435513</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="C195" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="D195" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="E195" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="F195" t="n">
+        <v>88080.1311</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-15625696.42435513</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="C196" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="D196" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="E196" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="F196" t="n">
+        <v>200</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-15625496.42435513</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="C197" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="D197" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E197" t="n">
+        <v>3.058</v>
+      </c>
+      <c r="F197" t="n">
+        <v>510</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-15624986.42435513</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>3.047</v>
+      </c>
+      <c r="C198" t="n">
+        <v>3.046</v>
+      </c>
+      <c r="D198" t="n">
+        <v>3.058</v>
+      </c>
+      <c r="E198" t="n">
+        <v>3.046</v>
+      </c>
+      <c r="F198" t="n">
+        <v>175214.4</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-15800200.82435513</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>3.046</v>
+      </c>
+      <c r="C199" t="n">
+        <v>3.046</v>
+      </c>
+      <c r="D199" t="n">
+        <v>3.046</v>
+      </c>
+      <c r="E199" t="n">
+        <v>3.046</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-15800200.82435513</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>3.058</v>
+      </c>
+      <c r="C200" t="n">
+        <v>3.058</v>
+      </c>
+      <c r="D200" t="n">
+        <v>3.058</v>
+      </c>
+      <c r="E200" t="n">
+        <v>3.058</v>
+      </c>
+      <c r="F200" t="n">
+        <v>175412.3185</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-15624788.50585513</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>3.058</v>
+      </c>
+      <c r="C201" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="D201" t="n">
+        <v>3.058</v>
+      </c>
+      <c r="E201" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="F201" t="n">
+        <v>58653.8593</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-15683442.36515513</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="C202" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="D202" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E202" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="F202" t="n">
+        <v>141746.7196</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-15683442.36515513</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="C203" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="D203" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="E203" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="F203" t="n">
+        <v>200</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-15683242.36515513</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>3.044</v>
+      </c>
+      <c r="C204" t="n">
+        <v>3.032</v>
+      </c>
+      <c r="D204" t="n">
+        <v>3.044</v>
+      </c>
+      <c r="E204" t="n">
+        <v>3.032</v>
+      </c>
+      <c r="F204" t="n">
+        <v>258000.802</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-15941243.16715513</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="C205" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="D205" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="E205" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="F205" t="n">
+        <v>500</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-15940743.16715513</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="C206" t="n">
+        <v>3.079</v>
+      </c>
+      <c r="D206" t="n">
+        <v>3.079</v>
+      </c>
+      <c r="E206" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="F206" t="n">
+        <v>602947.9693999999</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-15337795.19775513</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="C207" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="D207" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="E207" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1617.2202</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-15339412.41795513</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>3.061</v>
+      </c>
+      <c r="C208" t="n">
+        <v>3.061</v>
+      </c>
+      <c r="D208" t="n">
+        <v>3.061</v>
+      </c>
+      <c r="E208" t="n">
+        <v>3.061</v>
+      </c>
+      <c r="F208" t="n">
+        <v>59400</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-15398812.41795513</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>3.051</v>
+      </c>
+      <c r="C209" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D209" t="n">
+        <v>3.051</v>
+      </c>
+      <c r="E209" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="F209" t="n">
+        <v>178000</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-15576812.41795513</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="C210" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="D210" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="E210" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="F210" t="n">
+        <v>410</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-15576402.41795513</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>3.042</v>
+      </c>
+      <c r="C211" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D211" t="n">
+        <v>3.042</v>
+      </c>
+      <c r="E211" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="F211" t="n">
+        <v>427380.5385</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-16003782.95645513</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="C212" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="D212" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="E212" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="F212" t="n">
+        <v>177184.6511</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-16180967.60755513</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="C213" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="D213" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E213" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="F213" t="n">
+        <v>7239.1847</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-16173728.42285513</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>3.055</v>
+      </c>
+      <c r="C214" t="n">
+        <v>3.055</v>
+      </c>
+      <c r="D214" t="n">
+        <v>3.055</v>
+      </c>
+      <c r="E214" t="n">
+        <v>3.055</v>
+      </c>
+      <c r="F214" t="n">
+        <v>25927.0808</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-16147801.34205513</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="C215" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="D215" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E215" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="F215" t="n">
+        <v>4842.6713</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-16152644.01335513</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="C216" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="D216" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E216" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="F216" t="n">
+        <v>5063.7485</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-16152644.01335513</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>3.055</v>
+      </c>
+      <c r="C217" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="D217" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="E217" t="n">
+        <v>3.055</v>
+      </c>
+      <c r="F217" t="n">
+        <v>78877.6967</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-16073766.31665513</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="C218" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="D218" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="E218" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="F218" t="n">
+        <v>5304.1062</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-16073766.31665513</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>3.077</v>
+      </c>
+      <c r="C219" t="n">
+        <v>3.077</v>
+      </c>
+      <c r="D219" t="n">
+        <v>3.077</v>
+      </c>
+      <c r="E219" t="n">
+        <v>3.077</v>
+      </c>
+      <c r="F219" t="n">
+        <v>5418.483</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-16068347.83365513</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>3.077</v>
+      </c>
+      <c r="C220" t="n">
+        <v>3.077</v>
+      </c>
+      <c r="D220" t="n">
+        <v>3.077</v>
+      </c>
+      <c r="E220" t="n">
+        <v>3.077</v>
+      </c>
+      <c r="F220" t="n">
+        <v>5586.373</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-16068347.83365513</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="C221" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="D221" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="E221" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="F221" t="n">
+        <v>8940.543900000001</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-16077288.37755513</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>3.077</v>
+      </c>
+      <c r="C222" t="n">
+        <v>3.089</v>
+      </c>
+      <c r="D222" t="n">
+        <v>3.089</v>
+      </c>
+      <c r="E222" t="n">
+        <v>3.077</v>
+      </c>
+      <c r="F222" t="n">
+        <v>34223.3138</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-16043065.06375513</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>3.089</v>
+      </c>
+      <c r="C223" t="n">
+        <v>3.089</v>
+      </c>
+      <c r="D223" t="n">
+        <v>3.089</v>
+      </c>
+      <c r="E223" t="n">
+        <v>3.089</v>
+      </c>
+      <c r="F223" t="n">
+        <v>177.1889</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-16043065.06375513</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>3.092</v>
+      </c>
+      <c r="C224" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="D224" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E224" t="n">
+        <v>3.089</v>
+      </c>
+      <c r="F224" t="n">
+        <v>38919.9588</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-16004145.10495513</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>3.089</v>
+      </c>
+      <c r="C225" t="n">
+        <v>3.089</v>
+      </c>
+      <c r="D225" t="n">
+        <v>3.089</v>
+      </c>
+      <c r="E225" t="n">
+        <v>3.089</v>
+      </c>
+      <c r="F225" t="n">
+        <v>4486.841</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-16008631.94595513</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>3.085</v>
+      </c>
+      <c r="C226" t="n">
+        <v>3.085</v>
+      </c>
+      <c r="D226" t="n">
+        <v>3.085</v>
+      </c>
+      <c r="E226" t="n">
+        <v>3.077</v>
+      </c>
+      <c r="F226" t="n">
+        <v>356155.9092</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-16364787.85515513</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>3.085</v>
+      </c>
+      <c r="C227" t="n">
+        <v>3.077</v>
+      </c>
+      <c r="D227" t="n">
+        <v>3.085</v>
+      </c>
+      <c r="E227" t="n">
+        <v>3.077</v>
+      </c>
+      <c r="F227" t="n">
+        <v>77439.0068</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-16442226.86195513</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>3.077</v>
+      </c>
+      <c r="C228" t="n">
+        <v>3.077</v>
+      </c>
+      <c r="D228" t="n">
+        <v>3.077</v>
+      </c>
+      <c r="E228" t="n">
+        <v>3.077</v>
+      </c>
+      <c r="F228" t="n">
+        <v>115.6197</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-16442226.86195513</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="C229" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="D229" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="E229" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="F229" t="n">
+        <v>5764.7659</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-16447991.62785513</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>3.064</v>
+      </c>
+      <c r="C230" t="n">
+        <v>3.064</v>
+      </c>
+      <c r="D230" t="n">
+        <v>3.064</v>
+      </c>
+      <c r="E230" t="n">
+        <v>3.064</v>
+      </c>
+      <c r="F230" t="n">
+        <v>5001.85</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-16452993.47785513</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="C231" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="D231" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="E231" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="F231" t="n">
+        <v>4451.82</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-16448541.65785513</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>3.073</v>
+      </c>
+      <c r="C232" t="n">
+        <v>3.077</v>
+      </c>
+      <c r="D232" t="n">
+        <v>3.077</v>
+      </c>
+      <c r="E232" t="n">
+        <v>3.073</v>
+      </c>
+      <c r="F232" t="n">
+        <v>17721.0595</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-16430820.59835513</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>3.077</v>
+      </c>
+      <c r="C233" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="D233" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E233" t="n">
+        <v>3.077</v>
+      </c>
+      <c r="F233" t="n">
+        <v>20293.494</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-16410527.10435513</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="C234" t="n">
+        <v>3.085</v>
+      </c>
+      <c r="D234" t="n">
+        <v>3.085</v>
+      </c>
+      <c r="E234" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="F234" t="n">
+        <v>23007.4615</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-16387519.64285513</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>3.085</v>
+      </c>
+      <c r="C235" t="n">
+        <v>3.089</v>
+      </c>
+      <c r="D235" t="n">
+        <v>3.089</v>
+      </c>
+      <c r="E235" t="n">
+        <v>3.085</v>
+      </c>
+      <c r="F235" t="n">
+        <v>18004.56</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-16369515.08285513</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>3.083</v>
+      </c>
+      <c r="C236" t="n">
+        <v>3.083</v>
+      </c>
+      <c r="D236" t="n">
+        <v>3.083</v>
+      </c>
+      <c r="E236" t="n">
+        <v>3.083</v>
+      </c>
+      <c r="F236" t="n">
+        <v>7004.56</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-16376519.64285513</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>3.081</v>
+      </c>
+      <c r="C237" t="n">
+        <v>3.081</v>
+      </c>
+      <c r="D237" t="n">
+        <v>3.081</v>
+      </c>
+      <c r="E237" t="n">
+        <v>3.081</v>
+      </c>
+      <c r="F237" t="n">
+        <v>5005.85</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-16381525.49285513</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>3.086</v>
+      </c>
+      <c r="C238" t="n">
+        <v>3.086</v>
+      </c>
+      <c r="D238" t="n">
+        <v>3.086</v>
+      </c>
+      <c r="E238" t="n">
+        <v>3.086</v>
+      </c>
+      <c r="F238" t="n">
+        <v>5005.85</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-16376519.64285513</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>3.081</v>
+      </c>
+      <c r="C239" t="n">
+        <v>3.073</v>
+      </c>
+      <c r="D239" t="n">
+        <v>3.081</v>
+      </c>
+      <c r="E239" t="n">
+        <v>3.073</v>
+      </c>
+      <c r="F239" t="n">
+        <v>39094.826</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-16415614.46885513</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="C240" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="D240" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="E240" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F240" t="n">
+        <v>38572.716</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-16454187.18485513</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="C241" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="D241" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E241" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F241" t="n">
+        <v>95454.4253</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-16454187.18485513</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>3.073</v>
+      </c>
+      <c r="C242" t="n">
+        <v>3.073</v>
+      </c>
+      <c r="D242" t="n">
+        <v>3.073</v>
+      </c>
+      <c r="E242" t="n">
+        <v>3.073</v>
+      </c>
+      <c r="F242" t="n">
+        <v>101986.3753</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-16352200.80955513</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>3.079</v>
+      </c>
+      <c r="C243" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="D243" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E243" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="F243" t="n">
+        <v>134056.5668</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-16218144.24275513</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="C244" t="n">
+        <v>3.067</v>
+      </c>
+      <c r="D244" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E244" t="n">
+        <v>3.067</v>
+      </c>
+      <c r="F244" t="n">
+        <v>26684.58</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-16244828.82275513</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>3.067</v>
+      </c>
+      <c r="C245" t="n">
+        <v>3.067</v>
+      </c>
+      <c r="D245" t="n">
+        <v>3.067</v>
+      </c>
+      <c r="E245" t="n">
+        <v>3.067</v>
+      </c>
+      <c r="F245" t="n">
+        <v>97060.3759</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-16244828.82275513</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>3.079</v>
+      </c>
+      <c r="C246" t="n">
+        <v>3.079</v>
+      </c>
+      <c r="D246" t="n">
+        <v>3.079</v>
+      </c>
+      <c r="E246" t="n">
+        <v>3.079</v>
+      </c>
+      <c r="F246" t="n">
+        <v>35001.56</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-16209827.26275513</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="C247" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="D247" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="E247" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="F247" t="n">
+        <v>464490.7872</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-16674318.04995513</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>3.057</v>
+      </c>
+      <c r="C248" t="n">
+        <v>3.067</v>
+      </c>
+      <c r="D248" t="n">
+        <v>3.067</v>
+      </c>
+      <c r="E248" t="n">
+        <v>3.057</v>
+      </c>
+      <c r="F248" t="n">
+        <v>27504</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-16646814.04995513</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>3.056</v>
+      </c>
+      <c r="C249" t="n">
+        <v>3.056</v>
+      </c>
+      <c r="D249" t="n">
+        <v>3.056</v>
+      </c>
+      <c r="E249" t="n">
+        <v>3.056</v>
+      </c>
+      <c r="F249" t="n">
+        <v>9009.559999999999</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-16655823.60995513</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="C250" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="D250" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="E250" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="F250" t="n">
+        <v>65602.9892</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-16721426.59915513</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>3.076</v>
+      </c>
+      <c r="C251" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="D251" t="n">
+        <v>3.076</v>
+      </c>
+      <c r="E251" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="F251" t="n">
+        <v>20323.7</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-16701102.89915513</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>3.071</v>
+      </c>
+      <c r="C252" t="n">
+        <v>3.071</v>
+      </c>
+      <c r="D252" t="n">
+        <v>3.071</v>
+      </c>
+      <c r="E252" t="n">
+        <v>3.071</v>
+      </c>
+      <c r="F252" t="n">
+        <v>6006.56</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-16695096.33915513</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>3.063</v>
+      </c>
+      <c r="C253" t="n">
+        <v>3.062</v>
+      </c>
+      <c r="D253" t="n">
+        <v>3.063</v>
+      </c>
+      <c r="E253" t="n">
+        <v>3.062</v>
+      </c>
+      <c r="F253" t="n">
+        <v>92694.2558</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-16787790.59495513</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>3.058</v>
+      </c>
+      <c r="C254" t="n">
+        <v>3.058</v>
+      </c>
+      <c r="D254" t="n">
+        <v>3.058</v>
+      </c>
+      <c r="E254" t="n">
+        <v>3.058</v>
+      </c>
+      <c r="F254" t="n">
+        <v>121101.2592</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-16908891.85415513</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>3.057</v>
+      </c>
+      <c r="C255" t="n">
+        <v>3.057</v>
+      </c>
+      <c r="D255" t="n">
+        <v>3.057</v>
+      </c>
+      <c r="E255" t="n">
+        <v>3.057</v>
+      </c>
+      <c r="F255" t="n">
+        <v>2580.8187</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-16911472.67285513</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
+      <c r="N255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="C256" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="D256" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E256" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="F256" t="n">
+        <v>163</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-16911309.67285513</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+      <c r="N256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>3.057</v>
+      </c>
+      <c r="C257" t="n">
+        <v>3.057</v>
+      </c>
+      <c r="D257" t="n">
+        <v>3.057</v>
+      </c>
+      <c r="E257" t="n">
+        <v>3.057</v>
+      </c>
+      <c r="F257" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-16913309.67285513</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
+      <c r="N257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>3.057</v>
+      </c>
+      <c r="C258" t="n">
+        <v>3.051</v>
+      </c>
+      <c r="D258" t="n">
+        <v>3.057</v>
+      </c>
+      <c r="E258" t="n">
+        <v>3.051</v>
+      </c>
+      <c r="F258" t="n">
+        <v>23202.5973</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-16936512.27015513</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+      <c r="N258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="C259" t="n">
+        <v>3.044</v>
+      </c>
+      <c r="D259" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="E259" t="n">
+        <v>3.044</v>
+      </c>
+      <c r="F259" t="n">
+        <v>130727.8281</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-17067240.09825513</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="n">
+        <v>1</v>
+      </c>
+      <c r="N259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>3.042</v>
+      </c>
+      <c r="C260" t="n">
+        <v>3.042</v>
+      </c>
+      <c r="D260" t="n">
+        <v>3.042</v>
+      </c>
+      <c r="E260" t="n">
+        <v>3.042</v>
+      </c>
+      <c r="F260" t="n">
+        <v>9805.980299999999</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-17077046.07855513</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="n">
+        <v>1</v>
+      </c>
+      <c r="N260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="C261" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="D261" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E261" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="F261" t="n">
+        <v>903465.3605</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-17980511.43905513</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="n">
+        <v>1</v>
+      </c>
+      <c r="N261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="C262" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="D262" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="E262" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="F262" t="n">
+        <v>9815.837100000001</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-17980511.43905513</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="n">
+        <v>1</v>
+      </c>
+      <c r="N262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>3.021</v>
+      </c>
+      <c r="C263" t="n">
         <v>3.02</v>
       </c>
-      <c r="C194" t="n">
+      <c r="D263" t="n">
+        <v>3.021</v>
+      </c>
+      <c r="E263" t="n">
         <v>3.013</v>
       </c>
-      <c r="D194" t="n">
+      <c r="F263" t="n">
+        <v>648059.4692000001</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-18628570.90825513</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="n">
+        <v>1</v>
+      </c>
+      <c r="N263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
         <v>3.02</v>
       </c>
-      <c r="E194" t="n">
+      <c r="C264" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="D264" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="E264" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1014.9485</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-18628570.90825513</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="n">
+        <v>1</v>
+      </c>
+      <c r="N264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="C265" t="n">
         <v>3.013</v>
       </c>
-      <c r="F194" t="n">
+      <c r="D265" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="E265" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="F265" t="n">
         <v>332813.6322</v>
       </c>
-      <c r="G194" t="n">
+      <c r="G265" t="n">
         <v>-18961384.54045513</v>
       </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="n">
+      <c r="H265" t="n">
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
         <v>3.02</v>
       </c>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
+      <c r="M265" t="n">
+        <v>1</v>
+      </c>
+      <c r="N265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
         <v>3.02</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C266" t="n">
         <v>3.013</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D266" t="n">
         <v>3.02</v>
       </c>
-      <c r="E195" t="n">
+      <c r="E266" t="n">
         <v>3.013</v>
       </c>
-      <c r="F195" t="n">
+      <c r="F266" t="n">
         <v>33170.772</v>
       </c>
-      <c r="G195" t="n">
+      <c r="G266" t="n">
         <v>-18961384.54045513</v>
       </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="n">
+      <c r="H266" t="n">
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
         <v>3.013</v>
       </c>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
+      <c r="M266" t="n">
+        <v>1</v>
+      </c>
+      <c r="N266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
         <v>3.021</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C267" t="n">
         <v>3.006</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D267" t="n">
         <v>3.021</v>
       </c>
-      <c r="E196" t="n">
+      <c r="E267" t="n">
         <v>3.006</v>
       </c>
-      <c r="F196" t="n">
+      <c r="F267" t="n">
         <v>2214112.127</v>
       </c>
-      <c r="G196" t="n">
+      <c r="G267" t="n">
         <v>-21175496.66745513</v>
       </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="n">
+      <c r="H267" t="n">
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="n">
         <v>3.013</v>
       </c>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
+      <c r="M267" t="n">
+        <v>1</v>
+      </c>
+      <c r="N267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
         <v>3.01</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C268" t="n">
         <v>3.006</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D268" t="n">
         <v>3.01</v>
       </c>
-      <c r="E197" t="n">
+      <c r="E268" t="n">
         <v>3.006</v>
       </c>
-      <c r="F197" t="n">
+      <c r="F268" t="n">
         <v>386126.466</v>
       </c>
-      <c r="G197" t="n">
+      <c r="G268" t="n">
         <v>-21175496.66745513</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
+      <c r="M268" t="n">
+        <v>1</v>
+      </c>
+      <c r="N268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
         <v>3.009</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C269" t="n">
         <v>3.007</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D269" t="n">
         <v>3.009</v>
       </c>
-      <c r="E198" t="n">
+      <c r="E269" t="n">
         <v>3.007</v>
       </c>
-      <c r="F198" t="n">
+      <c r="F269" t="n">
         <v>1397962.1464</v>
       </c>
-      <c r="G198" t="n">
+      <c r="G269" t="n">
         <v>-19777534.52105513</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
+      <c r="M269" t="n">
+        <v>1</v>
+      </c>
+      <c r="N269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
         <v>3.008</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C270" t="n">
         <v>3.007</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D270" t="n">
         <v>3.008</v>
       </c>
-      <c r="E199" t="n">
+      <c r="E270" t="n">
         <v>3.007</v>
       </c>
-      <c r="F199" t="n">
+      <c r="F270" t="n">
         <v>486952.2165</v>
       </c>
-      <c r="G199" t="n">
+      <c r="G270" t="n">
         <v>-19777534.52105513</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
+      <c r="M270" t="n">
+        <v>1</v>
+      </c>
+      <c r="N270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
         <v>3.007</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C271" t="n">
         <v>3.004</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D271" t="n">
         <v>3.007</v>
       </c>
-      <c r="E200" t="n">
+      <c r="E271" t="n">
         <v>3.004</v>
       </c>
-      <c r="F200" t="n">
+      <c r="F271" t="n">
         <v>206946.4968</v>
       </c>
-      <c r="G200" t="n">
+      <c r="G271" t="n">
         <v>-19984481.01785513</v>
       </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="n">
-        <v>3.007</v>
-      </c>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
+      <c r="M271" t="n">
+        <v>1</v>
+      </c>
+      <c r="N271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
         <v>3.005</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C272" t="n">
         <v>3.005</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D272" t="n">
         <v>3.005</v>
       </c>
-      <c r="E201" t="n">
+      <c r="E272" t="n">
         <v>3.005</v>
       </c>
-      <c r="F201" t="n">
+      <c r="F272" t="n">
         <v>139568.8768</v>
       </c>
-      <c r="G201" t="n">
+      <c r="G272" t="n">
         <v>-19844912.14105513</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
+      <c r="M272" t="n">
+        <v>1</v>
+      </c>
+      <c r="N272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
         <v>3.03</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C273" t="n">
         <v>3.04</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D273" t="n">
         <v>3.04</v>
       </c>
-      <c r="E202" t="n">
+      <c r="E273" t="n">
         <v>3.03</v>
       </c>
-      <c r="F202" t="n">
+      <c r="F273" t="n">
         <v>1529077.2961</v>
       </c>
-      <c r="G202" t="n">
+      <c r="G273" t="n">
         <v>-18315834.84495513</v>
       </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="n">
+      <c r="H273" t="n">
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="n">
         <v>3.005</v>
       </c>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
+      <c r="M273" t="n">
+        <v>1</v>
+      </c>
+      <c r="N273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
         <v>3.041</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C274" t="n">
         <v>3.041</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D274" t="n">
         <v>3.041</v>
       </c>
-      <c r="E203" t="n">
+      <c r="E274" t="n">
         <v>3.041</v>
       </c>
-      <c r="F203" t="n">
+      <c r="F274" t="n">
         <v>522</v>
       </c>
-      <c r="G203" t="n">
+      <c r="G274" t="n">
         <v>-18315312.84495513</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
+      <c r="M274" t="n">
+        <v>1</v>
+      </c>
+      <c r="N274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
         <v>3.041</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C275" t="n">
         <v>3.041</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D275" t="n">
         <v>3.041</v>
       </c>
-      <c r="E204" t="n">
+      <c r="E275" t="n">
         <v>3.041</v>
       </c>
-      <c r="F204" t="n">
+      <c r="F275" t="n">
         <v>108246.1422</v>
       </c>
-      <c r="G204" t="n">
+      <c r="G275" t="n">
         <v>-18315312.84495513</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
+      <c r="M275" t="n">
+        <v>1</v>
+      </c>
+      <c r="N275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
         <v>3.02</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C276" t="n">
         <v>3.015</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D276" t="n">
         <v>3.02</v>
       </c>
-      <c r="E205" t="n">
+      <c r="E276" t="n">
         <v>3.015</v>
       </c>
-      <c r="F205" t="n">
+      <c r="F276" t="n">
         <v>11253.9761</v>
       </c>
-      <c r="G205" t="n">
+      <c r="G276" t="n">
         <v>-18326566.82105513</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
+      <c r="M276" t="n">
+        <v>1</v>
+      </c>
+      <c r="N276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
         <v>3.015</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C277" t="n">
         <v>3.015</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D277" t="n">
         <v>3.015</v>
       </c>
-      <c r="E206" t="n">
+      <c r="E277" t="n">
         <v>3.015</v>
       </c>
-      <c r="F206" t="n">
+      <c r="F277" t="n">
         <v>11916.2005</v>
       </c>
-      <c r="G206" t="n">
+      <c r="G277" t="n">
         <v>-18326566.82105513</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
+      <c r="M277" t="n">
+        <v>1</v>
+      </c>
+      <c r="N277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
         <v>3.041</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C278" t="n">
         <v>3.041</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D278" t="n">
         <v>3.041</v>
       </c>
-      <c r="E207" t="n">
+      <c r="E278" t="n">
         <v>3.041</v>
       </c>
-      <c r="F207" t="n">
+      <c r="F278" t="n">
         <v>500</v>
       </c>
-      <c r="G207" t="n">
+      <c r="G278" t="n">
         <v>-18326066.82105513</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="M278" t="n">
+        <v>1</v>
+      </c>
+      <c r="N278" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-21 BackTest MIX.xlsx
+++ b/BackTest/2020-01-21 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N278"/>
+  <dimension ref="A1:M278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>-7730338.780224967</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-7730338.780224967</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>-7701493.080724967</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-7666398.667924967</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>-7666398.667924967</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>-7710498.667924967</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>-7729160.421424966</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,21 @@
         <v>-8514491.744655127</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>3.031</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1777,21 @@
         <v>-8560456.621255126</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>3.029</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1816,21 @@
         <v>-8260456.621255126</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>3.027</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1857,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1894,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1931,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1968,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +2005,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2042,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2079,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2116,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2153,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2190,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2227,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2264,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2301,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2338,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2375,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2412,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2449,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2486,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2523,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2560,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2597,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2634,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2671,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2708,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2745,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2782,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2819,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2856,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2893,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2930,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2967,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +3004,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +3041,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +3078,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +3115,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +3152,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3189,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3226,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3263,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3300,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3337,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3374,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3411,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3448,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3485,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3522,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3559,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3596,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3633,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3670,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3707,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3744,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3781,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3818,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3855,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3892,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3929,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3966,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +4003,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +4040,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +4077,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +4114,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +4151,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +4188,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +4225,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +4262,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4299,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4336,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4373,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4410,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4447,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4484,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4521,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4558,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4595,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4632,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4669,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4706,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4743,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4780,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4817,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4854,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4891,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4928,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4965,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +5002,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +5039,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +5076,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +5113,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +5150,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +5187,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +5224,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +5261,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +5298,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +5335,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +5372,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5409,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5446,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5483,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5520,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5557,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5594,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5631,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5668,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5705,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5748,18 +5740,17 @@
         <v>-12241480.97855513</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5784,18 +5775,15 @@
         <v>-12241480.97855513</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5820,18 +5808,15 @@
         <v>-12180396.74855513</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5843,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5892,18 +5874,15 @@
         <v>-12226974.10985513</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5909,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5942,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5975,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6036,18 +6006,15 @@
         <v>-12545720.76225513</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +6041,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +6074,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +6107,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +6140,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +6173,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +6206,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +6239,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +6272,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +6305,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +6338,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +6371,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +6404,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +6437,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6470,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6503,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6536,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6569,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6602,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6635,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6668,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6701,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6734,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6767,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6800,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6833,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6866,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6899,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6932,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6965,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7116,18 +6996,15 @@
         <v>-15464555.60465513</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +7031,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7188,18 +7062,15 @@
         <v>-15539527.21835513</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7224,18 +7095,15 @@
         <v>-15539527.21835513</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +7130,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +7163,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +7196,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +7229,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +7262,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +7295,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +7328,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +7361,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +7394,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +7427,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7460,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7493,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7526,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7559,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7592,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7625,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7658,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7691,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7724,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7757,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7790,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8018,16 +7823,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +7856,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +7889,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8126,16 +7922,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8162,16 +7955,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8198,16 +7988,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8234,16 +8021,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8270,16 +8054,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8306,16 +8087,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8342,16 +8120,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8378,16 +8153,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8414,16 +8186,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8450,16 +8219,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8486,16 +8252,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8522,16 +8285,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8558,16 +8318,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8592,18 +8349,15 @@
         <v>-16442226.86195513</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8628,18 +8382,15 @@
         <v>-16447991.62785513</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8666,16 +8417,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8702,16 +8450,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8738,16 +8483,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8774,16 +8516,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8810,16 +8549,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8846,16 +8582,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8882,16 +8615,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8918,16 +8648,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8954,16 +8681,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8990,16 +8714,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9024,18 +8745,15 @@
         <v>-16454187.18485513</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9062,16 +8780,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9098,16 +8813,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9134,16 +8846,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9170,16 +8879,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9206,16 +8912,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9242,16 +8945,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9278,16 +8978,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9314,16 +9011,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9350,16 +9044,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9386,16 +9077,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9422,16 +9110,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9458,16 +9143,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9494,16 +9176,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9530,16 +9209,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9566,16 +9242,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9602,16 +9275,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9638,16 +9308,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9674,16 +9341,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9710,16 +9374,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9746,16 +9407,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9782,16 +9440,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9818,16 +9473,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9854,16 +9506,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9890,16 +9539,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9924,24 +9570,15 @@
         <v>-18961384.54045513</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="n">
-        <v>3.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9966,24 +9603,15 @@
         <v>-18961384.54045513</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="n">
-        <v>3.013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10008,24 +9636,15 @@
         <v>-21175496.66745513</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="n">
-        <v>3.013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10052,20 +9671,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10092,20 +9704,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10132,20 +9737,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10172,20 +9770,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10212,20 +9803,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10250,24 +9834,15 @@
         <v>-18315834.84495513</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
-      <c r="J273" t="n">
-        <v>3.005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10294,20 +9869,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10334,20 +9902,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10374,20 +9935,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10414,20 +9968,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10454,22 +10001,15 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest MIX.xlsx
+++ b/BackTest/2020-01-21 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-5841947.583924968</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-5935004.737124967</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-5935004.737124967</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-5938504.737124967</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-5939144.079424967</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-5943584.048624967</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-7497202.123924967</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-7821185.800224967</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-7817076.000224967</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-7739416.020224967</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-7730338.780224967</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-7730338.780224967</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-7701493.080724967</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-7666398.667924967</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-7666398.667924967</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-7656398.667924967</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-7710498.667924967</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-7729160.421424966</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-8486892.189155126</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1738,17 +1738,11 @@
         <v>-8514491.744655127</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3.031</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1777,17 +1771,11 @@
         <v>-8560456.621255126</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3.029</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1816,17 +1804,11 @@
         <v>-8260456.621255126</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3.027</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1859,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1892,15 +1870,11 @@
         <v>-8263456.621255126</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1929,15 +1903,11 @@
         <v>-8263456.621255126</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1970,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2003,15 +1969,11 @@
         <v>-9576409.698855126</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2040,15 +2002,11 @@
         <v>-9576409.698855126</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2081,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2118,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2155,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2192,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2229,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2299,15 +2233,11 @@
         <v>-8709859.394255126</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2336,15 +2266,11 @@
         <v>-8715735.132055126</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2373,15 +2299,11 @@
         <v>-8715735.132055126</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2410,15 +2332,11 @@
         <v>-8755985.132055126</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2447,15 +2365,11 @@
         <v>-8753985.132055126</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2484,15 +2398,11 @@
         <v>-8840275.132055126</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2521,15 +2431,11 @@
         <v>-8839775.132055126</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2558,15 +2464,11 @@
         <v>-8963597.194255127</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2599,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2632,15 +2530,11 @@
         <v>-8960893.320255125</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2673,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2710,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2747,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2780,15 +2662,11 @@
         <v>-9001423.320255125</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2821,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2858,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2895,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2932,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2969,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3006,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3043,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3080,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3117,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3154,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3191,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3228,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3265,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3298,15 +3124,11 @@
         <v>-9633424.143855125</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3339,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3372,15 +3190,11 @@
         <v>-9626294.834955126</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3413,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3450,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3524,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3561,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3594,15 +3388,11 @@
         <v>-10895583.69605513</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3635,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3668,15 +3454,11 @@
         <v>-11795007.11075513</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3705,15 +3487,11 @@
         <v>-11820008.96675513</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3742,15 +3520,11 @@
         <v>-11820008.96675513</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3779,15 +3553,11 @@
         <v>-11820008.96675513</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3816,15 +3586,11 @@
         <v>-11918008.96675513</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3853,15 +3619,11 @@
         <v>-11918008.96675513</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3890,15 +3652,11 @@
         <v>-11924649.19065513</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3931,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3964,15 +3718,11 @@
         <v>-12154451.59055513</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4005,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4042,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4079,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4116,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4153,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4190,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4227,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4264,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4301,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4338,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4375,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4412,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4449,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4486,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4523,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4560,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4597,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4634,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4671,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4708,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4745,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4782,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4819,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4856,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4893,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4930,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4967,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5004,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5041,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5078,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5115,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5152,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5189,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5226,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5263,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5300,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5337,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5374,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5411,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5448,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5485,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5522,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5559,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5596,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5633,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5670,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5707,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5740,16 +5302,14 @@
         <v>-12241480.97855513</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
       <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
@@ -5775,7 +5335,7 @@
         <v>-12241480.97855513</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5808,7 +5368,7 @@
         <v>-12180396.74855513</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5874,7 +5434,7 @@
         <v>-12226974.10985513</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6006,7 +5566,7 @@
         <v>-12545720.76225513</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6996,7 +6556,7 @@
         <v>-15464555.60465513</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7062,7 +6622,7 @@
         <v>-15539527.21835513</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7095,7 +6655,7 @@
         <v>-15539527.21835513</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -8349,7 +7909,7 @@
         <v>-16442226.86195513</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8382,7 +7942,7 @@
         <v>-16447991.62785513</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8745,7 +8305,7 @@
         <v>-16454187.18485513</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9537,10 +9097,14 @@
         <v>-18628570.90825513</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="J264" t="n">
+        <v>3.02</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
@@ -9570,11 +9134,19 @@
         <v>-18961384.54045513</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="J265" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9603,11 +9175,19 @@
         <v>-18961384.54045513</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="J266" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9636,11 +9216,19 @@
         <v>-21175496.66745513</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="J267" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9672,8 +9260,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9705,8 +9299,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9738,8 +9338,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9771,8 +9377,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9801,11 +9413,19 @@
         <v>-19844912.14105513</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>3.004</v>
+      </c>
+      <c r="J272" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9834,11 +9454,19 @@
         <v>-18315834.84495513</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="J273" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9867,11 +9495,19 @@
         <v>-18315312.84495513</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="J274" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9903,8 +9539,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9933,11 +9575,19 @@
         <v>-18326566.82105513</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>3.041</v>
+      </c>
+      <c r="J276" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9969,8 +9619,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10002,14 +9658,20 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
       <c r="M278" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest MIX.xlsx
+++ b/BackTest/2020-01-21 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-5841947.583924968</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-5935004.737124967</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-5935004.737124967</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-5938504.737124967</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-5939144.079424967</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-5943584.048624967</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-7497202.123924967</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-7821185.800224967</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-7817076.000224967</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-7739416.020224967</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-7701493.080724967</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-7666398.667924967</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-7666398.667924967</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-7656398.667924967</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-7710498.667924967</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-8486892.189155126</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-8263456.621255126</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-8263456.621255126</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-9576409.698855126</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-9576409.698855126</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-8709859.394255126</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-8715735.132055126</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-8715735.132055126</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-8755985.132055126</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-8753985.132055126</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-8840275.132055126</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-8839775.132055126</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-8963597.194255127</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-8960893.320255125</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-9001423.320255125</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-9633424.143855125</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-9626294.834955126</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-9965737.137555126</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-9965737.137555126</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-10078984.57175513</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-10895583.69605513</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-10895583.69605513</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-11795007.11075513</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-11820008.96675513</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-11820008.96675513</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-11820008.96675513</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-11918008.96675513</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-11918008.96675513</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-11924649.19065513</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-12154451.59055513</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-16043065.06375513</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-16452993.47785513</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-16448541.65785513</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-16430820.59835513</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-16410527.10435513</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9097,14 +9097,10 @@
         <v>-18628570.90825513</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="J264" t="n">
-        <v>3.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
@@ -9134,257 +9130,215 @@
         <v>-18961384.54045513</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
         <v>3.02</v>
       </c>
-      <c r="J265" t="n">
+      <c r="C266" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="D266" t="n">
         <v>3.02</v>
       </c>
-      <c r="K265" t="inlineStr">
+      <c r="E266" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="F266" t="n">
+        <v>33170.772</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-18961384.54045513</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>3.021</v>
+      </c>
+      <c r="C267" t="n">
+        <v>3.006</v>
+      </c>
+      <c r="D267" t="n">
+        <v>3.021</v>
+      </c>
+      <c r="E267" t="n">
+        <v>3.006</v>
+      </c>
+      <c r="F267" t="n">
+        <v>2214112.127</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-21175496.66745513</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="C268" t="n">
+        <v>3.006</v>
+      </c>
+      <c r="D268" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="E268" t="n">
+        <v>3.006</v>
+      </c>
+      <c r="F268" t="n">
+        <v>386126.466</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-21175496.66745513</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>3.009</v>
+      </c>
+      <c r="C269" t="n">
+        <v>3.007</v>
+      </c>
+      <c r="D269" t="n">
+        <v>3.009</v>
+      </c>
+      <c r="E269" t="n">
+        <v>3.007</v>
+      </c>
+      <c r="F269" t="n">
+        <v>1397962.1464</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-19777534.52105513</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>3.008</v>
+      </c>
+      <c r="C270" t="n">
+        <v>3.007</v>
+      </c>
+      <c r="D270" t="n">
+        <v>3.008</v>
+      </c>
+      <c r="E270" t="n">
+        <v>3.007</v>
+      </c>
+      <c r="F270" t="n">
+        <v>486952.2165</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-19777534.52105513</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>3.007</v>
+      </c>
+      <c r="C271" t="n">
+        <v>3.004</v>
+      </c>
+      <c r="D271" t="n">
+        <v>3.007</v>
+      </c>
+      <c r="E271" t="n">
+        <v>3.004</v>
+      </c>
+      <c r="F271" t="n">
+        <v>206946.4968</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-19984481.01785513</v>
+      </c>
+      <c r="H271" t="n">
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>3.007</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="C266" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="D266" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="E266" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="F266" t="n">
-        <v>33170.772</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-18961384.54045513</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="J266" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>3.021</v>
-      </c>
-      <c r="C267" t="n">
-        <v>3.006</v>
-      </c>
-      <c r="D267" t="n">
-        <v>3.021</v>
-      </c>
-      <c r="E267" t="n">
-        <v>3.006</v>
-      </c>
-      <c r="F267" t="n">
-        <v>2214112.127</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-21175496.66745513</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="J267" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="C268" t="n">
-        <v>3.006</v>
-      </c>
-      <c r="D268" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="E268" t="n">
-        <v>3.006</v>
-      </c>
-      <c r="F268" t="n">
-        <v>386126.466</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-21175496.66745513</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>3.009</v>
-      </c>
-      <c r="C269" t="n">
-        <v>3.007</v>
-      </c>
-      <c r="D269" t="n">
-        <v>3.009</v>
-      </c>
-      <c r="E269" t="n">
-        <v>3.007</v>
-      </c>
-      <c r="F269" t="n">
-        <v>1397962.1464</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-19777534.52105513</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>3.008</v>
-      </c>
-      <c r="C270" t="n">
-        <v>3.007</v>
-      </c>
-      <c r="D270" t="n">
-        <v>3.008</v>
-      </c>
-      <c r="E270" t="n">
-        <v>3.007</v>
-      </c>
-      <c r="F270" t="n">
-        <v>486952.2165</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-19777534.52105513</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>3.007</v>
-      </c>
-      <c r="C271" t="n">
-        <v>3.004</v>
-      </c>
-      <c r="D271" t="n">
-        <v>3.007</v>
-      </c>
-      <c r="E271" t="n">
-        <v>3.004</v>
-      </c>
-      <c r="F271" t="n">
-        <v>206946.4968</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-19984481.01785513</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9418,9 +9372,7 @@
       <c r="I272" t="n">
         <v>3.004</v>
       </c>
-      <c r="J272" t="n">
-        <v>3.02</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9459,9 +9411,7 @@
       <c r="I273" t="n">
         <v>3.005</v>
       </c>
-      <c r="J273" t="n">
-        <v>3.02</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9495,14 +9445,10 @@
         <v>-18315312.84495513</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="J274" t="n">
-        <v>3.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9539,9 +9485,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>3.02</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9575,14 +9519,10 @@
         <v>-18326566.82105513</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>3.041</v>
-      </c>
-      <c r="J276" t="n">
-        <v>3.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9619,9 +9559,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>3.02</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9658,9 +9596,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>3.02</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9672,6 +9608,6 @@
       <c r="M278" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest MIX.xlsx
+++ b/BackTest/2020-01-21 BackTest MIX.xlsx
@@ -3256,7 +3256,7 @@
         <v>-9965737.137555126</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-9965737.137555126</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-10078984.57175513</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-10895583.69605513</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-12241480.97855513</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-12241480.97855513</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-12180396.74855513</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-12216218.74855513</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-12226974.10985513</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-12391909.06695513</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-12388798.19725513</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-12392897.12055513</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-12545720.76225513</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-12554729.32225513</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-16043065.06375513</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-16452993.47785513</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-16448541.65785513</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-16430820.59835513</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-16410527.10435513</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9130,11 +9130,17 @@
         <v>-18961384.54045513</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>3.02</v>
+      </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9163,11 +9169,17 @@
         <v>-18961384.54045513</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>3.013</v>
+      </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9196,11 +9208,17 @@
         <v>-21175496.66745513</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>3.013</v>
+      </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9233,7 +9251,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9266,7 +9288,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9295,11 +9321,17 @@
         <v>-19777534.52105513</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>3.007</v>
+      </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9336,7 +9368,7 @@
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L271" t="n">
@@ -9445,9 +9477,11 @@
         <v>-18315312.84495513</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>3.04</v>
+      </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>

--- a/BackTest/2020-01-21 BackTest MIX.xlsx
+++ b/BackTest/2020-01-21 BackTest MIX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M278"/>
+  <dimension ref="A1:L278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2243.3742</v>
       </c>
       <c r="G2" t="n">
-        <v>-5841947.583924968</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>6000</v>
       </c>
       <c r="G3" t="n">
-        <v>-5835947.583924968</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>99057.1532</v>
       </c>
       <c r="G4" t="n">
-        <v>-5935004.737124967</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>10607.4985</v>
       </c>
       <c r="G5" t="n">
-        <v>-5935004.737124967</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>3500</v>
       </c>
       <c r="G6" t="n">
-        <v>-5938504.737124967</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>639.3423</v>
       </c>
       <c r="G7" t="n">
-        <v>-5939144.079424967</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>4439.9692</v>
       </c>
       <c r="G8" t="n">
-        <v>-5943584.048624967</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1553618.0753</v>
       </c>
       <c r="G9" t="n">
-        <v>-7497202.123924967</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>323983.6763</v>
       </c>
       <c r="G10" t="n">
-        <v>-7821185.800224967</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>4109.8</v>
       </c>
       <c r="G11" t="n">
-        <v>-7817076.000224967</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>5058.0105</v>
       </c>
       <c r="G12" t="n">
-        <v>-7817076.000224967</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>46600</v>
       </c>
       <c r="G13" t="n">
-        <v>-7770476.000224967</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>31059.98</v>
       </c>
       <c r="G14" t="n">
-        <v>-7739416.020224967</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>767.5896</v>
       </c>
       <c r="G15" t="n">
-        <v>-7739416.020224967</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>310.67</v>
       </c>
       <c r="G16" t="n">
-        <v>-7739726.690224967</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>9387.91</v>
       </c>
       <c r="G17" t="n">
-        <v>-7730338.780224967</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>0.0048</v>
       </c>
       <c r="G18" t="n">
-        <v>-7730338.780224967</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>9595.748299999999</v>
       </c>
       <c r="G19" t="n">
-        <v>-7720743.031924967</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>10253.1777</v>
       </c>
       <c r="G20" t="n">
-        <v>-7710489.854224967</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>8996.773499999999</v>
       </c>
       <c r="G21" t="n">
-        <v>-7701493.080724967</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>35094.4128</v>
       </c>
       <c r="G22" t="n">
-        <v>-7666398.667924967</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>31415.5</v>
       </c>
       <c r="G23" t="n">
-        <v>-7666398.667924967</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>10000</v>
       </c>
       <c r="G24" t="n">
-        <v>-7656398.667924967</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>54100</v>
       </c>
       <c r="G25" t="n">
-        <v>-7710498.667924967</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>18661.7535</v>
       </c>
       <c r="G26" t="n">
-        <v>-7729160.421424966</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>3500</v>
       </c>
       <c r="G27" t="n">
-        <v>-7732660.421424966</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>3039.33</v>
       </c>
       <c r="G28" t="n">
-        <v>-7735699.751424966</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>32829.01633016081</v>
       </c>
       <c r="G29" t="n">
-        <v>-7702870.735094805</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>19148.2173</v>
       </c>
       <c r="G30" t="n">
-        <v>-7722018.952394805</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>52644.7433</v>
       </c>
       <c r="G31" t="n">
-        <v>-7722018.952394805</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>24387.36266983919</v>
       </c>
       <c r="G32" t="n">
-        <v>-7697631.589724965</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>789260.5994301608</v>
       </c>
       <c r="G33" t="n">
-        <v>-8486892.189155126</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>279548.4957</v>
       </c>
       <c r="G34" t="n">
-        <v>-8486892.189155126</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>5778.3817</v>
       </c>
       <c r="G35" t="n">
-        <v>-8486892.189155126</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>52645.393</v>
       </c>
       <c r="G36" t="n">
-        <v>-8434246.796155127</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>38881.9264</v>
       </c>
       <c r="G37" t="n">
-        <v>-8473128.722555127</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>27293.7283</v>
       </c>
       <c r="G38" t="n">
-        <v>-8473128.722555127</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>179570.967</v>
       </c>
       <c r="G39" t="n">
-        <v>-8473128.722555127</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>10607.8026</v>
       </c>
       <c r="G40" t="n">
-        <v>-8483736.525155127</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>30755.2195</v>
       </c>
       <c r="G41" t="n">
-        <v>-8514491.744655127</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>45964.8766</v>
       </c>
       <c r="G42" t="n">
-        <v>-8560456.621255126</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>300000</v>
       </c>
       <c r="G43" t="n">
-        <v>-8260456.621255126</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>3000</v>
       </c>
       <c r="G44" t="n">
-        <v>-8263456.621255126</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>341294.9559</v>
       </c>
       <c r="G45" t="n">
-        <v>-8263456.621255126</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>10330</v>
       </c>
       <c r="G46" t="n">
-        <v>-8263456.621255126</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>2253.9072</v>
       </c>
       <c r="G47" t="n">
-        <v>-8263456.621255126</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>1312953.0776</v>
       </c>
       <c r="G48" t="n">
-        <v>-9576409.698855126</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>193625.0704</v>
       </c>
       <c r="G49" t="n">
-        <v>-9576409.698855126</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>1000</v>
       </c>
       <c r="G50" t="n">
-        <v>-9575409.698855126</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>491.6462</v>
       </c>
       <c r="G51" t="n">
-        <v>-9574918.052655127</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>8078.7222</v>
       </c>
       <c r="G52" t="n">
-        <v>-9566839.330455126</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>43520.0638</v>
       </c>
       <c r="G53" t="n">
-        <v>-9610359.394255126</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>500</v>
       </c>
       <c r="G54" t="n">
-        <v>-9609859.394255126</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>900000</v>
       </c>
       <c r="G55" t="n">
-        <v>-8709859.394255126</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>357565.0564</v>
       </c>
       <c r="G56" t="n">
-        <v>-8709859.394255126</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>5875.7378</v>
       </c>
       <c r="G57" t="n">
-        <v>-8715735.132055126</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>17130</v>
       </c>
       <c r="G58" t="n">
-        <v>-8715735.132055126</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>40250</v>
       </c>
       <c r="G59" t="n">
-        <v>-8755985.132055126</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>2000</v>
       </c>
       <c r="G60" t="n">
-        <v>-8753985.132055126</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>86290</v>
       </c>
       <c r="G61" t="n">
-        <v>-8840275.132055126</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>500</v>
       </c>
       <c r="G62" t="n">
-        <v>-8839775.132055126</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>123822.0622</v>
       </c>
       <c r="G63" t="n">
-        <v>-8963597.194255127</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>18983.063</v>
       </c>
       <c r="G64" t="n">
-        <v>-8982580.257255126</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>21686.937</v>
       </c>
       <c r="G65" t="n">
-        <v>-8960893.320255125</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>40530</v>
       </c>
       <c r="G66" t="n">
-        <v>-9001423.320255125</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>14276.7838</v>
       </c>
       <c r="G67" t="n">
-        <v>-9001423.320255125</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>1929.1222</v>
       </c>
       <c r="G68" t="n">
-        <v>-9001423.320255125</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>39175.9656</v>
       </c>
       <c r="G69" t="n">
-        <v>-9001423.320255125</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>26590.9006</v>
       </c>
       <c r="G70" t="n">
-        <v>-9001423.320255125</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>42345.3063</v>
       </c>
       <c r="G71" t="n">
-        <v>-8959078.013955126</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>30828.8159</v>
       </c>
       <c r="G72" t="n">
-        <v>-8989906.829855125</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>18344.834</v>
       </c>
       <c r="G73" t="n">
-        <v>-8989906.829855125</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>5205.4068</v>
       </c>
       <c r="G74" t="n">
-        <v>-8989906.829855125</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>163</v>
       </c>
       <c r="G75" t="n">
-        <v>-8989743.829855125</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>5343.2514</v>
       </c>
       <c r="G76" t="n">
-        <v>-8995087.081255125</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>94657.50900000001</v>
       </c>
       <c r="G77" t="n">
-        <v>-8995087.081255125</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>48141.4911</v>
       </c>
       <c r="G78" t="n">
-        <v>-9043228.572355125</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>48543.6894</v>
       </c>
       <c r="G79" t="n">
-        <v>-8994684.882955125</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>574139.2609</v>
       </c>
       <c r="G80" t="n">
-        <v>-9568824.143855125</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>200</v>
       </c>
       <c r="G81" t="n">
-        <v>-9568624.143855125</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>200</v>
       </c>
       <c r="G82" t="n">
-        <v>-9568424.143855125</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>65000</v>
       </c>
       <c r="G83" t="n">
-        <v>-9633424.143855125</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>40433.9621</v>
       </c>
       <c r="G84" t="n">
-        <v>-9592990.181755126</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>33304.6532</v>
       </c>
       <c r="G85" t="n">
-        <v>-9626294.834955126</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>339942.3026</v>
       </c>
       <c r="G86" t="n">
-        <v>-9966237.137555126</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>500</v>
       </c>
       <c r="G87" t="n">
-        <v>-9965737.137555126</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>2328.2851</v>
       </c>
       <c r="G88" t="n">
-        <v>-9965737.137555126</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>113247.4342</v>
       </c>
       <c r="G89" t="n">
-        <v>-10078984.57175513</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>816599.1243</v>
       </c>
       <c r="G90" t="n">
-        <v>-10895583.69605513</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>74439.6327</v>
       </c>
       <c r="G91" t="n">
-        <v>-10895583.69605513</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>900000.856</v>
       </c>
       <c r="G92" t="n">
-        <v>-11795584.55205513</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>577.4413</v>
       </c>
       <c r="G93" t="n">
-        <v>-11795007.11075513</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>25001.856</v>
       </c>
       <c r="G94" t="n">
-        <v>-11820008.96675513</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>2096.9101</v>
       </c>
       <c r="G95" t="n">
-        <v>-11820008.96675513</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>3327.3362</v>
       </c>
       <c r="G96" t="n">
-        <v>-11820008.96675513</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>98000</v>
       </c>
       <c r="G97" t="n">
-        <v>-11918008.96675513</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>163908.6624</v>
       </c>
       <c r="G98" t="n">
-        <v>-11918008.96675513</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>6640.2239</v>
       </c>
       <c r="G99" t="n">
-        <v>-11924649.19065513</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>25798.8434</v>
       </c>
       <c r="G100" t="n">
-        <v>-11950448.03405513</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>204003.5565</v>
       </c>
       <c r="G101" t="n">
-        <v>-12154451.59055513</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>9207.227999999999</v>
       </c>
       <c r="G102" t="n">
-        <v>-12154451.59055513</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>31860.196</v>
       </c>
       <c r="G103" t="n">
-        <v>-12186311.78655513</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>43193.7778</v>
       </c>
       <c r="G104" t="n">
-        <v>-12229505.56435513</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>13009.11</v>
       </c>
       <c r="G105" t="n">
-        <v>-12242514.67435513</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>12876.5904</v>
       </c>
       <c r="G106" t="n">
-        <v>-12255391.26475513</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>500</v>
       </c>
       <c r="G107" t="n">
-        <v>-12254891.26475513</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>252.0383</v>
       </c>
       <c r="G108" t="n">
-        <v>-12255143.30305513</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>129136.5216</v>
       </c>
       <c r="G109" t="n">
-        <v>-12384279.82465513</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>282153.7262</v>
       </c>
       <c r="G110" t="n">
-        <v>-12666433.55085513</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>998.7799</v>
       </c>
       <c r="G111" t="n">
-        <v>-12665434.77095513</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>11988.7201</v>
       </c>
       <c r="G112" t="n">
-        <v>-12665434.77095513</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>12980</v>
       </c>
       <c r="G113" t="n">
-        <v>-12678414.77095513</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>4415.23</v>
       </c>
       <c r="G114" t="n">
-        <v>-12678414.77095513</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>60240.8</v>
       </c>
       <c r="G115" t="n">
-        <v>-12618173.97095513</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>6680.3837</v>
       </c>
       <c r="G116" t="n">
-        <v>-12618173.97095513</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>34983.748</v>
       </c>
       <c r="G117" t="n">
-        <v>-12583190.22295513</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>66495.0854</v>
       </c>
       <c r="G118" t="n">
-        <v>-12583190.22295513</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>4597.8932</v>
       </c>
       <c r="G119" t="n">
-        <v>-12583190.22295513</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>489868.56</v>
       </c>
       <c r="G120" t="n">
-        <v>-12583190.22295513</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>115331.1761</v>
       </c>
       <c r="G121" t="n">
-        <v>-12698521.39905513</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>768969.0487</v>
       </c>
       <c r="G122" t="n">
-        <v>-11929552.35035513</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>302609.1043</v>
       </c>
       <c r="G123" t="n">
-        <v>-11626943.24605513</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>10000</v>
       </c>
       <c r="G124" t="n">
-        <v>-11616943.24605513</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>85549.12</v>
       </c>
       <c r="G125" t="n">
-        <v>-11531394.12605513</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>500</v>
       </c>
       <c r="G126" t="n">
-        <v>-11531894.12605513</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>8198.3676</v>
       </c>
       <c r="G127" t="n">
-        <v>-11540092.49365513</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>1473.0832</v>
       </c>
       <c r="G128" t="n">
-        <v>-11538619.41045513</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>197487.1924</v>
       </c>
       <c r="G129" t="n">
-        <v>-11736106.60285513</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>24131.9017</v>
       </c>
       <c r="G130" t="n">
-        <v>-11736106.60285513</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>189442.2886</v>
       </c>
       <c r="G131" t="n">
-        <v>-11925548.89145513</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>22621.9017</v>
       </c>
       <c r="G132" t="n">
-        <v>-11948170.79315513</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>5128.1253</v>
       </c>
       <c r="G133" t="n">
-        <v>-11948170.79315513</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>204078.2318</v>
       </c>
       <c r="G134" t="n">
-        <v>-11948170.79315513</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>295921.7682</v>
       </c>
       <c r="G135" t="n">
-        <v>-11948170.79315513</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>113412.6519</v>
       </c>
       <c r="G136" t="n">
-        <v>-11834758.14125513</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>89014.3738</v>
       </c>
       <c r="G137" t="n">
-        <v>-11834758.14125513</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>7320.93</v>
       </c>
       <c r="G138" t="n">
-        <v>-11827437.21125513</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>75000</v>
       </c>
       <c r="G139" t="n">
-        <v>-11902437.21125513</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>500</v>
       </c>
       <c r="G140" t="n">
-        <v>-11901937.21125513</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>900</v>
       </c>
       <c r="G141" t="n">
-        <v>-11901937.21125513</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>1101720.7912</v>
       </c>
       <c r="G142" t="n">
-        <v>-13003658.00245513</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>564031.2867000001</v>
       </c>
       <c r="G143" t="n">
-        <v>-12439626.71575513</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>0.0033</v>
       </c>
       <c r="G144" t="n">
-        <v>-12439626.71575513</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>73407.6721</v>
       </c>
       <c r="G145" t="n">
-        <v>-12366219.04365513</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>20002.965</v>
       </c>
       <c r="G146" t="n">
-        <v>-12346216.07865513</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>65165.1577</v>
       </c>
       <c r="G147" t="n">
-        <v>-12281050.92095513</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>24023.2247</v>
       </c>
       <c r="G148" t="n">
-        <v>-12257027.69625513</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>15546.7177</v>
       </c>
       <c r="G149" t="n">
-        <v>-12241480.97855513</v>
-      </c>
-      <c r="H149" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>86445.15949999999</v>
       </c>
       <c r="G150" t="n">
-        <v>-12241480.97855513</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>61084.23</v>
       </c>
       <c r="G151" t="n">
-        <v>-12180396.74855513</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>35822</v>
       </c>
       <c r="G152" t="n">
-        <v>-12216218.74855513</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>10755.3613</v>
       </c>
       <c r="G153" t="n">
-        <v>-12226974.10985513</v>
-      </c>
-      <c r="H153" t="n">
         <v>2</v>
       </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>164934.9571</v>
       </c>
       <c r="G154" t="n">
-        <v>-12391909.06695513</v>
-      </c>
-      <c r="H154" t="n">
         <v>2</v>
       </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>3110.8697</v>
       </c>
       <c r="G155" t="n">
-        <v>-12388798.19725513</v>
-      </c>
-      <c r="H155" t="n">
         <v>2</v>
       </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>4098.9233</v>
       </c>
       <c r="G156" t="n">
-        <v>-12392897.12055513</v>
-      </c>
-      <c r="H156" t="n">
         <v>2</v>
       </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>152823.6417</v>
       </c>
       <c r="G157" t="n">
-        <v>-12545720.76225513</v>
-      </c>
-      <c r="H157" t="n">
         <v>2</v>
       </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>9008.559999999999</v>
       </c>
       <c r="G158" t="n">
-        <v>-12554729.32225513</v>
-      </c>
-      <c r="H158" t="n">
         <v>2</v>
       </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>115735.4494</v>
       </c>
       <c r="G159" t="n">
-        <v>-12670464.77165513</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>10001.856</v>
       </c>
       <c r="G160" t="n">
-        <v>-12660462.91565513</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>15700</v>
       </c>
       <c r="G161" t="n">
-        <v>-12660462.91565513</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>340083.8873</v>
       </c>
       <c r="G162" t="n">
-        <v>-13000546.80295513</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>104844.386</v>
       </c>
       <c r="G163" t="n">
-        <v>-13000546.80295513</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>1203.23</v>
       </c>
       <c r="G164" t="n">
-        <v>-12999343.57295513</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>9282.798000000001</v>
       </c>
       <c r="G165" t="n">
-        <v>-13008626.37095513</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>10157.47</v>
       </c>
       <c r="G166" t="n">
-        <v>-13018783.84095513</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>19842.53</v>
       </c>
       <c r="G167" t="n">
-        <v>-13018783.84095513</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>500</v>
       </c>
       <c r="G168" t="n">
-        <v>-13018283.84095513</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>16791</v>
       </c>
       <c r="G169" t="n">
-        <v>-13035074.84095513</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>19320.8543</v>
       </c>
       <c r="G170" t="n">
-        <v>-13054395.69525513</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>488139.9261</v>
       </c>
       <c r="G171" t="n">
-        <v>-13542535.62135513</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>194067.4354</v>
       </c>
       <c r="G172" t="n">
-        <v>-13542535.62135513</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>14416.8005</v>
       </c>
       <c r="G173" t="n">
-        <v>-13528118.82085513</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>313782.5995</v>
       </c>
       <c r="G174" t="n">
-        <v>-13841901.42035513</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>174062.4581</v>
       </c>
       <c r="G175" t="n">
-        <v>-13841901.42035513</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>500</v>
       </c>
       <c r="G176" t="n">
-        <v>-13841401.42035513</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>29745.6</v>
       </c>
       <c r="G177" t="n">
-        <v>-13841401.42035513</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>397463.0578</v>
       </c>
       <c r="G178" t="n">
-        <v>-14238864.47815513</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>123010.3484</v>
       </c>
       <c r="G179" t="n">
-        <v>-14115854.12975513</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>24619.4193</v>
       </c>
       <c r="G180" t="n">
-        <v>-14115854.12975513</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>40589.576</v>
       </c>
       <c r="G181" t="n">
-        <v>-14075264.55375513</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>2198335.9303</v>
       </c>
       <c r="G182" t="n">
-        <v>-16273600.48405513</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>305281.8291</v>
       </c>
       <c r="G183" t="n">
-        <v>-15968318.65495513</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>15900</v>
       </c>
       <c r="G184" t="n">
-        <v>-15968318.65495513</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>438037.4363</v>
       </c>
       <c r="G185" t="n">
-        <v>-15530281.21865513</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>35560.734</v>
       </c>
       <c r="G186" t="n">
-        <v>-15494720.48465513</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>30164.88</v>
       </c>
       <c r="G187" t="n">
-        <v>-15464555.60465513</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>23517.9718</v>
       </c>
       <c r="G188" t="n">
-        <v>-15441037.63285513</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>98489.5855</v>
       </c>
       <c r="G189" t="n">
-        <v>-15539527.21835513</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6083,15 @@
         <v>47740.3017</v>
       </c>
       <c r="G190" t="n">
-        <v>-15539527.21835513</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6113,15 @@
         <v>126289.7863</v>
       </c>
       <c r="G191" t="n">
-        <v>-15539527.21835513</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6143,15 @@
         <v>20109.4241</v>
       </c>
       <c r="G192" t="n">
-        <v>-15539527.21835513</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6173,15 @@
         <v>8046.01</v>
       </c>
       <c r="G193" t="n">
-        <v>-15531481.20835513</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6203,15 @@
         <v>94215.216</v>
       </c>
       <c r="G194" t="n">
-        <v>-15625696.42435513</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6233,15 @@
         <v>88080.1311</v>
       </c>
       <c r="G195" t="n">
-        <v>-15625696.42435513</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6263,15 @@
         <v>200</v>
       </c>
       <c r="G196" t="n">
-        <v>-15625496.42435513</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6293,15 @@
         <v>510</v>
       </c>
       <c r="G197" t="n">
-        <v>-15624986.42435513</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6323,15 @@
         <v>175214.4</v>
       </c>
       <c r="G198" t="n">
-        <v>-15800200.82435513</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6353,15 @@
         <v>0.005</v>
       </c>
       <c r="G199" t="n">
-        <v>-15800200.82435513</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6383,15 @@
         <v>175412.3185</v>
       </c>
       <c r="G200" t="n">
-        <v>-15624788.50585513</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6413,15 @@
         <v>58653.8593</v>
       </c>
       <c r="G201" t="n">
-        <v>-15683442.36515513</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6443,15 @@
         <v>141746.7196</v>
       </c>
       <c r="G202" t="n">
-        <v>-15683442.36515513</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6473,15 @@
         <v>200</v>
       </c>
       <c r="G203" t="n">
-        <v>-15683242.36515513</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6503,15 @@
         <v>258000.802</v>
       </c>
       <c r="G204" t="n">
-        <v>-15941243.16715513</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6533,15 @@
         <v>500</v>
       </c>
       <c r="G205" t="n">
-        <v>-15940743.16715513</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6563,15 @@
         <v>602947.9693999999</v>
       </c>
       <c r="G206" t="n">
-        <v>-15337795.19775513</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6593,15 @@
         <v>1617.2202</v>
       </c>
       <c r="G207" t="n">
-        <v>-15339412.41795513</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6623,15 @@
         <v>59400</v>
       </c>
       <c r="G208" t="n">
-        <v>-15398812.41795513</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6653,15 @@
         <v>178000</v>
       </c>
       <c r="G209" t="n">
-        <v>-15576812.41795513</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6683,15 @@
         <v>410</v>
       </c>
       <c r="G210" t="n">
-        <v>-15576402.41795513</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6713,15 @@
         <v>427380.5385</v>
       </c>
       <c r="G211" t="n">
-        <v>-16003782.95645513</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6743,15 @@
         <v>177184.6511</v>
       </c>
       <c r="G212" t="n">
-        <v>-16180967.60755513</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6773,15 @@
         <v>7239.1847</v>
       </c>
       <c r="G213" t="n">
-        <v>-16173728.42285513</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6803,15 @@
         <v>25927.0808</v>
       </c>
       <c r="G214" t="n">
-        <v>-16147801.34205513</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6833,15 @@
         <v>4842.6713</v>
       </c>
       <c r="G215" t="n">
-        <v>-16152644.01335513</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6863,15 @@
         <v>5063.7485</v>
       </c>
       <c r="G216" t="n">
-        <v>-16152644.01335513</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6893,15 @@
         <v>78877.6967</v>
       </c>
       <c r="G217" t="n">
-        <v>-16073766.31665513</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6923,15 @@
         <v>5304.1062</v>
       </c>
       <c r="G218" t="n">
-        <v>-16073766.31665513</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +6953,15 @@
         <v>5418.483</v>
       </c>
       <c r="G219" t="n">
-        <v>-16068347.83365513</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +6983,15 @@
         <v>5586.373</v>
       </c>
       <c r="G220" t="n">
-        <v>-16068347.83365513</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7013,15 @@
         <v>8940.543900000001</v>
       </c>
       <c r="G221" t="n">
-        <v>-16077288.37755513</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7043,15 @@
         <v>34223.3138</v>
       </c>
       <c r="G222" t="n">
-        <v>-16043065.06375513</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7073,15 @@
         <v>177.1889</v>
       </c>
       <c r="G223" t="n">
-        <v>-16043065.06375513</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7103,15 @@
         <v>38919.9588</v>
       </c>
       <c r="G224" t="n">
-        <v>-16004145.10495513</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7133,15 @@
         <v>4486.841</v>
       </c>
       <c r="G225" t="n">
-        <v>-16008631.94595513</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7163,15 @@
         <v>356155.9092</v>
       </c>
       <c r="G226" t="n">
-        <v>-16364787.85515513</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7193,15 @@
         <v>77439.0068</v>
       </c>
       <c r="G227" t="n">
-        <v>-16442226.86195513</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7223,15 @@
         <v>115.6197</v>
       </c>
       <c r="G228" t="n">
-        <v>-16442226.86195513</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7253,15 @@
         <v>5764.7659</v>
       </c>
       <c r="G229" t="n">
-        <v>-16447991.62785513</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7283,15 @@
         <v>5001.85</v>
       </c>
       <c r="G230" t="n">
-        <v>-16452993.47785513</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7313,15 @@
         <v>4451.82</v>
       </c>
       <c r="G231" t="n">
-        <v>-16448541.65785513</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7343,15 @@
         <v>17721.0595</v>
       </c>
       <c r="G232" t="n">
-        <v>-16430820.59835513</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7373,15 @@
         <v>20293.494</v>
       </c>
       <c r="G233" t="n">
-        <v>-16410527.10435513</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7403,15 @@
         <v>23007.4615</v>
       </c>
       <c r="G234" t="n">
-        <v>-16387519.64285513</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7433,15 @@
         <v>18004.56</v>
       </c>
       <c r="G235" t="n">
-        <v>-16369515.08285513</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7463,15 @@
         <v>7004.56</v>
       </c>
       <c r="G236" t="n">
-        <v>-16376519.64285513</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7493,15 @@
         <v>5005.85</v>
       </c>
       <c r="G237" t="n">
-        <v>-16381525.49285513</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7523,15 @@
         <v>5005.85</v>
       </c>
       <c r="G238" t="n">
-        <v>-16376519.64285513</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7553,15 @@
         <v>39094.826</v>
       </c>
       <c r="G239" t="n">
-        <v>-16415614.46885513</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +7583,15 @@
         <v>38572.716</v>
       </c>
       <c r="G240" t="n">
-        <v>-16454187.18485513</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +7613,15 @@
         <v>95454.4253</v>
       </c>
       <c r="G241" t="n">
-        <v>-16454187.18485513</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +7643,15 @@
         <v>101986.3753</v>
       </c>
       <c r="G242" t="n">
-        <v>-16352200.80955513</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +7673,15 @@
         <v>134056.5668</v>
       </c>
       <c r="G243" t="n">
-        <v>-16218144.24275513</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +7703,15 @@
         <v>26684.58</v>
       </c>
       <c r="G244" t="n">
-        <v>-16244828.82275513</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +7733,15 @@
         <v>97060.3759</v>
       </c>
       <c r="G245" t="n">
-        <v>-16244828.82275513</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +7763,15 @@
         <v>35001.56</v>
       </c>
       <c r="G246" t="n">
-        <v>-16209827.26275513</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +7793,15 @@
         <v>464490.7872</v>
       </c>
       <c r="G247" t="n">
-        <v>-16674318.04995513</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +7823,15 @@
         <v>27504</v>
       </c>
       <c r="G248" t="n">
-        <v>-16646814.04995513</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +7853,15 @@
         <v>9009.559999999999</v>
       </c>
       <c r="G249" t="n">
-        <v>-16655823.60995513</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +7883,15 @@
         <v>65602.9892</v>
       </c>
       <c r="G250" t="n">
-        <v>-16721426.59915513</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +7913,15 @@
         <v>20323.7</v>
       </c>
       <c r="G251" t="n">
-        <v>-16701102.89915513</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +7943,15 @@
         <v>6006.56</v>
       </c>
       <c r="G252" t="n">
-        <v>-16695096.33915513</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +7973,15 @@
         <v>92694.2558</v>
       </c>
       <c r="G253" t="n">
-        <v>-16787790.59495513</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +8003,15 @@
         <v>121101.2592</v>
       </c>
       <c r="G254" t="n">
-        <v>-16908891.85415513</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +8033,15 @@
         <v>2580.8187</v>
       </c>
       <c r="G255" t="n">
-        <v>-16911472.67285513</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,18 +8063,15 @@
         <v>163</v>
       </c>
       <c r="G256" t="n">
-        <v>-16911309.67285513</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8863,18 +8093,15 @@
         <v>2000</v>
       </c>
       <c r="G257" t="n">
-        <v>-16913309.67285513</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8896,18 +8123,15 @@
         <v>23202.5973</v>
       </c>
       <c r="G258" t="n">
-        <v>-16936512.27015513</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8929,18 +8153,15 @@
         <v>130727.8281</v>
       </c>
       <c r="G259" t="n">
-        <v>-17067240.09825513</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8962,18 +8183,15 @@
         <v>9805.980299999999</v>
       </c>
       <c r="G260" t="n">
-        <v>-17077046.07855513</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8995,18 +8213,15 @@
         <v>903465.3605</v>
       </c>
       <c r="G261" t="n">
-        <v>-17980511.43905513</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9028,18 +8243,15 @@
         <v>9815.837100000001</v>
       </c>
       <c r="G262" t="n">
-        <v>-17980511.43905513</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9061,18 +8273,15 @@
         <v>648059.4692000001</v>
       </c>
       <c r="G263" t="n">
-        <v>-18628570.90825513</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9094,18 +8303,15 @@
         <v>1014.9485</v>
       </c>
       <c r="G264" t="n">
-        <v>-18628570.90825513</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9127,24 +8333,15 @@
         <v>332813.6322</v>
       </c>
       <c r="G265" t="n">
-        <v>-18961384.54045513</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>3.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9166,24 +8363,15 @@
         <v>33170.772</v>
       </c>
       <c r="G266" t="n">
-        <v>-18961384.54045513</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>3.013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9205,24 +8393,15 @@
         <v>2214112.127</v>
       </c>
       <c r="G267" t="n">
-        <v>-21175496.66745513</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>3.013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9244,22 +8423,15 @@
         <v>386126.466</v>
       </c>
       <c r="G268" t="n">
-        <v>-21175496.66745513</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9281,22 +8453,15 @@
         <v>1397962.1464</v>
       </c>
       <c r="G269" t="n">
-        <v>-19777534.52105513</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9318,24 +8483,15 @@
         <v>486952.2165</v>
       </c>
       <c r="G270" t="n">
-        <v>-19777534.52105513</v>
-      </c>
-      <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>3.007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9357,24 +8513,15 @@
         <v>206946.4968</v>
       </c>
       <c r="G271" t="n">
-        <v>-19984481.01785513</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>3.007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9396,24 +8543,15 @@
         <v>139568.8768</v>
       </c>
       <c r="G272" t="n">
-        <v>-19844912.14105513</v>
-      </c>
-      <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>3.004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9435,24 +8573,19 @@
         <v>1529077.2961</v>
       </c>
       <c r="G273" t="n">
-        <v>-18315834.84495513</v>
+        <v>1</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>3.005</v>
       </c>
       <c r="I273" t="n">
         <v>3.005</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9474,24 +8607,21 @@
         <v>522</v>
       </c>
       <c r="G274" t="n">
-        <v>-18315312.84495513</v>
-      </c>
-      <c r="H274" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
+        <v>3.005</v>
+      </c>
+      <c r="J274" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9513,22 +8643,21 @@
         <v>108246.1422</v>
       </c>
       <c r="G275" t="n">
-        <v>-18315312.84495513</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="J275" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9550,22 +8679,15 @@
         <v>11253.9761</v>
       </c>
       <c r="G276" t="n">
-        <v>-18326566.82105513</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9587,22 +8709,15 @@
         <v>11916.2005</v>
       </c>
       <c r="G277" t="n">
-        <v>-18326566.82105513</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9624,22 +8739,15 @@
         <v>500</v>
       </c>
       <c r="G278" t="n">
-        <v>-18326066.82105513</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
